--- a/docs/鍵盤設計規格_河洛注音.xlsx
+++ b/docs/鍵盤設計規格_河洛注音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D45FE42-62A7-4E8B-A9E9-191B75A843E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB84FE6-F14E-427E-87FC-FCAA6113F2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="9" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="935">
   <si>
     <t>2 @</t>
   </si>
@@ -2536,6 +2536,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄉㄊㄌㄍㄎ</t>
     </r>
@@ -2552,6 +2553,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄗㄘ</t>
     </r>
@@ -2568,6 +2570,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄙㄏㄧㄨㄚ</t>
     </r>
@@ -2584,6 +2587,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄜ</t>
     </r>
@@ -2600,6 +2604,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄞㄠ</t>
     </r>
@@ -2616,6 +2621,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄣ</t>
     </r>
@@ -3406,6 +3412,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>n</t>
     </r>
@@ -3435,6 +3442,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3456,6 +3464,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3477,6 +3486,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3521,6 +3531,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3645,6 +3656,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3711,6 +3723,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3732,6 +3745,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3753,6 +3767,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3774,6 +3789,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3795,6 +3811,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3824,6 +3841,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3845,6 +3863,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3866,6 +3885,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -4431,7 +4451,7 @@
     <numFmt numFmtId="178" formatCode="General;;"/>
     <numFmt numFmtId="179" formatCode="General;;\(&quot;空&quot;&quot;白&quot;&quot;字&quot;&quot;元&quot;\)"/>
   </numFmts>
-  <fonts count="205">
+  <fonts count="206">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -4463,12 +4483,14 @@
     <font>
       <sz val="20"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -4525,6 +4547,7 @@
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -4760,6 +4783,7 @@
       <sz val="18"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -4964,6 +4988,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5017,6 +5042,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5028,6 +5054,7 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5040,6 +5067,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5052,6 +5080,7 @@
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5133,6 +5162,7 @@
       <sz val="12"/>
       <color theme="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5208,6 +5238,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5363,6 +5394,7 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5448,6 +5480,7 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5739,6 +5772,13 @@
       <b/>
       <sz val="24"/>
       <color theme="8" tint="-0.249977111117893"/>
+      <name val="Iansui 094"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="Iansui 094"/>
       <family val="3"/>
       <charset val="136"/>
@@ -6232,7 +6272,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="121" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="515">
+  <cellXfs count="511">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7242,71 +7282,140 @@
     <xf numFmtId="0" fontId="180" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="185" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="184" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="112" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="167" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="167" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="167" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="198" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="179" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="202" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7428,6 +7537,81 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7506,173 +7690,15 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="184" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="198" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="198" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="198" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="198" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="179" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="202" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="203" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="204" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="203" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="203" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7683,31 +7709,6 @@
     <cellStyle name="一般 4" xfId="4" xr:uid="{EEC31A27-66EA-4D5E-A3E5-D3011515E366}"/>
   </cellStyles>
   <dxfs count="45">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Noto Serif TC Medium"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFDE9D9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8530,6 +8531,31 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Noto Serif TC Medium"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFDE9D9"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -9892,32 +9918,32 @@
   <autoFilter ref="BA8:BE58" xr:uid="{3B0A2C71-8D94-4593-BB80-02894E7265FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D9F72C05-D20D-4E41-8CD2-D47EAAAB5061}" name="序號" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{76A9377C-B27C-473A-9EE0-1A8D4D0670E7}" name="按鍵字元" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{8FDE1FB4-060C-4E19-B8BF-5C3C23E94F36}" name="注音符號" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{B077E65C-C950-4D47-87A9-DCEDC0F350CF}" name="拼音字母" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{D04A69C4-37A4-4EBC-9A00-BFE435BF9DCB}" name="字典編碼" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{76A9377C-B27C-473A-9EE0-1A8D4D0670E7}" name="按鍵字元" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{8FDE1FB4-060C-4E19-B8BF-5C3C23E94F36}" name="注音符號" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{B077E65C-C950-4D47-87A9-DCEDC0F350CF}" name="拼音字母" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{D04A69C4-37A4-4EBC-9A00-BFE435BF9DCB}" name="字典編碼" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0A5C304E-9DC7-45E4-A86D-357CDF792B2C}" name="表格1_33710" displayName="表格1_33710" ref="T2:W57" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0A5C304E-9DC7-45E4-A86D-357CDF792B2C}" name="表格1_33710" displayName="表格1_33710" ref="T2:W57" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="T2:W57" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T3:W56">
     <sortCondition ref="T3:T56" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{502CCAC3-68DF-4019-8D61-0F9887DBB31C}" name="鍵盤位置" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{502CCAC3-68DF-4019-8D61-0F9887DBB31C}" name="鍵盤位置" dataDxfId="36">
       <calculatedColumnFormula>I3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAE708E8-CF5B-4D0B-8DF5-70B9AD52CA64}" name="字典編碼" dataDxfId="36" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{BAE708E8-CF5B-4D0B-8DF5-70B9AD52CA64}" name="字典編碼" dataDxfId="35" dataCellStyle="一般 4">
       <calculatedColumnFormula>H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{70BCF08F-E52C-4F2F-8F88-D7EDA4AC0303}" name="拼音字母" dataDxfId="35" dataCellStyle="一般 4">
+    <tableColumn id="3" xr3:uid="{70BCF08F-E52C-4F2F-8F88-D7EDA4AC0303}" name="拼音字母" dataDxfId="34" dataCellStyle="一般 4">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($Z$3:$Z$44, MATCH(表格1_33710[[#This Row],[方音符號]], $Y$3:$Y$44, 0)), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BE913433-5262-43B7-B46E-1156403EB33B}" name="方音符號" dataDxfId="34">
+    <tableColumn id="2" xr3:uid="{BE913433-5262-43B7-B46E-1156403EB33B}" name="方音符號" dataDxfId="33">
       <calculatedColumnFormula xml:space="preserve"> INDEX($M$3:$M$57, MATCH(表格1_33710[[#This Row],[鍵盤位置]], $L$3:$L$57,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9926,35 +9952,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{361CCB10-BA4B-4D7B-8613-7B8B08C99187}" name="表格7_9" displayName="表格7_9" ref="AV8:AZ58" totalsRowShown="0" headerRowBorderDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{361CCB10-BA4B-4D7B-8613-7B8B08C99187}" name="表格7_9" displayName="表格7_9" ref="AV8:AZ58" totalsRowShown="0" headerRowBorderDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="AV8:AZ58" xr:uid="{3B0A2C71-8D94-4593-BB80-02894E7265FE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{71FDF87D-76C3-4355-BDAB-D340D8A9EEA4}" name="序號" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{71FDF87D-76C3-4355-BDAB-D340D8A9EEA4}" name="序號" dataDxfId="30">
       <calculatedColumnFormula array="1" xml:space="preserve"> ROW() - ROW($8:$8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9E4EDD55-425F-4D8F-B5B2-0E121FF194D3}" name="鍵盤按鍵" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{E2222704-3459-404D-83E7-C2590CA4EA13}" name="字典編碼" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{4739495F-D1EF-4573-A6B6-21C6ED436B59}" name="拼音字母" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{EEEEE2DE-12A7-40C0-B8C6-A9DE8229567C}" name="注音符號" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{9E4EDD55-425F-4D8F-B5B2-0E121FF194D3}" name="鍵盤按鍵" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{E2222704-3459-404D-83E7-C2590CA4EA13}" name="字典編碼" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{4739495F-D1EF-4573-A6B6-21C6ED436B59}" name="拼音字母" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{EEEEE2DE-12A7-40C0-B8C6-A9DE8229567C}" name="注音符號" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CD66BA2C-F5E2-4253-93AC-D75CE4CD8FFD}" name="表格1_337" displayName="表格1_337" ref="R2:T57" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CD66BA2C-F5E2-4253-93AC-D75CE4CD8FFD}" name="表格1_337" displayName="表格1_337" ref="R2:T57" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="R2:T57" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T56">
     <sortCondition ref="R3:R56" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4B5B4591-2B5E-4098-BAB0-DB68D5AD9184}" name="鍵盤位置" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{4B5B4591-2B5E-4098-BAB0-DB68D5AD9184}" name="鍵盤位置" dataDxfId="24">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8C167905-9D73-4909-8712-255BECFAE41E}" name="字典編碼" dataDxfId="24" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{8C167905-9D73-4909-8712-255BECFAE41E}" name="字典編碼" dataDxfId="23" dataCellStyle="一般 4">
       <calculatedColumnFormula>F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2B39C045-95F3-4942-B538-2A6427E8FFDE}" name="方音符號" dataDxfId="23">
+    <tableColumn id="2" xr3:uid="{2B39C045-95F3-4942-B538-2A6427E8FFDE}" name="方音符號" dataDxfId="22">
       <calculatedColumnFormula xml:space="preserve"> INDEX($K$3:$K$57, MATCH(表格1_337[[#This Row],[鍵盤位置]], $J$3:$J$57,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9963,19 +9989,19 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C959FCF-9C95-4231-83C0-482928301036}" name="表格1_334" displayName="表格1_334" ref="R2:T44" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C959FCF-9C95-4231-83C0-482928301036}" name="表格1_334" displayName="表格1_334" ref="R2:T44" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="R2:T44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T44">
     <sortCondition ref="R3:R44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EA38850C-01C2-4304-8447-B29C26276ED8}" name="鍵盤按鍵" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{EA38850C-01C2-4304-8447-B29C26276ED8}" name="鍵盤按鍵" dataDxfId="20">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4ECEBB4D-55DC-4D4B-9996-AEA5734CF4E0}" name="字典編碼" dataDxfId="20" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{4ECEBB4D-55DC-4D4B-9996-AEA5734CF4E0}" name="字典編碼" dataDxfId="19" dataCellStyle="一般 4">
       <calculatedColumnFormula>F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DE6DDD52-3A19-4642-8167-79627FC56DE7}" name="方音符號" dataDxfId="19">
+    <tableColumn id="2" xr3:uid="{DE6DDD52-3A19-4642-8167-79627FC56DE7}" name="方音符號" dataDxfId="18">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9984,15 +10010,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D158DAF-25D4-4568-A508-EE11C04B2A42}" name="表格1_33" displayName="表格1_33" ref="R2:T44" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D158DAF-25D4-4568-A508-EE11C04B2A42}" name="表格1_33" displayName="表格1_33" ref="R2:T44" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="R2:T44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T44">
     <sortCondition ref="R3:R44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3B73500C-76A1-44B0-B58B-77DFAEAD05BE}" name="鍵盤位置" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{64D6493B-BE28-4D5C-8028-F0E91296CD5E}" name="字典編碼" dataDxfId="16" dataCellStyle="一般 4"/>
-    <tableColumn id="2" xr3:uid="{1165FEF4-C5CE-495D-B4D7-2C4D25F7136A}" name="方音符號" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{3B73500C-76A1-44B0-B58B-77DFAEAD05BE}" name="鍵盤位置" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{64D6493B-BE28-4D5C-8028-F0E91296CD5E}" name="字典編碼" dataDxfId="15" dataCellStyle="一般 4"/>
+    <tableColumn id="2" xr3:uid="{1165FEF4-C5CE-495D-B4D7-2C4D25F7136A}" name="方音符號" dataDxfId="14">
       <calculatedColumnFormula xml:space="preserve"> INDEX($K$3:$K$44, MATCH(表格1_33[[#This Row],[鍵盤位置]], $J$3:$J$44,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10001,19 +10027,19 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0277D331-C73A-444C-956E-FEF9D2B9E58B}" name="表格1_3345" displayName="表格1_3345" ref="R2:T44" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0277D331-C73A-444C-956E-FEF9D2B9E58B}" name="表格1_3345" displayName="表格1_3345" ref="R2:T44" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="R2:T44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T44">
     <sortCondition ref="R3:R44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0CB4C971-45FE-4EF1-8E93-03D0BAFFA9AB}" name="鍵盤按鍵" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{0CB4C971-45FE-4EF1-8E93-03D0BAFFA9AB}" name="鍵盤按鍵" dataDxfId="12">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{730A345D-24E2-4C76-943A-E64802DD029D}" name="字典編碼" dataDxfId="12" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{730A345D-24E2-4C76-943A-E64802DD029D}" name="字典編碼" dataDxfId="11" dataCellStyle="一般 4">
       <calculatedColumnFormula>F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4C3C4DD4-6C51-4A0A-99B3-DF9F0D69AF51}" name="方音符號" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{4C3C4DD4-6C51-4A0A-99B3-DF9F0D69AF51}" name="方音符號" dataDxfId="10">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10022,19 +10048,19 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8844962C-5D0E-444F-9FD4-0D1C96DDD3D3}" name="表格1_3346" displayName="表格1_3346" ref="R2:T44" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8844962C-5D0E-444F-9FD4-0D1C96DDD3D3}" name="表格1_3346" displayName="表格1_3346" ref="R2:T44" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="R2:T44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T44">
     <sortCondition ref="R3:R44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BE7FD06B-DCFC-46E4-8A28-5AD4B50A27F3}" name="鍵盤按鍵" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{BE7FD06B-DCFC-46E4-8A28-5AD4B50A27F3}" name="鍵盤按鍵" dataDxfId="8">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4C7CA1F3-D1C3-4190-B4EE-3AD155DB8473}" name="字典編碼" dataDxfId="8" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{4C7CA1F3-D1C3-4190-B4EE-3AD155DB8473}" name="字典編碼" dataDxfId="7" dataCellStyle="一般 4">
       <calculatedColumnFormula>F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{20E99A91-482C-42A3-B3DD-B03AF39ACBB1}" name="方音符號" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{20E99A91-482C-42A3-B3DD-B03AF39ACBB1}" name="方音符號" dataDxfId="6">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10043,17 +10069,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28456E6C-4285-4B6F-9853-AAC05DB79DF7}" name="表格1_3" displayName="表格1_3" ref="W2:AA47" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28456E6C-4285-4B6F-9853-AAC05DB79DF7}" name="表格1_3" displayName="表格1_3" ref="W2:AA47" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="W2:AA47" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W3:AA47">
     <sortCondition ref="W3:W47" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C7CC57E6-DD0D-4C69-8097-C90E6E1A0323}" name="鍵盤位置" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{63964A11-33C3-4775-A61B-A34CA9D7D33B}" name="方音符號" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F5A33025-421F-49C0-AF9F-4A9A0D4562CC}" name="拼音字母" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{D331036C-A530-49C9-BE79-22670ABE9163}" name="按鍵編碼" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{3CD879B3-0434-4959-B532-198774D28491}" name="國際音標" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C7CC57E6-DD0D-4C69-8097-C90E6E1A0323}" name="鍵盤位置" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{63964A11-33C3-4775-A61B-A34CA9D7D33B}" name="方音符號" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F5A33025-421F-49C0-AF9F-4A9A0D4562CC}" name="拼音字母" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D331036C-A530-49C9-BE79-22670ABE9163}" name="按鍵編碼" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3CD879B3-0434-4959-B532-198774D28491}" name="國際音標" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10372,61 +10398,61 @@
   <sheetData>
     <row r="1" spans="2:44" ht="15" thickBot="1"/>
     <row r="2" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="399">
+      <c r="C2" s="422">
         <v>1</v>
       </c>
-      <c r="D2" s="400"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="399">
+      <c r="D2" s="423"/>
+      <c r="E2" s="424"/>
+      <c r="F2" s="422">
         <v>2</v>
       </c>
-      <c r="G2" s="400"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="423">
+      <c r="G2" s="423"/>
+      <c r="H2" s="424"/>
+      <c r="I2" s="446">
         <v>3</v>
       </c>
-      <c r="J2" s="424"/>
-      <c r="K2" s="425"/>
-      <c r="L2" s="423">
+      <c r="J2" s="447"/>
+      <c r="K2" s="448"/>
+      <c r="L2" s="446">
         <v>4</v>
       </c>
-      <c r="M2" s="424"/>
-      <c r="N2" s="425"/>
-      <c r="O2" s="423">
+      <c r="M2" s="447"/>
+      <c r="N2" s="448"/>
+      <c r="O2" s="446">
         <v>5</v>
       </c>
-      <c r="P2" s="424"/>
-      <c r="Q2" s="425"/>
-      <c r="R2" s="423">
+      <c r="P2" s="447"/>
+      <c r="Q2" s="448"/>
+      <c r="R2" s="446">
         <v>6</v>
       </c>
-      <c r="S2" s="424"/>
-      <c r="T2" s="425"/>
-      <c r="U2" s="423">
+      <c r="S2" s="447"/>
+      <c r="T2" s="448"/>
+      <c r="U2" s="446">
         <v>7</v>
       </c>
-      <c r="V2" s="424"/>
-      <c r="W2" s="425"/>
-      <c r="X2" s="402">
+      <c r="V2" s="447"/>
+      <c r="W2" s="448"/>
+      <c r="X2" s="425">
         <v>8</v>
       </c>
-      <c r="Y2" s="403"/>
-      <c r="Z2" s="404"/>
-      <c r="AA2" s="402">
+      <c r="Y2" s="426"/>
+      <c r="Z2" s="427"/>
+      <c r="AA2" s="425">
         <v>9</v>
       </c>
-      <c r="AB2" s="403"/>
-      <c r="AC2" s="404"/>
-      <c r="AD2" s="402">
+      <c r="AB2" s="426"/>
+      <c r="AC2" s="427"/>
+      <c r="AD2" s="425">
         <v>0</v>
       </c>
-      <c r="AE2" s="403"/>
-      <c r="AF2" s="404"/>
-      <c r="AG2" s="427" t="s">
+      <c r="AE2" s="426"/>
+      <c r="AF2" s="427"/>
+      <c r="AG2" s="450" t="s">
         <v>451</v>
       </c>
-      <c r="AH2" s="403"/>
-      <c r="AI2" s="404"/>
+      <c r="AH2" s="426"/>
+      <c r="AI2" s="427"/>
       <c r="AJ2" s="142"/>
       <c r="AK2" s="142"/>
       <c r="AL2" s="142"/>
@@ -10435,56 +10461,56 @@
       </c>
     </row>
     <row r="3" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="C3" s="396" t="str">
+      <c r="C3" s="419" t="str">
         <f>D14</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="397"/>
-      <c r="E3" s="398"/>
-      <c r="F3" s="396" t="str">
+      <c r="D3" s="420"/>
+      <c r="E3" s="421"/>
+      <c r="F3" s="419" t="str">
         <f>H14</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="397"/>
-      <c r="H3" s="398"/>
-      <c r="I3" s="420" t="s">
+      <c r="G3" s="420"/>
+      <c r="H3" s="421"/>
+      <c r="I3" s="443" t="s">
         <v>449</v>
       </c>
-      <c r="J3" s="421"/>
-      <c r="K3" s="422"/>
-      <c r="L3" s="420" t="s">
+      <c r="J3" s="444"/>
+      <c r="K3" s="445"/>
+      <c r="L3" s="443" t="s">
         <v>448</v>
       </c>
-      <c r="M3" s="421"/>
-      <c r="N3" s="422"/>
-      <c r="O3" s="420"/>
-      <c r="P3" s="421"/>
-      <c r="Q3" s="422"/>
-      <c r="R3" s="417" t="s">
+      <c r="M3" s="444"/>
+      <c r="N3" s="445"/>
+      <c r="O3" s="443"/>
+      <c r="P3" s="444"/>
+      <c r="Q3" s="445"/>
+      <c r="R3" s="440" t="s">
         <v>447</v>
       </c>
-      <c r="S3" s="418"/>
-      <c r="T3" s="419"/>
-      <c r="U3" s="420" t="s">
+      <c r="S3" s="441"/>
+      <c r="T3" s="442"/>
+      <c r="U3" s="443" t="s">
         <v>446</v>
       </c>
-      <c r="V3" s="421"/>
-      <c r="W3" s="422"/>
-      <c r="X3" s="413" t="str">
+      <c r="V3" s="444"/>
+      <c r="W3" s="445"/>
+      <c r="X3" s="436" t="str">
         <f>D20</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="414"/>
-      <c r="Z3" s="415"/>
-      <c r="AA3" s="413"/>
-      <c r="AB3" s="414"/>
-      <c r="AC3" s="415"/>
-      <c r="AD3" s="413"/>
-      <c r="AE3" s="414"/>
-      <c r="AF3" s="415"/>
-      <c r="AG3" s="428"/>
-      <c r="AH3" s="429"/>
-      <c r="AI3" s="430"/>
+      <c r="Y3" s="437"/>
+      <c r="Z3" s="438"/>
+      <c r="AA3" s="436"/>
+      <c r="AB3" s="437"/>
+      <c r="AC3" s="438"/>
+      <c r="AD3" s="436"/>
+      <c r="AE3" s="437"/>
+      <c r="AF3" s="438"/>
+      <c r="AG3" s="451"/>
+      <c r="AH3" s="452"/>
+      <c r="AI3" s="453"/>
       <c r="AQ3" s="156" t="s">
         <v>445</v>
       </c>
@@ -10493,115 +10519,115 @@
       </c>
     </row>
     <row r="4" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="399" t="s">
+      <c r="D4" s="422" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="400"/>
-      <c r="F4" s="401"/>
-      <c r="G4" s="399" t="s">
+      <c r="E4" s="423"/>
+      <c r="F4" s="424"/>
+      <c r="G4" s="422" t="s">
         <v>379</v>
       </c>
-      <c r="H4" s="400"/>
-      <c r="I4" s="401"/>
-      <c r="J4" s="399" t="s">
+      <c r="H4" s="423"/>
+      <c r="I4" s="424"/>
+      <c r="J4" s="422" t="s">
         <v>443</v>
       </c>
-      <c r="K4" s="400"/>
-      <c r="L4" s="401"/>
-      <c r="M4" s="399" t="s">
+      <c r="K4" s="423"/>
+      <c r="L4" s="424"/>
+      <c r="M4" s="422" t="s">
         <v>442</v>
       </c>
-      <c r="N4" s="400"/>
-      <c r="O4" s="401"/>
-      <c r="P4" s="399" t="s">
+      <c r="N4" s="423"/>
+      <c r="O4" s="424"/>
+      <c r="P4" s="422" t="s">
         <v>441</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="401"/>
-      <c r="S4" s="399" t="s">
+      <c r="Q4" s="423"/>
+      <c r="R4" s="424"/>
+      <c r="S4" s="422" t="s">
         <v>440</v>
       </c>
-      <c r="T4" s="400"/>
-      <c r="U4" s="401"/>
-      <c r="V4" s="402" t="s">
+      <c r="T4" s="423"/>
+      <c r="U4" s="424"/>
+      <c r="V4" s="425" t="s">
         <v>439</v>
       </c>
-      <c r="W4" s="403"/>
-      <c r="X4" s="404"/>
-      <c r="Y4" s="402" t="s">
+      <c r="W4" s="426"/>
+      <c r="X4" s="427"/>
+      <c r="Y4" s="425" t="s">
         <v>438</v>
       </c>
-      <c r="Z4" s="403"/>
-      <c r="AA4" s="404"/>
-      <c r="AB4" s="402" t="s">
+      <c r="Z4" s="426"/>
+      <c r="AA4" s="427"/>
+      <c r="AB4" s="425" t="s">
         <v>435</v>
       </c>
-      <c r="AC4" s="403"/>
-      <c r="AD4" s="404"/>
-      <c r="AE4" s="402" t="s">
+      <c r="AC4" s="426"/>
+      <c r="AD4" s="427"/>
+      <c r="AE4" s="425" t="s">
         <v>437</v>
       </c>
-      <c r="AF4" s="403"/>
-      <c r="AG4" s="404"/>
+      <c r="AF4" s="426"/>
+      <c r="AG4" s="427"/>
       <c r="AJ4" s="142"/>
       <c r="AK4" s="142"/>
       <c r="AL4" s="142"/>
     </row>
     <row r="5" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="D5" s="396" t="str">
+      <c r="D5" s="419" t="str">
         <f>E14</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="397"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="396" t="str">
+      <c r="E5" s="420"/>
+      <c r="F5" s="421"/>
+      <c r="G5" s="419" t="str">
         <f>I14</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="397"/>
-      <c r="I5" s="398"/>
-      <c r="J5" s="396" t="str">
+      <c r="H5" s="420"/>
+      <c r="I5" s="421"/>
+      <c r="J5" s="419" t="str">
         <f>L14</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="397"/>
-      <c r="L5" s="398"/>
-      <c r="M5" s="396"/>
-      <c r="N5" s="397"/>
-      <c r="O5" s="398"/>
-      <c r="P5" s="393" t="str">
+      <c r="K5" s="420"/>
+      <c r="L5" s="421"/>
+      <c r="M5" s="419"/>
+      <c r="N5" s="420"/>
+      <c r="O5" s="421"/>
+      <c r="P5" s="416" t="str">
         <f>F14</f>
         <v>ㆠ</v>
       </c>
-      <c r="Q5" s="394"/>
-      <c r="R5" s="395"/>
-      <c r="S5" s="396" t="str">
+      <c r="Q5" s="417"/>
+      <c r="R5" s="418"/>
+      <c r="S5" s="419" t="str">
         <f>Q14</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="397"/>
-      <c r="U5" s="398"/>
-      <c r="V5" s="413" t="str">
+      <c r="T5" s="420"/>
+      <c r="U5" s="421"/>
+      <c r="V5" s="436" t="str">
         <f>F20</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="414"/>
-      <c r="X5" s="415"/>
-      <c r="Y5" s="413" t="str">
+      <c r="W5" s="437"/>
+      <c r="X5" s="438"/>
+      <c r="Y5" s="436" t="str">
         <f>L20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="414"/>
-      <c r="AA5" s="415"/>
-      <c r="AB5" s="413"/>
-      <c r="AC5" s="414"/>
-      <c r="AD5" s="415"/>
-      <c r="AE5" s="405" t="str">
+      <c r="Z5" s="437"/>
+      <c r="AA5" s="438"/>
+      <c r="AB5" s="436"/>
+      <c r="AC5" s="437"/>
+      <c r="AD5" s="438"/>
+      <c r="AE5" s="428" t="str">
         <f>P20</f>
         <v>ㄣ</v>
       </c>
-      <c r="AF5" s="406"/>
-      <c r="AG5" s="407"/>
+      <c r="AF5" s="429"/>
+      <c r="AG5" s="430"/>
       <c r="AQ5" s="156" t="s">
         <v>436</v>
       </c>
@@ -10611,109 +10637,109 @@
     </row>
     <row r="6" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="157"/>
-      <c r="E6" s="399" t="s">
+      <c r="E6" s="422" t="s">
         <v>434</v>
       </c>
-      <c r="F6" s="400"/>
-      <c r="G6" s="401"/>
-      <c r="H6" s="399" t="s">
+      <c r="F6" s="423"/>
+      <c r="G6" s="424"/>
+      <c r="H6" s="422" t="s">
         <v>433</v>
       </c>
-      <c r="I6" s="400"/>
-      <c r="J6" s="401"/>
-      <c r="K6" s="399" t="s">
+      <c r="I6" s="423"/>
+      <c r="J6" s="424"/>
+      <c r="K6" s="422" t="s">
         <v>432</v>
       </c>
-      <c r="L6" s="400"/>
-      <c r="M6" s="401"/>
-      <c r="N6" s="399" t="s">
+      <c r="L6" s="423"/>
+      <c r="M6" s="424"/>
+      <c r="N6" s="422" t="s">
         <v>431</v>
       </c>
-      <c r="O6" s="400"/>
-      <c r="P6" s="401"/>
-      <c r="Q6" s="399" t="s">
+      <c r="O6" s="423"/>
+      <c r="P6" s="424"/>
+      <c r="Q6" s="422" t="s">
         <v>430</v>
       </c>
-      <c r="R6" s="400"/>
-      <c r="S6" s="401"/>
-      <c r="T6" s="399" t="s">
+      <c r="R6" s="423"/>
+      <c r="S6" s="424"/>
+      <c r="T6" s="422" t="s">
         <v>429</v>
       </c>
-      <c r="U6" s="400"/>
-      <c r="V6" s="401"/>
-      <c r="W6" s="402" t="s">
+      <c r="U6" s="423"/>
+      <c r="V6" s="424"/>
+      <c r="W6" s="425" t="s">
         <v>428</v>
       </c>
-      <c r="X6" s="403"/>
-      <c r="Y6" s="404"/>
-      <c r="Z6" s="402" t="s">
+      <c r="X6" s="426"/>
+      <c r="Y6" s="427"/>
+      <c r="Z6" s="425" t="s">
         <v>427</v>
       </c>
-      <c r="AA6" s="403"/>
-      <c r="AB6" s="404"/>
-      <c r="AC6" s="402" t="s">
+      <c r="AA6" s="426"/>
+      <c r="AB6" s="427"/>
+      <c r="AC6" s="425" t="s">
         <v>426</v>
       </c>
-      <c r="AD6" s="403"/>
-      <c r="AE6" s="404"/>
-      <c r="AF6" s="402" t="s">
+      <c r="AD6" s="426"/>
+      <c r="AE6" s="427"/>
+      <c r="AF6" s="425" t="s">
         <v>425</v>
       </c>
-      <c r="AG6" s="403"/>
-      <c r="AH6" s="404"/>
+      <c r="AG6" s="426"/>
+      <c r="AH6" s="427"/>
     </row>
     <row r="7" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="410" t="str">
+      <c r="E7" s="433" t="str">
         <f>G14</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="411"/>
-      <c r="G7" s="412"/>
-      <c r="H7" s="396" t="str">
+      <c r="F7" s="434"/>
+      <c r="G7" s="435"/>
+      <c r="H7" s="419" t="str">
         <f>J14</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="397"/>
-      <c r="J7" s="398"/>
-      <c r="K7" s="396" t="str">
+      <c r="I7" s="420"/>
+      <c r="J7" s="421"/>
+      <c r="K7" s="419" t="str">
         <f>M14</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="397"/>
-      <c r="M7" s="398"/>
-      <c r="N7" s="396"/>
-      <c r="O7" s="397"/>
-      <c r="P7" s="398"/>
-      <c r="Q7" s="416" t="str">
+      <c r="L7" s="420"/>
+      <c r="M7" s="421"/>
+      <c r="N7" s="419"/>
+      <c r="O7" s="420"/>
+      <c r="P7" s="421"/>
+      <c r="Q7" s="439" t="str">
         <f>N14</f>
         <v>ㆣ</v>
       </c>
-      <c r="R7" s="394"/>
-      <c r="S7" s="395"/>
-      <c r="T7" s="396" t="str">
+      <c r="R7" s="417"/>
+      <c r="S7" s="418"/>
+      <c r="T7" s="419" t="str">
         <f>R14</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="397"/>
-      <c r="V7" s="398"/>
-      <c r="W7" s="413" t="str">
+      <c r="U7" s="420"/>
+      <c r="V7" s="421"/>
+      <c r="W7" s="436" t="str">
         <f>H20</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="414"/>
-      <c r="Y7" s="415"/>
-      <c r="Z7" s="413" t="str">
+      <c r="X7" s="437"/>
+      <c r="Y7" s="438"/>
+      <c r="Z7" s="436" t="str">
         <f>N20</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="414"/>
-      <c r="AB7" s="415"/>
-      <c r="AC7" s="413"/>
-      <c r="AD7" s="414"/>
-      <c r="AE7" s="415"/>
-      <c r="AF7" s="432"/>
-      <c r="AG7" s="414"/>
-      <c r="AH7" s="415"/>
+      <c r="AA7" s="437"/>
+      <c r="AB7" s="438"/>
+      <c r="AC7" s="436"/>
+      <c r="AD7" s="437"/>
+      <c r="AE7" s="438"/>
+      <c r="AF7" s="455"/>
+      <c r="AG7" s="437"/>
+      <c r="AH7" s="438"/>
       <c r="AQ7" s="156" t="s">
         <v>424</v>
       </c>
@@ -10722,112 +10748,112 @@
       </c>
     </row>
     <row r="8" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="399" t="s">
+      <c r="F8" s="422" t="s">
         <v>422</v>
       </c>
-      <c r="G8" s="400"/>
-      <c r="H8" s="401"/>
-      <c r="I8" s="399" t="s">
+      <c r="G8" s="423"/>
+      <c r="H8" s="424"/>
+      <c r="I8" s="422" t="s">
         <v>421</v>
       </c>
-      <c r="J8" s="400"/>
-      <c r="K8" s="401"/>
-      <c r="L8" s="399" t="s">
+      <c r="J8" s="423"/>
+      <c r="K8" s="424"/>
+      <c r="L8" s="422" t="s">
         <v>420</v>
       </c>
-      <c r="M8" s="400"/>
-      <c r="N8" s="401"/>
-      <c r="O8" s="399" t="s">
+      <c r="M8" s="423"/>
+      <c r="N8" s="424"/>
+      <c r="O8" s="422" t="s">
         <v>419</v>
       </c>
-      <c r="P8" s="400"/>
-      <c r="Q8" s="401"/>
-      <c r="R8" s="399" t="s">
+      <c r="P8" s="423"/>
+      <c r="Q8" s="424"/>
+      <c r="R8" s="422" t="s">
         <v>418</v>
       </c>
-      <c r="S8" s="400"/>
-      <c r="T8" s="401"/>
-      <c r="U8" s="399" t="s">
+      <c r="S8" s="423"/>
+      <c r="T8" s="424"/>
+      <c r="U8" s="422" t="s">
         <v>377</v>
       </c>
-      <c r="V8" s="400"/>
-      <c r="W8" s="401"/>
-      <c r="X8" s="402" t="s">
+      <c r="V8" s="423"/>
+      <c r="W8" s="424"/>
+      <c r="X8" s="425" t="s">
         <v>417</v>
       </c>
-      <c r="Y8" s="403"/>
-      <c r="Z8" s="404"/>
-      <c r="AA8" s="402" t="s">
+      <c r="Y8" s="426"/>
+      <c r="Z8" s="427"/>
+      <c r="AA8" s="425" t="s">
         <v>416</v>
       </c>
-      <c r="AB8" s="403"/>
-      <c r="AC8" s="404"/>
-      <c r="AD8" s="402" t="s">
+      <c r="AB8" s="426"/>
+      <c r="AC8" s="427"/>
+      <c r="AD8" s="425" t="s">
         <v>415</v>
       </c>
-      <c r="AE8" s="403"/>
-      <c r="AF8" s="404"/>
-      <c r="AG8" s="431" t="s">
+      <c r="AE8" s="426"/>
+      <c r="AF8" s="427"/>
+      <c r="AG8" s="454" t="s">
         <v>414</v>
       </c>
-      <c r="AH8" s="403"/>
-      <c r="AI8" s="404"/>
+      <c r="AH8" s="426"/>
+      <c r="AI8" s="427"/>
     </row>
     <row r="9" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="F9" s="396"/>
-      <c r="G9" s="408"/>
-      <c r="H9" s="409"/>
-      <c r="I9" s="396" t="str">
+      <c r="F9" s="419"/>
+      <c r="G9" s="431"/>
+      <c r="H9" s="432"/>
+      <c r="I9" s="419" t="str">
         <f>K14</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="397"/>
-      <c r="K9" s="398"/>
-      <c r="L9" s="396" t="str">
+      <c r="J9" s="420"/>
+      <c r="K9" s="421"/>
+      <c r="L9" s="419" t="str">
         <f>P14</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="397"/>
-      <c r="N9" s="398"/>
-      <c r="O9" s="410" t="str">
+      <c r="M9" s="420"/>
+      <c r="N9" s="421"/>
+      <c r="O9" s="433" t="str">
         <f>O14</f>
         <v>ㄫ</v>
       </c>
-      <c r="P9" s="411"/>
-      <c r="Q9" s="412"/>
-      <c r="R9" s="393" t="str">
+      <c r="P9" s="434"/>
+      <c r="Q9" s="435"/>
+      <c r="R9" s="416" t="str">
         <f>S14</f>
         <v>ㆡ</v>
       </c>
-      <c r="S9" s="394"/>
-      <c r="T9" s="395"/>
-      <c r="U9" s="396" t="str">
+      <c r="S9" s="417"/>
+      <c r="T9" s="418"/>
+      <c r="U9" s="419" t="str">
         <f>T14</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="397"/>
-      <c r="W9" s="398"/>
-      <c r="X9" s="405" t="str">
+      <c r="V9" s="420"/>
+      <c r="W9" s="421"/>
+      <c r="X9" s="428" t="str">
         <f>O20</f>
         <v>ㆬ</v>
       </c>
-      <c r="Y9" s="406"/>
-      <c r="Z9" s="407"/>
-      <c r="AA9" s="413" t="str">
+      <c r="Y9" s="429"/>
+      <c r="Z9" s="430"/>
+      <c r="AA9" s="436" t="str">
         <f>J20</f>
         <v>ㄝ</v>
       </c>
-      <c r="AB9" s="414"/>
-      <c r="AC9" s="415"/>
-      <c r="AD9" s="426" t="str">
+      <c r="AB9" s="437"/>
+      <c r="AC9" s="438"/>
+      <c r="AD9" s="449" t="str">
         <f>Q20</f>
         <v>ㄥ</v>
       </c>
-      <c r="AE9" s="406"/>
-      <c r="AF9" s="407"/>
-      <c r="AG9" s="413"/>
-      <c r="AH9" s="414"/>
-      <c r="AI9" s="415"/>
+      <c r="AE9" s="429"/>
+      <c r="AF9" s="430"/>
+      <c r="AG9" s="436"/>
+      <c r="AH9" s="437"/>
+      <c r="AI9" s="438"/>
     </row>
     <row r="12" spans="2:44">
       <c r="Z12" s="155"/>
@@ -11370,10 +11396,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FD1CD5-4651-439A-98A6-5245A83D236D}">
-  <dimension ref="B1:AE60"/>
+  <dimension ref="B1:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K33" workbookViewId="0">
-      <selection activeCell="T53" sqref="T53:X53"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="32.25"/>
@@ -11389,110 +11415,115 @@
     <col min="10" max="10" width="10.59765625" style="159" customWidth="1"/>
     <col min="11" max="11" width="10.59765625" style="124" customWidth="1"/>
     <col min="12" max="12" width="10.59765625" style="118" customWidth="1"/>
-    <col min="13" max="13" width="5" style="13" customWidth="1"/>
+    <col min="13" max="13" width="4.09765625" style="13" customWidth="1"/>
     <col min="14" max="14" width="5.59765625" style="13" customWidth="1"/>
     <col min="15" max="15" width="10.59765625" style="118" customWidth="1"/>
     <col min="16" max="16" width="10.59765625" style="159" customWidth="1"/>
     <col min="17" max="17" width="10.59765625" style="124" customWidth="1"/>
     <col min="18" max="18" width="10.59765625" style="118" customWidth="1"/>
-    <col min="19" max="19" width="10.09765625" style="13" customWidth="1"/>
+    <col min="19" max="19" width="4.09765625" style="13" customWidth="1"/>
     <col min="20" max="20" width="5.59765625" style="13" customWidth="1"/>
-    <col min="21" max="25" width="10.8984375" style="13"/>
-    <col min="26" max="26" width="10.8984375" style="503"/>
-    <col min="27" max="16384" width="10.8984375" style="13"/>
+    <col min="21" max="24" width="10.8984375" style="13"/>
+    <col min="25" max="26" width="5.69921875" style="13" customWidth="1"/>
+    <col min="27" max="27" width="10.8984375" style="404"/>
+    <col min="28" max="16384" width="10.8984375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31">
-      <c r="Z1" s="505" t="s">
+    <row r="1" spans="2:33">
+      <c r="AA1" s="406" t="s">
         <v>768</v>
       </c>
-      <c r="AA1" s="514" t="str">
+      <c r="AB1" s="415" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("'", U5:U48, "'")</f>
         <v>'1qa2wsxedcvyhnujm8ik,9l0p;/z!EYUJ*I,(L 34567'</v>
       </c>
-      <c r="AB1" s="512"/>
-      <c r="AC1" s="512"/>
-      <c r="AD1" s="512"/>
-      <c r="AE1" s="512"/>
-    </row>
-    <row r="2" spans="2:31">
-      <c r="B2" s="494" t="s">
+      <c r="AC1" s="413"/>
+      <c r="AD1" s="413"/>
+      <c r="AE1" s="413"/>
+      <c r="AF1" s="413"/>
+      <c r="AG1" s="13">
+        <f xml:space="preserve"> LEN(AB1)-2</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:33">
+      <c r="B2" s="395" t="s">
         <v>914</v>
       </c>
-      <c r="H2" s="494" t="s">
+      <c r="H2" s="395" t="s">
         <v>510</v>
       </c>
-      <c r="N2" s="494" t="s">
+      <c r="N2" s="395" t="s">
         <v>929</v>
       </c>
-      <c r="T2" s="494" t="s">
+      <c r="T2" s="395" t="s">
         <v>913</v>
       </c>
-      <c r="Z2" s="505" t="s">
+      <c r="AA2" s="406" t="s">
         <v>934</v>
       </c>
-      <c r="AA2" s="514" t="str">
+      <c r="AB2" s="415" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("'", U5:U42, "'")</f>
         <v>'1qa2wsxedcvyhnujm8ik,9l0p;/z!EYUJ*I,(L'</v>
       </c>
-      <c r="AB2" s="512"/>
-      <c r="AC2" s="512"/>
-      <c r="AD2" s="512"/>
-      <c r="AE2" s="512"/>
-    </row>
-    <row r="4" spans="2:31" s="15" customFormat="1" ht="24" thickBot="1">
-      <c r="B4" s="476" t="s">
+      <c r="AC2" s="413"/>
+      <c r="AD2" s="413"/>
+      <c r="AE2" s="413"/>
+      <c r="AF2" s="413"/>
+    </row>
+    <row r="4" spans="2:33" s="15" customFormat="1" ht="24" thickBot="1">
+      <c r="B4" s="380" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="478" t="s">
+      <c r="C4" s="382" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="479" t="s">
+      <c r="D4" s="383" t="s">
         <v>356</v>
       </c>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="385" t="s">
         <v>326</v>
       </c>
-      <c r="F4" s="482" t="s">
+      <c r="F4" s="386" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="476" t="s">
+      <c r="H4" s="380" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="477" t="s">
+      <c r="I4" s="381" t="s">
         <v>167</v>
       </c>
-      <c r="J4" s="478" t="s">
+      <c r="J4" s="382" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="479" t="s">
+      <c r="K4" s="383" t="s">
         <v>356</v>
       </c>
-      <c r="L4" s="480" t="s">
+      <c r="L4" s="384" t="s">
         <v>326</v>
       </c>
-      <c r="N4" s="476" t="s">
+      <c r="N4" s="380" t="s">
         <v>103</v>
       </c>
-      <c r="O4" s="477" t="s">
+      <c r="O4" s="381" t="s">
         <v>167</v>
       </c>
-      <c r="P4" s="478" t="s">
+      <c r="P4" s="382" t="s">
         <v>104</v>
       </c>
-      <c r="Q4" s="479" t="s">
+      <c r="Q4" s="383" t="s">
         <v>356</v>
       </c>
-      <c r="R4" s="480" t="s">
+      <c r="R4" s="384" t="s">
         <v>326</v>
       </c>
-      <c r="T4" s="500" t="s">
+      <c r="T4" s="401" t="s">
         <v>103</v>
       </c>
-      <c r="U4" s="501" t="s">
+      <c r="U4" s="402" t="s">
         <v>167</v>
       </c>
-      <c r="V4" s="502" t="s">
+      <c r="V4" s="403" t="s">
         <v>104</v>
       </c>
       <c r="W4" s="338" t="s">
@@ -11501,10 +11532,10 @@
       <c r="X4" s="348" t="s">
         <v>326</v>
       </c>
-      <c r="Z4" s="504"/>
-    </row>
-    <row r="5" spans="2:31" ht="33" thickTop="1">
-      <c r="B5" s="483">
+      <c r="AA4" s="405"/>
+    </row>
+    <row r="5" spans="2:33" ht="33" thickTop="1">
+      <c r="B5" s="387">
         <v>1</v>
       </c>
       <c r="C5" s="160" t="s">
@@ -11531,13 +11562,13 @@
       <c r="K5" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="463" t="s">
+      <c r="L5" s="373" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="273">
         <v>1</v>
       </c>
-      <c r="O5" s="513" t="s">
+      <c r="O5" s="414" t="s">
         <v>731</v>
       </c>
       <c r="P5" s="161" t="str">
@@ -11548,37 +11579,37 @@
         <f xml:space="preserve"> IFERROR( INDEX($D$5:$D$60, MATCH($P5, $C$5:$C$60,0)), "")</f>
         <v>b</v>
       </c>
-      <c r="R5" s="463" t="str">
+      <c r="R5" s="373" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$60, MATCH($P5, $C$5:$C$60,0)), "")</f>
         <v>b</v>
       </c>
-      <c r="T5" s="473">
+      <c r="T5" s="14">
         <f xml:space="preserve"> ROW() - 4</f>
         <v>1</v>
       </c>
-      <c r="U5" s="464" cm="1">
+      <c r="U5" s="110" cm="1">
         <f t="array" ref="U5:X32">_xlfn._xlws.FILTER(I5:L50, J5:J50&lt;&gt;"")</f>
         <v>1</v>
       </c>
-      <c r="V5" s="465" t="str">
+      <c r="V5" s="160" t="str">
         <v>ㄅ</v>
       </c>
-      <c r="W5" s="466" t="str">
+      <c r="W5" s="119" t="str">
         <v>p</v>
       </c>
-      <c r="X5" s="474" t="str">
+      <c r="X5" s="109" t="str">
         <v>p</v>
       </c>
-      <c r="Z5" s="505" t="s">
+      <c r="AA5" s="406" t="s">
         <v>930</v>
       </c>
-      <c r="AC5" s="507" t="str">
-        <f xml:space="preserve"> "- 'xlit|" &amp; Z6 &amp; "|" &amp; Z7 &amp; "|'"</f>
-        <v>- 'xlit|pPmtTnlkKhwcCsiuMaOoeIULDQWAbgjZXRSEVF|1qa2wsxedcvyhnujm8ik,9l0p;/z!EYUJ*I,(L|'</v>
-      </c>
-    </row>
-    <row r="6" spans="2:31">
-      <c r="B6" s="483">
+      <c r="AD5" s="408" t="str">
+        <f xml:space="preserve"> "- 'xlit|" &amp; AA6 &amp; "|" &amp; AA7 &amp; "|'"</f>
+        <v>- 'xlit|pPmtTnlkKhwcCsiuMaOoeIULDQWAbgjZXRSEVF132750|1qa2wsxedcvyhnujm8ik,9l0p;/z!EYUJ*I,(L 34567|'</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33">
+      <c r="B6" s="387">
         <v>2</v>
       </c>
       <c r="C6" s="160" t="s">
@@ -11597,57 +11628,61 @@
         <f>H5+1</f>
         <v>2</v>
       </c>
-      <c r="I6" s="464" t="s">
+      <c r="I6" s="110" t="s">
         <v>300</v>
       </c>
-      <c r="J6" s="465" t="s">
+      <c r="J6" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="466" t="s">
+      <c r="K6" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="467" t="s">
+      <c r="L6" s="374" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="275">
         <f>N5+1</f>
         <v>2</v>
       </c>
-      <c r="O6" s="464" t="s">
+      <c r="O6" s="110" t="s">
         <v>725</v>
       </c>
-      <c r="P6" s="465"/>
-      <c r="Q6" s="466" t="str">
+      <c r="P6" s="160"/>
+      <c r="Q6" s="119" t="str">
         <f t="shared" ref="Q6:Q59" si="0" xml:space="preserve"> IFERROR( INDEX($D$5:$D$60, MATCH($P6, $C$5:$C$60,0)), "")</f>
         <v/>
       </c>
-      <c r="R6" s="467" t="str">
+      <c r="R6" s="374" t="str">
         <f t="shared" ref="R6:R59" si="1" xml:space="preserve"> IFERROR( INDEX($E$5:$E$60, MATCH($P6, $C$5:$C$60,0)), "")</f>
         <v/>
       </c>
-      <c r="T6" s="473">
+      <c r="T6" s="14">
         <f t="shared" ref="T6:T48" si="2" xml:space="preserve"> ROW() - 4</f>
         <v>2</v>
       </c>
-      <c r="U6" s="464" t="str">
+      <c r="U6" s="110" t="str">
         <v>q</v>
       </c>
-      <c r="V6" s="465" t="str">
+      <c r="V6" s="160" t="str">
         <v>ㄆ</v>
       </c>
-      <c r="W6" s="466" t="str">
+      <c r="W6" s="119" t="str">
         <v>ph</v>
       </c>
-      <c r="X6" s="474" t="str">
+      <c r="X6" s="109" t="str">
         <v>P</v>
       </c>
-      <c r="Z6" s="503" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT($X$5:$X$42)</f>
-        <v>pPmtTnlkKhwcCsiuMaOoeIULDQWAbgjZXRSEVF</v>
-      </c>
-    </row>
-    <row r="7" spans="2:31">
-      <c r="B7" s="483">
+      <c r="Z6" s="510">
+        <f xml:space="preserve"> LEN(AA6)</f>
+        <v>44</v>
+      </c>
+      <c r="AA6" s="404" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT($X$5:$X$48)</f>
+        <v>pPmtTnlkKhwcCsiuMaOoeIULDQWAbgjZXRSEVF132750</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33">
+      <c r="B7" s="387">
         <v>3</v>
       </c>
       <c r="C7" s="160" t="s">
@@ -11666,57 +11701,61 @@
         <f t="shared" ref="H7:H59" si="3">H6+1</f>
         <v>3</v>
       </c>
-      <c r="I7" s="464" t="s">
+      <c r="I7" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="465" t="s">
+      <c r="J7" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="466" t="s">
+      <c r="K7" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="468" t="s">
+      <c r="L7" s="375" t="s">
         <v>66</v>
       </c>
       <c r="N7" s="275">
         <f t="shared" ref="N7:N59" si="4">N6+1</f>
         <v>3</v>
       </c>
-      <c r="O7" s="464" t="s">
+      <c r="O7" s="110" t="s">
         <v>307</v>
       </c>
-      <c r="P7" s="465"/>
-      <c r="Q7" s="466" t="str">
+      <c r="P7" s="160"/>
+      <c r="Q7" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R7" s="468" t="str">
+      <c r="R7" s="375" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T7" s="473">
+      <c r="T7" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="U7" s="464" t="str">
+      <c r="U7" s="110" t="str">
         <v>a</v>
       </c>
-      <c r="V7" s="465" t="str">
+      <c r="V7" s="160" t="str">
         <v>ㄇ</v>
       </c>
-      <c r="W7" s="466" t="str">
+      <c r="W7" s="119" t="str">
         <v>m</v>
       </c>
-      <c r="X7" s="475" t="str">
+      <c r="X7" s="111" t="str">
         <v>m</v>
       </c>
-      <c r="Z7" s="503" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT($U$5:$U$42)</f>
-        <v>1qa2wsxedcvyhnujm8ik,9l0p;/z!EYUJ*I,(L</v>
-      </c>
-    </row>
-    <row r="8" spans="2:31">
-      <c r="B8" s="483">
+      <c r="Z7" s="510">
+        <f xml:space="preserve"> LEN(AA7)</f>
+        <v>44</v>
+      </c>
+      <c r="AA7" s="404" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT($U$5:$U$48)</f>
+        <v>1qa2wsxedcvyhnujm8ik,9l0p;/z!EYUJ*I,(L 34567</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33">
+      <c r="B8" s="387">
         <v>4</v>
       </c>
       <c r="C8" s="160" t="s">
@@ -11744,7 +11783,7 @@
       <c r="K8" s="121" t="s">
         <v>905</v>
       </c>
-      <c r="L8" s="469" t="s">
+      <c r="L8" s="376" t="s">
         <v>905</v>
       </c>
       <c r="N8" s="277">
@@ -11759,29 +11798,29 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R8" s="469" t="str">
+      <c r="R8" s="376" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T8" s="473">
+      <c r="T8" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="U8" s="464">
+      <c r="U8" s="110">
         <v>2</v>
       </c>
-      <c r="V8" s="465" t="str">
+      <c r="V8" s="160" t="str">
         <v>ㄉ</v>
       </c>
-      <c r="W8" s="466" t="str">
+      <c r="W8" s="119" t="str">
         <v>t</v>
       </c>
-      <c r="X8" s="474" t="str">
+      <c r="X8" s="109" t="str">
         <v>t</v>
       </c>
     </row>
-    <row r="9" spans="2:31">
-      <c r="B9" s="484">
+    <row r="9" spans="2:33">
+      <c r="B9" s="388">
         <v>5</v>
       </c>
       <c r="C9" s="161" t="s">
@@ -11809,14 +11848,14 @@
       <c r="K9" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="463" t="s">
+      <c r="L9" s="373" t="s">
         <v>11</v>
       </c>
       <c r="N9" s="273">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="O9" s="471" t="s">
+      <c r="O9" s="378" t="s">
         <v>915</v>
       </c>
       <c r="P9" s="161"/>
@@ -11824,36 +11863,36 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R9" s="463" t="str">
+      <c r="R9" s="373" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T9" s="473">
+      <c r="T9" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="U9" s="464" t="str">
+      <c r="U9" s="110" t="str">
         <v>w</v>
       </c>
-      <c r="V9" s="465" t="str">
+      <c r="V9" s="160" t="str">
         <v>ㄊ</v>
       </c>
-      <c r="W9" s="466" t="str">
+      <c r="W9" s="119" t="str">
         <v>th</v>
       </c>
-      <c r="X9" s="474" t="str">
+      <c r="X9" s="109" t="str">
         <v>T</v>
       </c>
-      <c r="Z9" s="505" t="s">
+      <c r="AA9" s="406" t="s">
         <v>931</v>
       </c>
-      <c r="AC9" s="507" t="str">
-        <f xml:space="preserve"> "- 'xlit|" &amp; Z10 &amp; "|" &amp; Z11 &amp; "|'"</f>
-        <v>- 'xlit|1qa2wsxedcvyhnujm8ik,9l0p;/z!EYUJ*I,(L|ㄅㄆㄇㄉㄊㄋㄌㄍㄎㄏㄫㄗㄘㄙㄧㄨㆬㄚㆦㄜㄝㄞㄠㄢㄣㄤㄥ声ㆠㆣㆡㆪㆫㆩㆧㆥㆮㆯ|'</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31">
-      <c r="B10" s="483">
+      <c r="AD9" s="408" t="str">
+        <f xml:space="preserve"> "- 'xlit|" &amp; AA10 &amp; "|" &amp; AA11 &amp; "|'"</f>
+        <v>- 'xlit|1qa2wsxedcvyhnujm8ik,9l0p;/z!EYUJ*I,(L34567|ㄅㄆㄇㄉㄊㄋㄌㄍㄎㄏㄫㄗㄘㄙㄧㄨㆬㄚㆦㄜㄝㄞㄠㄢㄣㄤㄥ声ㆠㆣㆡㆪㆫㆩㆧㆥㆮㆯ˪ˋ˫ˊ．|'</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33">
+      <c r="B10" s="387">
         <v>6</v>
       </c>
       <c r="C10" s="160" t="s">
@@ -11872,57 +11911,61 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="I10" s="464" t="s">
+      <c r="I10" s="110" t="s">
         <v>345</v>
       </c>
-      <c r="J10" s="465" t="s">
+      <c r="J10" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="466" t="s">
+      <c r="K10" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="467" t="s">
+      <c r="L10" s="374" t="s">
         <v>28</v>
       </c>
       <c r="N10" s="275">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O10" s="464" t="s">
+      <c r="O10" s="110" t="s">
         <v>720</v>
       </c>
-      <c r="P10" s="465"/>
-      <c r="Q10" s="466" t="str">
+      <c r="P10" s="160"/>
+      <c r="Q10" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R10" s="467" t="str">
+      <c r="R10" s="374" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T10" s="473">
+      <c r="T10" s="14">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="U10" s="464" t="str">
+      <c r="U10" s="110" t="str">
         <v>s</v>
       </c>
-      <c r="V10" s="465" t="str">
+      <c r="V10" s="160" t="str">
         <v>ㄋ</v>
       </c>
-      <c r="W10" s="466" t="str">
+      <c r="W10" s="119" t="str">
         <v>n</v>
       </c>
-      <c r="X10" s="474" t="str">
+      <c r="X10" s="109" t="str">
         <v>n</v>
       </c>
-      <c r="Z10" s="503" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT($U$5:$U$42)</f>
-        <v>1qa2wsxedcvyhnujm8ik,9l0p;/z!EYUJ*I,(L</v>
-      </c>
-    </row>
-    <row r="11" spans="2:31">
-      <c r="B11" s="483">
+      <c r="Z10" s="510">
+        <f xml:space="preserve"> LEN(AA10)</f>
+        <v>43</v>
+      </c>
+      <c r="AA10" s="404" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT($U$5:$U$42, U44:U48)</f>
+        <v>1qa2wsxedcvyhnujm8ik,9l0p;/z!EYUJ*I,(L34567</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33">
+      <c r="B11" s="387">
         <v>7</v>
       </c>
       <c r="C11" s="160" t="s">
@@ -11941,57 +11984,61 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I11" s="464" t="s">
+      <c r="I11" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="J11" s="465" t="s">
+      <c r="J11" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="466" t="s">
+      <c r="K11" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="468" t="s">
+      <c r="L11" s="375" t="s">
         <v>68</v>
       </c>
       <c r="N11" s="275">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="O11" s="464" t="s">
+      <c r="O11" s="110" t="s">
         <v>751</v>
       </c>
-      <c r="P11" s="465"/>
-      <c r="Q11" s="466" t="str">
+      <c r="P11" s="160"/>
+      <c r="Q11" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R11" s="468" t="str">
+      <c r="R11" s="375" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T11" s="473">
+      <c r="T11" s="14">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="U11" s="464" t="str">
+      <c r="U11" s="110" t="str">
         <v>x</v>
       </c>
-      <c r="V11" s="465" t="str">
+      <c r="V11" s="160" t="str">
         <v>ㄌ</v>
       </c>
-      <c r="W11" s="466" t="str">
+      <c r="W11" s="119" t="str">
         <v>l</v>
       </c>
-      <c r="X11" s="475" t="str">
+      <c r="X11" s="111" t="str">
         <v>l</v>
       </c>
-      <c r="Z11" s="503" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT($V$5:$V$42)</f>
-        <v>ㄅㄆㄇㄉㄊㄋㄌㄍㄎㄏㄫㄗㄘㄙㄧㄨㆬㄚㆦㄜㄝㄞㄠㄢㄣㄤㄥ声ㆠㆣㆡㆪㆫㆩㆧㆥㆮㆯ</v>
-      </c>
-    </row>
-    <row r="12" spans="2:31">
-      <c r="B12" s="485">
+      <c r="Z11" s="510">
+        <f xml:space="preserve"> LEN(AA11)</f>
+        <v>43</v>
+      </c>
+      <c r="AA11" s="509" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT($V$5:$V$42, V44:V48)</f>
+        <v>ㄅㄆㄇㄉㄊㄋㄌㄍㄎㄏㄫㄗㄘㄙㄧㄨㆬㄚㆦㄜㄝㄞㄠㄢㄣㄤㄥ声ㆠㆣㆡㆪㆫㆩㆧㆥㆮㆯ˪ˋ˫ˊ．</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33">
+      <c r="B12" s="389">
         <v>8</v>
       </c>
       <c r="C12" s="162" t="s">
@@ -12019,7 +12066,7 @@
       <c r="K12" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="469" t="s">
+      <c r="L12" s="376" t="s">
         <v>93</v>
       </c>
       <c r="N12" s="277">
@@ -12034,29 +12081,29 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R12" s="469" t="str">
+      <c r="R12" s="376" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T12" s="473">
+      <c r="T12" s="14">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="U12" s="464" t="str">
+      <c r="U12" s="110" t="str">
         <v>e</v>
       </c>
-      <c r="V12" s="465" t="str">
+      <c r="V12" s="160" t="str">
         <v>ㄍ</v>
       </c>
-      <c r="W12" s="466" t="str">
+      <c r="W12" s="119" t="str">
         <v>k</v>
       </c>
-      <c r="X12" s="474" t="str">
+      <c r="X12" s="109" t="str">
         <v>k</v>
       </c>
     </row>
-    <row r="13" spans="2:31">
-      <c r="B13" s="483">
+    <row r="13" spans="2:33">
+      <c r="B13" s="387">
         <v>9</v>
       </c>
       <c r="C13" s="160" t="s">
@@ -12082,14 +12129,14 @@
       <c r="K13" s="120">
         <v>3</v>
       </c>
-      <c r="L13" s="463">
+      <c r="L13" s="373">
         <v>3</v>
       </c>
       <c r="N13" s="273">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="O13" s="471" t="s">
+      <c r="O13" s="378" t="s">
         <v>916</v>
       </c>
       <c r="P13" s="161"/>
@@ -12097,36 +12144,36 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R13" s="463" t="str">
+      <c r="R13" s="373" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T13" s="473">
+      <c r="T13" s="14">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="U13" s="464" t="str">
+      <c r="U13" s="110" t="str">
         <v>d</v>
       </c>
-      <c r="V13" s="465" t="str">
+      <c r="V13" s="160" t="str">
         <v>ㄎ</v>
       </c>
-      <c r="W13" s="466" t="str">
+      <c r="W13" s="119" t="str">
         <v>kh</v>
       </c>
-      <c r="X13" s="474" t="str">
+      <c r="X13" s="109" t="str">
         <v>K</v>
       </c>
-      <c r="Z13" s="505" t="s">
+      <c r="AA13" s="406" t="s">
         <v>932</v>
       </c>
-      <c r="AC13" s="507" t="str">
-        <f xml:space="preserve"> "- 'xlit|" &amp; Z14 &amp; "|" &amp; Z15 &amp; "|'"</f>
-        <v>- 'xlit|pPmtTnlkKhwcCsiuMaOoeIULDQWAbgjZXRSEVF|ㄅㄆㄇㄉㄊㄋㄌㄍㄎㄏㄫㄗㄘㄙㄧㄨㆬㄚㆦㄜㄝㄞㄠㄢㄣㄤㄥ声ㆠㆣㆡㆪㆫㆩㆧㆥㆮㆯ|'</v>
-      </c>
-    </row>
-    <row r="14" spans="2:31">
-      <c r="B14" s="483">
+      <c r="AD13" s="408" t="str">
+        <f xml:space="preserve"> "- 'xlit|" &amp; AA14 &amp; "|" &amp; AA15 &amp; "|'"</f>
+        <v>- 'xlit|pPmtTnlkKhwcCsiuMaOoeIULDQWAbgjZXRSEVF132750|ㄅㄆㄇㄉㄊㄋㄌㄍㄎㄏㄫㄗㄘㄙㄧㄨㆬㄚㆦㄜㄝㄞㄠㄢㄣㄤㄥ声ㆠㆣㆡㆪㆫㆩㆧㆥㆮㆯ ˪ˋ˫ˊ．|'</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33">
+      <c r="B14" s="387">
         <v>10</v>
       </c>
       <c r="C14" s="160" t="s">
@@ -12145,60 +12192,64 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I14" s="464" t="s">
+      <c r="I14" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="J14" s="465" t="s">
+      <c r="J14" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="466" t="s">
+      <c r="K14" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="467" t="s">
+      <c r="L14" s="374" t="s">
         <v>42</v>
       </c>
       <c r="N14" s="275">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="O14" s="464" t="s">
+      <c r="O14" s="110" t="s">
         <v>746</v>
       </c>
-      <c r="P14" s="465" t="str">
+      <c r="P14" s="160" t="str">
         <f>C15</f>
         <v>ㆣ</v>
       </c>
-      <c r="Q14" s="466" t="str">
+      <c r="Q14" s="119" t="str">
         <f t="shared" si="0"/>
         <v>g</v>
       </c>
-      <c r="R14" s="467" t="str">
+      <c r="R14" s="374" t="str">
         <f t="shared" si="1"/>
         <v>g</v>
       </c>
-      <c r="T14" s="473">
+      <c r="T14" s="14">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="U14" s="464" t="str">
+      <c r="U14" s="110" t="str">
         <v>c</v>
       </c>
-      <c r="V14" s="465" t="str">
+      <c r="V14" s="160" t="str">
         <v>ㄏ</v>
       </c>
-      <c r="W14" s="466" t="str">
+      <c r="W14" s="119" t="str">
         <v>h</v>
       </c>
-      <c r="X14" s="474" t="str">
+      <c r="X14" s="109" t="str">
         <v>h</v>
       </c>
-      <c r="Z14" s="503" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT($X$5:$X$42)</f>
-        <v>pPmtTnlkKhwcCsiuMaOoeIULDQWAbgjZXRSEVF</v>
-      </c>
-    </row>
-    <row r="15" spans="2:31">
-      <c r="B15" s="483">
+      <c r="Z14" s="510">
+        <f xml:space="preserve"> LEN(AA14)</f>
+        <v>44</v>
+      </c>
+      <c r="AA14" s="404" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT($X$5:$X$48)</f>
+        <v>pPmtTnlkKhwcCsiuMaOoeIULDQWAbgjZXRSEVF132750</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33">
+      <c r="B15" s="387">
         <v>11</v>
       </c>
       <c r="C15" s="160" t="s">
@@ -12217,57 +12268,61 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I15" s="464" t="s">
+      <c r="I15" s="110" t="s">
         <v>298</v>
       </c>
-      <c r="J15" s="465" t="s">
+      <c r="J15" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="466" t="s">
+      <c r="K15" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="468" t="s">
+      <c r="L15" s="375" t="s">
         <v>62</v>
       </c>
       <c r="N15" s="275">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="O15" s="464" t="s">
+      <c r="O15" s="110" t="s">
         <v>355</v>
       </c>
-      <c r="P15" s="465"/>
-      <c r="Q15" s="466" t="str">
+      <c r="P15" s="160"/>
+      <c r="Q15" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R15" s="468" t="str">
+      <c r="R15" s="375" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T15" s="473">
+      <c r="T15" s="14">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="U15" s="464" t="str">
+      <c r="U15" s="110" t="str">
         <v>v</v>
       </c>
-      <c r="V15" s="465" t="str">
+      <c r="V15" s="160" t="str">
         <v>ㄫ</v>
       </c>
-      <c r="W15" s="466" t="str">
+      <c r="W15" s="119" t="str">
         <v>ng</v>
       </c>
-      <c r="X15" s="475" t="str">
+      <c r="X15" s="111" t="str">
         <v>w</v>
       </c>
-      <c r="Z15" s="503" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT($V$5:$V$42)</f>
-        <v>ㄅㄆㄇㄉㄊㄋㄌㄍㄎㄏㄫㄗㄘㄙㄧㄨㆬㄚㆦㄜㄝㄞㄠㄢㄣㄤㄥ声ㆠㆣㆡㆪㆫㆩㆧㆥㆮㆯ</v>
-      </c>
-    </row>
-    <row r="16" spans="2:31">
-      <c r="B16" s="483">
+      <c r="Z15" s="510">
+        <f xml:space="preserve"> LEN(AA15)</f>
+        <v>44</v>
+      </c>
+      <c r="AA15" s="404" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT($V$5:$V$48)</f>
+        <v>ㄅㄆㄇㄉㄊㄋㄌㄍㄎㄏㄫㄗㄘㄙㄧㄨㆬㄚㆦㄜㄝㄞㄠㄢㄣㄤㄥ声ㆠㆣㆡㆪㆫㆩㆧㆥㆮㆯ ˪ˋ˫ˊ．</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33">
+      <c r="B16" s="387">
         <v>12</v>
       </c>
       <c r="C16" s="160" t="s">
@@ -12295,7 +12350,7 @@
       <c r="K16" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="469" t="s">
+      <c r="L16" s="376" t="s">
         <v>95</v>
       </c>
       <c r="N16" s="277">
@@ -12310,29 +12365,29 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R16" s="469" t="str">
+      <c r="R16" s="376" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T16" s="473">
+      <c r="T16" s="14">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="U16" s="464" t="str">
+      <c r="U16" s="110" t="str">
         <v>y</v>
       </c>
-      <c r="V16" s="465" t="str">
+      <c r="V16" s="160" t="str">
         <v>ㄗ</v>
       </c>
-      <c r="W16" s="466" t="str">
+      <c r="W16" s="119" t="str">
         <v>c</v>
       </c>
-      <c r="X16" s="474" t="str">
+      <c r="X16" s="109" t="str">
         <v>c</v>
       </c>
     </row>
     <row r="17" spans="2:24">
-      <c r="B17" s="484">
+      <c r="B17" s="388">
         <v>13</v>
       </c>
       <c r="C17" s="161" t="s">
@@ -12358,14 +12413,14 @@
       <c r="K17" s="120">
         <v>2</v>
       </c>
-      <c r="L17" s="463">
+      <c r="L17" s="373">
         <v>2</v>
       </c>
       <c r="N17" s="273">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="O17" s="471" t="s">
+      <c r="O17" s="378" t="s">
         <v>917</v>
       </c>
       <c r="P17" s="161"/>
@@ -12373,29 +12428,29 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R17" s="463" t="str">
+      <c r="R17" s="373" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T17" s="473">
+      <c r="T17" s="14">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="U17" s="464" t="str">
+      <c r="U17" s="110" t="str">
         <v>h</v>
       </c>
-      <c r="V17" s="465" t="str">
+      <c r="V17" s="160" t="str">
         <v>ㄘ</v>
       </c>
-      <c r="W17" s="466" t="str">
+      <c r="W17" s="119" t="str">
         <v>ch</v>
       </c>
-      <c r="X17" s="474" t="str">
+      <c r="X17" s="109" t="str">
         <v>C</v>
       </c>
     </row>
     <row r="18" spans="2:24">
-      <c r="B18" s="483">
+      <c r="B18" s="387">
         <v>14</v>
       </c>
       <c r="C18" s="160" t="s">
@@ -12414,51 +12469,51 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="I18" s="464" t="s">
+      <c r="I18" s="110" t="s">
         <v>765</v>
       </c>
-      <c r="J18" s="465"/>
-      <c r="K18" s="466" t="s">
+      <c r="J18" s="160"/>
+      <c r="K18" s="119" t="s">
         <v>612</v>
       </c>
-      <c r="L18" s="467" t="s">
+      <c r="L18" s="374" t="s">
         <v>29</v>
       </c>
       <c r="N18" s="275">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="O18" s="464" t="s">
+      <c r="O18" s="110" t="s">
         <v>749</v>
       </c>
-      <c r="P18" s="465"/>
-      <c r="Q18" s="466" t="str">
+      <c r="P18" s="160"/>
+      <c r="Q18" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R18" s="467" t="str">
+      <c r="R18" s="374" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T18" s="473">
+      <c r="T18" s="14">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="U18" s="464" t="str">
+      <c r="U18" s="110" t="str">
         <v>n</v>
       </c>
-      <c r="V18" s="465" t="str">
+      <c r="V18" s="160" t="str">
         <v>ㄙ</v>
       </c>
-      <c r="W18" s="466" t="str">
+      <c r="W18" s="119" t="str">
         <v>s</v>
       </c>
-      <c r="X18" s="474" t="str">
+      <c r="X18" s="109" t="str">
         <v>s</v>
       </c>
     </row>
     <row r="19" spans="2:24">
-      <c r="B19" s="483">
+      <c r="B19" s="387">
         <v>15</v>
       </c>
       <c r="C19" s="160" t="s">
@@ -12477,51 +12532,51 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I19" s="464" t="s">
+      <c r="I19" s="110" t="s">
         <v>767</v>
       </c>
-      <c r="J19" s="465"/>
-      <c r="K19" s="466" t="s">
+      <c r="J19" s="160"/>
+      <c r="K19" s="119" t="s">
         <v>603</v>
       </c>
-      <c r="L19" s="468" t="s">
+      <c r="L19" s="375" t="s">
         <v>60</v>
       </c>
       <c r="N19" s="275">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="O19" s="464" t="s">
+      <c r="O19" s="110" t="s">
         <v>752</v>
       </c>
-      <c r="P19" s="465"/>
-      <c r="Q19" s="466" t="str">
+      <c r="P19" s="160"/>
+      <c r="Q19" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R19" s="468" t="str">
+      <c r="R19" s="375" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T19" s="473">
+      <c r="T19" s="14">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="U19" s="464" t="str">
+      <c r="U19" s="110" t="str">
         <v>u</v>
       </c>
-      <c r="V19" s="465" t="str">
+      <c r="V19" s="160" t="str">
         <v>ㄧ</v>
       </c>
-      <c r="W19" s="466" t="str">
+      <c r="W19" s="119" t="str">
         <v>i</v>
       </c>
-      <c r="X19" s="475" t="str">
+      <c r="X19" s="111" t="str">
         <v>i</v>
       </c>
     </row>
     <row r="20" spans="2:24">
-      <c r="B20" s="485">
+      <c r="B20" s="389">
         <v>16</v>
       </c>
       <c r="C20" s="162" t="s">
@@ -12549,7 +12604,7 @@
       <c r="K20" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="L20" s="469" t="s">
+      <c r="L20" s="376" t="s">
         <v>170</v>
       </c>
       <c r="N20" s="277">
@@ -12564,29 +12619,29 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R20" s="469" t="str">
+      <c r="R20" s="376" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T20" s="473">
+      <c r="T20" s="14">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="U20" s="464" t="str">
+      <c r="U20" s="110" t="str">
         <v>j</v>
       </c>
-      <c r="V20" s="465" t="str">
+      <c r="V20" s="160" t="str">
         <v>ㄨ</v>
       </c>
-      <c r="W20" s="466" t="str">
+      <c r="W20" s="119" t="str">
         <v>u</v>
       </c>
-      <c r="X20" s="474" t="str">
+      <c r="X20" s="109" t="str">
         <v>u</v>
       </c>
     </row>
     <row r="21" spans="2:24">
-      <c r="B21" s="486">
+      <c r="B21" s="390">
         <v>17</v>
       </c>
       <c r="C21" s="163" t="s">
@@ -12612,14 +12667,14 @@
       <c r="K21" s="120">
         <v>7</v>
       </c>
-      <c r="L21" s="463">
+      <c r="L21" s="373">
         <v>7</v>
       </c>
       <c r="N21" s="273">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="O21" s="471" t="s">
+      <c r="O21" s="378" t="s">
         <v>918</v>
       </c>
       <c r="P21" s="161"/>
@@ -12627,29 +12682,29 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R21" s="463" t="str">
+      <c r="R21" s="373" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T21" s="473">
+      <c r="T21" s="14">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="U21" s="464" t="str">
+      <c r="U21" s="110" t="str">
         <v>m</v>
       </c>
-      <c r="V21" s="465" t="str">
+      <c r="V21" s="160" t="str">
         <v>ㆬ</v>
       </c>
-      <c r="W21" s="466" t="str">
+      <c r="W21" s="119" t="str">
         <v>-m</v>
       </c>
-      <c r="X21" s="474" t="str">
+      <c r="X21" s="109" t="str">
         <v>M</v>
       </c>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="487">
+      <c r="B22" s="391">
         <v>18</v>
       </c>
       <c r="C22" s="161" t="s">
@@ -12668,48 +12723,48 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="I22" s="464" t="s">
+      <c r="I22" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="J22" s="465" t="s">
+      <c r="J22" s="160" t="s">
         <v>905</v>
       </c>
-      <c r="K22" s="466" t="s">
+      <c r="K22" s="119" t="s">
         <v>905</v>
       </c>
-      <c r="L22" s="467" t="s">
+      <c r="L22" s="374" t="s">
         <v>905</v>
       </c>
       <c r="N22" s="275">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="O22" s="464" t="s">
+      <c r="O22" s="110" t="s">
         <v>338</v>
       </c>
-      <c r="P22" s="465"/>
-      <c r="Q22" s="466" t="str">
+      <c r="P22" s="160"/>
+      <c r="Q22" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R22" s="467" t="str">
+      <c r="R22" s="374" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T22" s="473">
+      <c r="T22" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="U22" s="464">
+      <c r="U22" s="110">
         <v>8</v>
       </c>
-      <c r="V22" s="465" t="str">
+      <c r="V22" s="160" t="str">
         <v>ㄚ</v>
       </c>
-      <c r="W22" s="466" t="str">
+      <c r="W22" s="119" t="str">
         <v>a</v>
       </c>
-      <c r="X22" s="474" t="str">
+      <c r="X22" s="109" t="str">
         <v>a</v>
       </c>
     </row>
@@ -12733,53 +12788,53 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="I23" s="464" t="s">
+      <c r="I23" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="J23" s="465" t="s">
+      <c r="J23" s="160" t="s">
         <v>905</v>
       </c>
-      <c r="K23" s="466" t="s">
+      <c r="K23" s="119" t="s">
         <v>905</v>
       </c>
-      <c r="L23" s="468" t="s">
+      <c r="L23" s="375" t="s">
         <v>905</v>
       </c>
       <c r="N23" s="275">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="O23" s="464" t="s">
+      <c r="O23" s="110" t="s">
         <v>299</v>
       </c>
-      <c r="P23" s="465"/>
-      <c r="Q23" s="466" t="str">
+      <c r="P23" s="160"/>
+      <c r="Q23" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R23" s="468" t="str">
+      <c r="R23" s="375" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T23" s="473">
+      <c r="T23" s="14">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="U23" s="464" t="str">
+      <c r="U23" s="110" t="str">
         <v>i</v>
       </c>
-      <c r="V23" s="465" t="str">
+      <c r="V23" s="160" t="str">
         <v>ㆦ</v>
       </c>
-      <c r="W23" s="466" t="str">
+      <c r="W23" s="119" t="str">
         <v>oo</v>
       </c>
-      <c r="X23" s="475" t="str">
+      <c r="X23" s="111" t="str">
         <v>O</v>
       </c>
     </row>
     <row r="24" spans="2:24">
-      <c r="B24" s="488">
+      <c r="B24" s="392">
         <v>20</v>
       </c>
       <c r="C24" s="161" t="s">
@@ -12807,7 +12862,7 @@
       <c r="K24" s="121" t="s">
         <v>905</v>
       </c>
-      <c r="L24" s="469" t="s">
+      <c r="L24" s="376" t="s">
         <v>905</v>
       </c>
       <c r="N24" s="277">
@@ -12822,38 +12877,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R24" s="469" t="str">
+      <c r="R24" s="376" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T24" s="473">
+      <c r="T24" s="14">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="U24" s="464" t="str">
+      <c r="U24" s="110" t="str">
         <v>k</v>
       </c>
-      <c r="V24" s="465" t="str">
+      <c r="V24" s="160" t="str">
         <v>ㄜ</v>
       </c>
-      <c r="W24" s="466" t="str">
+      <c r="W24" s="119" t="str">
         <v>o</v>
       </c>
-      <c r="X24" s="474" t="str">
+      <c r="X24" s="109" t="str">
         <v>o</v>
       </c>
     </row>
     <row r="25" spans="2:24">
-      <c r="B25" s="489">
+      <c r="B25" s="393">
         <v>21</v>
       </c>
-      <c r="C25" s="465" t="s">
+      <c r="C25" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="466" t="s">
+      <c r="D25" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="474" t="s">
+      <c r="E25" s="109" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="276" t="s">
@@ -12870,14 +12925,14 @@
       <c r="K25" s="120">
         <v>5</v>
       </c>
-      <c r="L25" s="463">
+      <c r="L25" s="373">
         <v>5</v>
       </c>
       <c r="N25" s="273">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="O25" s="471" t="s">
+      <c r="O25" s="378" t="s">
         <v>919</v>
       </c>
       <c r="P25" s="161"/>
@@ -12885,38 +12940,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R25" s="463" t="str">
+      <c r="R25" s="373" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T25" s="473">
+      <c r="T25" s="14">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="U25" s="464" t="str">
+      <c r="U25" s="110" t="str">
         <v>,</v>
       </c>
-      <c r="V25" s="465" t="str">
+      <c r="V25" s="160" t="str">
         <v>ㄝ</v>
       </c>
-      <c r="W25" s="466" t="str">
+      <c r="W25" s="119" t="str">
         <v>e</v>
       </c>
-      <c r="X25" s="474" t="str">
+      <c r="X25" s="109" t="str">
         <v>e</v>
       </c>
     </row>
     <row r="26" spans="2:24">
-      <c r="B26" s="489">
+      <c r="B26" s="393">
         <v>22</v>
       </c>
-      <c r="C26" s="465" t="s">
+      <c r="C26" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="466" t="s">
+      <c r="D26" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="474" t="s">
+      <c r="E26" s="109" t="s">
         <v>79</v>
       </c>
       <c r="F26" s="276" t="s">
@@ -12926,56 +12981,56 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="I26" s="464" t="s">
+      <c r="I26" s="110" t="s">
         <v>305</v>
       </c>
-      <c r="J26" s="465" t="s">
+      <c r="J26" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="466" t="s">
+      <c r="K26" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="L26" s="467" t="s">
+      <c r="L26" s="374" t="s">
         <v>166</v>
       </c>
       <c r="N26" s="275">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="O26" s="464" t="s">
+      <c r="O26" s="110" t="s">
         <v>306</v>
       </c>
-      <c r="P26" s="465" t="str">
+      <c r="P26" s="160" t="str">
         <f>C19</f>
         <v>ㆡ</v>
       </c>
-      <c r="Q26" s="466" t="str">
+      <c r="Q26" s="119" t="str">
         <f t="shared" si="0"/>
         <v>j</v>
       </c>
-      <c r="R26" s="467" t="str">
+      <c r="R26" s="374" t="str">
         <f t="shared" si="1"/>
         <v>j</v>
       </c>
-      <c r="T26" s="473">
+      <c r="T26" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="U26" s="464">
+      <c r="U26" s="110">
         <v>9</v>
       </c>
-      <c r="V26" s="465" t="str">
+      <c r="V26" s="160" t="str">
         <v>ㄞ</v>
       </c>
-      <c r="W26" s="466" t="str">
+      <c r="W26" s="119" t="str">
         <v>ai</v>
       </c>
-      <c r="X26" s="474" t="str">
+      <c r="X26" s="109" t="str">
         <v>I</v>
       </c>
     </row>
     <row r="27" spans="2:24">
-      <c r="B27" s="490">
+      <c r="B27" s="394">
         <v>23</v>
       </c>
       <c r="C27" s="162" t="s">
@@ -12994,48 +13049,48 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="I27" s="464" t="s">
+      <c r="I27" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="J27" s="465" t="s">
+      <c r="J27" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="K27" s="466" t="s">
+      <c r="K27" s="119" t="s">
         <v>805</v>
       </c>
-      <c r="L27" s="468" t="s">
+      <c r="L27" s="375" t="s">
         <v>83</v>
       </c>
       <c r="N27" s="275">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="O27" s="464" t="s">
+      <c r="O27" s="110" t="s">
         <v>763</v>
       </c>
-      <c r="P27" s="465"/>
-      <c r="Q27" s="466" t="str">
+      <c r="P27" s="160"/>
+      <c r="Q27" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R27" s="468" t="str">
+      <c r="R27" s="375" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T27" s="473">
+      <c r="T27" s="14">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="U27" s="464" t="str">
+      <c r="U27" s="110" t="str">
         <v>l</v>
       </c>
-      <c r="V27" s="465" t="str">
+      <c r="V27" s="160" t="str">
         <v>ㄠ</v>
       </c>
-      <c r="W27" s="466" t="str">
+      <c r="W27" s="119" t="str">
         <v>au</v>
       </c>
-      <c r="X27" s="475" t="str">
+      <c r="X27" s="111" t="str">
         <v>U</v>
       </c>
     </row>
@@ -13068,7 +13123,7 @@
       <c r="K28" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="L28" s="469" t="s">
+      <c r="L28" s="376" t="s">
         <v>99</v>
       </c>
       <c r="N28" s="277">
@@ -13083,24 +13138,24 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R28" s="469" t="str">
+      <c r="R28" s="376" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T28" s="473">
+      <c r="T28" s="14">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="U28" s="464">
+      <c r="U28" s="110">
         <v>0</v>
       </c>
-      <c r="V28" s="465" t="str">
+      <c r="V28" s="160" t="str">
         <v>ㄢ</v>
       </c>
-      <c r="W28" s="466" t="str">
+      <c r="W28" s="119" t="str">
         <v>an</v>
       </c>
-      <c r="X28" s="474" t="str">
+      <c r="X28" s="109" t="str">
         <v>L</v>
       </c>
     </row>
@@ -13131,14 +13186,14 @@
       <c r="K29" s="120">
         <v>8</v>
       </c>
-      <c r="L29" s="463">
+      <c r="L29" s="373">
         <v>0</v>
       </c>
       <c r="N29" s="273">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="O29" s="471" t="s">
+      <c r="O29" s="378" t="s">
         <v>920</v>
       </c>
       <c r="P29" s="161"/>
@@ -13146,24 +13201,24 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R29" s="463" t="str">
+      <c r="R29" s="373" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T29" s="473">
+      <c r="T29" s="14">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="U29" s="464" t="str">
+      <c r="U29" s="110" t="str">
         <v>p</v>
       </c>
-      <c r="V29" s="465" t="str">
+      <c r="V29" s="160" t="str">
         <v>ㄣ</v>
       </c>
-      <c r="W29" s="466" t="str">
+      <c r="W29" s="119" t="str">
         <v>-n</v>
       </c>
-      <c r="X29" s="474" t="str">
+      <c r="X29" s="109" t="str">
         <v>D</v>
       </c>
     </row>
@@ -13187,51 +13242,51 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="I30" s="464" t="s">
+      <c r="I30" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="J30" s="465" t="s">
+      <c r="J30" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="466" t="s">
+      <c r="K30" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="L30" s="467" t="s">
+      <c r="L30" s="374" t="s">
         <v>49</v>
       </c>
       <c r="N30" s="275">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="O30" s="464" t="s">
+      <c r="O30" s="110" t="s">
         <v>616</v>
       </c>
-      <c r="P30" s="465" t="str">
+      <c r="P30" s="160" t="str">
         <f>C42</f>
         <v>ㆪ</v>
       </c>
-      <c r="Q30" s="466" t="str">
+      <c r="Q30" s="119" t="str">
         <f t="shared" si="0"/>
         <v>in</v>
       </c>
-      <c r="R30" s="467" t="str">
+      <c r="R30" s="374" t="str">
         <f t="shared" si="1"/>
         <v>Z</v>
       </c>
-      <c r="T30" s="473">
+      <c r="T30" s="14">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="U30" s="464" t="str">
+      <c r="U30" s="110" t="str">
         <v>;</v>
       </c>
-      <c r="V30" s="465" t="str">
+      <c r="V30" s="160" t="str">
         <v>ㄤ</v>
       </c>
-      <c r="W30" s="466" t="str">
+      <c r="W30" s="119" t="str">
         <v>ang</v>
       </c>
-      <c r="X30" s="474" t="str">
+      <c r="X30" s="109" t="str">
         <v>Q</v>
       </c>
     </row>
@@ -13255,51 +13310,51 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="I31" s="464" t="s">
+      <c r="I31" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="J31" s="465" t="s">
+      <c r="J31" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="K31" s="466" t="s">
+      <c r="K31" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="L31" s="468" t="s">
+      <c r="L31" s="375" t="s">
         <v>77</v>
       </c>
       <c r="N31" s="275">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="O31" s="464" t="s">
+      <c r="O31" s="110" t="s">
         <v>742</v>
       </c>
-      <c r="P31" s="465" t="str">
+      <c r="P31" s="160" t="str">
         <f>C43</f>
         <v>ㆫ</v>
       </c>
-      <c r="Q31" s="466" t="str">
+      <c r="Q31" s="119" t="str">
         <f t="shared" si="0"/>
         <v>un</v>
       </c>
-      <c r="R31" s="468" t="str">
+      <c r="R31" s="375" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-      <c r="T31" s="473">
+      <c r="T31" s="14">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="U31" s="464" t="str">
+      <c r="U31" s="110" t="str">
         <v>/</v>
       </c>
-      <c r="V31" s="465" t="str">
+      <c r="V31" s="160" t="str">
         <v>ㄥ</v>
       </c>
-      <c r="W31" s="466" t="str">
+      <c r="W31" s="119" t="str">
         <v>-ng</v>
       </c>
-      <c r="X31" s="475" t="str">
+      <c r="X31" s="111" t="str">
         <v>W</v>
       </c>
     </row>
@@ -13332,7 +13387,7 @@
       <c r="K32" s="121" t="s">
         <v>904</v>
       </c>
-      <c r="L32" s="469" t="s">
+      <c r="L32" s="376" t="s">
         <v>87</v>
       </c>
       <c r="N32" s="277">
@@ -13347,24 +13402,24 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R32" s="469" t="str">
+      <c r="R32" s="376" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T32" s="473">
+      <c r="T32" s="14">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="U32" s="464" t="str">
+      <c r="U32" s="110" t="str">
         <v>z</v>
       </c>
-      <c r="V32" s="465" t="str">
+      <c r="V32" s="160" t="str">
         <v>声</v>
       </c>
-      <c r="W32" s="466" t="str">
+      <c r="W32" s="119" t="str">
         <v>-nn</v>
       </c>
-      <c r="X32" s="474" t="str">
+      <c r="X32" s="109" t="str">
         <v>A</v>
       </c>
     </row>
@@ -13397,14 +13452,14 @@
       <c r="K33" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="463" t="s">
+      <c r="L33" s="373" t="s">
         <v>21</v>
       </c>
       <c r="N33" s="273">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="O33" s="471" t="s">
+      <c r="O33" s="378" t="s">
         <v>743</v>
       </c>
       <c r="P33" s="161" t="str">
@@ -13415,30 +13470,30 @@
         <f t="shared" si="0"/>
         <v>an</v>
       </c>
-      <c r="R33" s="463" t="str">
+      <c r="R33" s="373" t="str">
         <f t="shared" si="1"/>
         <v>R</v>
       </c>
-      <c r="T33" s="473">
+      <c r="T33" s="14">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="U33" s="498" t="str" cm="1">
+      <c r="U33" s="399" t="str" cm="1">
         <f t="array" ref="U33:X42">_xlfn._xlws.FILTER(O5:R50, P5:P50&lt;&gt;"")</f>
         <v>!</v>
       </c>
-      <c r="V33" s="496" t="str">
+      <c r="V33" s="397" t="str">
         <v>ㆠ</v>
       </c>
-      <c r="W33" s="497" t="str">
+      <c r="W33" s="398" t="str">
         <v>b</v>
       </c>
-      <c r="X33" s="499" t="str">
+      <c r="X33" s="400" t="str">
         <v>b</v>
       </c>
     </row>
     <row r="34" spans="2:24">
-      <c r="B34" s="488">
+      <c r="B34" s="392">
         <v>30</v>
       </c>
       <c r="C34" s="161" t="s">
@@ -13457,56 +13512,56 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I34" s="464" t="s">
+      <c r="I34" s="110" t="s">
         <v>154</v>
       </c>
-      <c r="J34" s="465" t="s">
+      <c r="J34" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="K34" s="466" t="s">
+      <c r="K34" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="L34" s="467" t="s">
+      <c r="L34" s="374" t="s">
         <v>32</v>
       </c>
       <c r="N34" s="275">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="O34" s="464" t="s">
+      <c r="O34" s="110" t="s">
         <v>615</v>
       </c>
-      <c r="P34" s="465" t="str">
+      <c r="P34" s="160" t="str">
         <f>C45</f>
         <v>ㆧ</v>
       </c>
-      <c r="Q34" s="466" t="str">
+      <c r="Q34" s="119" t="str">
         <f t="shared" si="0"/>
         <v>oon</v>
       </c>
-      <c r="R34" s="467" t="str">
+      <c r="R34" s="374" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="T34" s="473">
+      <c r="T34" s="14">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="U34" s="495" t="str">
+      <c r="U34" s="396" t="str">
         <v>E</v>
       </c>
-      <c r="V34" s="496" t="str">
+      <c r="V34" s="397" t="str">
         <v>ㆣ</v>
       </c>
-      <c r="W34" s="497" t="str">
+      <c r="W34" s="398" t="str">
         <v>g</v>
       </c>
-      <c r="X34" s="499" t="str">
+      <c r="X34" s="400" t="str">
         <v>g</v>
       </c>
     </row>
     <row r="35" spans="2:24">
-      <c r="B35" s="490">
+      <c r="B35" s="394">
         <v>31</v>
       </c>
       <c r="C35" s="162" t="s">
@@ -13525,53 +13580,53 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="I35" s="464" t="s">
+      <c r="I35" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="J35" s="465" t="s">
+      <c r="J35" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="K35" s="466" t="s">
+      <c r="K35" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="L35" s="468" t="s">
+      <c r="L35" s="375" t="s">
         <v>79</v>
       </c>
       <c r="N35" s="275">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="O35" s="464" t="s">
+      <c r="O35" s="110" t="s">
         <v>339</v>
       </c>
-      <c r="P35" s="465"/>
-      <c r="Q35" s="466" t="str">
+      <c r="P35" s="160"/>
+      <c r="Q35" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R35" s="468" t="str">
+      <c r="R35" s="375" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T35" s="473">
+      <c r="T35" s="14">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="U35" s="498" t="str">
+      <c r="U35" s="399" t="str">
         <v>Y</v>
       </c>
-      <c r="V35" s="496" t="str">
+      <c r="V35" s="397" t="str">
         <v>ㆡ</v>
       </c>
-      <c r="W35" s="497" t="str">
+      <c r="W35" s="398" t="str">
         <v>j</v>
       </c>
-      <c r="X35" s="499" t="str">
+      <c r="X35" s="400" t="str">
         <v>j</v>
       </c>
     </row>
     <row r="36" spans="2:24">
-      <c r="B36" s="488">
+      <c r="B36" s="392">
         <v>32</v>
       </c>
       <c r="C36" s="161" t="s">
@@ -13599,7 +13654,7 @@
       <c r="K36" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="L36" s="469" t="s">
+      <c r="L36" s="376" t="s">
         <v>53</v>
       </c>
       <c r="N36" s="277">
@@ -13617,38 +13672,38 @@
         <f t="shared" si="0"/>
         <v>en</v>
       </c>
-      <c r="R36" s="469" t="str">
+      <c r="R36" s="376" t="str">
         <f t="shared" si="1"/>
         <v>E</v>
       </c>
-      <c r="T36" s="473">
+      <c r="T36" s="14">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="U36" s="498" t="str">
+      <c r="U36" s="399" t="str">
         <v>U</v>
       </c>
-      <c r="V36" s="496" t="str">
+      <c r="V36" s="397" t="str">
         <v>ㆪ</v>
       </c>
-      <c r="W36" s="497" t="str">
+      <c r="W36" s="398" t="str">
         <v>in</v>
       </c>
-      <c r="X36" s="499" t="str">
+      <c r="X36" s="400" t="str">
         <v>Z</v>
       </c>
     </row>
     <row r="37" spans="2:24">
-      <c r="B37" s="489">
+      <c r="B37" s="393">
         <v>33</v>
       </c>
-      <c r="C37" s="465" t="s">
+      <c r="C37" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="466">
+      <c r="D37" s="119">
         <v>5</v>
       </c>
-      <c r="E37" s="474">
+      <c r="E37" s="109">
         <v>5</v>
       </c>
       <c r="F37" s="276">
@@ -13667,14 +13722,14 @@
       <c r="K37" s="120" t="s">
         <v>469</v>
       </c>
-      <c r="L37" s="463" t="s">
+      <c r="L37" s="373" t="s">
         <v>31</v>
       </c>
       <c r="N37" s="273">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="O37" s="471" t="s">
+      <c r="O37" s="378" t="s">
         <v>732</v>
       </c>
       <c r="P37" s="161" t="str">
@@ -13685,38 +13740,38 @@
         <f t="shared" si="0"/>
         <v>ain</v>
       </c>
-      <c r="R37" s="463" t="str">
+      <c r="R37" s="373" t="str">
         <f t="shared" si="1"/>
         <v>V</v>
       </c>
-      <c r="T37" s="473">
+      <c r="T37" s="14">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="U37" s="498" t="str">
+      <c r="U37" s="399" t="str">
         <v>J</v>
       </c>
-      <c r="V37" s="496" t="str">
+      <c r="V37" s="397" t="str">
         <v>ㆫ</v>
       </c>
-      <c r="W37" s="497" t="str">
+      <c r="W37" s="398" t="str">
         <v>un</v>
       </c>
-      <c r="X37" s="499" t="str">
+      <c r="X37" s="400" t="str">
         <v>X</v>
       </c>
     </row>
     <row r="38" spans="2:24">
-      <c r="B38" s="489">
+      <c r="B38" s="393">
         <v>34</v>
       </c>
-      <c r="C38" s="465" t="s">
+      <c r="C38" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="466">
+      <c r="D38" s="119">
         <v>2</v>
       </c>
-      <c r="E38" s="474">
+      <c r="E38" s="109">
         <v>2</v>
       </c>
       <c r="F38" s="276">
@@ -13726,62 +13781,62 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="I38" s="464" t="s">
+      <c r="I38" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="J38" s="465" t="s">
+      <c r="J38" s="160" t="s">
         <v>905</v>
       </c>
-      <c r="K38" s="466" t="s">
+      <c r="K38" s="119" t="s">
         <v>905</v>
       </c>
-      <c r="L38" s="467" t="s">
+      <c r="L38" s="374" t="s">
         <v>905</v>
       </c>
       <c r="N38" s="275">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="O38" s="464" t="s">
+      <c r="O38" s="110" t="s">
         <v>304</v>
       </c>
-      <c r="P38" s="465"/>
-      <c r="Q38" s="466" t="str">
+      <c r="P38" s="160"/>
+      <c r="Q38" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R38" s="467" t="str">
+      <c r="R38" s="374" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T38" s="473">
+      <c r="T38" s="14">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="U38" s="498" t="str">
+      <c r="U38" s="399" t="str">
         <v>*</v>
       </c>
-      <c r="V38" s="496" t="str">
+      <c r="V38" s="397" t="str">
         <v>ㆩ</v>
       </c>
-      <c r="W38" s="497" t="str">
+      <c r="W38" s="398" t="str">
         <v>an</v>
       </c>
-      <c r="X38" s="499" t="str">
+      <c r="X38" s="400" t="str">
         <v>R</v>
       </c>
     </row>
     <row r="39" spans="2:24">
-      <c r="B39" s="489">
+      <c r="B39" s="393">
         <v>35</v>
       </c>
-      <c r="C39" s="465" t="s">
+      <c r="C39" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="466" t="s">
+      <c r="D39" s="119" t="s">
         <v>905</v>
       </c>
-      <c r="E39" s="474" t="s">
+      <c r="E39" s="109" t="s">
         <v>905</v>
       </c>
       <c r="F39" s="276" t="s">
@@ -13791,65 +13846,65 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="I39" s="464" t="s">
+      <c r="I39" s="110" t="s">
         <v>200</v>
       </c>
-      <c r="J39" s="465" t="s">
+      <c r="J39" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="K39" s="466" t="s">
+      <c r="K39" s="119" t="s">
         <v>472</v>
       </c>
-      <c r="L39" s="468" t="s">
+      <c r="L39" s="375" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="275">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="O39" s="464" t="s">
+      <c r="O39" s="110" t="s">
         <v>724</v>
       </c>
-      <c r="P39" s="465" t="str">
+      <c r="P39" s="160" t="str">
         <f>C48</f>
         <v>ㆯ</v>
       </c>
-      <c r="Q39" s="466" t="str">
+      <c r="Q39" s="119" t="str">
         <f t="shared" si="0"/>
         <v>aun</v>
       </c>
-      <c r="R39" s="468" t="str">
+      <c r="R39" s="375" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="T39" s="473">
+      <c r="T39" s="14">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="U39" s="498" t="str">
+      <c r="U39" s="399" t="str">
         <v>I</v>
       </c>
-      <c r="V39" s="496" t="str">
+      <c r="V39" s="397" t="str">
         <v>ㆧ</v>
       </c>
-      <c r="W39" s="497" t="str">
+      <c r="W39" s="398" t="str">
         <v>oon</v>
       </c>
-      <c r="X39" s="499" t="str">
+      <c r="X39" s="400" t="str">
         <v>S</v>
       </c>
     </row>
     <row r="40" spans="2:24">
-      <c r="B40" s="489">
+      <c r="B40" s="393">
         <v>36</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="466">
+      <c r="D40" s="119">
         <v>3</v>
       </c>
-      <c r="E40" s="474">
+      <c r="E40" s="109">
         <v>3</v>
       </c>
       <c r="F40" s="276">
@@ -13868,7 +13923,7 @@
       <c r="K40" s="121" t="s">
         <v>905</v>
       </c>
-      <c r="L40" s="469" t="s">
+      <c r="L40" s="376" t="s">
         <v>905</v>
       </c>
       <c r="N40" s="277">
@@ -13883,38 +13938,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R40" s="469" t="str">
+      <c r="R40" s="376" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T40" s="473">
+      <c r="T40" s="14">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="U40" s="498" t="str">
+      <c r="U40" s="399" t="str">
         <v>,</v>
       </c>
-      <c r="V40" s="496" t="str">
+      <c r="V40" s="397" t="str">
         <v>ㆥ</v>
       </c>
-      <c r="W40" s="497" t="str">
+      <c r="W40" s="398" t="str">
         <v>en</v>
       </c>
-      <c r="X40" s="499" t="str">
+      <c r="X40" s="400" t="str">
         <v>E</v>
       </c>
     </row>
     <row r="41" spans="2:24">
-      <c r="B41" s="489">
+      <c r="B41" s="393">
         <v>37</v>
       </c>
-      <c r="C41" s="465" t="s">
+      <c r="C41" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="466">
+      <c r="D41" s="119">
         <v>7</v>
       </c>
-      <c r="E41" s="474">
+      <c r="E41" s="109">
         <v>7</v>
       </c>
       <c r="F41" s="276">
@@ -13933,14 +13988,14 @@
       <c r="K41" s="120" t="s">
         <v>606</v>
       </c>
-      <c r="L41" s="463" t="s">
+      <c r="L41" s="373" t="s">
         <v>63</v>
       </c>
       <c r="N41" s="273">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="O41" s="471" t="s">
+      <c r="O41" s="378" t="s">
         <v>921</v>
       </c>
       <c r="P41" s="161"/>
@@ -13948,29 +14003,29 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R41" s="463" t="str">
+      <c r="R41" s="373" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T41" s="473">
+      <c r="T41" s="14">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="U41" s="498" t="str">
+      <c r="U41" s="399" t="str">
         <v>(</v>
       </c>
-      <c r="V41" s="496" t="str">
+      <c r="V41" s="397" t="str">
         <v>ㆮ</v>
       </c>
-      <c r="W41" s="497" t="str">
+      <c r="W41" s="398" t="str">
         <v>ain</v>
       </c>
-      <c r="X41" s="499" t="str">
+      <c r="X41" s="400" t="str">
         <v>V</v>
       </c>
     </row>
     <row r="42" spans="2:24">
-      <c r="B42" s="488">
+      <c r="B42" s="392">
         <v>38</v>
       </c>
       <c r="C42" s="161" t="s">
@@ -13989,62 +14044,62 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="I42" s="464" t="s">
+      <c r="I42" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="J42" s="465" t="s">
+      <c r="J42" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="K42" s="466" t="s">
+      <c r="K42" s="119" t="s">
         <v>329</v>
       </c>
-      <c r="L42" s="467" t="s">
+      <c r="L42" s="374" t="s">
         <v>57</v>
       </c>
       <c r="N42" s="275">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="O42" s="464" t="s">
+      <c r="O42" s="110" t="s">
         <v>337</v>
       </c>
-      <c r="P42" s="465"/>
-      <c r="Q42" s="466" t="str">
+      <c r="P42" s="160"/>
+      <c r="Q42" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R42" s="467" t="str">
+      <c r="R42" s="374" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T42" s="473">
+      <c r="T42" s="14">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="U42" s="498" t="str">
+      <c r="U42" s="399" t="str">
         <v>L</v>
       </c>
-      <c r="V42" s="496" t="str">
+      <c r="V42" s="397" t="str">
         <v>ㆯ</v>
       </c>
-      <c r="W42" s="497" t="str">
+      <c r="W42" s="398" t="str">
         <v>aun</v>
       </c>
-      <c r="X42" s="499" t="str">
+      <c r="X42" s="400" t="str">
         <v>F</v>
       </c>
     </row>
     <row r="43" spans="2:24">
-      <c r="B43" s="489">
+      <c r="B43" s="393">
         <v>39</v>
       </c>
-      <c r="C43" s="465" t="s">
+      <c r="C43" s="160" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="466" t="s">
+      <c r="D43" s="119" t="s">
         <v>605</v>
       </c>
-      <c r="E43" s="474" t="s">
+      <c r="E43" s="109" t="s">
         <v>82</v>
       </c>
       <c r="F43" s="276" t="s">
@@ -14054,62 +14109,62 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="I43" s="464" t="s">
+      <c r="I43" s="110" t="s">
         <v>727</v>
       </c>
-      <c r="J43" s="465" t="s">
+      <c r="J43" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="K43" s="466" t="s">
+      <c r="K43" s="119" t="s">
         <v>609</v>
       </c>
-      <c r="L43" s="468" t="s">
+      <c r="L43" s="375" t="s">
         <v>24</v>
       </c>
       <c r="N43" s="275">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="O43" s="472" t="s">
+      <c r="O43" s="379" t="s">
         <v>926</v>
       </c>
-      <c r="P43" s="465"/>
-      <c r="Q43" s="466" t="str">
+      <c r="P43" s="160"/>
+      <c r="Q43" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R43" s="468" t="str">
+      <c r="R43" s="375" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T43" s="473">
+      <c r="T43" s="14">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="U43" s="508" t="s">
+      <c r="U43" s="409" t="s">
         <v>776</v>
       </c>
-      <c r="V43" s="509" t="s">
+      <c r="V43" s="410" t="s">
         <v>776</v>
       </c>
-      <c r="W43" s="510">
+      <c r="W43" s="411">
         <v>1</v>
       </c>
-      <c r="X43" s="511">
+      <c r="X43" s="412">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:24">
-      <c r="B44" s="489">
+      <c r="B44" s="393">
         <v>40</v>
       </c>
-      <c r="C44" s="465" t="s">
+      <c r="C44" s="160" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="466" t="s">
+      <c r="D44" s="119" t="s">
         <v>606</v>
       </c>
-      <c r="E44" s="474" t="s">
+      <c r="E44" s="109" t="s">
         <v>27</v>
       </c>
       <c r="F44" s="276" t="s">
@@ -14119,62 +14174,62 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="I44" s="472" t="s">
+      <c r="I44" s="379" t="s">
         <v>354</v>
       </c>
-      <c r="J44" s="465" t="s">
+      <c r="J44" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="K44" s="466" t="s">
+      <c r="K44" s="119" t="s">
         <v>314</v>
       </c>
-      <c r="L44" s="467" t="s">
+      <c r="L44" s="374" t="s">
         <v>25</v>
       </c>
       <c r="N44" s="275">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="O44" s="472" t="s">
+      <c r="O44" s="379" t="s">
         <v>231</v>
       </c>
-      <c r="P44" s="465"/>
-      <c r="Q44" s="466" t="str">
+      <c r="P44" s="160"/>
+      <c r="Q44" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R44" s="467" t="str">
+      <c r="R44" s="374" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T44" s="473">
+      <c r="T44" s="14">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="U44" s="508">
+      <c r="U44" s="409">
         <v>3</v>
       </c>
-      <c r="V44" s="509" t="s">
+      <c r="V44" s="410" t="s">
         <v>12</v>
       </c>
-      <c r="W44" s="510">
+      <c r="W44" s="411">
         <v>3</v>
       </c>
-      <c r="X44" s="511">
+      <c r="X44" s="412">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:24">
-      <c r="B45" s="489">
+      <c r="B45" s="393">
         <v>41</v>
       </c>
-      <c r="C45" s="465" t="s">
+      <c r="C45" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="466" t="s">
+      <c r="D45" s="119" t="s">
         <v>906</v>
       </c>
-      <c r="E45" s="474" t="s">
+      <c r="E45" s="109" t="s">
         <v>56</v>
       </c>
       <c r="F45" s="276" t="s">
@@ -14184,62 +14239,62 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="I45" s="472" t="s">
+      <c r="I45" s="379" t="s">
         <v>301</v>
       </c>
-      <c r="J45" s="465" t="s">
+      <c r="J45" s="160" t="s">
         <v>911</v>
       </c>
-      <c r="K45" s="466" t="s">
+      <c r="K45" s="119" t="s">
         <v>912</v>
       </c>
-      <c r="L45" s="467" t="s">
+      <c r="L45" s="374" t="s">
         <v>806</v>
       </c>
       <c r="N45" s="275">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="O45" s="472" t="s">
+      <c r="O45" s="379" t="s">
         <v>922</v>
       </c>
-      <c r="P45" s="465"/>
-      <c r="Q45" s="466" t="str">
+      <c r="P45" s="160"/>
+      <c r="Q45" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R45" s="467" t="str">
+      <c r="R45" s="374" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T45" s="473">
+      <c r="T45" s="14">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="U45" s="508">
+      <c r="U45" s="409">
         <v>4</v>
       </c>
-      <c r="V45" s="509" t="s">
+      <c r="V45" s="410" t="s">
         <v>14</v>
       </c>
-      <c r="W45" s="510">
+      <c r="W45" s="411">
         <v>2</v>
       </c>
-      <c r="X45" s="511">
+      <c r="X45" s="412">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:24">
-      <c r="B46" s="489">
+      <c r="B46" s="393">
         <v>42</v>
       </c>
-      <c r="C46" s="465" t="s">
+      <c r="C46" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="466" t="s">
+      <c r="D46" s="119" t="s">
         <v>907</v>
       </c>
-      <c r="E46" s="474" t="s">
+      <c r="E46" s="109" t="s">
         <v>26</v>
       </c>
       <c r="F46" s="276" t="s">
@@ -14249,62 +14304,62 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="I46" s="464" t="s">
+      <c r="I46" s="110" t="s">
         <v>898</v>
       </c>
-      <c r="J46" s="465" t="s">
+      <c r="J46" s="160" t="s">
         <v>905</v>
       </c>
-      <c r="K46" s="466" t="s">
+      <c r="K46" s="119" t="s">
         <v>905</v>
       </c>
-      <c r="L46" s="467" t="s">
+      <c r="L46" s="374" t="s">
         <v>905</v>
       </c>
       <c r="N46" s="275">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="O46" s="472" t="s">
+      <c r="O46" s="379" t="s">
         <v>924</v>
       </c>
-      <c r="P46" s="465"/>
-      <c r="Q46" s="466" t="str">
+      <c r="P46" s="160"/>
+      <c r="Q46" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R46" s="467" t="str">
+      <c r="R46" s="374" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T46" s="473">
+      <c r="T46" s="14">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="U46" s="508">
+      <c r="U46" s="409">
         <v>5</v>
       </c>
-      <c r="V46" s="509" t="s">
+      <c r="V46" s="410" t="s">
         <v>16</v>
       </c>
-      <c r="W46" s="510">
+      <c r="W46" s="411">
         <v>7</v>
       </c>
-      <c r="X46" s="511">
+      <c r="X46" s="412">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="2:24">
-      <c r="B47" s="489">
+      <c r="B47" s="393">
         <v>43</v>
       </c>
-      <c r="C47" s="465" t="s">
+      <c r="C47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="466" t="s">
+      <c r="D47" s="119" t="s">
         <v>908</v>
       </c>
-      <c r="E47" s="474" t="s">
+      <c r="E47" s="109" t="s">
         <v>84</v>
       </c>
       <c r="F47" s="276" t="s">
@@ -14314,62 +14369,62 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="I47" s="472" t="s">
+      <c r="I47" s="379" t="s">
         <v>899</v>
       </c>
-      <c r="J47" s="465" t="s">
+      <c r="J47" s="160" t="s">
         <v>905</v>
       </c>
-      <c r="K47" s="466" t="s">
+      <c r="K47" s="119" t="s">
         <v>905</v>
       </c>
-      <c r="L47" s="468" t="s">
+      <c r="L47" s="375" t="s">
         <v>905</v>
       </c>
       <c r="N47" s="275">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="O47" s="472" t="s">
+      <c r="O47" s="379" t="s">
         <v>927</v>
       </c>
-      <c r="P47" s="465"/>
-      <c r="Q47" s="466" t="str">
+      <c r="P47" s="160"/>
+      <c r="Q47" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R47" s="468" t="str">
+      <c r="R47" s="375" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T47" s="473">
+      <c r="T47" s="14">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="U47" s="508">
+      <c r="U47" s="409">
         <v>6</v>
       </c>
-      <c r="V47" s="509" t="s">
+      <c r="V47" s="410" t="s">
         <v>18</v>
       </c>
-      <c r="W47" s="510">
+      <c r="W47" s="411">
         <v>5</v>
       </c>
-      <c r="X47" s="511">
+      <c r="X47" s="412">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:24">
-      <c r="B48" s="489">
+      <c r="B48" s="393">
         <v>44</v>
       </c>
-      <c r="C48" s="465" t="s">
+      <c r="C48" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="466" t="s">
+      <c r="D48" s="119" t="s">
         <v>909</v>
       </c>
-      <c r="E48" s="474" t="s">
+      <c r="E48" s="109" t="s">
         <v>58</v>
       </c>
       <c r="F48" s="276" t="s">
@@ -14379,121 +14434,121 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="I48" s="472" t="s">
+      <c r="I48" s="379" t="s">
         <v>900</v>
       </c>
-      <c r="J48" s="465" t="s">
+      <c r="J48" s="160" t="s">
         <v>905</v>
       </c>
-      <c r="K48" s="466" t="s">
+      <c r="K48" s="119" t="s">
         <v>905</v>
       </c>
-      <c r="L48" s="467" t="s">
+      <c r="L48" s="374" t="s">
         <v>905</v>
       </c>
       <c r="N48" s="275">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="O48" s="472" t="s">
+      <c r="O48" s="379" t="s">
         <v>923</v>
       </c>
-      <c r="P48" s="465"/>
-      <c r="Q48" s="466" t="str">
+      <c r="P48" s="160"/>
+      <c r="Q48" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R48" s="467" t="str">
+      <c r="R48" s="374" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T48" s="473">
+      <c r="T48" s="14">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="U48" s="508">
+      <c r="U48" s="409">
         <v>7</v>
       </c>
-      <c r="V48" s="509" t="s">
+      <c r="V48" s="410" t="s">
         <v>910</v>
       </c>
-      <c r="W48" s="510">
+      <c r="W48" s="411">
         <v>8</v>
       </c>
-      <c r="X48" s="511">
+      <c r="X48" s="412">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:18">
-      <c r="B49" s="459">
+      <c r="B49" s="173">
         <v>45</v>
       </c>
-      <c r="C49" s="465" t="s">
+      <c r="C49" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="466" t="s">
+      <c r="D49" s="119" t="s">
         <v>600</v>
       </c>
-      <c r="E49" s="474" t="s">
+      <c r="E49" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="464" t="s">
+      <c r="F49" s="110" t="s">
         <v>174</v>
       </c>
       <c r="H49" s="275">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="I49" s="472" t="s">
+      <c r="I49" s="379" t="s">
         <v>901</v>
       </c>
-      <c r="J49" s="465" t="s">
+      <c r="J49" s="160" t="s">
         <v>905</v>
       </c>
-      <c r="K49" s="466" t="s">
+      <c r="K49" s="119" t="s">
         <v>905</v>
       </c>
-      <c r="L49" s="467" t="s">
+      <c r="L49" s="374" t="s">
         <v>905</v>
       </c>
       <c r="N49" s="275">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="O49" s="472" t="s">
+      <c r="O49" s="379" t="s">
         <v>925</v>
       </c>
-      <c r="P49" s="465"/>
-      <c r="Q49" s="466" t="str">
+      <c r="P49" s="160"/>
+      <c r="Q49" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R49" s="467" t="str">
+      <c r="R49" s="374" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="2:18">
-      <c r="B50" s="459">
+      <c r="B50" s="173">
         <v>46</v>
       </c>
-      <c r="C50" s="465" t="s">
+      <c r="C50" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="466" t="s">
+      <c r="D50" s="119" t="s">
         <v>603</v>
       </c>
-      <c r="E50" s="474" t="s">
+      <c r="E50" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="F50" s="464" t="s">
+      <c r="F50" s="110" t="s">
         <v>173</v>
       </c>
       <c r="H50" s="277">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="I50" s="470" t="s">
+      <c r="I50" s="377" t="s">
         <v>902</v>
       </c>
       <c r="J50" s="162" t="s">
@@ -14502,14 +14557,14 @@
       <c r="K50" s="121" t="s">
         <v>905</v>
       </c>
-      <c r="L50" s="469" t="s">
+      <c r="L50" s="376" t="s">
         <v>905</v>
       </c>
       <c r="N50" s="277">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="O50" s="470" t="s">
+      <c r="O50" s="377" t="s">
         <v>928</v>
       </c>
       <c r="P50" s="162"/>
@@ -14517,91 +14572,91 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R50" s="469" t="str">
+      <c r="R50" s="376" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="2:18">
-      <c r="B51" s="459">
+      <c r="B51" s="173">
         <v>47</v>
       </c>
-      <c r="C51" s="465" t="s">
+      <c r="C51" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="466" t="s">
+      <c r="D51" s="119" t="s">
         <v>612</v>
       </c>
-      <c r="E51" s="474" t="s">
+      <c r="E51" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="464" t="s">
+      <c r="F51" s="110" t="s">
         <v>172</v>
       </c>
-      <c r="H51" s="473">
+      <c r="H51" s="14">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="I51" s="464"/>
-      <c r="J51" s="465"/>
-      <c r="K51" s="466"/>
-      <c r="L51" s="475"/>
-      <c r="N51" s="473">
+      <c r="I51" s="110"/>
+      <c r="J51" s="160"/>
+      <c r="K51" s="119"/>
+      <c r="L51" s="111"/>
+      <c r="N51" s="14">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="O51" s="464"/>
-      <c r="P51" s="465"/>
-      <c r="Q51" s="466" t="str">
+      <c r="O51" s="110"/>
+      <c r="P51" s="160"/>
+      <c r="Q51" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R51" s="475" t="str">
+      <c r="R51" s="111" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="2:18">
-      <c r="B52" s="459">
+      <c r="B52" s="173">
         <v>48</v>
       </c>
-      <c r="C52" s="465" t="s">
+      <c r="C52" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="466" t="s">
+      <c r="D52" s="119" t="s">
         <v>905</v>
       </c>
-      <c r="E52" s="474" t="s">
+      <c r="E52" s="109" t="s">
         <v>905</v>
       </c>
-      <c r="F52" s="464" t="s">
+      <c r="F52" s="110" t="s">
         <v>905</v>
       </c>
-      <c r="H52" s="473">
+      <c r="H52" s="14">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="I52" s="464"/>
-      <c r="J52" s="465"/>
-      <c r="K52" s="466"/>
-      <c r="L52" s="474"/>
-      <c r="N52" s="473">
+      <c r="I52" s="110"/>
+      <c r="J52" s="160"/>
+      <c r="K52" s="119"/>
+      <c r="L52" s="109"/>
+      <c r="N52" s="14">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="O52" s="464"/>
-      <c r="P52" s="465"/>
-      <c r="Q52" s="466" t="str">
+      <c r="O52" s="110"/>
+      <c r="P52" s="160"/>
+      <c r="Q52" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R52" s="474" t="str">
+      <c r="R52" s="109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="2:18">
-      <c r="B53" s="488">
+      <c r="B53" s="392">
         <v>49</v>
       </c>
       <c r="C53" s="161" t="s">
@@ -14610,97 +14665,97 @@
       <c r="D53" s="120"/>
       <c r="E53" s="112"/>
       <c r="F53" s="274"/>
-      <c r="H53" s="473">
+      <c r="H53" s="14">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="I53" s="464"/>
-      <c r="J53" s="465"/>
-      <c r="K53" s="466"/>
-      <c r="L53" s="474"/>
-      <c r="N53" s="473">
+      <c r="I53" s="110"/>
+      <c r="J53" s="160"/>
+      <c r="K53" s="119"/>
+      <c r="L53" s="109"/>
+      <c r="N53" s="14">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="O53" s="464"/>
-      <c r="P53" s="465"/>
-      <c r="Q53" s="466" t="str">
+      <c r="O53" s="110"/>
+      <c r="P53" s="160"/>
+      <c r="Q53" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R53" s="474" t="str">
+      <c r="R53" s="109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:18">
-      <c r="B54" s="489">
+      <c r="B54" s="393">
         <v>50</v>
       </c>
-      <c r="C54" s="465" t="s">
+      <c r="C54" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="466"/>
-      <c r="E54" s="474"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="109"/>
       <c r="F54" s="276"/>
-      <c r="H54" s="473">
+      <c r="H54" s="14">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="I54" s="464"/>
-      <c r="J54" s="465"/>
-      <c r="K54" s="466"/>
-      <c r="L54" s="474"/>
-      <c r="N54" s="473">
+      <c r="I54" s="110"/>
+      <c r="J54" s="160"/>
+      <c r="K54" s="119"/>
+      <c r="L54" s="109"/>
+      <c r="N54" s="14">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="O54" s="464"/>
-      <c r="P54" s="465"/>
-      <c r="Q54" s="466" t="str">
+      <c r="O54" s="110"/>
+      <c r="P54" s="160"/>
+      <c r="Q54" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R54" s="474" t="str">
+      <c r="R54" s="109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="2:18">
-      <c r="B55" s="489">
+      <c r="B55" s="393">
         <v>51</v>
       </c>
-      <c r="C55" s="465" t="s">
+      <c r="C55" s="160" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="466"/>
-      <c r="E55" s="474"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="109"/>
       <c r="F55" s="276"/>
-      <c r="H55" s="473">
+      <c r="H55" s="14">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="I55" s="464"/>
-      <c r="J55" s="465"/>
-      <c r="K55" s="466"/>
-      <c r="L55" s="475"/>
-      <c r="N55" s="473">
+      <c r="I55" s="110"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="119"/>
+      <c r="L55" s="111"/>
+      <c r="N55" s="14">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="O55" s="464"/>
-      <c r="P55" s="465"/>
-      <c r="Q55" s="466" t="str">
+      <c r="O55" s="110"/>
+      <c r="P55" s="160"/>
+      <c r="Q55" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R55" s="475" t="str">
+      <c r="R55" s="111" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="2:18">
-      <c r="B56" s="490">
+      <c r="B56" s="394">
         <v>52</v>
       </c>
       <c r="C56" s="162" t="s">
@@ -14709,25 +14764,25 @@
       <c r="D56" s="121"/>
       <c r="E56" s="114"/>
       <c r="F56" s="278"/>
-      <c r="H56" s="473">
+      <c r="H56" s="14">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="I56" s="464"/>
-      <c r="J56" s="465"/>
-      <c r="K56" s="466"/>
-      <c r="L56" s="474"/>
-      <c r="N56" s="473">
+      <c r="I56" s="110"/>
+      <c r="J56" s="160"/>
+      <c r="K56" s="119"/>
+      <c r="L56" s="109"/>
+      <c r="N56" s="14">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="O56" s="464"/>
-      <c r="P56" s="465"/>
-      <c r="Q56" s="466" t="str">
+      <c r="O56" s="110"/>
+      <c r="P56" s="160"/>
+      <c r="Q56" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R56" s="474" t="str">
+      <c r="R56" s="109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -14742,25 +14797,25 @@
       <c r="D57" s="119"/>
       <c r="E57" s="109"/>
       <c r="F57" s="110"/>
-      <c r="H57" s="473">
+      <c r="H57" s="14">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="I57" s="464"/>
-      <c r="J57" s="465"/>
-      <c r="K57" s="466"/>
-      <c r="L57" s="474"/>
-      <c r="N57" s="473">
+      <c r="I57" s="110"/>
+      <c r="J57" s="160"/>
+      <c r="K57" s="119"/>
+      <c r="L57" s="109"/>
+      <c r="N57" s="14">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="O57" s="464"/>
-      <c r="P57" s="465"/>
-      <c r="Q57" s="466" t="str">
+      <c r="O57" s="110"/>
+      <c r="P57" s="160"/>
+      <c r="Q57" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R57" s="474" t="str">
+      <c r="R57" s="109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -14775,25 +14830,25 @@
       <c r="D58" s="119"/>
       <c r="E58" s="109"/>
       <c r="F58" s="110"/>
-      <c r="H58" s="473">
+      <c r="H58" s="14">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="I58" s="464"/>
-      <c r="J58" s="465"/>
-      <c r="K58" s="466"/>
-      <c r="L58" s="474"/>
-      <c r="N58" s="473">
+      <c r="I58" s="110"/>
+      <c r="J58" s="160"/>
+      <c r="K58" s="119"/>
+      <c r="L58" s="109"/>
+      <c r="N58" s="14">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="O58" s="464"/>
-      <c r="P58" s="465"/>
-      <c r="Q58" s="466" t="str">
+      <c r="O58" s="110"/>
+      <c r="P58" s="160"/>
+      <c r="Q58" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R58" s="474" t="str">
+      <c r="R58" s="109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -14808,25 +14863,25 @@
       <c r="D59" s="119"/>
       <c r="E59" s="109"/>
       <c r="F59" s="110"/>
-      <c r="H59" s="473">
+      <c r="H59" s="14">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="I59" s="464"/>
-      <c r="J59" s="465"/>
-      <c r="K59" s="466"/>
-      <c r="L59" s="475"/>
-      <c r="N59" s="473">
+      <c r="I59" s="110"/>
+      <c r="J59" s="160"/>
+      <c r="K59" s="119"/>
+      <c r="L59" s="111"/>
+      <c r="N59" s="14">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="O59" s="464"/>
-      <c r="P59" s="465"/>
-      <c r="Q59" s="466" t="str">
+      <c r="O59" s="110"/>
+      <c r="P59" s="160"/>
+      <c r="Q59" s="119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R59" s="475" t="str">
+      <c r="R59" s="111" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -18035,8 +18090,8 @@
       <c r="AN1" s="77"/>
       <c r="AO1" s="77"/>
       <c r="AP1" s="77"/>
-      <c r="AQ1" s="436"/>
-      <c r="AR1" s="436"/>
+      <c r="AQ1" s="484"/>
+      <c r="AR1" s="484"/>
       <c r="AS1" s="77"/>
       <c r="AT1" s="77"/>
       <c r="AU1" s="77"/>
@@ -19353,66 +19408,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C11" s="434" t="str">
+      <c r="C11" s="482" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D11" s="434"/>
-      <c r="E11" s="434"/>
-      <c r="F11" s="434"/>
-      <c r="G11" s="434"/>
-      <c r="H11" s="434"/>
-      <c r="I11" s="434"/>
-      <c r="J11" s="434"/>
-      <c r="K11" s="434"/>
-      <c r="L11" s="434"/>
-      <c r="M11" s="434"/>
-      <c r="N11" s="434"/>
-      <c r="O11" s="434"/>
-      <c r="P11" s="434"/>
-      <c r="Q11" s="434"/>
-      <c r="R11" s="434"/>
-      <c r="S11" s="434"/>
-      <c r="T11" s="434"/>
-      <c r="U11" s="434"/>
-      <c r="V11" s="434"/>
-      <c r="W11" s="434"/>
-      <c r="X11" s="434"/>
-      <c r="Y11" s="434"/>
-      <c r="Z11" s="434"/>
+      <c r="D11" s="482"/>
+      <c r="E11" s="482"/>
+      <c r="F11" s="482"/>
+      <c r="G11" s="482"/>
+      <c r="H11" s="482"/>
+      <c r="I11" s="482"/>
+      <c r="J11" s="482"/>
+      <c r="K11" s="482"/>
+      <c r="L11" s="482"/>
+      <c r="M11" s="482"/>
+      <c r="N11" s="482"/>
+      <c r="O11" s="482"/>
+      <c r="P11" s="482"/>
+      <c r="Q11" s="482"/>
+      <c r="R11" s="482"/>
+      <c r="S11" s="482"/>
+      <c r="T11" s="482"/>
+      <c r="U11" s="482"/>
+      <c r="V11" s="482"/>
+      <c r="W11" s="482"/>
+      <c r="X11" s="482"/>
+      <c r="Y11" s="482"/>
+      <c r="Z11" s="482"/>
     </row>
     <row r="12" spans="1:47" s="76" customFormat="1" ht="23.25">
       <c r="B12" s="85" t="str">
         <f>B8</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C12" s="435" t="str">
+      <c r="C12" s="483" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D12" s="435"/>
-      <c r="E12" s="435"/>
-      <c r="F12" s="435"/>
-      <c r="G12" s="435"/>
-      <c r="H12" s="435"/>
-      <c r="I12" s="435"/>
-      <c r="J12" s="435"/>
-      <c r="K12" s="435"/>
-      <c r="L12" s="435"/>
-      <c r="M12" s="435"/>
-      <c r="N12" s="435"/>
-      <c r="O12" s="435"/>
-      <c r="P12" s="435"/>
-      <c r="Q12" s="435"/>
-      <c r="R12" s="435"/>
-      <c r="S12" s="435"/>
-      <c r="T12" s="435"/>
-      <c r="U12" s="435"/>
-      <c r="V12" s="435"/>
-      <c r="W12" s="435"/>
-      <c r="X12" s="435"/>
-      <c r="Y12" s="435"/>
-      <c r="Z12" s="435"/>
+      <c r="D12" s="483"/>
+      <c r="E12" s="483"/>
+      <c r="F12" s="483"/>
+      <c r="G12" s="483"/>
+      <c r="H12" s="483"/>
+      <c r="I12" s="483"/>
+      <c r="J12" s="483"/>
+      <c r="K12" s="483"/>
+      <c r="L12" s="483"/>
+      <c r="M12" s="483"/>
+      <c r="N12" s="483"/>
+      <c r="O12" s="483"/>
+      <c r="P12" s="483"/>
+      <c r="Q12" s="483"/>
+      <c r="R12" s="483"/>
+      <c r="S12" s="483"/>
+      <c r="T12" s="483"/>
+      <c r="U12" s="483"/>
+      <c r="V12" s="483"/>
+      <c r="W12" s="483"/>
+      <c r="X12" s="483"/>
+      <c r="Y12" s="483"/>
+      <c r="Z12" s="483"/>
     </row>
     <row r="13" spans="1:47" s="76" customFormat="1" ht="23.25"/>
     <row r="14" spans="1:47" s="76" customFormat="1" ht="34.5">
@@ -19421,34 +19476,34 @@
       </c>
     </row>
     <row r="15" spans="1:47" s="76" customFormat="1" ht="23.25">
-      <c r="B15" s="433" t="str">
+      <c r="B15" s="481" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C11 &amp; "|" &amp; C12 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|</v>
       </c>
-      <c r="C15" s="433"/>
-      <c r="D15" s="433"/>
-      <c r="E15" s="433"/>
-      <c r="F15" s="433"/>
-      <c r="G15" s="433"/>
-      <c r="H15" s="433"/>
-      <c r="I15" s="433"/>
-      <c r="J15" s="433"/>
-      <c r="K15" s="433"/>
-      <c r="L15" s="433"/>
-      <c r="M15" s="433"/>
-      <c r="N15" s="433"/>
-      <c r="O15" s="433"/>
-      <c r="P15" s="433"/>
-      <c r="Q15" s="433"/>
-      <c r="R15" s="433"/>
-      <c r="S15" s="433"/>
-      <c r="T15" s="433"/>
-      <c r="U15" s="433"/>
-      <c r="V15" s="433"/>
-      <c r="W15" s="433"/>
-      <c r="X15" s="433"/>
-      <c r="Y15" s="433"/>
-      <c r="Z15" s="433"/>
+      <c r="C15" s="481"/>
+      <c r="D15" s="481"/>
+      <c r="E15" s="481"/>
+      <c r="F15" s="481"/>
+      <c r="G15" s="481"/>
+      <c r="H15" s="481"/>
+      <c r="I15" s="481"/>
+      <c r="J15" s="481"/>
+      <c r="K15" s="481"/>
+      <c r="L15" s="481"/>
+      <c r="M15" s="481"/>
+      <c r="N15" s="481"/>
+      <c r="O15" s="481"/>
+      <c r="P15" s="481"/>
+      <c r="Q15" s="481"/>
+      <c r="R15" s="481"/>
+      <c r="S15" s="481"/>
+      <c r="T15" s="481"/>
+      <c r="U15" s="481"/>
+      <c r="V15" s="481"/>
+      <c r="W15" s="481"/>
+      <c r="X15" s="481"/>
+      <c r="Y15" s="481"/>
+      <c r="Z15" s="481"/>
     </row>
     <row r="16" spans="1:47" s="76" customFormat="1" ht="23.25"/>
     <row r="17" spans="2:26" s="76" customFormat="1" ht="34.5">
@@ -19462,66 +19517,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C19" s="434" t="str">
+      <c r="C19" s="482" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D19" s="434"/>
-      <c r="E19" s="434"/>
-      <c r="F19" s="434"/>
-      <c r="G19" s="434"/>
-      <c r="H19" s="434"/>
-      <c r="I19" s="434"/>
-      <c r="J19" s="434"/>
-      <c r="K19" s="434"/>
-      <c r="L19" s="434"/>
-      <c r="M19" s="434"/>
-      <c r="N19" s="434"/>
-      <c r="O19" s="434"/>
-      <c r="P19" s="434"/>
-      <c r="Q19" s="434"/>
-      <c r="R19" s="434"/>
-      <c r="S19" s="434"/>
-      <c r="T19" s="434"/>
-      <c r="U19" s="434"/>
-      <c r="V19" s="434"/>
-      <c r="W19" s="434"/>
-      <c r="X19" s="434"/>
-      <c r="Y19" s="434"/>
-      <c r="Z19" s="434"/>
+      <c r="D19" s="482"/>
+      <c r="E19" s="482"/>
+      <c r="F19" s="482"/>
+      <c r="G19" s="482"/>
+      <c r="H19" s="482"/>
+      <c r="I19" s="482"/>
+      <c r="J19" s="482"/>
+      <c r="K19" s="482"/>
+      <c r="L19" s="482"/>
+      <c r="M19" s="482"/>
+      <c r="N19" s="482"/>
+      <c r="O19" s="482"/>
+      <c r="P19" s="482"/>
+      <c r="Q19" s="482"/>
+      <c r="R19" s="482"/>
+      <c r="S19" s="482"/>
+      <c r="T19" s="482"/>
+      <c r="U19" s="482"/>
+      <c r="V19" s="482"/>
+      <c r="W19" s="482"/>
+      <c r="X19" s="482"/>
+      <c r="Y19" s="482"/>
+      <c r="Z19" s="482"/>
     </row>
     <row r="20" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B20" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C20" s="435" t="str">
+      <c r="C20" s="483" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D20" s="435"/>
-      <c r="E20" s="435"/>
-      <c r="F20" s="435"/>
-      <c r="G20" s="435"/>
-      <c r="H20" s="435"/>
-      <c r="I20" s="435"/>
-      <c r="J20" s="435"/>
-      <c r="K20" s="435"/>
-      <c r="L20" s="435"/>
-      <c r="M20" s="435"/>
-      <c r="N20" s="435"/>
-      <c r="O20" s="435"/>
-      <c r="P20" s="435"/>
-      <c r="Q20" s="435"/>
-      <c r="R20" s="435"/>
-      <c r="S20" s="435"/>
-      <c r="T20" s="435"/>
-      <c r="U20" s="435"/>
-      <c r="V20" s="435"/>
-      <c r="W20" s="435"/>
-      <c r="X20" s="435"/>
-      <c r="Y20" s="435"/>
-      <c r="Z20" s="435"/>
+      <c r="D20" s="483"/>
+      <c r="E20" s="483"/>
+      <c r="F20" s="483"/>
+      <c r="G20" s="483"/>
+      <c r="H20" s="483"/>
+      <c r="I20" s="483"/>
+      <c r="J20" s="483"/>
+      <c r="K20" s="483"/>
+      <c r="L20" s="483"/>
+      <c r="M20" s="483"/>
+      <c r="N20" s="483"/>
+      <c r="O20" s="483"/>
+      <c r="P20" s="483"/>
+      <c r="Q20" s="483"/>
+      <c r="R20" s="483"/>
+      <c r="S20" s="483"/>
+      <c r="T20" s="483"/>
+      <c r="U20" s="483"/>
+      <c r="V20" s="483"/>
+      <c r="W20" s="483"/>
+      <c r="X20" s="483"/>
+      <c r="Y20" s="483"/>
+      <c r="Z20" s="483"/>
     </row>
     <row r="21" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="22" spans="2:26" s="76" customFormat="1" ht="34.5">
@@ -19530,34 +19585,34 @@
       </c>
     </row>
     <row r="23" spans="2:26" s="76" customFormat="1" ht="23.25">
-      <c r="B23" s="433" t="str">
+      <c r="B23" s="481" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C19 &amp; "|" &amp; C20 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C23" s="433"/>
-      <c r="D23" s="433"/>
-      <c r="E23" s="433"/>
-      <c r="F23" s="433"/>
-      <c r="G23" s="433"/>
-      <c r="H23" s="433"/>
-      <c r="I23" s="433"/>
-      <c r="J23" s="433"/>
-      <c r="K23" s="433"/>
-      <c r="L23" s="433"/>
-      <c r="M23" s="433"/>
-      <c r="N23" s="433"/>
-      <c r="O23" s="433"/>
-      <c r="P23" s="433"/>
-      <c r="Q23" s="433"/>
-      <c r="R23" s="433"/>
-      <c r="S23" s="433"/>
-      <c r="T23" s="433"/>
-      <c r="U23" s="433"/>
-      <c r="V23" s="433"/>
-      <c r="W23" s="433"/>
-      <c r="X23" s="433"/>
-      <c r="Y23" s="433"/>
-      <c r="Z23" s="433"/>
+      <c r="C23" s="481"/>
+      <c r="D23" s="481"/>
+      <c r="E23" s="481"/>
+      <c r="F23" s="481"/>
+      <c r="G23" s="481"/>
+      <c r="H23" s="481"/>
+      <c r="I23" s="481"/>
+      <c r="J23" s="481"/>
+      <c r="K23" s="481"/>
+      <c r="L23" s="481"/>
+      <c r="M23" s="481"/>
+      <c r="N23" s="481"/>
+      <c r="O23" s="481"/>
+      <c r="P23" s="481"/>
+      <c r="Q23" s="481"/>
+      <c r="R23" s="481"/>
+      <c r="S23" s="481"/>
+      <c r="T23" s="481"/>
+      <c r="U23" s="481"/>
+      <c r="V23" s="481"/>
+      <c r="W23" s="481"/>
+      <c r="X23" s="481"/>
+      <c r="Y23" s="481"/>
+      <c r="Z23" s="481"/>
     </row>
     <row r="24" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="25" spans="2:26" s="76" customFormat="1" ht="34.5">
@@ -19571,66 +19626,66 @@
         <f>B12</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C27" s="434" t="str">
+      <c r="C27" s="482" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D27" s="434"/>
-      <c r="E27" s="434"/>
-      <c r="F27" s="434"/>
-      <c r="G27" s="434"/>
-      <c r="H27" s="434"/>
-      <c r="I27" s="434"/>
-      <c r="J27" s="434"/>
-      <c r="K27" s="434"/>
-      <c r="L27" s="434"/>
-      <c r="M27" s="434"/>
-      <c r="N27" s="434"/>
-      <c r="O27" s="434"/>
-      <c r="P27" s="434"/>
-      <c r="Q27" s="434"/>
-      <c r="R27" s="434"/>
-      <c r="S27" s="434"/>
-      <c r="T27" s="434"/>
-      <c r="U27" s="434"/>
-      <c r="V27" s="434"/>
-      <c r="W27" s="434"/>
-      <c r="X27" s="434"/>
-      <c r="Y27" s="434"/>
-      <c r="Z27" s="434"/>
+      <c r="D27" s="482"/>
+      <c r="E27" s="482"/>
+      <c r="F27" s="482"/>
+      <c r="G27" s="482"/>
+      <c r="H27" s="482"/>
+      <c r="I27" s="482"/>
+      <c r="J27" s="482"/>
+      <c r="K27" s="482"/>
+      <c r="L27" s="482"/>
+      <c r="M27" s="482"/>
+      <c r="N27" s="482"/>
+      <c r="O27" s="482"/>
+      <c r="P27" s="482"/>
+      <c r="Q27" s="482"/>
+      <c r="R27" s="482"/>
+      <c r="S27" s="482"/>
+      <c r="T27" s="482"/>
+      <c r="U27" s="482"/>
+      <c r="V27" s="482"/>
+      <c r="W27" s="482"/>
+      <c r="X27" s="482"/>
+      <c r="Y27" s="482"/>
+      <c r="Z27" s="482"/>
     </row>
     <row r="28" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B28" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C28" s="435" t="str">
+      <c r="C28" s="483" t="str">
         <f>_xlfn.CONCAT(C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D28" s="435"/>
-      <c r="E28" s="435"/>
-      <c r="F28" s="435"/>
-      <c r="G28" s="435"/>
-      <c r="H28" s="435"/>
-      <c r="I28" s="435"/>
-      <c r="J28" s="435"/>
-      <c r="K28" s="435"/>
-      <c r="L28" s="435"/>
-      <c r="M28" s="435"/>
-      <c r="N28" s="435"/>
-      <c r="O28" s="435"/>
-      <c r="P28" s="435"/>
-      <c r="Q28" s="435"/>
-      <c r="R28" s="435"/>
-      <c r="S28" s="435"/>
-      <c r="T28" s="435"/>
-      <c r="U28" s="435"/>
-      <c r="V28" s="435"/>
-      <c r="W28" s="435"/>
-      <c r="X28" s="435"/>
-      <c r="Y28" s="435"/>
-      <c r="Z28" s="435"/>
+      <c r="D28" s="483"/>
+      <c r="E28" s="483"/>
+      <c r="F28" s="483"/>
+      <c r="G28" s="483"/>
+      <c r="H28" s="483"/>
+      <c r="I28" s="483"/>
+      <c r="J28" s="483"/>
+      <c r="K28" s="483"/>
+      <c r="L28" s="483"/>
+      <c r="M28" s="483"/>
+      <c r="N28" s="483"/>
+      <c r="O28" s="483"/>
+      <c r="P28" s="483"/>
+      <c r="Q28" s="483"/>
+      <c r="R28" s="483"/>
+      <c r="S28" s="483"/>
+      <c r="T28" s="483"/>
+      <c r="U28" s="483"/>
+      <c r="V28" s="483"/>
+      <c r="W28" s="483"/>
+      <c r="X28" s="483"/>
+      <c r="Y28" s="483"/>
+      <c r="Z28" s="483"/>
     </row>
     <row r="29" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="30" spans="2:26" s="76" customFormat="1" ht="34.5">
@@ -19639,34 +19694,34 @@
       </c>
     </row>
     <row r="31" spans="2:26" s="76" customFormat="1" ht="23.25">
-      <c r="B31" s="433" t="str">
+      <c r="B31" s="481" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C27 &amp; "|" &amp; C28 &amp; "|"</f>
         <v>- xlit|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C31" s="433"/>
-      <c r="D31" s="433"/>
-      <c r="E31" s="433"/>
-      <c r="F31" s="433"/>
-      <c r="G31" s="433"/>
-      <c r="H31" s="433"/>
-      <c r="I31" s="433"/>
-      <c r="J31" s="433"/>
-      <c r="K31" s="433"/>
-      <c r="L31" s="433"/>
-      <c r="M31" s="433"/>
-      <c r="N31" s="433"/>
-      <c r="O31" s="433"/>
-      <c r="P31" s="433"/>
-      <c r="Q31" s="433"/>
-      <c r="R31" s="433"/>
-      <c r="S31" s="433"/>
-      <c r="T31" s="433"/>
-      <c r="U31" s="433"/>
-      <c r="V31" s="433"/>
-      <c r="W31" s="433"/>
-      <c r="X31" s="433"/>
-      <c r="Y31" s="433"/>
-      <c r="Z31" s="433"/>
+      <c r="C31" s="481"/>
+      <c r="D31" s="481"/>
+      <c r="E31" s="481"/>
+      <c r="F31" s="481"/>
+      <c r="G31" s="481"/>
+      <c r="H31" s="481"/>
+      <c r="I31" s="481"/>
+      <c r="J31" s="481"/>
+      <c r="K31" s="481"/>
+      <c r="L31" s="481"/>
+      <c r="M31" s="481"/>
+      <c r="N31" s="481"/>
+      <c r="O31" s="481"/>
+      <c r="P31" s="481"/>
+      <c r="Q31" s="481"/>
+      <c r="R31" s="481"/>
+      <c r="S31" s="481"/>
+      <c r="T31" s="481"/>
+      <c r="U31" s="481"/>
+      <c r="V31" s="481"/>
+      <c r="W31" s="481"/>
+      <c r="X31" s="481"/>
+      <c r="Y31" s="481"/>
+      <c r="Z31" s="481"/>
     </row>
     <row r="32" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="33" spans="1:47" s="78" customFormat="1">
@@ -19957,8 +20012,8 @@
       <c r="AN38" s="77"/>
       <c r="AO38" s="77"/>
       <c r="AP38" s="77"/>
-      <c r="AQ38" s="436"/>
-      <c r="AR38" s="436"/>
+      <c r="AQ38" s="484"/>
+      <c r="AR38" s="484"/>
       <c r="AS38" s="77"/>
       <c r="AT38" s="77"/>
       <c r="AU38" s="77"/>
@@ -20012,161 +20067,161 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="458" t="s">
+      <c r="B2" s="506" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458" t="s">
+      <c r="C2" s="506"/>
+      <c r="D2" s="506"/>
+      <c r="E2" s="506" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458" t="s">
+      <c r="F2" s="506"/>
+      <c r="G2" s="506" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458" t="s">
+      <c r="H2" s="506"/>
+      <c r="I2" s="506" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="458"/>
-      <c r="K2" s="458" t="s">
+      <c r="J2" s="506"/>
+      <c r="K2" s="506" t="s">
         <v>207</v>
       </c>
-      <c r="L2" s="458"/>
-      <c r="M2" s="458"/>
-      <c r="N2" s="458"/>
-      <c r="O2" s="458" t="s">
+      <c r="L2" s="506"/>
+      <c r="M2" s="506"/>
+      <c r="N2" s="506"/>
+      <c r="O2" s="506" t="s">
         <v>208</v>
       </c>
-      <c r="P2" s="458"/>
+      <c r="P2" s="506"/>
     </row>
     <row r="3" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="458" t="s">
+      <c r="B3" s="506" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="458"/>
-      <c r="D3" s="458"/>
-      <c r="E3" s="458" t="s">
+      <c r="C3" s="506"/>
+      <c r="D3" s="506"/>
+      <c r="E3" s="506" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="458"/>
-      <c r="G3" s="458" t="s">
+      <c r="F3" s="506"/>
+      <c r="G3" s="506" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="458"/>
-      <c r="I3" s="458" t="s">
+      <c r="H3" s="506"/>
+      <c r="I3" s="506" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="458"/>
-      <c r="K3" s="458" t="s">
+      <c r="J3" s="506"/>
+      <c r="K3" s="506" t="s">
         <v>212</v>
       </c>
-      <c r="L3" s="458"/>
-      <c r="M3" s="458"/>
-      <c r="N3" s="458"/>
-      <c r="O3" s="458" t="s">
+      <c r="L3" s="506"/>
+      <c r="M3" s="506"/>
+      <c r="N3" s="506"/>
+      <c r="O3" s="506" t="s">
         <v>208</v>
       </c>
-      <c r="P3" s="458"/>
+      <c r="P3" s="506"/>
     </row>
     <row r="4" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="458" t="s">
+      <c r="B4" s="506" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="458"/>
-      <c r="D4" s="458"/>
-      <c r="E4" s="458" t="s">
+      <c r="C4" s="506"/>
+      <c r="D4" s="506"/>
+      <c r="E4" s="506" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="458"/>
-      <c r="G4" s="458" t="s">
+      <c r="F4" s="506"/>
+      <c r="G4" s="506" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="458"/>
-      <c r="I4" s="458" t="s">
+      <c r="H4" s="506"/>
+      <c r="I4" s="506" t="s">
         <v>211</v>
       </c>
-      <c r="J4" s="458"/>
-      <c r="K4" s="458" t="s">
+      <c r="J4" s="506"/>
+      <c r="K4" s="506" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="458"/>
-      <c r="M4" s="458"/>
-      <c r="N4" s="458"/>
-      <c r="O4" s="458" t="s">
+      <c r="L4" s="506"/>
+      <c r="M4" s="506"/>
+      <c r="N4" s="506"/>
+      <c r="O4" s="506" t="s">
         <v>208</v>
       </c>
-      <c r="P4" s="458"/>
+      <c r="P4" s="506"/>
     </row>
     <row r="5" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="458" t="s">
+      <c r="B5" s="506" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="458"/>
-      <c r="D5" s="458"/>
-      <c r="E5" s="458" t="s">
+      <c r="C5" s="506"/>
+      <c r="D5" s="506"/>
+      <c r="E5" s="506" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="458"/>
-      <c r="G5" s="458" t="s">
+      <c r="F5" s="506"/>
+      <c r="G5" s="506" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="458"/>
-      <c r="I5" s="458" t="s">
+      <c r="H5" s="506"/>
+      <c r="I5" s="506" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="458"/>
-      <c r="K5" s="458" t="s">
+      <c r="J5" s="506"/>
+      <c r="K5" s="506" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="458"/>
-      <c r="M5" s="458"/>
-      <c r="N5" s="458"/>
-      <c r="O5" s="458" t="s">
+      <c r="L5" s="506"/>
+      <c r="M5" s="506"/>
+      <c r="N5" s="506"/>
+      <c r="O5" s="506" t="s">
         <v>220</v>
       </c>
-      <c r="P5" s="458"/>
+      <c r="P5" s="506"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
-      <c r="B7" s="451" t="s">
+      <c r="B7" s="499" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="452"/>
-      <c r="D7" s="453"/>
-      <c r="E7" s="454" t="s">
+      <c r="C7" s="500"/>
+      <c r="D7" s="501"/>
+      <c r="E7" s="502" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="455"/>
-      <c r="G7" s="446" t="s">
+      <c r="F7" s="503"/>
+      <c r="G7" s="494" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="447"/>
-      <c r="I7" s="456" t="s">
+      <c r="H7" s="495"/>
+      <c r="I7" s="504" t="s">
         <v>223</v>
       </c>
-      <c r="J7" s="457"/>
-      <c r="K7" s="446" t="s">
+      <c r="J7" s="505"/>
+      <c r="K7" s="494" t="s">
         <v>224</v>
       </c>
-      <c r="L7" s="447"/>
-      <c r="M7" s="446" t="s">
+      <c r="L7" s="495"/>
+      <c r="M7" s="494" t="s">
         <v>225</v>
       </c>
-      <c r="N7" s="447"/>
-      <c r="O7" s="446" t="s">
+      <c r="N7" s="495"/>
+      <c r="O7" s="494" t="s">
         <v>226</v>
       </c>
-      <c r="P7" s="447"/>
+      <c r="P7" s="495"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
-      <c r="B8" s="437" t="s">
+      <c r="B8" s="485" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="448" t="s">
+      <c r="C8" s="496" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="449" t="s">
+      <c r="D8" s="497" t="s">
         <v>229</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -20199,9 +20254,9 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
-      <c r="B9" s="437"/>
-      <c r="C9" s="448"/>
-      <c r="D9" s="449"/>
+      <c r="B9" s="485"/>
+      <c r="C9" s="496"/>
+      <c r="D9" s="497"/>
       <c r="E9" s="24" t="s">
         <v>232</v>
       </c>
@@ -20232,9 +20287,9 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
-      <c r="B10" s="437"/>
-      <c r="C10" s="448"/>
-      <c r="D10" s="445" t="s">
+      <c r="B10" s="485"/>
+      <c r="C10" s="496"/>
+      <c r="D10" s="493" t="s">
         <v>240</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -20263,9 +20318,9 @@
       <c r="P10" s="20"/>
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
-      <c r="B11" s="437"/>
-      <c r="C11" s="448"/>
-      <c r="D11" s="445"/>
+      <c r="B11" s="485"/>
+      <c r="C11" s="496"/>
+      <c r="D11" s="493"/>
       <c r="E11" s="24" t="s">
         <v>241</v>
       </c>
@@ -20292,11 +20347,11 @@
       <c r="P11" s="25"/>
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
-      <c r="B12" s="437"/>
-      <c r="C12" s="438" t="s">
+      <c r="B12" s="485"/>
+      <c r="C12" s="486" t="s">
         <v>247</v>
       </c>
-      <c r="D12" s="450" t="s">
+      <c r="D12" s="498" t="s">
         <v>248</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -20321,9 +20376,9 @@
       <c r="P12" s="20"/>
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
-      <c r="B13" s="437"/>
-      <c r="C13" s="438"/>
-      <c r="D13" s="450"/>
+      <c r="B13" s="485"/>
+      <c r="C13" s="486"/>
+      <c r="D13" s="498"/>
       <c r="E13" s="24" t="s">
         <v>192</v>
       </c>
@@ -20346,13 +20401,13 @@
       <c r="P13" s="25"/>
     </row>
     <row r="14" spans="2:16" ht="39" customHeight="1">
-      <c r="B14" s="437" t="s">
+      <c r="B14" s="485" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="443" t="s">
+      <c r="C14" s="491" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="439" t="s">
+      <c r="D14" s="487" t="s">
         <v>229</v>
       </c>
       <c r="E14" s="19"/>
@@ -20377,9 +20432,9 @@
       <c r="P14" s="20"/>
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
-      <c r="B15" s="437"/>
-      <c r="C15" s="443"/>
-      <c r="D15" s="439"/>
+      <c r="B15" s="485"/>
+      <c r="C15" s="491"/>
+      <c r="D15" s="487"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
@@ -20402,9 +20457,9 @@
       <c r="P15" s="25"/>
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
-      <c r="B16" s="437"/>
-      <c r="C16" s="443"/>
-      <c r="D16" s="445" t="s">
+      <c r="B16" s="485"/>
+      <c r="C16" s="491"/>
+      <c r="D16" s="493" t="s">
         <v>240</v>
       </c>
       <c r="E16" s="19"/>
@@ -20429,9 +20484,9 @@
       <c r="P16" s="20"/>
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
-      <c r="B17" s="437"/>
-      <c r="C17" s="443"/>
-      <c r="D17" s="445"/>
+      <c r="B17" s="485"/>
+      <c r="C17" s="491"/>
+      <c r="D17" s="493"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -20454,11 +20509,11 @@
       <c r="P17" s="25"/>
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
-      <c r="B18" s="437"/>
-      <c r="C18" s="438" t="s">
+      <c r="B18" s="485"/>
+      <c r="C18" s="486" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="439" t="s">
+      <c r="D18" s="487" t="s">
         <v>248</v>
       </c>
       <c r="E18" s="19"/>
@@ -20483,9 +20538,9 @@
       <c r="P18" s="20"/>
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
-      <c r="B19" s="437"/>
-      <c r="C19" s="438"/>
-      <c r="D19" s="439"/>
+      <c r="B19" s="485"/>
+      <c r="C19" s="486"/>
+      <c r="D19" s="487"/>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -20508,13 +20563,13 @@
       <c r="P19" s="25"/>
     </row>
     <row r="20" spans="2:17" ht="39" customHeight="1">
-      <c r="B20" s="437" t="s">
+      <c r="B20" s="485" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="443" t="s">
+      <c r="C20" s="491" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="439" t="s">
+      <c r="D20" s="487" t="s">
         <v>248</v>
       </c>
       <c r="E20" s="19"/>
@@ -20539,9 +20594,9 @@
       <c r="P20" s="20"/>
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
-      <c r="B21" s="437"/>
-      <c r="C21" s="443"/>
-      <c r="D21" s="439"/>
+      <c r="B21" s="485"/>
+      <c r="C21" s="491"/>
+      <c r="D21" s="487"/>
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
@@ -20564,9 +20619,9 @@
       <c r="P21" s="25"/>
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
-      <c r="B22" s="437"/>
-      <c r="C22" s="443"/>
-      <c r="D22" s="444" t="s">
+      <c r="B22" s="485"/>
+      <c r="C22" s="491"/>
+      <c r="D22" s="492" t="s">
         <v>275</v>
       </c>
       <c r="E22" s="19"/>
@@ -20587,9 +20642,9 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
-      <c r="B23" s="437"/>
-      <c r="C23" s="443"/>
-      <c r="D23" s="444"/>
+      <c r="B23" s="485"/>
+      <c r="C23" s="491"/>
+      <c r="D23" s="492"/>
       <c r="E23" s="24"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -20608,13 +20663,13 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="39" customHeight="1">
-      <c r="B24" s="437" t="s">
+      <c r="B24" s="485" t="s">
         <v>278</v>
       </c>
-      <c r="C24" s="438" t="s">
+      <c r="C24" s="486" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="439" t="s">
+      <c r="D24" s="487" t="s">
         <v>248</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -20643,9 +20698,9 @@
       <c r="P24" s="20"/>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
-      <c r="B25" s="437"/>
-      <c r="C25" s="438"/>
-      <c r="D25" s="439"/>
+      <c r="B25" s="485"/>
+      <c r="C25" s="486"/>
+      <c r="D25" s="487"/>
       <c r="E25" s="24" t="s">
         <v>191</v>
       </c>
@@ -20672,13 +20727,13 @@
       <c r="P25" s="25"/>
     </row>
     <row r="26" spans="2:17" ht="39" customHeight="1">
-      <c r="B26" s="437" t="s">
+      <c r="B26" s="485" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="438" t="s">
+      <c r="C26" s="486" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="439" t="s">
+      <c r="D26" s="487" t="s">
         <v>248</v>
       </c>
       <c r="E26" s="19"/>
@@ -20699,9 +20754,9 @@
       <c r="P26" s="20"/>
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
-      <c r="B27" s="437"/>
-      <c r="C27" s="438"/>
-      <c r="D27" s="439"/>
+      <c r="B27" s="485"/>
+      <c r="C27" s="486"/>
+      <c r="D27" s="487"/>
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26" t="s">
@@ -20723,23 +20778,23 @@
       <c r="B29" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C29" s="440" t="s">
+      <c r="C29" s="488" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="440"/>
-      <c r="E29" s="440"/>
-      <c r="F29" s="440"/>
-      <c r="G29" s="440"/>
-      <c r="H29" s="440"/>
-      <c r="I29" s="440"/>
-      <c r="J29" s="440"/>
-      <c r="K29" s="440"/>
-      <c r="L29" s="440"/>
-      <c r="M29" s="440"/>
-      <c r="N29" s="440"/>
-      <c r="O29" s="440"/>
-      <c r="P29" s="440"/>
-      <c r="Q29" s="440"/>
+      <c r="D29" s="488"/>
+      <c r="E29" s="488"/>
+      <c r="F29" s="488"/>
+      <c r="G29" s="488"/>
+      <c r="H29" s="488"/>
+      <c r="I29" s="488"/>
+      <c r="J29" s="488"/>
+      <c r="K29" s="488"/>
+      <c r="L29" s="488"/>
+      <c r="M29" s="488"/>
+      <c r="N29" s="488"/>
+      <c r="O29" s="488"/>
+      <c r="P29" s="488"/>
+      <c r="Q29" s="488"/>
     </row>
     <row r="30" spans="2:17" s="31" customFormat="1" ht="25.5">
       <c r="B30" s="29"/>
@@ -20783,10 +20838,10 @@
       <c r="B32" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="441" t="s">
+      <c r="C32" s="489" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="442"/>
+      <c r="D32" s="490"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="32" t="s">
@@ -20891,8 +20946,8 @@
   </sheetPr>
   <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AQ13" sqref="AQ13"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AZ60" sqref="AZ60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8984375" defaultRowHeight="21"/>
@@ -21457,11 +21512,18 @@
       <c r="AX4" s="174" t="s">
         <v>775</v>
       </c>
+      <c r="AZ4" s="507" t="s">
+        <v>770</v>
+      </c>
+      <c r="BA4" s="508" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(BB9:BB55)</f>
+        <v>1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfvz 43657</v>
+      </c>
       <c r="BB4"/>
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4"/>
-      <c r="BH4" s="344" t="s">
+      <c r="BH4" s="507" t="s">
         <v>770</v>
       </c>
       <c r="BI4" s="345" t="s">
@@ -21615,7 +21677,10 @@
       <c r="AX5" s="133">
         <v>8</v>
       </c>
-      <c r="BH5" s="344" t="s">
+      <c r="AZ5" s="507" t="s">
+        <v>771</v>
+      </c>
+      <c r="BH5" s="507" t="s">
         <v>771</v>
       </c>
       <c r="BI5" s="345" t="s">
@@ -21799,36 +21864,36 @@
       <c r="F8" s="323" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="376" t="s">
+      <c r="G8" s="461" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="377"/>
-      <c r="I8" s="378"/>
-      <c r="J8" s="385" t="s">
+      <c r="H8" s="462"/>
+      <c r="I8" s="463"/>
+      <c r="J8" s="471" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="386"/>
-      <c r="L8" s="387"/>
-      <c r="M8" s="385" t="s">
+      <c r="K8" s="472"/>
+      <c r="L8" s="473"/>
+      <c r="M8" s="471" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="386"/>
-      <c r="O8" s="387"/>
-      <c r="P8" s="388" t="s">
+      <c r="N8" s="472"/>
+      <c r="O8" s="473"/>
+      <c r="P8" s="474" t="s">
         <v>689</v>
       </c>
-      <c r="Q8" s="492"/>
-      <c r="R8" s="493"/>
-      <c r="S8" s="385" t="s">
+      <c r="Q8" s="475"/>
+      <c r="R8" s="476"/>
+      <c r="S8" s="471" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="386"/>
-      <c r="U8" s="387"/>
-      <c r="V8" s="385" t="s">
+      <c r="T8" s="472"/>
+      <c r="U8" s="473"/>
+      <c r="V8" s="471" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="386"/>
-      <c r="X8" s="387"/>
+      <c r="W8" s="472"/>
+      <c r="X8" s="473"/>
       <c r="Y8" s="325" t="s">
         <v>107</v>
       </c>
@@ -21847,21 +21912,21 @@
       <c r="AD8" s="326" t="s">
         <v>908</v>
       </c>
-      <c r="AE8" s="379" t="s">
+      <c r="AE8" s="464" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="380"/>
-      <c r="AG8" s="381"/>
-      <c r="AH8" s="373" t="s">
+      <c r="AF8" s="465"/>
+      <c r="AG8" s="466"/>
+      <c r="AH8" s="458" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="374"/>
-      <c r="AJ8" s="375"/>
-      <c r="AK8" s="373" t="s">
+      <c r="AI8" s="459"/>
+      <c r="AJ8" s="460"/>
+      <c r="AK8" s="458" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="374"/>
-      <c r="AM8" s="375"/>
+      <c r="AL8" s="459"/>
+      <c r="AM8" s="460"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -21892,7 +21957,7 @@
       <c r="BH8" s="337" t="s">
         <v>103</v>
       </c>
-      <c r="BI8" s="506" t="s">
+      <c r="BI8" s="407" t="s">
         <v>774</v>
       </c>
       <c r="BJ8" s="343" t="s">
@@ -21918,38 +21983,38 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="382" t="s">
+      <c r="J9" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="383"/>
+      <c r="K9" s="468"/>
       <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="382" t="s">
+      <c r="M9" s="467" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="383"/>
+      <c r="N9" s="468"/>
       <c r="O9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="384" t="s">
+      <c r="P9" s="469" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="491"/>
+      <c r="Q9" s="470"/>
       <c r="R9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="382" t="s">
+      <c r="S9" s="467" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="383"/>
+      <c r="T9" s="468"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="384" t="s">
+      <c r="V9" s="469" t="s">
         <v>910</v>
       </c>
-      <c r="W9" s="491"/>
+      <c r="W9" s="470"/>
       <c r="X9" s="6" t="s">
         <v>729</v>
       </c>
@@ -21983,8 +22048,8 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="53"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="371"/>
-      <c r="AL9" s="372"/>
+      <c r="AK9" s="456"/>
+      <c r="AL9" s="457"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -21999,6 +22064,7 @@
       <c r="AX9" s="57"/>
       <c r="AZ9" s="4"/>
       <c r="BA9" s="173">
+        <f xml:space="preserve"> ROW() -8</f>
         <v>1</v>
       </c>
       <c r="BB9" s="110">
@@ -22013,18 +22079,18 @@
       <c r="BE9" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="BH9" s="459">
+      <c r="BH9" s="173">
         <v>1</v>
       </c>
-      <c r="BI9" s="460" t="e">
+      <c r="BI9" s="371" t="e">
         <f xml:space="preserve"> MATCH(BJ9, $BB$9:$BB$55, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ9" s="461" t="str">
-        <f t="shared" ref="BJ9:BJ71" si="1" xml:space="preserve"> MID($BI$4, $BH9, 1)</f>
+      <c r="BJ9" s="108" t="str">
+        <f t="shared" ref="BJ9:BJ63" si="1" xml:space="preserve"> MID($BI$4, $BH9, 1)</f>
         <v>1</v>
       </c>
-      <c r="BK9" s="462" t="str">
+      <c r="BK9" s="372" t="str">
         <f xml:space="preserve"> MID($BI$5, $BH9, 1)</f>
         <v>1</v>
       </c>
@@ -22034,16 +22100,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="376" t="s">
+      <c r="E10" s="461" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="377"/>
-      <c r="G10" s="378"/>
-      <c r="H10" s="376" t="s">
+      <c r="F10" s="462"/>
+      <c r="G10" s="463"/>
+      <c r="H10" s="461" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="377"/>
-      <c r="J10" s="378"/>
+      <c r="I10" s="462"/>
+      <c r="J10" s="463"/>
       <c r="K10" s="324" t="s">
         <v>44</v>
       </c>
@@ -22053,16 +22119,16 @@
       <c r="M10" s="323" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="376" t="s">
+      <c r="N10" s="461" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="377"/>
-      <c r="P10" s="378"/>
-      <c r="Q10" s="376" t="s">
+      <c r="O10" s="462"/>
+      <c r="P10" s="463"/>
+      <c r="Q10" s="461" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="377"/>
-      <c r="S10" s="378"/>
+      <c r="R10" s="462"/>
+      <c r="S10" s="463"/>
       <c r="T10" s="324" t="s">
         <v>106</v>
       </c>
@@ -22090,31 +22156,31 @@
       <c r="AB10" s="326" t="s">
         <v>906</v>
       </c>
-      <c r="AC10" s="379" t="s">
+      <c r="AC10" s="464" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="380"/>
-      <c r="AE10" s="381"/>
-      <c r="AF10" s="379" t="s">
+      <c r="AD10" s="465"/>
+      <c r="AE10" s="466"/>
+      <c r="AF10" s="464" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="380"/>
-      <c r="AH10" s="381"/>
-      <c r="AI10" s="379" t="s">
+      <c r="AG10" s="465"/>
+      <c r="AH10" s="466"/>
+      <c r="AI10" s="464" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="380"/>
-      <c r="AK10" s="381"/>
-      <c r="AL10" s="379" t="s">
+      <c r="AJ10" s="465"/>
+      <c r="AK10" s="466"/>
+      <c r="AL10" s="464" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="380"/>
-      <c r="AN10" s="381"/>
-      <c r="AO10" s="373" t="s">
+      <c r="AM10" s="465"/>
+      <c r="AN10" s="466"/>
+      <c r="AO10" s="458" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="374"/>
-      <c r="AQ10" s="375"/>
+      <c r="AP10" s="459"/>
+      <c r="AQ10" s="460"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="57"/>
@@ -22122,6 +22188,7 @@
       <c r="AY10"/>
       <c r="AZ10" s="2"/>
       <c r="BA10" s="173">
+        <f t="shared" ref="BA10:BA58" si="2" xml:space="preserve"> ROW() -8</f>
         <v>2</v>
       </c>
       <c r="BB10" s="110" t="s">
@@ -22136,16 +22203,16 @@
       <c r="BE10" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="BH10" s="459">
+      <c r="BH10" s="173">
         <v>2</v>
       </c>
-      <c r="BI10" s="460"/>
-      <c r="BJ10" s="461" t="str">
+      <c r="BI10" s="371"/>
+      <c r="BJ10" s="108" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="BK10" s="462" t="str">
-        <f t="shared" ref="BK10:BK71" si="2" xml:space="preserve"> MID($BI$5, $BH10, 1)</f>
+      <c r="BK10" s="372" t="str">
+        <f t="shared" ref="BK10:BK63" si="3" xml:space="preserve"> MID($BI$5, $BH10, 1)</f>
         <v>!</v>
       </c>
     </row>
@@ -22230,14 +22297,14 @@
       <c r="AH11" s="128" t="s">
         <v>329</v>
       </c>
-      <c r="AI11" s="371"/>
-      <c r="AJ11" s="372"/>
+      <c r="AI11" s="456"/>
+      <c r="AJ11" s="457"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="371"/>
-      <c r="AM11" s="372"/>
+      <c r="AL11" s="456"/>
+      <c r="AM11" s="457"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="371"/>
-      <c r="AP11" s="372"/>
+      <c r="AO11" s="456"/>
+      <c r="AP11" s="457"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="4"/>
@@ -22246,6 +22313,7 @@
       <c r="AY11"/>
       <c r="AZ11" s="4"/>
       <c r="BA11" s="173">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BB11" s="110" t="s">
@@ -22260,16 +22328,16 @@
       <c r="BE11" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="BH11" s="459">
+      <c r="BH11" s="173">
         <v>3</v>
       </c>
-      <c r="BI11" s="460"/>
-      <c r="BJ11" s="461" t="str">
+      <c r="BI11" s="371"/>
+      <c r="BJ11" s="108" t="str">
         <f t="shared" si="1"/>
         <v>q</v>
       </c>
-      <c r="BK11" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK11" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>q</v>
       </c>
     </row>
@@ -22279,36 +22347,36 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="376" t="s">
+      <c r="F12" s="461" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="377"/>
-      <c r="H12" s="378"/>
-      <c r="I12" s="376" t="s">
+      <c r="G12" s="462"/>
+      <c r="H12" s="463"/>
+      <c r="I12" s="461" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="377"/>
-      <c r="K12" s="378"/>
-      <c r="L12" s="376" t="s">
+      <c r="J12" s="462"/>
+      <c r="K12" s="463"/>
+      <c r="L12" s="461" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="377"/>
-      <c r="N12" s="378"/>
-      <c r="O12" s="376" t="s">
+      <c r="M12" s="462"/>
+      <c r="N12" s="463"/>
+      <c r="O12" s="461" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="377"/>
-      <c r="Q12" s="378"/>
-      <c r="R12" s="376" t="s">
+      <c r="P12" s="462"/>
+      <c r="Q12" s="463"/>
+      <c r="R12" s="461" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="377"/>
-      <c r="T12" s="378"/>
-      <c r="U12" s="376" t="s">
+      <c r="S12" s="462"/>
+      <c r="T12" s="463"/>
+      <c r="U12" s="461" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="377"/>
-      <c r="W12" s="378"/>
+      <c r="V12" s="462"/>
+      <c r="W12" s="463"/>
       <c r="X12" s="325" t="s">
         <v>117</v>
       </c>
@@ -22318,11 +22386,11 @@
       <c r="Z12" s="326" t="s">
         <v>605</v>
       </c>
-      <c r="AA12" s="379" t="s">
+      <c r="AA12" s="464" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="380"/>
-      <c r="AC12" s="381"/>
+      <c r="AB12" s="465"/>
+      <c r="AC12" s="466"/>
       <c r="AD12" s="325" t="s">
         <v>112</v>
       </c>
@@ -22332,16 +22400,16 @@
       <c r="AF12" s="326" t="s">
         <v>909</v>
       </c>
-      <c r="AG12" s="379" t="s">
+      <c r="AG12" s="464" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="380"/>
-      <c r="AI12" s="381"/>
-      <c r="AJ12" s="373" t="s">
+      <c r="AH12" s="465"/>
+      <c r="AI12" s="466"/>
+      <c r="AJ12" s="458" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="374"/>
-      <c r="AL12" s="375"/>
+      <c r="AK12" s="459"/>
+      <c r="AL12" s="460"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -22357,6 +22425,7 @@
       <c r="AY12"/>
       <c r="AZ12" s="2"/>
       <c r="BA12" s="173">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BB12" s="110" t="s">
@@ -22371,16 +22440,16 @@
       <c r="BE12" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="BH12" s="459">
+      <c r="BH12" s="173">
         <v>4</v>
       </c>
-      <c r="BI12" s="460"/>
-      <c r="BJ12" s="461" t="str">
+      <c r="BI12" s="371"/>
+      <c r="BJ12" s="108" t="str">
         <f t="shared" si="1"/>
         <v>a</v>
       </c>
-      <c r="BK12" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK12" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
     </row>
@@ -22466,8 +22535,8 @@
       <c r="AI13" s="128" t="s">
         <v>609</v>
       </c>
-      <c r="AJ13" s="371"/>
-      <c r="AK13" s="372"/>
+      <c r="AJ13" s="456"/>
+      <c r="AK13" s="457"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -22484,6 +22553,7 @@
       <c r="AY13"/>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="173">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BB13" s="110">
@@ -22498,16 +22568,16 @@
       <c r="BE13" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="BH13" s="459">
+      <c r="BH13" s="173">
         <v>5</v>
       </c>
-      <c r="BI13" s="460"/>
-      <c r="BJ13" s="461" t="str">
+      <c r="BI13" s="371"/>
+      <c r="BJ13" s="108" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BK13" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK13" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -22518,41 +22588,41 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="376" t="s">
+      <c r="G14" s="461" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="377"/>
-      <c r="I14" s="378"/>
-      <c r="J14" s="376" t="s">
+      <c r="H14" s="462"/>
+      <c r="I14" s="463"/>
+      <c r="J14" s="461" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="377"/>
-      <c r="L14" s="378"/>
-      <c r="M14" s="376" t="s">
+      <c r="K14" s="462"/>
+      <c r="L14" s="463"/>
+      <c r="M14" s="461" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="377"/>
-      <c r="O14" s="378"/>
-      <c r="P14" s="376" t="s">
+      <c r="N14" s="462"/>
+      <c r="O14" s="463"/>
+      <c r="P14" s="461" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="377"/>
-      <c r="R14" s="378"/>
-      <c r="S14" s="376" t="s">
+      <c r="Q14" s="462"/>
+      <c r="R14" s="463"/>
+      <c r="S14" s="461" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="377"/>
-      <c r="U14" s="378"/>
-      <c r="V14" s="376" t="s">
+      <c r="T14" s="462"/>
+      <c r="U14" s="463"/>
+      <c r="V14" s="461" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="377"/>
-      <c r="X14" s="378"/>
-      <c r="Y14" s="379" t="s">
+      <c r="W14" s="462"/>
+      <c r="X14" s="463"/>
+      <c r="Y14" s="464" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="380"/>
-      <c r="AA14" s="381"/>
+      <c r="Z14" s="465"/>
+      <c r="AA14" s="466"/>
       <c r="AB14" s="325" t="s">
         <v>110</v>
       </c>
@@ -22562,16 +22632,16 @@
       <c r="AD14" s="326" t="s">
         <v>907</v>
       </c>
-      <c r="AE14" s="379" t="s">
+      <c r="AE14" s="464" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="380"/>
-      <c r="AG14" s="381"/>
-      <c r="AH14" s="373" t="s">
+      <c r="AF14" s="465"/>
+      <c r="AG14" s="466"/>
+      <c r="AH14" s="458" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="374"/>
-      <c r="AJ14" s="375"/>
+      <c r="AI14" s="459"/>
+      <c r="AJ14" s="460"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -22589,6 +22659,7 @@
       <c r="AY14"/>
       <c r="AZ14" s="2"/>
       <c r="BA14" s="173">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BB14" s="110" t="s">
@@ -22603,16 +22674,16 @@
       <c r="BE14" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="BH14" s="459">
+      <c r="BH14" s="173">
         <v>6</v>
       </c>
-      <c r="BI14" s="460"/>
-      <c r="BJ14" s="461" t="str">
+      <c r="BI14" s="371"/>
+      <c r="BJ14" s="108" t="str">
         <f t="shared" si="1"/>
         <v>w</v>
       </c>
-      <c r="BK14" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK14" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>w</v>
       </c>
     </row>
@@ -22703,6 +22774,7 @@
       <c r="AX15" s="57"/>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="173">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="BB15" s="110" t="s">
@@ -22717,16 +22789,16 @@
       <c r="BE15" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="BH15" s="459">
+      <c r="BH15" s="173">
         <v>7</v>
       </c>
-      <c r="BI15" s="460"/>
-      <c r="BJ15" s="461" t="str">
+      <c r="BI15" s="371"/>
+      <c r="BJ15" s="108" t="str">
         <f t="shared" si="1"/>
         <v>s</v>
       </c>
-      <c r="BK15" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK15" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>s</v>
       </c>
     </row>
@@ -22783,6 +22855,7 @@
       <c r="AX16" s="57"/>
       <c r="AY16"/>
       <c r="BA16" s="173">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="BB16" s="110" t="s">
@@ -22797,16 +22870,16 @@
       <c r="BE16" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="BH16" s="459">
+      <c r="BH16" s="173">
         <v>8</v>
       </c>
-      <c r="BI16" s="460"/>
-      <c r="BJ16" s="461" t="str">
+      <c r="BI16" s="371"/>
+      <c r="BJ16" s="108" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="BK16" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK16" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
     </row>
@@ -22819,6 +22892,7 @@
       <c r="AY17"/>
       <c r="AZ17" s="60"/>
       <c r="BA17" s="173">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="BB17" s="110" t="s">
@@ -22833,16 +22907,16 @@
       <c r="BE17" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="BH17" s="459">
+      <c r="BH17" s="173">
         <v>9</v>
       </c>
-      <c r="BI17" s="460"/>
-      <c r="BJ17" s="461" t="str">
+      <c r="BI17" s="371"/>
+      <c r="BJ17" s="108" t="str">
         <f t="shared" si="1"/>
         <v>e</v>
       </c>
-      <c r="BK17" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK17" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>e</v>
       </c>
     </row>
@@ -22901,6 +22975,7 @@
       <c r="AY18"/>
       <c r="AZ18" s="60"/>
       <c r="BA18" s="173">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="BB18" s="110" t="s">
@@ -22915,16 +22990,16 @@
       <c r="BE18" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="BH18" s="459">
+      <c r="BH18" s="173">
         <v>10</v>
       </c>
-      <c r="BI18" s="460"/>
-      <c r="BJ18" s="461" t="str">
+      <c r="BI18" s="371"/>
+      <c r="BJ18" s="108" t="str">
         <f t="shared" si="1"/>
         <v>E</v>
       </c>
-      <c r="BK18" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK18" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>E</v>
       </c>
     </row>
@@ -22995,6 +23070,7 @@
       <c r="AY19"/>
       <c r="AZ19" s="60"/>
       <c r="BA19" s="173">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="BB19" s="110" t="s">
@@ -23009,16 +23085,16 @@
       <c r="BE19" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="BH19" s="459">
+      <c r="BH19" s="173">
         <v>11</v>
       </c>
-      <c r="BI19" s="460"/>
-      <c r="BJ19" s="461" t="str">
+      <c r="BI19" s="371"/>
+      <c r="BJ19" s="108" t="str">
         <f t="shared" si="1"/>
         <v>d</v>
       </c>
-      <c r="BK19" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK19" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
     </row>
@@ -23086,6 +23162,7 @@
       <c r="AY20"/>
       <c r="AZ20" s="60"/>
       <c r="BA20" s="173">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="BB20" s="110" t="s">
@@ -23100,16 +23177,16 @@
       <c r="BE20" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="BH20" s="459">
+      <c r="BH20" s="173">
         <v>12</v>
       </c>
-      <c r="BI20" s="460"/>
-      <c r="BJ20" s="461" t="str">
+      <c r="BI20" s="371"/>
+      <c r="BJ20" s="108" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="BK20" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK20" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>D</v>
       </c>
     </row>
@@ -23169,6 +23246,7 @@
       <c r="AY21"/>
       <c r="AZ21" s="60"/>
       <c r="BA21" s="173">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="BB21" s="110" t="s">
@@ -23183,16 +23261,16 @@
       <c r="BE21" s="109" t="s">
         <v>170</v>
       </c>
-      <c r="BH21" s="459">
+      <c r="BH21" s="173">
         <v>13</v>
       </c>
-      <c r="BI21" s="460"/>
-      <c r="BJ21" s="461" t="str">
+      <c r="BI21" s="371"/>
+      <c r="BJ21" s="108" t="str">
         <f t="shared" si="1"/>
         <v>c</v>
       </c>
-      <c r="BK21" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK21" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>c</v>
       </c>
     </row>
@@ -23249,6 +23327,7 @@
       <c r="AY22"/>
       <c r="AZ22" s="60"/>
       <c r="BA22" s="173">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="BB22" s="110" t="s">
@@ -23263,16 +23342,16 @@
       <c r="BE22" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="BH22" s="459">
+      <c r="BH22" s="173">
         <v>14</v>
       </c>
-      <c r="BI22" s="460"/>
-      <c r="BJ22" s="461" t="str">
+      <c r="BI22" s="371"/>
+      <c r="BJ22" s="108" t="str">
         <f t="shared" si="1"/>
         <v>r</v>
       </c>
-      <c r="BK22" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK22" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>r</v>
       </c>
     </row>
@@ -23331,6 +23410,7 @@
       <c r="AY23"/>
       <c r="AZ23" s="60"/>
       <c r="BA23" s="173">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="BB23" s="110" t="s">
@@ -23345,16 +23425,16 @@
       <c r="BE23" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="BH23" s="459">
+      <c r="BH23" s="173">
         <v>15</v>
       </c>
-      <c r="BI23" s="460"/>
-      <c r="BJ23" s="461" t="str">
+      <c r="BI23" s="371"/>
+      <c r="BJ23" s="108" t="str">
         <f t="shared" si="1"/>
         <v>R</v>
       </c>
-      <c r="BK23" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK23" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>R</v>
       </c>
     </row>
@@ -23415,6 +23495,7 @@
       <c r="AY24"/>
       <c r="AZ24" s="60"/>
       <c r="BA24" s="173">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="BB24" s="110" t="s">
@@ -23429,16 +23510,16 @@
       <c r="BE24" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="BH24" s="459">
+      <c r="BH24" s="173">
         <v>16</v>
       </c>
-      <c r="BI24" s="460"/>
-      <c r="BJ24" s="461" t="str">
+      <c r="BI24" s="371"/>
+      <c r="BJ24" s="108" t="str">
         <f t="shared" si="1"/>
         <v>f</v>
       </c>
-      <c r="BK24" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK24" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
     </row>
@@ -23507,6 +23588,7 @@
       <c r="AX25" s="57"/>
       <c r="AZ25" s="60"/>
       <c r="BA25" s="173">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="BB25" s="110" t="s">
@@ -23521,16 +23603,16 @@
       <c r="BE25" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="BH25" s="459">
+      <c r="BH25" s="173">
         <v>17</v>
       </c>
-      <c r="BI25" s="460"/>
-      <c r="BJ25" s="461" t="str">
+      <c r="BI25" s="371"/>
+      <c r="BJ25" s="108" t="str">
         <f t="shared" si="1"/>
         <v>v</v>
       </c>
-      <c r="BK25" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK25" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>v</v>
       </c>
     </row>
@@ -23598,6 +23680,7 @@
       <c r="AX26" s="57"/>
       <c r="AZ26" s="60"/>
       <c r="BA26" s="173">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="BB26" s="110" t="s">
@@ -23612,16 +23695,16 @@
       <c r="BE26" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="BH26" s="459">
+      <c r="BH26" s="173">
         <v>18</v>
       </c>
-      <c r="BI26" s="460"/>
-      <c r="BJ26" s="461" t="str">
+      <c r="BI26" s="371"/>
+      <c r="BJ26" s="108" t="str">
         <f t="shared" si="1"/>
         <v>y</v>
       </c>
-      <c r="BK26" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK26" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>y</v>
       </c>
     </row>
@@ -23680,6 +23763,7 @@
       <c r="AX27" s="57"/>
       <c r="AZ27" s="60"/>
       <c r="BA27" s="173">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="BB27" s="110" t="s">
@@ -23694,16 +23778,16 @@
       <c r="BE27" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="BH27" s="459">
+      <c r="BH27" s="173">
         <v>19</v>
       </c>
-      <c r="BI27" s="460"/>
-      <c r="BJ27" s="461" t="str">
+      <c r="BI27" s="371"/>
+      <c r="BJ27" s="108" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="BK27" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK27" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
     </row>
@@ -23759,6 +23843,7 @@
       <c r="AX28" s="57"/>
       <c r="AZ28" s="60"/>
       <c r="BA28" s="173">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="BB28" s="110" t="s">
@@ -23773,16 +23858,16 @@
       <c r="BE28" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="BH28" s="459">
+      <c r="BH28" s="173">
         <v>20</v>
       </c>
-      <c r="BI28" s="460"/>
-      <c r="BJ28" s="461" t="str">
+      <c r="BI28" s="371"/>
+      <c r="BJ28" s="108" t="str">
         <f t="shared" si="1"/>
         <v>h</v>
       </c>
-      <c r="BK28" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK28" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>h</v>
       </c>
     </row>
@@ -23840,6 +23925,7 @@
       <c r="AX29" s="57"/>
       <c r="AZ29" s="60"/>
       <c r="BA29" s="173">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="BB29" s="110">
@@ -23854,16 +23940,16 @@
       <c r="BE29" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="BH29" s="459">
+      <c r="BH29" s="173">
         <v>21</v>
       </c>
-      <c r="BI29" s="460"/>
-      <c r="BJ29" s="461" t="str">
+      <c r="BI29" s="371"/>
+      <c r="BJ29" s="108" t="str">
         <f t="shared" si="1"/>
         <v>n</v>
       </c>
-      <c r="BK29" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK29" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>n</v>
       </c>
     </row>
@@ -23924,6 +24010,7 @@
       <c r="AY30" s="60"/>
       <c r="AZ30" s="60"/>
       <c r="BA30" s="173">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="BB30" s="110" t="s">
@@ -23938,16 +24025,16 @@
       <c r="BE30" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="BH30" s="459">
+      <c r="BH30" s="173">
         <v>22</v>
       </c>
-      <c r="BI30" s="460"/>
-      <c r="BJ30" s="461" t="str">
+      <c r="BI30" s="371"/>
+      <c r="BJ30" s="108" t="str">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="BK30" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK30" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -24013,6 +24100,7 @@
       <c r="AY31" s="60"/>
       <c r="AZ31" s="60"/>
       <c r="BA31" s="173">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="BB31" s="110" t="s">
@@ -24027,16 +24115,16 @@
       <c r="BE31" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="BH31" s="459">
+      <c r="BH31" s="173">
         <v>23</v>
       </c>
-      <c r="BI31" s="460"/>
-      <c r="BJ31" s="461" t="str">
+      <c r="BI31" s="371"/>
+      <c r="BJ31" s="108" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="BK31" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK31" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>*</v>
       </c>
     </row>
@@ -24103,6 +24191,7 @@
       <c r="AY32" s="60"/>
       <c r="AZ32" s="60"/>
       <c r="BA32" s="173">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="BB32" s="110" t="s">
@@ -24117,16 +24206,16 @@
       <c r="BE32" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="BH32" s="459">
+      <c r="BH32" s="173">
         <v>24</v>
       </c>
-      <c r="BI32" s="460"/>
-      <c r="BJ32" s="461" t="str">
+      <c r="BI32" s="371"/>
+      <c r="BJ32" s="108" t="str">
         <f t="shared" si="1"/>
         <v>i</v>
       </c>
-      <c r="BK32" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK32" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>i</v>
       </c>
     </row>
@@ -24186,6 +24275,7 @@
       <c r="AY33" s="60"/>
       <c r="AZ33" s="60"/>
       <c r="BA33" s="173">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="BB33" s="110" t="s">
@@ -24200,16 +24290,16 @@
       <c r="BE33" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="BH33" s="459">
+      <c r="BH33" s="173">
         <v>25</v>
       </c>
-      <c r="BI33" s="460"/>
-      <c r="BJ33" s="461" t="str">
+      <c r="BI33" s="371"/>
+      <c r="BJ33" s="108" t="str">
         <f t="shared" si="1"/>
         <v>I</v>
       </c>
-      <c r="BK33" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK33" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>I</v>
       </c>
     </row>
@@ -24266,6 +24356,7 @@
       <c r="AY34" s="60"/>
       <c r="AZ34" s="62"/>
       <c r="BA34" s="173">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="BB34" s="110" t="s">
@@ -24280,16 +24371,16 @@
       <c r="BE34" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="BH34" s="459">
+      <c r="BH34" s="173">
         <v>26</v>
       </c>
-      <c r="BI34" s="460"/>
-      <c r="BJ34" s="461" t="str">
+      <c r="BI34" s="371"/>
+      <c r="BJ34" s="108" t="str">
         <f t="shared" si="1"/>
         <v>k</v>
       </c>
-      <c r="BK34" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK34" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>k</v>
       </c>
     </row>
@@ -24346,6 +24437,7 @@
       <c r="AY35" s="62"/>
       <c r="AZ35" s="62"/>
       <c r="BA35" s="173">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="BB35" s="110">
@@ -24360,16 +24452,16 @@
       <c r="BE35" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="BH35" s="459">
+      <c r="BH35" s="173">
         <v>27</v>
       </c>
-      <c r="BI35" s="460"/>
-      <c r="BJ35" s="461" t="str">
+      <c r="BI35" s="371"/>
+      <c r="BJ35" s="108" t="str">
         <f t="shared" si="1"/>
         <v>o</v>
       </c>
-      <c r="BK35" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK35" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
     </row>
@@ -24426,6 +24518,7 @@
       <c r="AY36" s="62"/>
       <c r="AZ36" s="62"/>
       <c r="BA36" s="173">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="BB36" s="110" t="s">
@@ -24440,16 +24533,16 @@
       <c r="BE36" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="BH36" s="459">
+      <c r="BH36" s="173">
         <v>28</v>
       </c>
-      <c r="BI36" s="460"/>
-      <c r="BJ36" s="461" t="str">
+      <c r="BI36" s="371"/>
+      <c r="BJ36" s="108" t="str">
         <f t="shared" si="1"/>
         <v>O</v>
       </c>
-      <c r="BK36" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK36" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>O</v>
       </c>
     </row>
@@ -24506,6 +24599,7 @@
       <c r="AY37" s="62"/>
       <c r="AZ37" s="62"/>
       <c r="BA37" s="173">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="BB37" s="110">
@@ -24520,16 +24614,16 @@
       <c r="BE37" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="BH37" s="459">
+      <c r="BH37" s="173">
         <v>29</v>
       </c>
-      <c r="BI37" s="460"/>
-      <c r="BJ37" s="461" t="str">
+      <c r="BI37" s="371"/>
+      <c r="BJ37" s="108" t="str">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="BK37" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK37" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -24586,6 +24680,7 @@
       <c r="AY38" s="62"/>
       <c r="AZ38" s="62"/>
       <c r="BA38" s="173">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="BB38" s="110" t="s">
@@ -24600,16 +24695,16 @@
       <c r="BE38" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="BH38" s="459">
+      <c r="BH38" s="173">
         <v>30</v>
       </c>
-      <c r="BI38" s="460"/>
-      <c r="BJ38" s="461" t="str">
+      <c r="BI38" s="371"/>
+      <c r="BJ38" s="108" t="str">
         <f t="shared" si="1"/>
         <v>(</v>
       </c>
-      <c r="BK38" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK38" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>(</v>
       </c>
     </row>
@@ -24666,6 +24761,7 @@
       <c r="AY39" s="62"/>
       <c r="AZ39" s="62"/>
       <c r="BA39" s="173">
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="BB39" s="110" t="s">
@@ -24680,16 +24776,16 @@
       <c r="BE39" s="109" t="s">
         <v>804</v>
       </c>
-      <c r="BH39" s="459">
+      <c r="BH39" s="173">
         <v>31</v>
       </c>
-      <c r="BI39" s="460"/>
-      <c r="BJ39" s="461" t="str">
+      <c r="BI39" s="371"/>
+      <c r="BJ39" s="108" t="str">
         <f t="shared" si="1"/>
         <v>l</v>
       </c>
-      <c r="BK39" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK39" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>l</v>
       </c>
     </row>
@@ -24714,6 +24810,7 @@
       <c r="AY40" s="62"/>
       <c r="AZ40" s="62"/>
       <c r="BA40" s="173">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="BB40" s="110" t="s">
@@ -24728,16 +24825,16 @@
       <c r="BE40" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="BH40" s="459">
+      <c r="BH40" s="173">
         <v>32</v>
       </c>
-      <c r="BI40" s="460"/>
-      <c r="BJ40" s="461" t="str">
+      <c r="BI40" s="371"/>
+      <c r="BJ40" s="108" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="BK40" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK40" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
     </row>
@@ -24795,6 +24892,7 @@
       <c r="AY41" s="62"/>
       <c r="AZ41" s="62"/>
       <c r="BA41" s="173">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="BB41" s="110" t="s">
@@ -24809,16 +24907,16 @@
       <c r="BE41" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="BH41" s="459">
+      <c r="BH41" s="173">
         <v>33</v>
       </c>
-      <c r="BI41" s="460"/>
-      <c r="BJ41" s="461" t="str">
+      <c r="BI41" s="371"/>
+      <c r="BJ41" s="108" t="str">
         <f t="shared" si="1"/>
         <v>,</v>
       </c>
-      <c r="BK41" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK41" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>,</v>
       </c>
     </row>
@@ -24875,6 +24973,7 @@
       <c r="AY42" s="62"/>
       <c r="AZ42" s="62"/>
       <c r="BA42" s="173">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="BB42" s="110" t="s">
@@ -24889,16 +24988,16 @@
       <c r="BE42" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="BH42" s="459">
+      <c r="BH42" s="173">
         <v>34</v>
       </c>
-      <c r="BI42" s="460"/>
-      <c r="BJ42" s="461" t="str">
+      <c r="BI42" s="371"/>
+      <c r="BJ42" s="108" t="str">
         <f t="shared" si="1"/>
         <v>&lt;</v>
       </c>
-      <c r="BK42" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK42" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;</v>
       </c>
     </row>
@@ -24955,6 +25054,7 @@
       <c r="AY43" s="62"/>
       <c r="AZ43" s="62"/>
       <c r="BA43" s="173">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="BB43" s="110" t="s">
@@ -24969,16 +25069,16 @@
       <c r="BE43" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="BH43" s="459">
+      <c r="BH43" s="173">
         <v>35</v>
       </c>
-      <c r="BI43" s="460"/>
-      <c r="BJ43" s="461" t="str">
+      <c r="BI43" s="371"/>
+      <c r="BJ43" s="108" t="str">
         <f t="shared" si="1"/>
         <v>m</v>
       </c>
-      <c r="BK43" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK43" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>m</v>
       </c>
     </row>
@@ -25035,6 +25135,7 @@
       <c r="AY44" s="62"/>
       <c r="AZ44" s="62"/>
       <c r="BA44" s="173">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="BB44" s="110" t="s">
@@ -25049,16 +25150,16 @@
       <c r="BE44" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="BH44" s="459">
+      <c r="BH44" s="173">
         <v>36</v>
       </c>
-      <c r="BI44" s="460"/>
-      <c r="BJ44" s="461" t="str">
+      <c r="BI44" s="371"/>
+      <c r="BJ44" s="108" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BK44" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK44" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25115,6 +25216,7 @@
       <c r="AY45" s="62"/>
       <c r="AZ45" s="62"/>
       <c r="BA45" s="173">
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="BB45" s="110" t="s">
@@ -25129,16 +25231,16 @@
       <c r="BE45" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="BH45" s="459">
+      <c r="BH45" s="173">
         <v>37</v>
       </c>
-      <c r="BI45" s="460"/>
-      <c r="BJ45" s="461" t="str">
+      <c r="BI45" s="371"/>
+      <c r="BJ45" s="108" t="str">
         <f t="shared" si="1"/>
         <v>p</v>
       </c>
-      <c r="BK45" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK45" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>p</v>
       </c>
     </row>
@@ -25195,6 +25297,7 @@
       <c r="AY46" s="62"/>
       <c r="AZ46" s="62"/>
       <c r="BA46" s="173">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="BB46" s="110" t="s">
@@ -25209,16 +25312,16 @@
       <c r="BE46" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="BH46" s="459">
+      <c r="BH46" s="173">
         <v>38</v>
       </c>
-      <c r="BI46" s="460"/>
-      <c r="BJ46" s="461" t="str">
+      <c r="BI46" s="371"/>
+      <c r="BJ46" s="108" t="str">
         <f t="shared" si="1"/>
         <v>;</v>
       </c>
-      <c r="BK46" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK46" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>;</v>
       </c>
     </row>
@@ -25275,6 +25378,7 @@
       <c r="AY47" s="62"/>
       <c r="AZ47" s="62"/>
       <c r="BA47" s="173">
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="BB47" s="110" t="s">
@@ -25289,16 +25393,16 @@
       <c r="BE47" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="BH47" s="459">
+      <c r="BH47" s="173">
         <v>39</v>
       </c>
-      <c r="BI47" s="460"/>
-      <c r="BJ47" s="461" t="str">
+      <c r="BI47" s="371"/>
+      <c r="BJ47" s="108" t="str">
         <f t="shared" si="1"/>
         <v>:</v>
       </c>
-      <c r="BK47" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK47" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>:</v>
       </c>
     </row>
@@ -25355,6 +25459,7 @@
       <c r="AY48" s="62"/>
       <c r="AZ48" s="62"/>
       <c r="BA48" s="173">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="BB48" s="110" t="s">
@@ -25369,16 +25474,16 @@
       <c r="BE48" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="BH48" s="459">
+      <c r="BH48" s="173">
         <v>40</v>
       </c>
-      <c r="BI48" s="460"/>
-      <c r="BJ48" s="461" t="str">
+      <c r="BI48" s="371"/>
+      <c r="BJ48" s="108" t="str">
         <f t="shared" si="1"/>
         <v>/</v>
       </c>
-      <c r="BK48" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK48" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>/</v>
       </c>
     </row>
@@ -25435,6 +25540,7 @@
       <c r="AY49" s="62"/>
       <c r="AZ49" s="62"/>
       <c r="BA49" s="173">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="BB49" s="110" t="s">
@@ -25449,16 +25555,16 @@
       <c r="BE49" s="109" t="s">
         <v>806</v>
       </c>
-      <c r="BH49" s="459">
+      <c r="BH49" s="173">
         <v>41</v>
       </c>
-      <c r="BI49" s="460"/>
-      <c r="BJ49" s="461" t="str">
+      <c r="BI49" s="371"/>
+      <c r="BJ49" s="108" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="BK49" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK49" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -25515,6 +25621,7 @@
       <c r="AY50" s="62"/>
       <c r="AZ50" s="62"/>
       <c r="BA50" s="173">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="BB50" s="110" t="s">
@@ -25529,16 +25636,16 @@
       <c r="BE50" s="109">
         <v>1</v>
       </c>
-      <c r="BH50" s="459">
+      <c r="BH50" s="173">
         <v>42</v>
       </c>
-      <c r="BI50" s="460"/>
-      <c r="BJ50" s="461" t="str">
+      <c r="BI50" s="371"/>
+      <c r="BJ50" s="108" t="str">
         <f t="shared" si="1"/>
         <v>u</v>
       </c>
-      <c r="BK50" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK50" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>u</v>
       </c>
     </row>
@@ -25595,6 +25702,7 @@
       <c r="AY51" s="62"/>
       <c r="AZ51" s="62"/>
       <c r="BA51" s="173">
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="BB51" s="110">
@@ -25609,16 +25717,16 @@
       <c r="BE51" s="109">
         <v>2</v>
       </c>
-      <c r="BH51" s="459">
+      <c r="BH51" s="173">
         <v>43</v>
       </c>
-      <c r="BI51" s="460"/>
-      <c r="BJ51" s="461" t="str">
+      <c r="BI51" s="371"/>
+      <c r="BJ51" s="108" t="str">
         <f t="shared" si="1"/>
         <v>U</v>
       </c>
-      <c r="BK51" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK51" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>U</v>
       </c>
     </row>
@@ -25675,6 +25783,7 @@
       <c r="AY52" s="62"/>
       <c r="AZ52" s="62"/>
       <c r="BA52" s="173">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="BB52" s="110">
@@ -25689,16 +25798,16 @@
       <c r="BE52" s="109">
         <v>3</v>
       </c>
-      <c r="BH52" s="459">
+      <c r="BH52" s="173">
         <v>44</v>
       </c>
-      <c r="BI52" s="460"/>
-      <c r="BJ52" s="461" t="str">
+      <c r="BI52" s="371"/>
+      <c r="BJ52" s="108" t="str">
         <f t="shared" si="1"/>
         <v>j</v>
       </c>
-      <c r="BK52" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK52" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
     </row>
@@ -25755,6 +25864,7 @@
       <c r="AY53" s="62"/>
       <c r="AZ53" s="62"/>
       <c r="BA53" s="173">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="BB53" s="110">
@@ -25769,16 +25879,16 @@
       <c r="BE53" s="109">
         <v>5</v>
       </c>
-      <c r="BH53" s="459">
+      <c r="BH53" s="173">
         <v>45</v>
       </c>
-      <c r="BI53" s="460"/>
-      <c r="BJ53" s="461" t="str">
+      <c r="BI53" s="371"/>
+      <c r="BJ53" s="108" t="str">
         <f t="shared" si="1"/>
         <v>J</v>
       </c>
-      <c r="BK53" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK53" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>J</v>
       </c>
     </row>
@@ -25835,6 +25945,7 @@
       <c r="AY54" s="62"/>
       <c r="AZ54" s="62"/>
       <c r="BA54" s="173">
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="BB54" s="110">
@@ -25849,16 +25960,16 @@
       <c r="BE54" s="109">
         <v>7</v>
       </c>
-      <c r="BH54" s="459">
+      <c r="BH54" s="173">
         <v>46</v>
       </c>
-      <c r="BI54" s="460"/>
-      <c r="BJ54" s="461" t="str">
+      <c r="BI54" s="371"/>
+      <c r="BJ54" s="108" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BK54" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK54" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -25915,6 +26026,7 @@
       <c r="AY55" s="62"/>
       <c r="AZ55" s="62"/>
       <c r="BA55" s="173">
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="BB55" s="110">
@@ -25929,16 +26041,16 @@
       <c r="BE55" s="109">
         <v>0</v>
       </c>
-      <c r="BH55" s="459">
+      <c r="BH55" s="173">
         <v>47</v>
       </c>
-      <c r="BI55" s="460"/>
-      <c r="BJ55" s="461" t="str">
+      <c r="BI55" s="371"/>
+      <c r="BJ55" s="108" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="BK55" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK55" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -25995,22 +26107,23 @@
       <c r="AY56" s="62"/>
       <c r="AZ56" s="62"/>
       <c r="BA56" s="173">
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="BB56" s="110"/>
       <c r="BC56" s="108"/>
       <c r="BD56" s="171"/>
       <c r="BE56" s="109"/>
-      <c r="BH56" s="459">
+      <c r="BH56" s="173">
         <v>48</v>
       </c>
-      <c r="BI56" s="460"/>
-      <c r="BJ56" s="461" t="str">
+      <c r="BI56" s="371"/>
+      <c r="BJ56" s="108" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="BK56" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK56" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>b</v>
       </c>
     </row>
@@ -26067,22 +26180,23 @@
       <c r="AY57" s="62"/>
       <c r="AZ57" s="62"/>
       <c r="BA57" s="173">
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="BB57" s="110"/>
       <c r="BC57" s="108"/>
       <c r="BD57" s="171"/>
       <c r="BE57" s="109"/>
-      <c r="BH57" s="459">
+      <c r="BH57" s="173">
         <v>49</v>
       </c>
-      <c r="BI57" s="460"/>
-      <c r="BJ57" s="461" t="str">
+      <c r="BI57" s="371"/>
+      <c r="BJ57" s="108" t="str">
         <f t="shared" si="1"/>
         <v>b</v>
       </c>
-      <c r="BK57" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK57" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>t</v>
       </c>
     </row>
@@ -26139,22 +26253,23 @@
       <c r="AY58" s="62"/>
       <c r="AZ58" s="62"/>
       <c r="BA58" s="173">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="BB58" s="110"/>
       <c r="BC58" s="108"/>
       <c r="BD58" s="171"/>
       <c r="BE58" s="109"/>
-      <c r="BH58" s="459">
+      <c r="BH58" s="173">
         <v>50</v>
       </c>
-      <c r="BI58" s="460"/>
-      <c r="BJ58" s="461" t="str">
+      <c r="BI58" s="371"/>
+      <c r="BJ58" s="108" t="str">
         <f t="shared" si="1"/>
         <v>t</v>
       </c>
-      <c r="BK58" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK58" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>g</v>
       </c>
     </row>
@@ -26177,72 +26292,72 @@
       <c r="AW59" s="62"/>
       <c r="AX59" s="62"/>
       <c r="AY59" s="62"/>
-      <c r="BH59" s="459">
+      <c r="BH59" s="173">
         <v>51</v>
       </c>
-      <c r="BI59" s="460"/>
-      <c r="BJ59" s="461" t="str">
+      <c r="BI59" s="371"/>
+      <c r="BJ59" s="108" t="str">
         <f t="shared" si="1"/>
         <v>g</v>
       </c>
-      <c r="BK59" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK59" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
     </row>
     <row r="60" spans="2:63" ht="34.5">
-      <c r="BH60" s="459">
+      <c r="BH60" s="173">
         <v>52</v>
       </c>
-      <c r="BI60" s="460"/>
-      <c r="BJ60" s="461" t="str">
+      <c r="BI60" s="371"/>
+      <c r="BJ60" s="108" t="str">
         <f t="shared" si="1"/>
         <v>z</v>
       </c>
-      <c r="BK60" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK60" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="2:63" ht="34.5">
-      <c r="BH61" s="459">
+      <c r="BH61" s="173">
         <v>53</v>
       </c>
-      <c r="BI61" s="460"/>
-      <c r="BJ61" s="461" t="str">
+      <c r="BI61" s="371"/>
+      <c r="BJ61" s="108" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="BK61" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK61" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="2:63" ht="34.5">
-      <c r="BH62" s="459">
+      <c r="BH62" s="173">
         <v>54</v>
       </c>
-      <c r="BI62" s="460"/>
-      <c r="BJ62" s="461" t="str">
+      <c r="BI62" s="371"/>
+      <c r="BJ62" s="108" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="BK62" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK62" s="372" t="str">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="2:63" ht="34.5">
-      <c r="BH63" s="459">
+      <c r="BH63" s="173">
         <v>55</v>
       </c>
-      <c r="BI63" s="460"/>
-      <c r="BJ63" s="461" t="str">
+      <c r="BI63" s="371"/>
+      <c r="BJ63" s="108" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="BK63" s="462" t="str">
-        <f t="shared" si="2"/>
+      <c r="BK63" s="372" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -30875,36 +30990,36 @@
         <v>755</v>
       </c>
       <c r="F8" s="323"/>
-      <c r="G8" s="376" t="s">
+      <c r="G8" s="461" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="377"/>
-      <c r="I8" s="378"/>
-      <c r="J8" s="385" t="s">
+      <c r="H8" s="462"/>
+      <c r="I8" s="463"/>
+      <c r="J8" s="471" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="386"/>
-      <c r="L8" s="387"/>
-      <c r="M8" s="385" t="s">
+      <c r="K8" s="472"/>
+      <c r="L8" s="473"/>
+      <c r="M8" s="471" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="386"/>
-      <c r="O8" s="387"/>
+      <c r="N8" s="472"/>
+      <c r="O8" s="473"/>
       <c r="P8" s="324"/>
       <c r="Q8" s="346" t="s">
         <v>809</v>
       </c>
       <c r="R8" s="323"/>
-      <c r="S8" s="385" t="s">
+      <c r="S8" s="471" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="386"/>
-      <c r="U8" s="387"/>
-      <c r="V8" s="385" t="s">
+      <c r="T8" s="472"/>
+      <c r="U8" s="473"/>
+      <c r="V8" s="471" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="386"/>
-      <c r="X8" s="387"/>
+      <c r="W8" s="472"/>
+      <c r="X8" s="473"/>
       <c r="Y8" s="325"/>
       <c r="Z8" s="321" t="s">
         <v>757</v>
@@ -30915,21 +31030,21 @@
         <v>756</v>
       </c>
       <c r="AD8" s="326"/>
-      <c r="AE8" s="379" t="s">
+      <c r="AE8" s="464" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="380"/>
-      <c r="AG8" s="381"/>
-      <c r="AH8" s="373" t="s">
+      <c r="AF8" s="465"/>
+      <c r="AG8" s="466"/>
+      <c r="AH8" s="458" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="374"/>
-      <c r="AJ8" s="375"/>
-      <c r="AK8" s="373" t="s">
+      <c r="AI8" s="459"/>
+      <c r="AJ8" s="460"/>
+      <c r="AK8" s="458" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="374"/>
-      <c r="AM8" s="375"/>
+      <c r="AL8" s="459"/>
+      <c r="AM8" s="460"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -31007,19 +31122,19 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="389" t="str">
+      <c r="J9" s="477" t="str">
         <f ca="1">AQ4</f>
         <v>ˇ</v>
       </c>
-      <c r="K9" s="390"/>
+      <c r="K9" s="478"/>
       <c r="L9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="391" t="str">
+      <c r="M9" s="479" t="str">
         <f ca="1">AR4</f>
         <v>ˋ</v>
       </c>
-      <c r="N9" s="392"/>
+      <c r="N9" s="480"/>
       <c r="O9" s="353" t="s">
         <v>890</v>
       </c>
@@ -31035,19 +31150,19 @@
         <f ca="1">R6</f>
         <v>zh</v>
       </c>
-      <c r="S9" s="391" t="str">
+      <c r="S9" s="479" t="str">
         <f ca="1">AP4</f>
         <v>ˊ</v>
       </c>
-      <c r="T9" s="392"/>
+      <c r="T9" s="480"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="384" t="str">
+      <c r="V9" s="469" t="str">
         <f ca="1">AS4</f>
         <v>˙</v>
       </c>
-      <c r="W9" s="383"/>
+      <c r="W9" s="468"/>
       <c r="X9" s="353" t="s">
         <v>891</v>
       </c>
@@ -31096,8 +31211,8 @@
         <f ca="1">AN6</f>
         <v>er</v>
       </c>
-      <c r="AK9" s="371"/>
-      <c r="AL9" s="372"/>
+      <c r="AK9" s="456"/>
+      <c r="AL9" s="457"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -31164,31 +31279,31 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="376" t="s">
+      <c r="E10" s="461" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="377"/>
-      <c r="G10" s="378"/>
-      <c r="H10" s="376" t="s">
+      <c r="F10" s="462"/>
+      <c r="G10" s="463"/>
+      <c r="H10" s="461" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="377"/>
-      <c r="J10" s="378"/>
+      <c r="I10" s="462"/>
+      <c r="J10" s="463"/>
       <c r="K10" s="324"/>
       <c r="L10" s="320" t="s">
         <v>746</v>
       </c>
       <c r="M10" s="323"/>
-      <c r="N10" s="376" t="s">
+      <c r="N10" s="461" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="377"/>
-      <c r="P10" s="378"/>
-      <c r="Q10" s="376" t="s">
+      <c r="O10" s="462"/>
+      <c r="P10" s="463"/>
+      <c r="Q10" s="461" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="377"/>
-      <c r="S10" s="378"/>
+      <c r="R10" s="462"/>
+      <c r="S10" s="463"/>
       <c r="T10" s="324"/>
       <c r="U10" s="320" t="s">
         <v>306</v>
@@ -31204,31 +31319,31 @@
         <v>615</v>
       </c>
       <c r="AB10" s="326"/>
-      <c r="AC10" s="379" t="s">
+      <c r="AC10" s="464" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="380"/>
-      <c r="AE10" s="381"/>
-      <c r="AF10" s="379" t="s">
+      <c r="AD10" s="465"/>
+      <c r="AE10" s="466"/>
+      <c r="AF10" s="464" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="380"/>
-      <c r="AH10" s="381"/>
-      <c r="AI10" s="379" t="s">
+      <c r="AG10" s="465"/>
+      <c r="AH10" s="466"/>
+      <c r="AI10" s="464" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="380"/>
-      <c r="AK10" s="381"/>
-      <c r="AL10" s="379" t="s">
+      <c r="AJ10" s="465"/>
+      <c r="AK10" s="466"/>
+      <c r="AL10" s="464" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="380"/>
-      <c r="AN10" s="381"/>
-      <c r="AO10" s="373" t="s">
+      <c r="AM10" s="465"/>
+      <c r="AN10" s="466"/>
+      <c r="AO10" s="458" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="374"/>
-      <c r="AQ10" s="375"/>
+      <c r="AP10" s="459"/>
+      <c r="AQ10" s="460"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="173" cm="1">
         <f t="array" ref="AV10" xml:space="preserve"> ROW() - ROW($8:$8)</f>
@@ -31406,14 +31521,14 @@
         <f ca="1">AK6</f>
         <v>enn</v>
       </c>
-      <c r="AI11" s="371"/>
-      <c r="AJ11" s="372"/>
+      <c r="AI11" s="456"/>
+      <c r="AJ11" s="457"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="371"/>
-      <c r="AM11" s="372"/>
+      <c r="AL11" s="456"/>
+      <c r="AM11" s="457"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="371"/>
-      <c r="AP11" s="372"/>
+      <c r="AO11" s="456"/>
+      <c r="AP11" s="457"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="173" cm="1">
@@ -31474,61 +31589,61 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="376" t="s">
+      <c r="F12" s="461" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="377"/>
-      <c r="H12" s="378"/>
-      <c r="I12" s="376" t="s">
+      <c r="G12" s="462"/>
+      <c r="H12" s="463"/>
+      <c r="I12" s="461" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="377"/>
-      <c r="K12" s="378"/>
-      <c r="L12" s="376" t="s">
+      <c r="J12" s="462"/>
+      <c r="K12" s="463"/>
+      <c r="L12" s="461" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="377"/>
-      <c r="N12" s="378"/>
-      <c r="O12" s="376" t="s">
+      <c r="M12" s="462"/>
+      <c r="N12" s="463"/>
+      <c r="O12" s="461" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="377"/>
-      <c r="Q12" s="378"/>
-      <c r="R12" s="376" t="s">
+      <c r="P12" s="462"/>
+      <c r="Q12" s="463"/>
+      <c r="R12" s="461" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="377"/>
-      <c r="T12" s="378"/>
-      <c r="U12" s="376" t="s">
+      <c r="S12" s="462"/>
+      <c r="T12" s="463"/>
+      <c r="U12" s="461" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="377"/>
-      <c r="W12" s="378"/>
+      <c r="V12" s="462"/>
+      <c r="W12" s="463"/>
       <c r="X12" s="325"/>
       <c r="Y12" s="321" t="s">
         <v>742</v>
       </c>
       <c r="Z12" s="326"/>
-      <c r="AA12" s="379" t="s">
+      <c r="AA12" s="464" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="380"/>
-      <c r="AC12" s="381"/>
+      <c r="AB12" s="465"/>
+      <c r="AC12" s="466"/>
       <c r="AD12" s="325"/>
       <c r="AE12" s="321" t="s">
         <v>724</v>
       </c>
       <c r="AF12" s="326"/>
-      <c r="AG12" s="379" t="s">
+      <c r="AG12" s="464" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="380"/>
-      <c r="AI12" s="381"/>
-      <c r="AJ12" s="373" t="s">
+      <c r="AH12" s="465"/>
+      <c r="AI12" s="466"/>
+      <c r="AJ12" s="458" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="374"/>
-      <c r="AL12" s="375"/>
+      <c r="AK12" s="459"/>
+      <c r="AL12" s="460"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -31715,8 +31830,8 @@
         <f ca="1">AL6</f>
         <v>ang</v>
       </c>
-      <c r="AJ13" s="371"/>
-      <c r="AK13" s="372"/>
+      <c r="AJ13" s="456"/>
+      <c r="AK13" s="457"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -31786,56 +31901,56 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="376" t="s">
+      <c r="G14" s="461" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="377"/>
-      <c r="I14" s="378"/>
-      <c r="J14" s="376" t="s">
+      <c r="H14" s="462"/>
+      <c r="I14" s="463"/>
+      <c r="J14" s="461" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="377"/>
-      <c r="L14" s="378"/>
-      <c r="M14" s="376" t="s">
+      <c r="K14" s="462"/>
+      <c r="L14" s="463"/>
+      <c r="M14" s="461" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="377"/>
-      <c r="O14" s="378"/>
-      <c r="P14" s="376" t="s">
+      <c r="N14" s="462"/>
+      <c r="O14" s="463"/>
+      <c r="P14" s="461" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="377"/>
-      <c r="R14" s="378"/>
-      <c r="S14" s="376" t="s">
+      <c r="Q14" s="462"/>
+      <c r="R14" s="463"/>
+      <c r="S14" s="461" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="377"/>
-      <c r="U14" s="378"/>
-      <c r="V14" s="376" t="s">
+      <c r="T14" s="462"/>
+      <c r="U14" s="463"/>
+      <c r="V14" s="461" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="377"/>
-      <c r="X14" s="378"/>
-      <c r="Y14" s="379" t="s">
+      <c r="W14" s="462"/>
+      <c r="X14" s="463"/>
+      <c r="Y14" s="464" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="380"/>
-      <c r="AA14" s="381"/>
+      <c r="Z14" s="465"/>
+      <c r="AA14" s="466"/>
       <c r="AB14" s="325"/>
       <c r="AC14" s="321" t="s">
         <v>758</v>
       </c>
       <c r="AD14" s="326"/>
-      <c r="AE14" s="379" t="s">
+      <c r="AE14" s="464" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="380"/>
-      <c r="AG14" s="381"/>
-      <c r="AH14" s="373" t="s">
+      <c r="AF14" s="465"/>
+      <c r="AG14" s="466"/>
+      <c r="AH14" s="458" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="374"/>
-      <c r="AJ14" s="375"/>
+      <c r="AI14" s="459"/>
+      <c r="AJ14" s="460"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -35850,12 +35965,14 @@
     <mergeCell ref="AG12:AI12"/>
     <mergeCell ref="AJ12:AL12"/>
     <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AL10:AN10"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
     <mergeCell ref="AE8:AG8"/>
     <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="AK8:AM8"/>
@@ -35864,8 +35981,6 @@
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="V9:W9"/>
     <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AL10:AN10"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:O8"/>

--- a/docs/鍵盤設計規格_河洛注音.xlsx
+++ b/docs/鍵盤設計規格_河洛注音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB84FE6-F14E-427E-87FC-FCAA6113F2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E46672F-AACD-4F8F-9ED7-326F6B9A7C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="9" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
   </bookViews>
   <sheets>
     <sheet name="鍵盤圖" sheetId="6" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="934">
   <si>
     <t>2 @</t>
   </si>
@@ -4265,10 +4265,6 @@
   </si>
   <si>
     <t>1qaz2wsxedcrfv5tgbyhnujm8ik,9ol.0p;/-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -6272,7 +6268,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="121" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="511">
+  <cellXfs count="514">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7417,13 +7413,80 @@
     <xf numFmtId="0" fontId="156" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7444,28 +7507,22 @@
     <xf numFmtId="0" fontId="91" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7477,79 +7534,13 @@
     <xf numFmtId="0" fontId="97" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="95" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7559,27 +7550,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7600,6 +7570,42 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7612,43 +7618,19 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7657,10 +7639,19 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7687,18 +7678,32 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10398,61 +10403,61 @@
   <sheetData>
     <row r="1" spans="2:44" ht="15" thickBot="1"/>
     <row r="2" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="422">
+      <c r="C2" s="445">
         <v>1</v>
       </c>
-      <c r="D2" s="423"/>
-      <c r="E2" s="424"/>
-      <c r="F2" s="422">
+      <c r="D2" s="446"/>
+      <c r="E2" s="447"/>
+      <c r="F2" s="445">
         <v>2</v>
       </c>
-      <c r="G2" s="423"/>
-      <c r="H2" s="424"/>
-      <c r="I2" s="446">
+      <c r="G2" s="446"/>
+      <c r="H2" s="447"/>
+      <c r="I2" s="435">
         <v>3</v>
       </c>
-      <c r="J2" s="447"/>
-      <c r="K2" s="448"/>
-      <c r="L2" s="446">
+      <c r="J2" s="436"/>
+      <c r="K2" s="437"/>
+      <c r="L2" s="435">
         <v>4</v>
       </c>
-      <c r="M2" s="447"/>
-      <c r="N2" s="448"/>
-      <c r="O2" s="446">
+      <c r="M2" s="436"/>
+      <c r="N2" s="437"/>
+      <c r="O2" s="435">
         <v>5</v>
       </c>
-      <c r="P2" s="447"/>
-      <c r="Q2" s="448"/>
-      <c r="R2" s="446">
+      <c r="P2" s="436"/>
+      <c r="Q2" s="437"/>
+      <c r="R2" s="435">
         <v>6</v>
       </c>
-      <c r="S2" s="447"/>
-      <c r="T2" s="448"/>
-      <c r="U2" s="446">
+      <c r="S2" s="436"/>
+      <c r="T2" s="437"/>
+      <c r="U2" s="435">
         <v>7</v>
       </c>
-      <c r="V2" s="447"/>
-      <c r="W2" s="448"/>
-      <c r="X2" s="425">
+      <c r="V2" s="436"/>
+      <c r="W2" s="437"/>
+      <c r="X2" s="426">
         <v>8</v>
       </c>
-      <c r="Y2" s="426"/>
-      <c r="Z2" s="427"/>
-      <c r="AA2" s="425">
+      <c r="Y2" s="421"/>
+      <c r="Z2" s="422"/>
+      <c r="AA2" s="426">
         <v>9</v>
       </c>
-      <c r="AB2" s="426"/>
-      <c r="AC2" s="427"/>
-      <c r="AD2" s="425">
+      <c r="AB2" s="421"/>
+      <c r="AC2" s="422"/>
+      <c r="AD2" s="426">
         <v>0</v>
       </c>
-      <c r="AE2" s="426"/>
-      <c r="AF2" s="427"/>
-      <c r="AG2" s="450" t="s">
+      <c r="AE2" s="421"/>
+      <c r="AF2" s="422"/>
+      <c r="AG2" s="420" t="s">
         <v>451</v>
       </c>
-      <c r="AH2" s="426"/>
-      <c r="AI2" s="427"/>
+      <c r="AH2" s="421"/>
+      <c r="AI2" s="422"/>
       <c r="AJ2" s="142"/>
       <c r="AK2" s="142"/>
       <c r="AL2" s="142"/>
@@ -10461,56 +10466,56 @@
       </c>
     </row>
     <row r="3" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="C3" s="419" t="str">
+      <c r="C3" s="442" t="str">
         <f>D14</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="420"/>
-      <c r="E3" s="421"/>
-      <c r="F3" s="419" t="str">
+      <c r="D3" s="443"/>
+      <c r="E3" s="444"/>
+      <c r="F3" s="442" t="str">
         <f>H14</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="420"/>
-      <c r="H3" s="421"/>
-      <c r="I3" s="443" t="s">
+      <c r="G3" s="443"/>
+      <c r="H3" s="444"/>
+      <c r="I3" s="439" t="s">
         <v>449</v>
       </c>
-      <c r="J3" s="444"/>
-      <c r="K3" s="445"/>
-      <c r="L3" s="443" t="s">
+      <c r="J3" s="440"/>
+      <c r="K3" s="441"/>
+      <c r="L3" s="439" t="s">
         <v>448</v>
       </c>
-      <c r="M3" s="444"/>
-      <c r="N3" s="445"/>
-      <c r="O3" s="443"/>
-      <c r="P3" s="444"/>
-      <c r="Q3" s="445"/>
-      <c r="R3" s="440" t="s">
+      <c r="M3" s="440"/>
+      <c r="N3" s="441"/>
+      <c r="O3" s="439"/>
+      <c r="P3" s="440"/>
+      <c r="Q3" s="441"/>
+      <c r="R3" s="448" t="s">
         <v>447</v>
       </c>
-      <c r="S3" s="441"/>
-      <c r="T3" s="442"/>
-      <c r="U3" s="443" t="s">
+      <c r="S3" s="449"/>
+      <c r="T3" s="450"/>
+      <c r="U3" s="439" t="s">
         <v>446</v>
       </c>
-      <c r="V3" s="444"/>
-      <c r="W3" s="445"/>
-      <c r="X3" s="436" t="str">
+      <c r="V3" s="440"/>
+      <c r="W3" s="441"/>
+      <c r="X3" s="427" t="str">
         <f>D20</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="437"/>
-      <c r="Z3" s="438"/>
-      <c r="AA3" s="436"/>
-      <c r="AB3" s="437"/>
-      <c r="AC3" s="438"/>
-      <c r="AD3" s="436"/>
-      <c r="AE3" s="437"/>
-      <c r="AF3" s="438"/>
-      <c r="AG3" s="451"/>
-      <c r="AH3" s="452"/>
-      <c r="AI3" s="453"/>
+      <c r="Y3" s="428"/>
+      <c r="Z3" s="429"/>
+      <c r="AA3" s="427"/>
+      <c r="AB3" s="428"/>
+      <c r="AC3" s="429"/>
+      <c r="AD3" s="427"/>
+      <c r="AE3" s="428"/>
+      <c r="AF3" s="429"/>
+      <c r="AG3" s="423"/>
+      <c r="AH3" s="424"/>
+      <c r="AI3" s="425"/>
       <c r="AQ3" s="156" t="s">
         <v>445</v>
       </c>
@@ -10519,115 +10524,115 @@
       </c>
     </row>
     <row r="4" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="422" t="s">
+      <c r="D4" s="445" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="423"/>
-      <c r="F4" s="424"/>
-      <c r="G4" s="422" t="s">
+      <c r="E4" s="446"/>
+      <c r="F4" s="447"/>
+      <c r="G4" s="445" t="s">
         <v>379</v>
       </c>
-      <c r="H4" s="423"/>
-      <c r="I4" s="424"/>
-      <c r="J4" s="422" t="s">
+      <c r="H4" s="446"/>
+      <c r="I4" s="447"/>
+      <c r="J4" s="445" t="s">
         <v>443</v>
       </c>
-      <c r="K4" s="423"/>
-      <c r="L4" s="424"/>
-      <c r="M4" s="422" t="s">
+      <c r="K4" s="446"/>
+      <c r="L4" s="447"/>
+      <c r="M4" s="445" t="s">
         <v>442</v>
       </c>
-      <c r="N4" s="423"/>
-      <c r="O4" s="424"/>
-      <c r="P4" s="422" t="s">
+      <c r="N4" s="446"/>
+      <c r="O4" s="447"/>
+      <c r="P4" s="445" t="s">
         <v>441</v>
       </c>
-      <c r="Q4" s="423"/>
-      <c r="R4" s="424"/>
-      <c r="S4" s="422" t="s">
+      <c r="Q4" s="446"/>
+      <c r="R4" s="447"/>
+      <c r="S4" s="445" t="s">
         <v>440</v>
       </c>
-      <c r="T4" s="423"/>
-      <c r="U4" s="424"/>
-      <c r="V4" s="425" t="s">
+      <c r="T4" s="446"/>
+      <c r="U4" s="447"/>
+      <c r="V4" s="426" t="s">
         <v>439</v>
       </c>
-      <c r="W4" s="426"/>
-      <c r="X4" s="427"/>
-      <c r="Y4" s="425" t="s">
+      <c r="W4" s="421"/>
+      <c r="X4" s="422"/>
+      <c r="Y4" s="426" t="s">
         <v>438</v>
       </c>
-      <c r="Z4" s="426"/>
-      <c r="AA4" s="427"/>
-      <c r="AB4" s="425" t="s">
+      <c r="Z4" s="421"/>
+      <c r="AA4" s="422"/>
+      <c r="AB4" s="426" t="s">
         <v>435</v>
       </c>
-      <c r="AC4" s="426"/>
-      <c r="AD4" s="427"/>
-      <c r="AE4" s="425" t="s">
+      <c r="AC4" s="421"/>
+      <c r="AD4" s="422"/>
+      <c r="AE4" s="426" t="s">
         <v>437</v>
       </c>
-      <c r="AF4" s="426"/>
-      <c r="AG4" s="427"/>
+      <c r="AF4" s="421"/>
+      <c r="AG4" s="422"/>
       <c r="AJ4" s="142"/>
       <c r="AK4" s="142"/>
       <c r="AL4" s="142"/>
     </row>
     <row r="5" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="D5" s="419" t="str">
+      <c r="D5" s="442" t="str">
         <f>E14</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="420"/>
-      <c r="F5" s="421"/>
-      <c r="G5" s="419" t="str">
+      <c r="E5" s="443"/>
+      <c r="F5" s="444"/>
+      <c r="G5" s="442" t="str">
         <f>I14</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="420"/>
-      <c r="I5" s="421"/>
-      <c r="J5" s="419" t="str">
+      <c r="H5" s="443"/>
+      <c r="I5" s="444"/>
+      <c r="J5" s="442" t="str">
         <f>L14</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="420"/>
-      <c r="L5" s="421"/>
-      <c r="M5" s="419"/>
-      <c r="N5" s="420"/>
-      <c r="O5" s="421"/>
-      <c r="P5" s="416" t="str">
+      <c r="K5" s="443"/>
+      <c r="L5" s="444"/>
+      <c r="M5" s="442"/>
+      <c r="N5" s="443"/>
+      <c r="O5" s="444"/>
+      <c r="P5" s="451" t="str">
         <f>F14</f>
         <v>ㆠ</v>
       </c>
-      <c r="Q5" s="417"/>
-      <c r="R5" s="418"/>
-      <c r="S5" s="419" t="str">
+      <c r="Q5" s="452"/>
+      <c r="R5" s="453"/>
+      <c r="S5" s="442" t="str">
         <f>Q14</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="420"/>
-      <c r="U5" s="421"/>
-      <c r="V5" s="436" t="str">
+      <c r="T5" s="443"/>
+      <c r="U5" s="444"/>
+      <c r="V5" s="427" t="str">
         <f>F20</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="437"/>
-      <c r="X5" s="438"/>
-      <c r="Y5" s="436" t="str">
+      <c r="W5" s="428"/>
+      <c r="X5" s="429"/>
+      <c r="Y5" s="427" t="str">
         <f>L20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="437"/>
-      <c r="AA5" s="438"/>
-      <c r="AB5" s="436"/>
-      <c r="AC5" s="437"/>
-      <c r="AD5" s="438"/>
-      <c r="AE5" s="428" t="str">
+      <c r="Z5" s="428"/>
+      <c r="AA5" s="429"/>
+      <c r="AB5" s="427"/>
+      <c r="AC5" s="428"/>
+      <c r="AD5" s="429"/>
+      <c r="AE5" s="432" t="str">
         <f>P20</f>
         <v>ㄣ</v>
       </c>
-      <c r="AF5" s="429"/>
-      <c r="AG5" s="430"/>
+      <c r="AF5" s="433"/>
+      <c r="AG5" s="434"/>
       <c r="AQ5" s="156" t="s">
         <v>436</v>
       </c>
@@ -10637,109 +10642,109 @@
     </row>
     <row r="6" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="157"/>
-      <c r="E6" s="422" t="s">
+      <c r="E6" s="445" t="s">
         <v>434</v>
       </c>
-      <c r="F6" s="423"/>
-      <c r="G6" s="424"/>
-      <c r="H6" s="422" t="s">
+      <c r="F6" s="446"/>
+      <c r="G6" s="447"/>
+      <c r="H6" s="445" t="s">
         <v>433</v>
       </c>
-      <c r="I6" s="423"/>
-      <c r="J6" s="424"/>
-      <c r="K6" s="422" t="s">
+      <c r="I6" s="446"/>
+      <c r="J6" s="447"/>
+      <c r="K6" s="445" t="s">
         <v>432</v>
       </c>
-      <c r="L6" s="423"/>
-      <c r="M6" s="424"/>
-      <c r="N6" s="422" t="s">
+      <c r="L6" s="446"/>
+      <c r="M6" s="447"/>
+      <c r="N6" s="445" t="s">
         <v>431</v>
       </c>
-      <c r="O6" s="423"/>
-      <c r="P6" s="424"/>
-      <c r="Q6" s="422" t="s">
+      <c r="O6" s="446"/>
+      <c r="P6" s="447"/>
+      <c r="Q6" s="445" t="s">
         <v>430</v>
       </c>
-      <c r="R6" s="423"/>
-      <c r="S6" s="424"/>
-      <c r="T6" s="422" t="s">
+      <c r="R6" s="446"/>
+      <c r="S6" s="447"/>
+      <c r="T6" s="445" t="s">
         <v>429</v>
       </c>
-      <c r="U6" s="423"/>
-      <c r="V6" s="424"/>
-      <c r="W6" s="425" t="s">
+      <c r="U6" s="446"/>
+      <c r="V6" s="447"/>
+      <c r="W6" s="426" t="s">
         <v>428</v>
       </c>
-      <c r="X6" s="426"/>
-      <c r="Y6" s="427"/>
-      <c r="Z6" s="425" t="s">
+      <c r="X6" s="421"/>
+      <c r="Y6" s="422"/>
+      <c r="Z6" s="426" t="s">
         <v>427</v>
       </c>
-      <c r="AA6" s="426"/>
-      <c r="AB6" s="427"/>
-      <c r="AC6" s="425" t="s">
+      <c r="AA6" s="421"/>
+      <c r="AB6" s="422"/>
+      <c r="AC6" s="426" t="s">
         <v>426</v>
       </c>
-      <c r="AD6" s="426"/>
-      <c r="AE6" s="427"/>
-      <c r="AF6" s="425" t="s">
+      <c r="AD6" s="421"/>
+      <c r="AE6" s="422"/>
+      <c r="AF6" s="426" t="s">
         <v>425</v>
       </c>
-      <c r="AG6" s="426"/>
-      <c r="AH6" s="427"/>
+      <c r="AG6" s="421"/>
+      <c r="AH6" s="422"/>
     </row>
     <row r="7" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="433" t="str">
+      <c r="E7" s="454" t="str">
         <f>G14</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="434"/>
-      <c r="G7" s="435"/>
-      <c r="H7" s="419" t="str">
+      <c r="F7" s="455"/>
+      <c r="G7" s="456"/>
+      <c r="H7" s="442" t="str">
         <f>J14</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="420"/>
-      <c r="J7" s="421"/>
-      <c r="K7" s="419" t="str">
+      <c r="I7" s="443"/>
+      <c r="J7" s="444"/>
+      <c r="K7" s="442" t="str">
         <f>M14</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="420"/>
-      <c r="M7" s="421"/>
-      <c r="N7" s="419"/>
-      <c r="O7" s="420"/>
-      <c r="P7" s="421"/>
-      <c r="Q7" s="439" t="str">
+      <c r="L7" s="443"/>
+      <c r="M7" s="444"/>
+      <c r="N7" s="442"/>
+      <c r="O7" s="443"/>
+      <c r="P7" s="444"/>
+      <c r="Q7" s="457" t="str">
         <f>N14</f>
         <v>ㆣ</v>
       </c>
-      <c r="R7" s="417"/>
-      <c r="S7" s="418"/>
-      <c r="T7" s="419" t="str">
+      <c r="R7" s="452"/>
+      <c r="S7" s="453"/>
+      <c r="T7" s="442" t="str">
         <f>R14</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="420"/>
-      <c r="V7" s="421"/>
-      <c r="W7" s="436" t="str">
+      <c r="U7" s="443"/>
+      <c r="V7" s="444"/>
+      <c r="W7" s="427" t="str">
         <f>H20</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="437"/>
-      <c r="Y7" s="438"/>
-      <c r="Z7" s="436" t="str">
+      <c r="X7" s="428"/>
+      <c r="Y7" s="429"/>
+      <c r="Z7" s="427" t="str">
         <f>N20</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="437"/>
-      <c r="AB7" s="438"/>
-      <c r="AC7" s="436"/>
-      <c r="AD7" s="437"/>
-      <c r="AE7" s="438"/>
-      <c r="AF7" s="455"/>
-      <c r="AG7" s="437"/>
-      <c r="AH7" s="438"/>
+      <c r="AA7" s="428"/>
+      <c r="AB7" s="429"/>
+      <c r="AC7" s="427"/>
+      <c r="AD7" s="428"/>
+      <c r="AE7" s="429"/>
+      <c r="AF7" s="431"/>
+      <c r="AG7" s="428"/>
+      <c r="AH7" s="429"/>
       <c r="AQ7" s="156" t="s">
         <v>424</v>
       </c>
@@ -10748,112 +10753,112 @@
       </c>
     </row>
     <row r="8" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="422" t="s">
+      <c r="F8" s="445" t="s">
         <v>422</v>
       </c>
-      <c r="G8" s="423"/>
-      <c r="H8" s="424"/>
-      <c r="I8" s="422" t="s">
+      <c r="G8" s="446"/>
+      <c r="H8" s="447"/>
+      <c r="I8" s="445" t="s">
         <v>421</v>
       </c>
-      <c r="J8" s="423"/>
-      <c r="K8" s="424"/>
-      <c r="L8" s="422" t="s">
+      <c r="J8" s="446"/>
+      <c r="K8" s="447"/>
+      <c r="L8" s="445" t="s">
         <v>420</v>
       </c>
-      <c r="M8" s="423"/>
-      <c r="N8" s="424"/>
-      <c r="O8" s="422" t="s">
+      <c r="M8" s="446"/>
+      <c r="N8" s="447"/>
+      <c r="O8" s="445" t="s">
         <v>419</v>
       </c>
-      <c r="P8" s="423"/>
-      <c r="Q8" s="424"/>
-      <c r="R8" s="422" t="s">
+      <c r="P8" s="446"/>
+      <c r="Q8" s="447"/>
+      <c r="R8" s="445" t="s">
         <v>418</v>
       </c>
-      <c r="S8" s="423"/>
-      <c r="T8" s="424"/>
-      <c r="U8" s="422" t="s">
+      <c r="S8" s="446"/>
+      <c r="T8" s="447"/>
+      <c r="U8" s="445" t="s">
         <v>377</v>
       </c>
-      <c r="V8" s="423"/>
-      <c r="W8" s="424"/>
-      <c r="X8" s="425" t="s">
+      <c r="V8" s="446"/>
+      <c r="W8" s="447"/>
+      <c r="X8" s="426" t="s">
         <v>417</v>
       </c>
-      <c r="Y8" s="426"/>
-      <c r="Z8" s="427"/>
-      <c r="AA8" s="425" t="s">
+      <c r="Y8" s="421"/>
+      <c r="Z8" s="422"/>
+      <c r="AA8" s="426" t="s">
         <v>416</v>
       </c>
-      <c r="AB8" s="426"/>
-      <c r="AC8" s="427"/>
-      <c r="AD8" s="425" t="s">
+      <c r="AB8" s="421"/>
+      <c r="AC8" s="422"/>
+      <c r="AD8" s="426" t="s">
         <v>415</v>
       </c>
-      <c r="AE8" s="426"/>
-      <c r="AF8" s="427"/>
-      <c r="AG8" s="454" t="s">
+      <c r="AE8" s="421"/>
+      <c r="AF8" s="422"/>
+      <c r="AG8" s="430" t="s">
         <v>414</v>
       </c>
-      <c r="AH8" s="426"/>
-      <c r="AI8" s="427"/>
+      <c r="AH8" s="421"/>
+      <c r="AI8" s="422"/>
     </row>
     <row r="9" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="F9" s="419"/>
-      <c r="G9" s="431"/>
-      <c r="H9" s="432"/>
-      <c r="I9" s="419" t="str">
+      <c r="F9" s="442"/>
+      <c r="G9" s="458"/>
+      <c r="H9" s="459"/>
+      <c r="I9" s="442" t="str">
         <f>K14</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="420"/>
-      <c r="K9" s="421"/>
-      <c r="L9" s="419" t="str">
+      <c r="J9" s="443"/>
+      <c r="K9" s="444"/>
+      <c r="L9" s="442" t="str">
         <f>P14</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="420"/>
-      <c r="N9" s="421"/>
-      <c r="O9" s="433" t="str">
+      <c r="M9" s="443"/>
+      <c r="N9" s="444"/>
+      <c r="O9" s="454" t="str">
         <f>O14</f>
         <v>ㄫ</v>
       </c>
-      <c r="P9" s="434"/>
-      <c r="Q9" s="435"/>
-      <c r="R9" s="416" t="str">
+      <c r="P9" s="455"/>
+      <c r="Q9" s="456"/>
+      <c r="R9" s="451" t="str">
         <f>S14</f>
         <v>ㆡ</v>
       </c>
-      <c r="S9" s="417"/>
-      <c r="T9" s="418"/>
-      <c r="U9" s="419" t="str">
+      <c r="S9" s="452"/>
+      <c r="T9" s="453"/>
+      <c r="U9" s="442" t="str">
         <f>T14</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="420"/>
-      <c r="W9" s="421"/>
-      <c r="X9" s="428" t="str">
+      <c r="V9" s="443"/>
+      <c r="W9" s="444"/>
+      <c r="X9" s="432" t="str">
         <f>O20</f>
         <v>ㆬ</v>
       </c>
-      <c r="Y9" s="429"/>
-      <c r="Z9" s="430"/>
-      <c r="AA9" s="436" t="str">
+      <c r="Y9" s="433"/>
+      <c r="Z9" s="434"/>
+      <c r="AA9" s="427" t="str">
         <f>J20</f>
         <v>ㄝ</v>
       </c>
-      <c r="AB9" s="437"/>
-      <c r="AC9" s="438"/>
-      <c r="AD9" s="449" t="str">
+      <c r="AB9" s="428"/>
+      <c r="AC9" s="429"/>
+      <c r="AD9" s="438" t="str">
         <f>Q20</f>
         <v>ㄥ</v>
       </c>
-      <c r="AE9" s="429"/>
-      <c r="AF9" s="430"/>
-      <c r="AG9" s="436"/>
-      <c r="AH9" s="437"/>
-      <c r="AI9" s="438"/>
+      <c r="AE9" s="433"/>
+      <c r="AF9" s="434"/>
+      <c r="AG9" s="427"/>
+      <c r="AH9" s="428"/>
+      <c r="AI9" s="429"/>
     </row>
     <row r="12" spans="2:44">
       <c r="Z12" s="155"/>
@@ -11304,20 +11309,58 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="AD9:AF9"/>
     <mergeCell ref="U2:W2"/>
@@ -11334,58 +11377,20 @@
     <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="S5:U5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AC6:AE6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11398,7 +11403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FD1CD5-4651-439A-98A6-5245A83D236D}">
   <dimension ref="B1:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="L19" workbookViewId="0">
       <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
@@ -11448,19 +11453,19 @@
     </row>
     <row r="2" spans="2:33">
       <c r="B2" s="395" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2" s="395" t="s">
         <v>510</v>
       </c>
       <c r="N2" s="395" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="T2" s="395" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AA2" s="406" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AB2" s="415" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("'", U5:U42, "'")</f>
@@ -11601,7 +11606,7 @@
         <v>p</v>
       </c>
       <c r="AA5" s="406" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AD5" s="408" t="str">
         <f xml:space="preserve"> "- 'xlit|" &amp; AA6 &amp; "|" &amp; AA7 &amp; "|'"</f>
@@ -11672,7 +11677,7 @@
       <c r="X6" s="109" t="str">
         <v>P</v>
       </c>
-      <c r="Z6" s="510">
+      <c r="Z6" s="419">
         <f xml:space="preserve"> LEN(AA6)</f>
         <v>44</v>
       </c>
@@ -11695,7 +11700,7 @@
         <v>91</v>
       </c>
       <c r="F7" s="110" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H7" s="275">
         <f t="shared" ref="H7:H59" si="3">H6+1</f>
@@ -11745,7 +11750,7 @@
       <c r="X7" s="111" t="str">
         <v>m</v>
       </c>
-      <c r="Z7" s="510">
+      <c r="Z7" s="419">
         <f xml:space="preserve"> LEN(AA7)</f>
         <v>44</v>
       </c>
@@ -11778,13 +11783,13 @@
         <v>301</v>
       </c>
       <c r="J8" s="162" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K8" s="121" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L8" s="376" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N8" s="277">
         <f t="shared" si="4"/>
@@ -11856,7 +11861,7 @@
         <v>5</v>
       </c>
       <c r="O9" s="378" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="P9" s="161"/>
       <c r="Q9" s="120" t="str">
@@ -11884,7 +11889,7 @@
         <v>T</v>
       </c>
       <c r="AA9" s="406" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AD9" s="408" t="str">
         <f xml:space="preserve"> "- 'xlit|" &amp; AA10 &amp; "|" &amp; AA11 &amp; "|'"</f>
@@ -11955,7 +11960,7 @@
       <c r="X10" s="109" t="str">
         <v>n</v>
       </c>
-      <c r="Z10" s="510">
+      <c r="Z10" s="419">
         <f xml:space="preserve"> LEN(AA10)</f>
         <v>43</v>
       </c>
@@ -12028,11 +12033,11 @@
       <c r="X11" s="111" t="str">
         <v>l</v>
       </c>
-      <c r="Z11" s="510">
+      <c r="Z11" s="419">
         <f xml:space="preserve"> LEN(AA11)</f>
         <v>43</v>
       </c>
-      <c r="AA11" s="509" t="str">
+      <c r="AA11" s="418" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT($V$5:$V$42, V44:V48)</f>
         <v>ㄅㄆㄇㄉㄊㄋㄌㄍㄎㄏㄫㄗㄘㄙㄧㄨㆬㄚㆦㄜㄝㄞㄠㄢㄣㄤㄥ声ㆠㆣㆡㆪㆫㆩㆧㆥㆮㆯ˪ˋ˫ˊ．</v>
       </c>
@@ -12137,7 +12142,7 @@
         <v>9</v>
       </c>
       <c r="O13" s="378" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="P13" s="161"/>
       <c r="Q13" s="120" t="str">
@@ -12165,7 +12170,7 @@
         <v>K</v>
       </c>
       <c r="AA13" s="406" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AD13" s="408" t="str">
         <f xml:space="preserve"> "- 'xlit|" &amp; AA14 &amp; "|" &amp; AA15 &amp; "|'"</f>
@@ -12239,7 +12244,7 @@
       <c r="X14" s="109" t="str">
         <v>h</v>
       </c>
-      <c r="Z14" s="510">
+      <c r="Z14" s="419">
         <f xml:space="preserve"> LEN(AA14)</f>
         <v>44</v>
       </c>
@@ -12312,7 +12317,7 @@
       <c r="X15" s="111" t="str">
         <v>w</v>
       </c>
-      <c r="Z15" s="510">
+      <c r="Z15" s="419">
         <f xml:space="preserve"> LEN(AA15)</f>
         <v>44</v>
       </c>
@@ -12421,7 +12426,7 @@
         <v>13</v>
       </c>
       <c r="O17" s="378" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="P17" s="161"/>
       <c r="Q17" s="120" t="str">
@@ -12675,7 +12680,7 @@
         <v>17</v>
       </c>
       <c r="O21" s="378" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="P21" s="161"/>
       <c r="Q21" s="120" t="str">
@@ -12727,13 +12732,13 @@
         <v>197</v>
       </c>
       <c r="J22" s="160" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K22" s="119" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L22" s="374" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N22" s="275">
         <f t="shared" si="4"/>
@@ -12792,13 +12797,13 @@
         <v>126</v>
       </c>
       <c r="J23" s="160" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K23" s="119" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L23" s="375" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N23" s="275">
         <f t="shared" si="4"/>
@@ -12857,13 +12862,13 @@
         <v>162</v>
       </c>
       <c r="J24" s="162" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K24" s="121" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L24" s="376" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N24" s="277">
         <f t="shared" si="4"/>
@@ -12933,7 +12938,7 @@
         <v>21</v>
       </c>
       <c r="O25" s="378" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="P25" s="161"/>
       <c r="Q25" s="120" t="str">
@@ -13194,7 +13199,7 @@
         <v>25</v>
       </c>
       <c r="O29" s="378" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="P29" s="161"/>
       <c r="Q29" s="120" t="str">
@@ -13385,7 +13390,7 @@
         <v>100</v>
       </c>
       <c r="K32" s="121" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L32" s="376" t="s">
         <v>87</v>
@@ -13500,7 +13505,7 @@
         <v>100</v>
       </c>
       <c r="D34" s="120" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E34" s="112" t="s">
         <v>87</v>
@@ -13633,13 +13638,13 @@
         <v>118</v>
       </c>
       <c r="D36" s="120" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E36" s="112" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F36" s="274" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H36" s="277">
         <f t="shared" si="3"/>
@@ -13785,13 +13790,13 @@
         <v>139</v>
       </c>
       <c r="J38" s="160" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K38" s="119" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L38" s="374" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N38" s="275">
         <f t="shared" si="4"/>
@@ -13834,13 +13839,13 @@
         <v>123</v>
       </c>
       <c r="D39" s="119" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E39" s="109" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F39" s="276" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H39" s="275">
         <f t="shared" si="3"/>
@@ -13915,23 +13920,23 @@
         <v>36</v>
       </c>
       <c r="I40" s="115" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J40" s="162" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K40" s="121" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L40" s="376" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N40" s="277">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="O40" s="115" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="P40" s="162"/>
       <c r="Q40" s="121" t="str">
@@ -13996,7 +14001,7 @@
         <v>37</v>
       </c>
       <c r="O41" s="378" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="P41" s="161"/>
       <c r="Q41" s="120" t="str">
@@ -14126,7 +14131,7 @@
         <v>39</v>
       </c>
       <c r="O43" s="379" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="P43" s="160"/>
       <c r="Q43" s="119" t="str">
@@ -14227,7 +14232,7 @@
         <v>108</v>
       </c>
       <c r="D45" s="119" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E45" s="109" t="s">
         <v>56</v>
@@ -14243,10 +14248,10 @@
         <v>301</v>
       </c>
       <c r="J45" s="160" t="s">
+        <v>910</v>
+      </c>
+      <c r="K45" s="119" t="s">
         <v>911</v>
-      </c>
-      <c r="K45" s="119" t="s">
-        <v>912</v>
       </c>
       <c r="L45" s="374" t="s">
         <v>806</v>
@@ -14256,7 +14261,7 @@
         <v>41</v>
       </c>
       <c r="O45" s="379" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="P45" s="160"/>
       <c r="Q45" s="119" t="str">
@@ -14292,7 +14297,7 @@
         <v>110</v>
       </c>
       <c r="D46" s="119" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E46" s="109" t="s">
         <v>26</v>
@@ -14305,23 +14310,23 @@
         <v>42</v>
       </c>
       <c r="I46" s="110" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J46" s="160" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K46" s="119" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L46" s="374" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N46" s="275">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="O46" s="379" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="P46" s="160"/>
       <c r="Q46" s="119" t="str">
@@ -14357,7 +14362,7 @@
         <v>111</v>
       </c>
       <c r="D47" s="119" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E47" s="109" t="s">
         <v>84</v>
@@ -14370,23 +14375,23 @@
         <v>43</v>
       </c>
       <c r="I47" s="379" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J47" s="160" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K47" s="119" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L47" s="375" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N47" s="275">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="O47" s="379" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="P47" s="160"/>
       <c r="Q47" s="119" t="str">
@@ -14422,7 +14427,7 @@
         <v>112</v>
       </c>
       <c r="D48" s="119" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E48" s="109" t="s">
         <v>58</v>
@@ -14435,23 +14440,23 @@
         <v>44</v>
       </c>
       <c r="I48" s="379" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J48" s="160" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K48" s="119" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L48" s="374" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N48" s="275">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="O48" s="379" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="P48" s="160"/>
       <c r="Q48" s="119" t="str">
@@ -14470,7 +14475,7 @@
         <v>7</v>
       </c>
       <c r="V48" s="410" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="W48" s="411">
         <v>8</v>
@@ -14500,23 +14505,23 @@
         <v>45</v>
       </c>
       <c r="I49" s="379" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J49" s="160" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K49" s="119" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L49" s="374" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N49" s="275">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="O49" s="379" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="P49" s="160"/>
       <c r="Q49" s="119" t="str">
@@ -14549,23 +14554,23 @@
         <v>46</v>
       </c>
       <c r="I50" s="377" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J50" s="162" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K50" s="121" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L50" s="376" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N50" s="277">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="O50" s="377" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="P50" s="162"/>
       <c r="Q50" s="121" t="str">
@@ -14624,13 +14629,13 @@
         <v>102</v>
       </c>
       <c r="D52" s="119" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E52" s="109" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F52" s="110" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H52" s="14">
         <f t="shared" si="3"/>
@@ -18090,8 +18095,8 @@
       <c r="AN1" s="77"/>
       <c r="AO1" s="77"/>
       <c r="AP1" s="77"/>
-      <c r="AQ1" s="484"/>
-      <c r="AR1" s="484"/>
+      <c r="AQ1" s="486"/>
+      <c r="AR1" s="486"/>
       <c r="AS1" s="77"/>
       <c r="AT1" s="77"/>
       <c r="AU1" s="77"/>
@@ -19408,66 +19413,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C11" s="482" t="str">
+      <c r="C11" s="487" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D11" s="482"/>
-      <c r="E11" s="482"/>
-      <c r="F11" s="482"/>
-      <c r="G11" s="482"/>
-      <c r="H11" s="482"/>
-      <c r="I11" s="482"/>
-      <c r="J11" s="482"/>
-      <c r="K11" s="482"/>
-      <c r="L11" s="482"/>
-      <c r="M11" s="482"/>
-      <c r="N11" s="482"/>
-      <c r="O11" s="482"/>
-      <c r="P11" s="482"/>
-      <c r="Q11" s="482"/>
-      <c r="R11" s="482"/>
-      <c r="S11" s="482"/>
-      <c r="T11" s="482"/>
-      <c r="U11" s="482"/>
-      <c r="V11" s="482"/>
-      <c r="W11" s="482"/>
-      <c r="X11" s="482"/>
-      <c r="Y11" s="482"/>
-      <c r="Z11" s="482"/>
+      <c r="D11" s="487"/>
+      <c r="E11" s="487"/>
+      <c r="F11" s="487"/>
+      <c r="G11" s="487"/>
+      <c r="H11" s="487"/>
+      <c r="I11" s="487"/>
+      <c r="J11" s="487"/>
+      <c r="K11" s="487"/>
+      <c r="L11" s="487"/>
+      <c r="M11" s="487"/>
+      <c r="N11" s="487"/>
+      <c r="O11" s="487"/>
+      <c r="P11" s="487"/>
+      <c r="Q11" s="487"/>
+      <c r="R11" s="487"/>
+      <c r="S11" s="487"/>
+      <c r="T11" s="487"/>
+      <c r="U11" s="487"/>
+      <c r="V11" s="487"/>
+      <c r="W11" s="487"/>
+      <c r="X11" s="487"/>
+      <c r="Y11" s="487"/>
+      <c r="Z11" s="487"/>
     </row>
     <row r="12" spans="1:47" s="76" customFormat="1" ht="23.25">
       <c r="B12" s="85" t="str">
         <f>B8</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C12" s="483" t="str">
+      <c r="C12" s="485" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D12" s="483"/>
-      <c r="E12" s="483"/>
-      <c r="F12" s="483"/>
-      <c r="G12" s="483"/>
-      <c r="H12" s="483"/>
-      <c r="I12" s="483"/>
-      <c r="J12" s="483"/>
-      <c r="K12" s="483"/>
-      <c r="L12" s="483"/>
-      <c r="M12" s="483"/>
-      <c r="N12" s="483"/>
-      <c r="O12" s="483"/>
-      <c r="P12" s="483"/>
-      <c r="Q12" s="483"/>
-      <c r="R12" s="483"/>
-      <c r="S12" s="483"/>
-      <c r="T12" s="483"/>
-      <c r="U12" s="483"/>
-      <c r="V12" s="483"/>
-      <c r="W12" s="483"/>
-      <c r="X12" s="483"/>
-      <c r="Y12" s="483"/>
-      <c r="Z12" s="483"/>
+      <c r="D12" s="485"/>
+      <c r="E12" s="485"/>
+      <c r="F12" s="485"/>
+      <c r="G12" s="485"/>
+      <c r="H12" s="485"/>
+      <c r="I12" s="485"/>
+      <c r="J12" s="485"/>
+      <c r="K12" s="485"/>
+      <c r="L12" s="485"/>
+      <c r="M12" s="485"/>
+      <c r="N12" s="485"/>
+      <c r="O12" s="485"/>
+      <c r="P12" s="485"/>
+      <c r="Q12" s="485"/>
+      <c r="R12" s="485"/>
+      <c r="S12" s="485"/>
+      <c r="T12" s="485"/>
+      <c r="U12" s="485"/>
+      <c r="V12" s="485"/>
+      <c r="W12" s="485"/>
+      <c r="X12" s="485"/>
+      <c r="Y12" s="485"/>
+      <c r="Z12" s="485"/>
     </row>
     <row r="13" spans="1:47" s="76" customFormat="1" ht="23.25"/>
     <row r="14" spans="1:47" s="76" customFormat="1" ht="34.5">
@@ -19476,34 +19481,34 @@
       </c>
     </row>
     <row r="15" spans="1:47" s="76" customFormat="1" ht="23.25">
-      <c r="B15" s="481" t="str">
+      <c r="B15" s="488" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C11 &amp; "|" &amp; C12 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|</v>
       </c>
-      <c r="C15" s="481"/>
-      <c r="D15" s="481"/>
-      <c r="E15" s="481"/>
-      <c r="F15" s="481"/>
-      <c r="G15" s="481"/>
-      <c r="H15" s="481"/>
-      <c r="I15" s="481"/>
-      <c r="J15" s="481"/>
-      <c r="K15" s="481"/>
-      <c r="L15" s="481"/>
-      <c r="M15" s="481"/>
-      <c r="N15" s="481"/>
-      <c r="O15" s="481"/>
-      <c r="P15" s="481"/>
-      <c r="Q15" s="481"/>
-      <c r="R15" s="481"/>
-      <c r="S15" s="481"/>
-      <c r="T15" s="481"/>
-      <c r="U15" s="481"/>
-      <c r="V15" s="481"/>
-      <c r="W15" s="481"/>
-      <c r="X15" s="481"/>
-      <c r="Y15" s="481"/>
-      <c r="Z15" s="481"/>
+      <c r="C15" s="488"/>
+      <c r="D15" s="488"/>
+      <c r="E15" s="488"/>
+      <c r="F15" s="488"/>
+      <c r="G15" s="488"/>
+      <c r="H15" s="488"/>
+      <c r="I15" s="488"/>
+      <c r="J15" s="488"/>
+      <c r="K15" s="488"/>
+      <c r="L15" s="488"/>
+      <c r="M15" s="488"/>
+      <c r="N15" s="488"/>
+      <c r="O15" s="488"/>
+      <c r="P15" s="488"/>
+      <c r="Q15" s="488"/>
+      <c r="R15" s="488"/>
+      <c r="S15" s="488"/>
+      <c r="T15" s="488"/>
+      <c r="U15" s="488"/>
+      <c r="V15" s="488"/>
+      <c r="W15" s="488"/>
+      <c r="X15" s="488"/>
+      <c r="Y15" s="488"/>
+      <c r="Z15" s="488"/>
     </row>
     <row r="16" spans="1:47" s="76" customFormat="1" ht="23.25"/>
     <row r="17" spans="2:26" s="76" customFormat="1" ht="34.5">
@@ -19517,66 +19522,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C19" s="482" t="str">
+      <c r="C19" s="487" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D19" s="482"/>
-      <c r="E19" s="482"/>
-      <c r="F19" s="482"/>
-      <c r="G19" s="482"/>
-      <c r="H19" s="482"/>
-      <c r="I19" s="482"/>
-      <c r="J19" s="482"/>
-      <c r="K19" s="482"/>
-      <c r="L19" s="482"/>
-      <c r="M19" s="482"/>
-      <c r="N19" s="482"/>
-      <c r="O19" s="482"/>
-      <c r="P19" s="482"/>
-      <c r="Q19" s="482"/>
-      <c r="R19" s="482"/>
-      <c r="S19" s="482"/>
-      <c r="T19" s="482"/>
-      <c r="U19" s="482"/>
-      <c r="V19" s="482"/>
-      <c r="W19" s="482"/>
-      <c r="X19" s="482"/>
-      <c r="Y19" s="482"/>
-      <c r="Z19" s="482"/>
+      <c r="D19" s="487"/>
+      <c r="E19" s="487"/>
+      <c r="F19" s="487"/>
+      <c r="G19" s="487"/>
+      <c r="H19" s="487"/>
+      <c r="I19" s="487"/>
+      <c r="J19" s="487"/>
+      <c r="K19" s="487"/>
+      <c r="L19" s="487"/>
+      <c r="M19" s="487"/>
+      <c r="N19" s="487"/>
+      <c r="O19" s="487"/>
+      <c r="P19" s="487"/>
+      <c r="Q19" s="487"/>
+      <c r="R19" s="487"/>
+      <c r="S19" s="487"/>
+      <c r="T19" s="487"/>
+      <c r="U19" s="487"/>
+      <c r="V19" s="487"/>
+      <c r="W19" s="487"/>
+      <c r="X19" s="487"/>
+      <c r="Y19" s="487"/>
+      <c r="Z19" s="487"/>
     </row>
     <row r="20" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B20" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C20" s="483" t="str">
+      <c r="C20" s="485" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D20" s="483"/>
-      <c r="E20" s="483"/>
-      <c r="F20" s="483"/>
-      <c r="G20" s="483"/>
-      <c r="H20" s="483"/>
-      <c r="I20" s="483"/>
-      <c r="J20" s="483"/>
-      <c r="K20" s="483"/>
-      <c r="L20" s="483"/>
-      <c r="M20" s="483"/>
-      <c r="N20" s="483"/>
-      <c r="O20" s="483"/>
-      <c r="P20" s="483"/>
-      <c r="Q20" s="483"/>
-      <c r="R20" s="483"/>
-      <c r="S20" s="483"/>
-      <c r="T20" s="483"/>
-      <c r="U20" s="483"/>
-      <c r="V20" s="483"/>
-      <c r="W20" s="483"/>
-      <c r="X20" s="483"/>
-      <c r="Y20" s="483"/>
-      <c r="Z20" s="483"/>
+      <c r="D20" s="485"/>
+      <c r="E20" s="485"/>
+      <c r="F20" s="485"/>
+      <c r="G20" s="485"/>
+      <c r="H20" s="485"/>
+      <c r="I20" s="485"/>
+      <c r="J20" s="485"/>
+      <c r="K20" s="485"/>
+      <c r="L20" s="485"/>
+      <c r="M20" s="485"/>
+      <c r="N20" s="485"/>
+      <c r="O20" s="485"/>
+      <c r="P20" s="485"/>
+      <c r="Q20" s="485"/>
+      <c r="R20" s="485"/>
+      <c r="S20" s="485"/>
+      <c r="T20" s="485"/>
+      <c r="U20" s="485"/>
+      <c r="V20" s="485"/>
+      <c r="W20" s="485"/>
+      <c r="X20" s="485"/>
+      <c r="Y20" s="485"/>
+      <c r="Z20" s="485"/>
     </row>
     <row r="21" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="22" spans="2:26" s="76" customFormat="1" ht="34.5">
@@ -19585,34 +19590,34 @@
       </c>
     </row>
     <row r="23" spans="2:26" s="76" customFormat="1" ht="23.25">
-      <c r="B23" s="481" t="str">
+      <c r="B23" s="488" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C19 &amp; "|" &amp; C20 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C23" s="481"/>
-      <c r="D23" s="481"/>
-      <c r="E23" s="481"/>
-      <c r="F23" s="481"/>
-      <c r="G23" s="481"/>
-      <c r="H23" s="481"/>
-      <c r="I23" s="481"/>
-      <c r="J23" s="481"/>
-      <c r="K23" s="481"/>
-      <c r="L23" s="481"/>
-      <c r="M23" s="481"/>
-      <c r="N23" s="481"/>
-      <c r="O23" s="481"/>
-      <c r="P23" s="481"/>
-      <c r="Q23" s="481"/>
-      <c r="R23" s="481"/>
-      <c r="S23" s="481"/>
-      <c r="T23" s="481"/>
-      <c r="U23" s="481"/>
-      <c r="V23" s="481"/>
-      <c r="W23" s="481"/>
-      <c r="X23" s="481"/>
-      <c r="Y23" s="481"/>
-      <c r="Z23" s="481"/>
+      <c r="C23" s="488"/>
+      <c r="D23" s="488"/>
+      <c r="E23" s="488"/>
+      <c r="F23" s="488"/>
+      <c r="G23" s="488"/>
+      <c r="H23" s="488"/>
+      <c r="I23" s="488"/>
+      <c r="J23" s="488"/>
+      <c r="K23" s="488"/>
+      <c r="L23" s="488"/>
+      <c r="M23" s="488"/>
+      <c r="N23" s="488"/>
+      <c r="O23" s="488"/>
+      <c r="P23" s="488"/>
+      <c r="Q23" s="488"/>
+      <c r="R23" s="488"/>
+      <c r="S23" s="488"/>
+      <c r="T23" s="488"/>
+      <c r="U23" s="488"/>
+      <c r="V23" s="488"/>
+      <c r="W23" s="488"/>
+      <c r="X23" s="488"/>
+      <c r="Y23" s="488"/>
+      <c r="Z23" s="488"/>
     </row>
     <row r="24" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="25" spans="2:26" s="76" customFormat="1" ht="34.5">
@@ -19626,66 +19631,66 @@
         <f>B12</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C27" s="482" t="str">
+      <c r="C27" s="487" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D27" s="482"/>
-      <c r="E27" s="482"/>
-      <c r="F27" s="482"/>
-      <c r="G27" s="482"/>
-      <c r="H27" s="482"/>
-      <c r="I27" s="482"/>
-      <c r="J27" s="482"/>
-      <c r="K27" s="482"/>
-      <c r="L27" s="482"/>
-      <c r="M27" s="482"/>
-      <c r="N27" s="482"/>
-      <c r="O27" s="482"/>
-      <c r="P27" s="482"/>
-      <c r="Q27" s="482"/>
-      <c r="R27" s="482"/>
-      <c r="S27" s="482"/>
-      <c r="T27" s="482"/>
-      <c r="U27" s="482"/>
-      <c r="V27" s="482"/>
-      <c r="W27" s="482"/>
-      <c r="X27" s="482"/>
-      <c r="Y27" s="482"/>
-      <c r="Z27" s="482"/>
+      <c r="D27" s="487"/>
+      <c r="E27" s="487"/>
+      <c r="F27" s="487"/>
+      <c r="G27" s="487"/>
+      <c r="H27" s="487"/>
+      <c r="I27" s="487"/>
+      <c r="J27" s="487"/>
+      <c r="K27" s="487"/>
+      <c r="L27" s="487"/>
+      <c r="M27" s="487"/>
+      <c r="N27" s="487"/>
+      <c r="O27" s="487"/>
+      <c r="P27" s="487"/>
+      <c r="Q27" s="487"/>
+      <c r="R27" s="487"/>
+      <c r="S27" s="487"/>
+      <c r="T27" s="487"/>
+      <c r="U27" s="487"/>
+      <c r="V27" s="487"/>
+      <c r="W27" s="487"/>
+      <c r="X27" s="487"/>
+      <c r="Y27" s="487"/>
+      <c r="Z27" s="487"/>
     </row>
     <row r="28" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B28" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C28" s="483" t="str">
+      <c r="C28" s="485" t="str">
         <f>_xlfn.CONCAT(C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D28" s="483"/>
-      <c r="E28" s="483"/>
-      <c r="F28" s="483"/>
-      <c r="G28" s="483"/>
-      <c r="H28" s="483"/>
-      <c r="I28" s="483"/>
-      <c r="J28" s="483"/>
-      <c r="K28" s="483"/>
-      <c r="L28" s="483"/>
-      <c r="M28" s="483"/>
-      <c r="N28" s="483"/>
-      <c r="O28" s="483"/>
-      <c r="P28" s="483"/>
-      <c r="Q28" s="483"/>
-      <c r="R28" s="483"/>
-      <c r="S28" s="483"/>
-      <c r="T28" s="483"/>
-      <c r="U28" s="483"/>
-      <c r="V28" s="483"/>
-      <c r="W28" s="483"/>
-      <c r="X28" s="483"/>
-      <c r="Y28" s="483"/>
-      <c r="Z28" s="483"/>
+      <c r="D28" s="485"/>
+      <c r="E28" s="485"/>
+      <c r="F28" s="485"/>
+      <c r="G28" s="485"/>
+      <c r="H28" s="485"/>
+      <c r="I28" s="485"/>
+      <c r="J28" s="485"/>
+      <c r="K28" s="485"/>
+      <c r="L28" s="485"/>
+      <c r="M28" s="485"/>
+      <c r="N28" s="485"/>
+      <c r="O28" s="485"/>
+      <c r="P28" s="485"/>
+      <c r="Q28" s="485"/>
+      <c r="R28" s="485"/>
+      <c r="S28" s="485"/>
+      <c r="T28" s="485"/>
+      <c r="U28" s="485"/>
+      <c r="V28" s="485"/>
+      <c r="W28" s="485"/>
+      <c r="X28" s="485"/>
+      <c r="Y28" s="485"/>
+      <c r="Z28" s="485"/>
     </row>
     <row r="29" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="30" spans="2:26" s="76" customFormat="1" ht="34.5">
@@ -19694,34 +19699,34 @@
       </c>
     </row>
     <row r="31" spans="2:26" s="76" customFormat="1" ht="23.25">
-      <c r="B31" s="481" t="str">
+      <c r="B31" s="488" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C27 &amp; "|" &amp; C28 &amp; "|"</f>
         <v>- xlit|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C31" s="481"/>
-      <c r="D31" s="481"/>
-      <c r="E31" s="481"/>
-      <c r="F31" s="481"/>
-      <c r="G31" s="481"/>
-      <c r="H31" s="481"/>
-      <c r="I31" s="481"/>
-      <c r="J31" s="481"/>
-      <c r="K31" s="481"/>
-      <c r="L31" s="481"/>
-      <c r="M31" s="481"/>
-      <c r="N31" s="481"/>
-      <c r="O31" s="481"/>
-      <c r="P31" s="481"/>
-      <c r="Q31" s="481"/>
-      <c r="R31" s="481"/>
-      <c r="S31" s="481"/>
-      <c r="T31" s="481"/>
-      <c r="U31" s="481"/>
-      <c r="V31" s="481"/>
-      <c r="W31" s="481"/>
-      <c r="X31" s="481"/>
-      <c r="Y31" s="481"/>
-      <c r="Z31" s="481"/>
+      <c r="C31" s="488"/>
+      <c r="D31" s="488"/>
+      <c r="E31" s="488"/>
+      <c r="F31" s="488"/>
+      <c r="G31" s="488"/>
+      <c r="H31" s="488"/>
+      <c r="I31" s="488"/>
+      <c r="J31" s="488"/>
+      <c r="K31" s="488"/>
+      <c r="L31" s="488"/>
+      <c r="M31" s="488"/>
+      <c r="N31" s="488"/>
+      <c r="O31" s="488"/>
+      <c r="P31" s="488"/>
+      <c r="Q31" s="488"/>
+      <c r="R31" s="488"/>
+      <c r="S31" s="488"/>
+      <c r="T31" s="488"/>
+      <c r="U31" s="488"/>
+      <c r="V31" s="488"/>
+      <c r="W31" s="488"/>
+      <c r="X31" s="488"/>
+      <c r="Y31" s="488"/>
+      <c r="Z31" s="488"/>
     </row>
     <row r="32" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="33" spans="1:47" s="78" customFormat="1">
@@ -20012,8 +20017,8 @@
       <c r="AN38" s="77"/>
       <c r="AO38" s="77"/>
       <c r="AP38" s="77"/>
-      <c r="AQ38" s="484"/>
-      <c r="AR38" s="484"/>
+      <c r="AQ38" s="486"/>
+      <c r="AR38" s="486"/>
       <c r="AS38" s="77"/>
       <c r="AT38" s="77"/>
       <c r="AU38" s="77"/>
@@ -20021,17 +20026,17 @@
     <row r="39" spans="1:47" s="76" customFormat="1" ht="23.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="AQ38:AR38"/>
     <mergeCell ref="C20:Z20"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="C12:Z12"/>
     <mergeCell ref="B15:Z15"/>
     <mergeCell ref="C19:Z19"/>
-    <mergeCell ref="B23:Z23"/>
-    <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="AQ38:AR38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20067,161 +20072,161 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="506" t="s">
+      <c r="B2" s="489" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="506"/>
-      <c r="D2" s="506"/>
-      <c r="E2" s="506" t="s">
+      <c r="C2" s="489"/>
+      <c r="D2" s="489"/>
+      <c r="E2" s="489" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="506"/>
-      <c r="G2" s="506" t="s">
+      <c r="F2" s="489"/>
+      <c r="G2" s="489" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="506"/>
-      <c r="I2" s="506" t="s">
+      <c r="H2" s="489"/>
+      <c r="I2" s="489" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="506"/>
-      <c r="K2" s="506" t="s">
+      <c r="J2" s="489"/>
+      <c r="K2" s="489" t="s">
         <v>207</v>
       </c>
-      <c r="L2" s="506"/>
-      <c r="M2" s="506"/>
-      <c r="N2" s="506"/>
-      <c r="O2" s="506" t="s">
+      <c r="L2" s="489"/>
+      <c r="M2" s="489"/>
+      <c r="N2" s="489"/>
+      <c r="O2" s="489" t="s">
         <v>208</v>
       </c>
-      <c r="P2" s="506"/>
+      <c r="P2" s="489"/>
     </row>
     <row r="3" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="506" t="s">
+      <c r="B3" s="489" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506" t="s">
+      <c r="C3" s="489"/>
+      <c r="D3" s="489"/>
+      <c r="E3" s="489" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506" t="s">
+      <c r="F3" s="489"/>
+      <c r="G3" s="489" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="506"/>
-      <c r="I3" s="506" t="s">
+      <c r="H3" s="489"/>
+      <c r="I3" s="489" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="506"/>
-      <c r="K3" s="506" t="s">
+      <c r="J3" s="489"/>
+      <c r="K3" s="489" t="s">
         <v>212</v>
       </c>
-      <c r="L3" s="506"/>
-      <c r="M3" s="506"/>
-      <c r="N3" s="506"/>
-      <c r="O3" s="506" t="s">
+      <c r="L3" s="489"/>
+      <c r="M3" s="489"/>
+      <c r="N3" s="489"/>
+      <c r="O3" s="489" t="s">
         <v>208</v>
       </c>
-      <c r="P3" s="506"/>
+      <c r="P3" s="489"/>
     </row>
     <row r="4" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="506" t="s">
+      <c r="B4" s="489" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="506"/>
-      <c r="D4" s="506"/>
-      <c r="E4" s="506" t="s">
+      <c r="C4" s="489"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="489" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="506"/>
-      <c r="G4" s="506" t="s">
+      <c r="F4" s="489"/>
+      <c r="G4" s="489" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="506"/>
-      <c r="I4" s="506" t="s">
+      <c r="H4" s="489"/>
+      <c r="I4" s="489" t="s">
         <v>211</v>
       </c>
-      <c r="J4" s="506"/>
-      <c r="K4" s="506" t="s">
+      <c r="J4" s="489"/>
+      <c r="K4" s="489" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="506"/>
-      <c r="M4" s="506"/>
-      <c r="N4" s="506"/>
-      <c r="O4" s="506" t="s">
+      <c r="L4" s="489"/>
+      <c r="M4" s="489"/>
+      <c r="N4" s="489"/>
+      <c r="O4" s="489" t="s">
         <v>208</v>
       </c>
-      <c r="P4" s="506"/>
+      <c r="P4" s="489"/>
     </row>
     <row r="5" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="506" t="s">
+      <c r="B5" s="489" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="506"/>
-      <c r="D5" s="506"/>
-      <c r="E5" s="506" t="s">
+      <c r="C5" s="489"/>
+      <c r="D5" s="489"/>
+      <c r="E5" s="489" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="506"/>
-      <c r="G5" s="506" t="s">
+      <c r="F5" s="489"/>
+      <c r="G5" s="489" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="506"/>
-      <c r="I5" s="506" t="s">
+      <c r="H5" s="489"/>
+      <c r="I5" s="489" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="506"/>
-      <c r="K5" s="506" t="s">
+      <c r="J5" s="489"/>
+      <c r="K5" s="489" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="506"/>
-      <c r="M5" s="506"/>
-      <c r="N5" s="506"/>
-      <c r="O5" s="506" t="s">
+      <c r="L5" s="489"/>
+      <c r="M5" s="489"/>
+      <c r="N5" s="489"/>
+      <c r="O5" s="489" t="s">
         <v>220</v>
       </c>
-      <c r="P5" s="506"/>
+      <c r="P5" s="489"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
-      <c r="B7" s="499" t="s">
+      <c r="B7" s="498" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="500"/>
-      <c r="D7" s="501"/>
-      <c r="E7" s="502" t="s">
+      <c r="C7" s="499"/>
+      <c r="D7" s="500"/>
+      <c r="E7" s="501" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="503"/>
-      <c r="G7" s="494" t="s">
+      <c r="F7" s="502"/>
+      <c r="G7" s="490" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="495"/>
-      <c r="I7" s="504" t="s">
+      <c r="H7" s="491"/>
+      <c r="I7" s="503" t="s">
         <v>223</v>
       </c>
-      <c r="J7" s="505"/>
-      <c r="K7" s="494" t="s">
+      <c r="J7" s="504"/>
+      <c r="K7" s="490" t="s">
         <v>224</v>
       </c>
-      <c r="L7" s="495"/>
-      <c r="M7" s="494" t="s">
+      <c r="L7" s="491"/>
+      <c r="M7" s="490" t="s">
         <v>225</v>
       </c>
-      <c r="N7" s="495"/>
-      <c r="O7" s="494" t="s">
+      <c r="N7" s="491"/>
+      <c r="O7" s="490" t="s">
         <v>226</v>
       </c>
-      <c r="P7" s="495"/>
+      <c r="P7" s="491"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
-      <c r="B8" s="485" t="s">
+      <c r="B8" s="492" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="496" t="s">
+      <c r="C8" s="493" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="497" t="s">
+      <c r="D8" s="494" t="s">
         <v>229</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -20254,9 +20259,9 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
-      <c r="B9" s="485"/>
-      <c r="C9" s="496"/>
-      <c r="D9" s="497"/>
+      <c r="B9" s="492"/>
+      <c r="C9" s="493"/>
+      <c r="D9" s="494"/>
       <c r="E9" s="24" t="s">
         <v>232</v>
       </c>
@@ -20287,9 +20292,9 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
-      <c r="B10" s="485"/>
-      <c r="C10" s="496"/>
-      <c r="D10" s="493" t="s">
+      <c r="B10" s="492"/>
+      <c r="C10" s="493"/>
+      <c r="D10" s="495" t="s">
         <v>240</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -20318,9 +20323,9 @@
       <c r="P10" s="20"/>
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
-      <c r="B11" s="485"/>
-      <c r="C11" s="496"/>
-      <c r="D11" s="493"/>
+      <c r="B11" s="492"/>
+      <c r="C11" s="493"/>
+      <c r="D11" s="495"/>
       <c r="E11" s="24" t="s">
         <v>241</v>
       </c>
@@ -20347,11 +20352,11 @@
       <c r="P11" s="25"/>
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
-      <c r="B12" s="485"/>
-      <c r="C12" s="486" t="s">
+      <c r="B12" s="492"/>
+      <c r="C12" s="496" t="s">
         <v>247</v>
       </c>
-      <c r="D12" s="498" t="s">
+      <c r="D12" s="497" t="s">
         <v>248</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -20376,9 +20381,9 @@
       <c r="P12" s="20"/>
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
-      <c r="B13" s="485"/>
-      <c r="C13" s="486"/>
-      <c r="D13" s="498"/>
+      <c r="B13" s="492"/>
+      <c r="C13" s="496"/>
+      <c r="D13" s="497"/>
       <c r="E13" s="24" t="s">
         <v>192</v>
       </c>
@@ -20401,13 +20406,13 @@
       <c r="P13" s="25"/>
     </row>
     <row r="14" spans="2:16" ht="39" customHeight="1">
-      <c r="B14" s="485" t="s">
+      <c r="B14" s="492" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="491" t="s">
+      <c r="C14" s="505" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="487" t="s">
+      <c r="D14" s="506" t="s">
         <v>229</v>
       </c>
       <c r="E14" s="19"/>
@@ -20432,9 +20437,9 @@
       <c r="P14" s="20"/>
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
-      <c r="B15" s="485"/>
-      <c r="C15" s="491"/>
-      <c r="D15" s="487"/>
+      <c r="B15" s="492"/>
+      <c r="C15" s="505"/>
+      <c r="D15" s="506"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
@@ -20457,9 +20462,9 @@
       <c r="P15" s="25"/>
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
-      <c r="B16" s="485"/>
-      <c r="C16" s="491"/>
-      <c r="D16" s="493" t="s">
+      <c r="B16" s="492"/>
+      <c r="C16" s="505"/>
+      <c r="D16" s="495" t="s">
         <v>240</v>
       </c>
       <c r="E16" s="19"/>
@@ -20484,9 +20489,9 @@
       <c r="P16" s="20"/>
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
-      <c r="B17" s="485"/>
-      <c r="C17" s="491"/>
-      <c r="D17" s="493"/>
+      <c r="B17" s="492"/>
+      <c r="C17" s="505"/>
+      <c r="D17" s="495"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -20509,11 +20514,11 @@
       <c r="P17" s="25"/>
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
-      <c r="B18" s="485"/>
-      <c r="C18" s="486" t="s">
+      <c r="B18" s="492"/>
+      <c r="C18" s="496" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="487" t="s">
+      <c r="D18" s="506" t="s">
         <v>248</v>
       </c>
       <c r="E18" s="19"/>
@@ -20538,9 +20543,9 @@
       <c r="P18" s="20"/>
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
-      <c r="B19" s="485"/>
-      <c r="C19" s="486"/>
-      <c r="D19" s="487"/>
+      <c r="B19" s="492"/>
+      <c r="C19" s="496"/>
+      <c r="D19" s="506"/>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -20563,13 +20568,13 @@
       <c r="P19" s="25"/>
     </row>
     <row r="20" spans="2:17" ht="39" customHeight="1">
-      <c r="B20" s="485" t="s">
+      <c r="B20" s="492" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="491" t="s">
+      <c r="C20" s="505" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="487" t="s">
+      <c r="D20" s="506" t="s">
         <v>248</v>
       </c>
       <c r="E20" s="19"/>
@@ -20594,9 +20599,9 @@
       <c r="P20" s="20"/>
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
-      <c r="B21" s="485"/>
-      <c r="C21" s="491"/>
-      <c r="D21" s="487"/>
+      <c r="B21" s="492"/>
+      <c r="C21" s="505"/>
+      <c r="D21" s="506"/>
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
@@ -20619,9 +20624,9 @@
       <c r="P21" s="25"/>
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
-      <c r="B22" s="485"/>
-      <c r="C22" s="491"/>
-      <c r="D22" s="492" t="s">
+      <c r="B22" s="492"/>
+      <c r="C22" s="505"/>
+      <c r="D22" s="507" t="s">
         <v>275</v>
       </c>
       <c r="E22" s="19"/>
@@ -20642,9 +20647,9 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
-      <c r="B23" s="485"/>
-      <c r="C23" s="491"/>
-      <c r="D23" s="492"/>
+      <c r="B23" s="492"/>
+      <c r="C23" s="505"/>
+      <c r="D23" s="507"/>
       <c r="E23" s="24"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -20663,13 +20668,13 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="39" customHeight="1">
-      <c r="B24" s="485" t="s">
+      <c r="B24" s="492" t="s">
         <v>278</v>
       </c>
-      <c r="C24" s="486" t="s">
+      <c r="C24" s="496" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="487" t="s">
+      <c r="D24" s="506" t="s">
         <v>248</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -20698,9 +20703,9 @@
       <c r="P24" s="20"/>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
-      <c r="B25" s="485"/>
-      <c r="C25" s="486"/>
-      <c r="D25" s="487"/>
+      <c r="B25" s="492"/>
+      <c r="C25" s="496"/>
+      <c r="D25" s="506"/>
       <c r="E25" s="24" t="s">
         <v>191</v>
       </c>
@@ -20727,13 +20732,13 @@
       <c r="P25" s="25"/>
     </row>
     <row r="26" spans="2:17" ht="39" customHeight="1">
-      <c r="B26" s="485" t="s">
+      <c r="B26" s="492" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="486" t="s">
+      <c r="C26" s="496" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="487" t="s">
+      <c r="D26" s="506" t="s">
         <v>248</v>
       </c>
       <c r="E26" s="19"/>
@@ -20754,9 +20759,9 @@
       <c r="P26" s="20"/>
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
-      <c r="B27" s="485"/>
-      <c r="C27" s="486"/>
-      <c r="D27" s="487"/>
+      <c r="B27" s="492"/>
+      <c r="C27" s="496"/>
+      <c r="D27" s="506"/>
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26" t="s">
@@ -20778,23 +20783,23 @@
       <c r="B29" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C29" s="488" t="s">
+      <c r="C29" s="508" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="488"/>
-      <c r="E29" s="488"/>
-      <c r="F29" s="488"/>
-      <c r="G29" s="488"/>
-      <c r="H29" s="488"/>
-      <c r="I29" s="488"/>
-      <c r="J29" s="488"/>
-      <c r="K29" s="488"/>
-      <c r="L29" s="488"/>
-      <c r="M29" s="488"/>
-      <c r="N29" s="488"/>
-      <c r="O29" s="488"/>
-      <c r="P29" s="488"/>
-      <c r="Q29" s="488"/>
+      <c r="D29" s="508"/>
+      <c r="E29" s="508"/>
+      <c r="F29" s="508"/>
+      <c r="G29" s="508"/>
+      <c r="H29" s="508"/>
+      <c r="I29" s="508"/>
+      <c r="J29" s="508"/>
+      <c r="K29" s="508"/>
+      <c r="L29" s="508"/>
+      <c r="M29" s="508"/>
+      <c r="N29" s="508"/>
+      <c r="O29" s="508"/>
+      <c r="P29" s="508"/>
+      <c r="Q29" s="508"/>
     </row>
     <row r="30" spans="2:17" s="31" customFormat="1" ht="25.5">
       <c r="B30" s="29"/>
@@ -20838,10 +20843,10 @@
       <c r="B32" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="489" t="s">
+      <c r="C32" s="509" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="490"/>
+      <c r="D32" s="510"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="32" t="s">
@@ -20856,6 +20861,51 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -20870,51 +20920,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -20946,8 +20951,9 @@
   </sheetPr>
   <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AZ60" sqref="AZ60"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8984375" defaultRowHeight="21"/>
@@ -21220,7 +21226,7 @@
     <row r="3" spans="1:63" ht="40.5" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="48" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="331">
@@ -21492,7 +21498,7 @@
         <v>113</v>
       </c>
       <c r="AR4" s="174" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AS4" s="174" t="s">
         <v>807</v>
@@ -21512,10 +21518,10 @@
       <c r="AX4" s="174" t="s">
         <v>775</v>
       </c>
-      <c r="AZ4" s="507" t="s">
+      <c r="AZ4" s="416" t="s">
         <v>770</v>
       </c>
-      <c r="BA4" s="508" t="str">
+      <c r="BA4" s="417" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(BB9:BB55)</f>
         <v>1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfvz 43657</v>
       </c>
@@ -21523,7 +21529,7 @@
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4"/>
-      <c r="BH4" s="507" t="s">
+      <c r="BH4" s="416" t="s">
         <v>770</v>
       </c>
       <c r="BI4" s="345" t="s">
@@ -21677,10 +21683,10 @@
       <c r="AX5" s="133">
         <v>8</v>
       </c>
-      <c r="AZ5" s="507" t="s">
+      <c r="AZ5" s="416" t="s">
         <v>771</v>
       </c>
-      <c r="BH5" s="507" t="s">
+      <c r="BH5" s="416" t="s">
         <v>771</v>
       </c>
       <c r="BI5" s="345" t="s">
@@ -21864,36 +21870,36 @@
       <c r="F8" s="323" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="461" t="s">
+      <c r="G8" s="460" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="462"/>
-      <c r="I8" s="463"/>
-      <c r="J8" s="471" t="s">
+      <c r="H8" s="461"/>
+      <c r="I8" s="462"/>
+      <c r="J8" s="463" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="472"/>
-      <c r="L8" s="473"/>
-      <c r="M8" s="471" t="s">
+      <c r="K8" s="464"/>
+      <c r="L8" s="465"/>
+      <c r="M8" s="463" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="472"/>
-      <c r="O8" s="473"/>
-      <c r="P8" s="474" t="s">
+      <c r="N8" s="464"/>
+      <c r="O8" s="465"/>
+      <c r="P8" s="466" t="s">
         <v>689</v>
       </c>
-      <c r="Q8" s="475"/>
-      <c r="R8" s="476"/>
-      <c r="S8" s="471" t="s">
+      <c r="Q8" s="467"/>
+      <c r="R8" s="468"/>
+      <c r="S8" s="463" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="472"/>
-      <c r="U8" s="473"/>
-      <c r="V8" s="471" t="s">
+      <c r="T8" s="464"/>
+      <c r="U8" s="465"/>
+      <c r="V8" s="463" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="472"/>
-      <c r="X8" s="473"/>
+      <c r="W8" s="464"/>
+      <c r="X8" s="465"/>
       <c r="Y8" s="325" t="s">
         <v>107</v>
       </c>
@@ -21910,23 +21916,23 @@
         <v>756</v>
       </c>
       <c r="AD8" s="326" t="s">
-        <v>908</v>
-      </c>
-      <c r="AE8" s="464" t="s">
+        <v>907</v>
+      </c>
+      <c r="AE8" s="478" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="465"/>
-      <c r="AG8" s="466"/>
-      <c r="AH8" s="458" t="s">
+      <c r="AF8" s="479"/>
+      <c r="AG8" s="480"/>
+      <c r="AH8" s="469" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="459"/>
-      <c r="AJ8" s="460"/>
-      <c r="AK8" s="458" t="s">
+      <c r="AI8" s="470"/>
+      <c r="AJ8" s="471"/>
+      <c r="AK8" s="469" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="459"/>
-      <c r="AM8" s="460"/>
+      <c r="AL8" s="470"/>
+      <c r="AM8" s="471"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -21943,7 +21949,7 @@
         <v>103</v>
       </c>
       <c r="BB8" s="340" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="BC8" s="341" t="s">
         <v>104</v>
@@ -21983,38 +21989,38 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="467" t="s">
+      <c r="J9" s="472" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="468"/>
+      <c r="K9" s="473"/>
       <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="467" t="s">
+      <c r="M9" s="472" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="468"/>
+      <c r="N9" s="473"/>
       <c r="O9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="469" t="s">
+      <c r="P9" s="474" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="470"/>
+      <c r="Q9" s="475"/>
       <c r="R9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="467" t="s">
+      <c r="S9" s="472" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="468"/>
+      <c r="T9" s="473"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="469" t="s">
-        <v>910</v>
-      </c>
-      <c r="W9" s="470"/>
+      <c r="V9" s="474" t="s">
+        <v>909</v>
+      </c>
+      <c r="W9" s="475"/>
       <c r="X9" s="6" t="s">
         <v>729</v>
       </c>
@@ -22048,8 +22054,8 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="53"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="456"/>
-      <c r="AL9" s="457"/>
+      <c r="AK9" s="476"/>
+      <c r="AL9" s="477"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -22100,16 +22106,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="461" t="s">
+      <c r="E10" s="460" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="462"/>
-      <c r="G10" s="463"/>
-      <c r="H10" s="461" t="s">
+      <c r="F10" s="461"/>
+      <c r="G10" s="462"/>
+      <c r="H10" s="460" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="462"/>
-      <c r="J10" s="463"/>
+      <c r="I10" s="461"/>
+      <c r="J10" s="462"/>
       <c r="K10" s="324" t="s">
         <v>44</v>
       </c>
@@ -22119,16 +22125,16 @@
       <c r="M10" s="323" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="461" t="s">
+      <c r="N10" s="460" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="462"/>
-      <c r="P10" s="463"/>
-      <c r="Q10" s="461" t="s">
+      <c r="O10" s="461"/>
+      <c r="P10" s="462"/>
+      <c r="Q10" s="460" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="462"/>
-      <c r="S10" s="463"/>
+      <c r="R10" s="461"/>
+      <c r="S10" s="462"/>
       <c r="T10" s="324" t="s">
         <v>106</v>
       </c>
@@ -22154,33 +22160,33 @@
         <v>744</v>
       </c>
       <c r="AB10" s="326" t="s">
-        <v>906</v>
-      </c>
-      <c r="AC10" s="464" t="s">
+        <v>905</v>
+      </c>
+      <c r="AC10" s="478" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="465"/>
-      <c r="AE10" s="466"/>
-      <c r="AF10" s="464" t="s">
+      <c r="AD10" s="479"/>
+      <c r="AE10" s="480"/>
+      <c r="AF10" s="478" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="465"/>
-      <c r="AH10" s="466"/>
-      <c r="AI10" s="464" t="s">
+      <c r="AG10" s="479"/>
+      <c r="AH10" s="480"/>
+      <c r="AI10" s="478" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="465"/>
-      <c r="AK10" s="466"/>
-      <c r="AL10" s="464" t="s">
+      <c r="AJ10" s="479"/>
+      <c r="AK10" s="480"/>
+      <c r="AL10" s="478" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="465"/>
-      <c r="AN10" s="466"/>
-      <c r="AO10" s="458" t="s">
+      <c r="AM10" s="479"/>
+      <c r="AN10" s="480"/>
+      <c r="AO10" s="469" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="459"/>
-      <c r="AQ10" s="460"/>
+      <c r="AP10" s="470"/>
+      <c r="AQ10" s="471"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="57"/>
@@ -22192,7 +22198,7 @@
         <v>2</v>
       </c>
       <c r="BB10" s="110" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="BC10" s="108" t="s">
         <v>90</v>
@@ -22297,14 +22303,14 @@
       <c r="AH11" s="128" t="s">
         <v>329</v>
       </c>
-      <c r="AI11" s="456"/>
-      <c r="AJ11" s="457"/>
+      <c r="AI11" s="476"/>
+      <c r="AJ11" s="477"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="456"/>
-      <c r="AM11" s="457"/>
+      <c r="AL11" s="476"/>
+      <c r="AM11" s="477"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="456"/>
-      <c r="AP11" s="457"/>
+      <c r="AO11" s="476"/>
+      <c r="AP11" s="477"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="4"/>
@@ -22347,36 +22353,36 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="461" t="s">
+      <c r="F12" s="460" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="462"/>
-      <c r="H12" s="463"/>
-      <c r="I12" s="461" t="s">
+      <c r="G12" s="461"/>
+      <c r="H12" s="462"/>
+      <c r="I12" s="460" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="462"/>
-      <c r="K12" s="463"/>
-      <c r="L12" s="461" t="s">
+      <c r="J12" s="461"/>
+      <c r="K12" s="462"/>
+      <c r="L12" s="460" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="462"/>
-      <c r="N12" s="463"/>
-      <c r="O12" s="461" t="s">
+      <c r="M12" s="461"/>
+      <c r="N12" s="462"/>
+      <c r="O12" s="460" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="462"/>
-      <c r="Q12" s="463"/>
-      <c r="R12" s="461" t="s">
+      <c r="P12" s="461"/>
+      <c r="Q12" s="462"/>
+      <c r="R12" s="460" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="462"/>
-      <c r="T12" s="463"/>
-      <c r="U12" s="461" t="s">
+      <c r="S12" s="461"/>
+      <c r="T12" s="462"/>
+      <c r="U12" s="460" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="462"/>
-      <c r="W12" s="463"/>
+      <c r="V12" s="461"/>
+      <c r="W12" s="462"/>
       <c r="X12" s="325" t="s">
         <v>117</v>
       </c>
@@ -22386,11 +22392,11 @@
       <c r="Z12" s="326" t="s">
         <v>605</v>
       </c>
-      <c r="AA12" s="464" t="s">
+      <c r="AA12" s="478" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="465"/>
-      <c r="AC12" s="466"/>
+      <c r="AB12" s="479"/>
+      <c r="AC12" s="480"/>
       <c r="AD12" s="325" t="s">
         <v>112</v>
       </c>
@@ -22398,18 +22404,18 @@
         <v>740</v>
       </c>
       <c r="AF12" s="326" t="s">
-        <v>909</v>
-      </c>
-      <c r="AG12" s="464" t="s">
+        <v>908</v>
+      </c>
+      <c r="AG12" s="478" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="465"/>
-      <c r="AI12" s="466"/>
-      <c r="AJ12" s="458" t="s">
+      <c r="AH12" s="479"/>
+      <c r="AI12" s="480"/>
+      <c r="AJ12" s="469" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="459"/>
-      <c r="AL12" s="460"/>
+      <c r="AK12" s="470"/>
+      <c r="AL12" s="471"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -22535,8 +22541,8 @@
       <c r="AI13" s="128" t="s">
         <v>609</v>
       </c>
-      <c r="AJ13" s="456"/>
-      <c r="AK13" s="457"/>
+      <c r="AJ13" s="476"/>
+      <c r="AK13" s="477"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -22588,41 +22594,41 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="461" t="s">
+      <c r="G14" s="460" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="462"/>
-      <c r="I14" s="463"/>
-      <c r="J14" s="461" t="s">
+      <c r="H14" s="461"/>
+      <c r="I14" s="462"/>
+      <c r="J14" s="460" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="462"/>
-      <c r="L14" s="463"/>
-      <c r="M14" s="461" t="s">
+      <c r="K14" s="461"/>
+      <c r="L14" s="462"/>
+      <c r="M14" s="460" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="462"/>
-      <c r="O14" s="463"/>
-      <c r="P14" s="461" t="s">
+      <c r="N14" s="461"/>
+      <c r="O14" s="462"/>
+      <c r="P14" s="460" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="462"/>
-      <c r="R14" s="463"/>
-      <c r="S14" s="461" t="s">
+      <c r="Q14" s="461"/>
+      <c r="R14" s="462"/>
+      <c r="S14" s="460" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="462"/>
-      <c r="U14" s="463"/>
-      <c r="V14" s="461" t="s">
+      <c r="T14" s="461"/>
+      <c r="U14" s="462"/>
+      <c r="V14" s="460" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="462"/>
-      <c r="X14" s="463"/>
-      <c r="Y14" s="464" t="s">
+      <c r="W14" s="461"/>
+      <c r="X14" s="462"/>
+      <c r="Y14" s="478" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="465"/>
-      <c r="AA14" s="466"/>
+      <c r="Z14" s="479"/>
+      <c r="AA14" s="480"/>
       <c r="AB14" s="325" t="s">
         <v>110</v>
       </c>
@@ -22630,18 +22636,18 @@
         <v>758</v>
       </c>
       <c r="AD14" s="326" t="s">
-        <v>907</v>
-      </c>
-      <c r="AE14" s="464" t="s">
+        <v>906</v>
+      </c>
+      <c r="AE14" s="478" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="465"/>
-      <c r="AG14" s="466"/>
-      <c r="AH14" s="458" t="s">
+      <c r="AF14" s="479"/>
+      <c r="AG14" s="480"/>
+      <c r="AH14" s="469" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="459"/>
-      <c r="AJ14" s="460"/>
+      <c r="AI14" s="470"/>
+      <c r="AJ14" s="471"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -22735,7 +22741,7 @@
         <v>87</v>
       </c>
       <c r="AA15" s="129" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AB15" s="327" t="s">
         <v>322</v>
@@ -23047,12 +23053,12 @@
       <c r="AG19" s="61"/>
       <c r="AH19" s="60"/>
       <c r="AI19" s="60"/>
-      <c r="AJ19" s="59" t="s">
-        <v>894</v>
-      </c>
-      <c r="AK19" s="60" t="e">
+      <c r="AJ19" s="511" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK19" s="512">
         <f>FIND(AJ19, D19)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="60"/>
       <c r="AM19" s="60"/>
@@ -23142,10 +23148,11 @@
       <c r="AG20" s="71"/>
       <c r="AH20" s="60"/>
       <c r="AI20" s="60"/>
-      <c r="AJ20" s="60" t="e">
+      <c r="AJ20" s="512" t="str">
         <f xml:space="preserve"> MID(D20,AK19,1)</f>
-        <v>#VALUE!</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AK20" s="513"/>
       <c r="AL20" s="60"/>
       <c r="AM20" s="60"/>
       <c r="AN20" s="60"/>
@@ -23531,11 +23538,11 @@
       </c>
       <c r="C25" s="178">
         <f xml:space="preserve"> LEN(D25)</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="71" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(D3:AX3)</f>
-        <v>1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfvz 43657</v>
+        <f xml:space="preserve"> _xlfn.CONCAT(D3:AR3, AT3:AX3)</f>
+        <v>1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfvz43657</v>
       </c>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
@@ -23567,10 +23574,7 @@
       <c r="AF25" s="71"/>
       <c r="AG25" s="71"/>
       <c r="AH25" s="60"/>
-      <c r="AI25" s="60" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(D3:AR3, AT3:AX3)</f>
-        <v>1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfvz43657</v>
-      </c>
+      <c r="AI25" s="60"/>
       <c r="AJ25" s="60"/>
       <c r="AK25" s="60"/>
       <c r="AL25" s="60"/>
@@ -23623,11 +23627,11 @@
       </c>
       <c r="C26" s="179">
         <f>LEN(D26)</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="65" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(D4:AX4)</f>
-        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰ声ˉˋ˪ˊ˫．</v>
+        <f xml:space="preserve"> _xlfn.CONCAT(D4:AR4, AT4:AX4)</f>
+        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰ声ˋ˪ˊ˫．</v>
       </c>
       <c r="E26" s="65"/>
       <c r="F26" s="65"/>
@@ -23659,10 +23663,7 @@
       <c r="AF26" s="65"/>
       <c r="AG26" s="65"/>
       <c r="AH26" s="60"/>
-      <c r="AI26" s="60" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(D32, AT4:AX4)</f>
-        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰ声ˋ˪ˊ˫．ˋ˪ˊ˫．</v>
-      </c>
+      <c r="AI26" s="60"/>
       <c r="AJ26" s="60"/>
       <c r="AK26" s="60"/>
       <c r="AL26" s="60"/>
@@ -23711,7 +23712,7 @@
     <row r="27" spans="1:63" ht="38.1" customHeight="1">
       <c r="B27" s="139" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; D25 &amp; "|" &amp; D26 &amp; "|"</f>
-        <v>- xlit|1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfvz 43657|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰ声ˉˋ˪ˊ˫．|</v>
+        <v>- xlit|1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfvz43657|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰ声ˋ˪ˊ˫．|</v>
       </c>
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
@@ -23853,7 +23854,7 @@
         <v>100</v>
       </c>
       <c r="BD28" s="171" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="BE28" s="109" t="s">
         <v>87</v>
@@ -24045,11 +24046,11 @@
       </c>
       <c r="C31" s="178">
         <f xml:space="preserve"> LEN(D31)</f>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D31" s="71" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(D6:AR6, AT6:AX6)</f>
-        <v>pbPmtTnlkgKhwcjCsiuMaOoeDWIULQZXRSEVFYHBA23570</v>
+        <f xml:space="preserve"> _xlfn.CONCAT(D6:AQ6)</f>
+        <v>pbPmtTnlkgKhwcjCsiuMaOoeDWIULQZXRSEVFYHB</v>
       </c>
       <c r="E31" s="71"/>
       <c r="F31" s="71"/>
@@ -24136,11 +24137,11 @@
       </c>
       <c r="C32" s="179">
         <f>LEN(D32)</f>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D32" s="65" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(D4:AR4, AT4:AX4)</f>
-        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰ声ˋ˪ˊ˫．</v>
+        <f xml:space="preserve"> _xlfn.CONCAT(D4:AQ4)</f>
+        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰ</v>
       </c>
       <c r="E32" s="65"/>
       <c r="F32" s="65"/>
@@ -24222,7 +24223,7 @@
     <row r="33" spans="1:63" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B33" s="139" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; D31 &amp; "|" &amp; D32 &amp; "|"</f>
-        <v>- xlit|pbPmtTnlkgKhwcjCsiuMaOoeDWIULQZXRSEVFYHBA23570|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰ声ˋ˪ˊ˫．|</v>
+        <v>- xlit|pbPmtTnlkgKhwcjCsiuMaOoeDWIULQZXRSEVFYHB|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰ|</v>
       </c>
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
@@ -24983,7 +24984,7 @@
         <v>108</v>
       </c>
       <c r="BD42" s="171" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="BE42" s="109" t="s">
         <v>56</v>
@@ -25064,7 +25065,7 @@
         <v>110</v>
       </c>
       <c r="BD43" s="171" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="BE43" s="109" t="s">
         <v>26</v>
@@ -25145,7 +25146,7 @@
         <v>111</v>
       </c>
       <c r="BD44" s="171" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="BE44" s="109" t="s">
         <v>84</v>
@@ -25226,7 +25227,7 @@
         <v>112</v>
       </c>
       <c r="BD45" s="171" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="BE45" s="109" t="s">
         <v>58</v>
@@ -25544,13 +25545,13 @@
         <v>41</v>
       </c>
       <c r="BB49" s="110" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="BC49" s="108" t="s">
+        <v>910</v>
+      </c>
+      <c r="BD49" s="171" t="s">
         <v>911</v>
-      </c>
-      <c r="BD49" s="171" t="s">
-        <v>912</v>
       </c>
       <c r="BE49" s="109" t="s">
         <v>806</v>
@@ -26033,7 +26034,7 @@
         <v>7</v>
       </c>
       <c r="BC55" s="108" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="BD55" s="171">
         <v>8</v>
@@ -26363,11 +26364,37 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="AO10:AQ10"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
     <mergeCell ref="AK8:AM8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="M9:N9"/>
@@ -26378,37 +26405,11 @@
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="AE8:AG8"/>
     <mergeCell ref="V9:W9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AG12:AI12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30990,36 +30991,36 @@
         <v>755</v>
       </c>
       <c r="F8" s="323"/>
-      <c r="G8" s="461" t="s">
+      <c r="G8" s="460" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="462"/>
-      <c r="I8" s="463"/>
-      <c r="J8" s="471" t="s">
+      <c r="H8" s="461"/>
+      <c r="I8" s="462"/>
+      <c r="J8" s="463" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="472"/>
-      <c r="L8" s="473"/>
-      <c r="M8" s="471" t="s">
+      <c r="K8" s="464"/>
+      <c r="L8" s="465"/>
+      <c r="M8" s="463" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="472"/>
-      <c r="O8" s="473"/>
+      <c r="N8" s="464"/>
+      <c r="O8" s="465"/>
       <c r="P8" s="324"/>
       <c r="Q8" s="346" t="s">
         <v>809</v>
       </c>
       <c r="R8" s="323"/>
-      <c r="S8" s="471" t="s">
+      <c r="S8" s="463" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="472"/>
-      <c r="U8" s="473"/>
-      <c r="V8" s="471" t="s">
+      <c r="T8" s="464"/>
+      <c r="U8" s="465"/>
+      <c r="V8" s="463" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="472"/>
-      <c r="X8" s="473"/>
+      <c r="W8" s="464"/>
+      <c r="X8" s="465"/>
       <c r="Y8" s="325"/>
       <c r="Z8" s="321" t="s">
         <v>757</v>
@@ -31030,21 +31031,21 @@
         <v>756</v>
       </c>
       <c r="AD8" s="326"/>
-      <c r="AE8" s="464" t="s">
+      <c r="AE8" s="478" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="465"/>
-      <c r="AG8" s="466"/>
-      <c r="AH8" s="458" t="s">
+      <c r="AF8" s="479"/>
+      <c r="AG8" s="480"/>
+      <c r="AH8" s="469" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="459"/>
-      <c r="AJ8" s="460"/>
-      <c r="AK8" s="458" t="s">
+      <c r="AI8" s="470"/>
+      <c r="AJ8" s="471"/>
+      <c r="AK8" s="469" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="459"/>
-      <c r="AM8" s="460"/>
+      <c r="AL8" s="470"/>
+      <c r="AM8" s="471"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -31122,19 +31123,19 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="477" t="str">
+      <c r="J9" s="481" t="str">
         <f ca="1">AQ4</f>
         <v>ˇ</v>
       </c>
-      <c r="K9" s="478"/>
+      <c r="K9" s="482"/>
       <c r="L9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="479" t="str">
+      <c r="M9" s="483" t="str">
         <f ca="1">AR4</f>
         <v>ˋ</v>
       </c>
-      <c r="N9" s="480"/>
+      <c r="N9" s="484"/>
       <c r="O9" s="353" t="s">
         <v>890</v>
       </c>
@@ -31150,19 +31151,19 @@
         <f ca="1">R6</f>
         <v>zh</v>
       </c>
-      <c r="S9" s="479" t="str">
+      <c r="S9" s="483" t="str">
         <f ca="1">AP4</f>
         <v>ˊ</v>
       </c>
-      <c r="T9" s="480"/>
+      <c r="T9" s="484"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="469" t="str">
+      <c r="V9" s="474" t="str">
         <f ca="1">AS4</f>
         <v>˙</v>
       </c>
-      <c r="W9" s="468"/>
+      <c r="W9" s="473"/>
       <c r="X9" s="353" t="s">
         <v>891</v>
       </c>
@@ -31211,8 +31212,8 @@
         <f ca="1">AN6</f>
         <v>er</v>
       </c>
-      <c r="AK9" s="456"/>
-      <c r="AL9" s="457"/>
+      <c r="AK9" s="476"/>
+      <c r="AL9" s="477"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -31279,31 +31280,31 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="461" t="s">
+      <c r="E10" s="460" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="462"/>
-      <c r="G10" s="463"/>
-      <c r="H10" s="461" t="s">
+      <c r="F10" s="461"/>
+      <c r="G10" s="462"/>
+      <c r="H10" s="460" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="462"/>
-      <c r="J10" s="463"/>
+      <c r="I10" s="461"/>
+      <c r="J10" s="462"/>
       <c r="K10" s="324"/>
       <c r="L10" s="320" t="s">
         <v>746</v>
       </c>
       <c r="M10" s="323"/>
-      <c r="N10" s="461" t="s">
+      <c r="N10" s="460" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="462"/>
-      <c r="P10" s="463"/>
-      <c r="Q10" s="461" t="s">
+      <c r="O10" s="461"/>
+      <c r="P10" s="462"/>
+      <c r="Q10" s="460" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="462"/>
-      <c r="S10" s="463"/>
+      <c r="R10" s="461"/>
+      <c r="S10" s="462"/>
       <c r="T10" s="324"/>
       <c r="U10" s="320" t="s">
         <v>306</v>
@@ -31319,31 +31320,31 @@
         <v>615</v>
       </c>
       <c r="AB10" s="326"/>
-      <c r="AC10" s="464" t="s">
+      <c r="AC10" s="478" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="465"/>
-      <c r="AE10" s="466"/>
-      <c r="AF10" s="464" t="s">
+      <c r="AD10" s="479"/>
+      <c r="AE10" s="480"/>
+      <c r="AF10" s="478" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="465"/>
-      <c r="AH10" s="466"/>
-      <c r="AI10" s="464" t="s">
+      <c r="AG10" s="479"/>
+      <c r="AH10" s="480"/>
+      <c r="AI10" s="478" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="465"/>
-      <c r="AK10" s="466"/>
-      <c r="AL10" s="464" t="s">
+      <c r="AJ10" s="479"/>
+      <c r="AK10" s="480"/>
+      <c r="AL10" s="478" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="465"/>
-      <c r="AN10" s="466"/>
-      <c r="AO10" s="458" t="s">
+      <c r="AM10" s="479"/>
+      <c r="AN10" s="480"/>
+      <c r="AO10" s="469" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="459"/>
-      <c r="AQ10" s="460"/>
+      <c r="AP10" s="470"/>
+      <c r="AQ10" s="471"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="173" cm="1">
         <f t="array" ref="AV10" xml:space="preserve"> ROW() - ROW($8:$8)</f>
@@ -31521,14 +31522,14 @@
         <f ca="1">AK6</f>
         <v>enn</v>
       </c>
-      <c r="AI11" s="456"/>
-      <c r="AJ11" s="457"/>
+      <c r="AI11" s="476"/>
+      <c r="AJ11" s="477"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="456"/>
-      <c r="AM11" s="457"/>
+      <c r="AL11" s="476"/>
+      <c r="AM11" s="477"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="456"/>
-      <c r="AP11" s="457"/>
+      <c r="AO11" s="476"/>
+      <c r="AP11" s="477"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="173" cm="1">
@@ -31589,61 +31590,61 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="461" t="s">
+      <c r="F12" s="460" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="462"/>
-      <c r="H12" s="463"/>
-      <c r="I12" s="461" t="s">
+      <c r="G12" s="461"/>
+      <c r="H12" s="462"/>
+      <c r="I12" s="460" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="462"/>
-      <c r="K12" s="463"/>
-      <c r="L12" s="461" t="s">
+      <c r="J12" s="461"/>
+      <c r="K12" s="462"/>
+      <c r="L12" s="460" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="462"/>
-      <c r="N12" s="463"/>
-      <c r="O12" s="461" t="s">
+      <c r="M12" s="461"/>
+      <c r="N12" s="462"/>
+      <c r="O12" s="460" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="462"/>
-      <c r="Q12" s="463"/>
-      <c r="R12" s="461" t="s">
+      <c r="P12" s="461"/>
+      <c r="Q12" s="462"/>
+      <c r="R12" s="460" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="462"/>
-      <c r="T12" s="463"/>
-      <c r="U12" s="461" t="s">
+      <c r="S12" s="461"/>
+      <c r="T12" s="462"/>
+      <c r="U12" s="460" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="462"/>
-      <c r="W12" s="463"/>
+      <c r="V12" s="461"/>
+      <c r="W12" s="462"/>
       <c r="X12" s="325"/>
       <c r="Y12" s="321" t="s">
         <v>742</v>
       </c>
       <c r="Z12" s="326"/>
-      <c r="AA12" s="464" t="s">
+      <c r="AA12" s="478" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="465"/>
-      <c r="AC12" s="466"/>
+      <c r="AB12" s="479"/>
+      <c r="AC12" s="480"/>
       <c r="AD12" s="325"/>
       <c r="AE12" s="321" t="s">
         <v>724</v>
       </c>
       <c r="AF12" s="326"/>
-      <c r="AG12" s="464" t="s">
+      <c r="AG12" s="478" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="465"/>
-      <c r="AI12" s="466"/>
-      <c r="AJ12" s="458" t="s">
+      <c r="AH12" s="479"/>
+      <c r="AI12" s="480"/>
+      <c r="AJ12" s="469" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="459"/>
-      <c r="AL12" s="460"/>
+      <c r="AK12" s="470"/>
+      <c r="AL12" s="471"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -31830,8 +31831,8 @@
         <f ca="1">AL6</f>
         <v>ang</v>
       </c>
-      <c r="AJ13" s="456"/>
-      <c r="AK13" s="457"/>
+      <c r="AJ13" s="476"/>
+      <c r="AK13" s="477"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -31901,56 +31902,56 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="461" t="s">
+      <c r="G14" s="460" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="462"/>
-      <c r="I14" s="463"/>
-      <c r="J14" s="461" t="s">
+      <c r="H14" s="461"/>
+      <c r="I14" s="462"/>
+      <c r="J14" s="460" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="462"/>
-      <c r="L14" s="463"/>
-      <c r="M14" s="461" t="s">
+      <c r="K14" s="461"/>
+      <c r="L14" s="462"/>
+      <c r="M14" s="460" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="462"/>
-      <c r="O14" s="463"/>
-      <c r="P14" s="461" t="s">
+      <c r="N14" s="461"/>
+      <c r="O14" s="462"/>
+      <c r="P14" s="460" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="462"/>
-      <c r="R14" s="463"/>
-      <c r="S14" s="461" t="s">
+      <c r="Q14" s="461"/>
+      <c r="R14" s="462"/>
+      <c r="S14" s="460" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="462"/>
-      <c r="U14" s="463"/>
-      <c r="V14" s="461" t="s">
+      <c r="T14" s="461"/>
+      <c r="U14" s="462"/>
+      <c r="V14" s="460" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="462"/>
-      <c r="X14" s="463"/>
-      <c r="Y14" s="464" t="s">
+      <c r="W14" s="461"/>
+      <c r="X14" s="462"/>
+      <c r="Y14" s="478" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="465"/>
-      <c r="AA14" s="466"/>
+      <c r="Z14" s="479"/>
+      <c r="AA14" s="480"/>
       <c r="AB14" s="325"/>
       <c r="AC14" s="321" t="s">
         <v>758</v>
       </c>
       <c r="AD14" s="326"/>
-      <c r="AE14" s="464" t="s">
+      <c r="AE14" s="478" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="465"/>
-      <c r="AG14" s="466"/>
-      <c r="AH14" s="458" t="s">
+      <c r="AF14" s="479"/>
+      <c r="AG14" s="480"/>
+      <c r="AH14" s="469" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="459"/>
-      <c r="AJ14" s="460"/>
+      <c r="AI14" s="470"/>
+      <c r="AJ14" s="471"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -35942,16 +35943,24 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
     <mergeCell ref="AO10:AQ10"/>
     <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AL11:AM11"/>
@@ -35968,24 +35977,16 @@
     <mergeCell ref="AF10:AH10"/>
     <mergeCell ref="AI10:AK10"/>
     <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/鍵盤設計規格_河洛注音.xlsx
+++ b/docs/鍵盤設計規格_河洛注音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E46672F-AACD-4F8F-9ED7-326F6B9A7C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E807B90-691F-47CE-9218-C5C42BDF36E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
   </bookViews>
   <sheets>
     <sheet name="鍵盤圖" sheetId="6" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <definedName name="鍵盤位置" localSheetId="10">'RIME對映編碼 (原設計)'!$W$3:$W$47</definedName>
     <definedName name="鍵盤位置" localSheetId="4">'RIME對映編碼 (萌台語)'!$R$3:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1500,6 +1500,8 @@
         <sz val="28"/>
         <color theme="8"/>
         <rFont val="Noto Serif TC Bold"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1937,6 +1939,8 @@
         <sz val="28"/>
         <color theme="8"/>
         <rFont val="Noto Serif TC Bold"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2536,7 +2540,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ㄉㄊㄌㄍㄎ</t>
     </r>
@@ -2553,7 +2556,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ㄗㄘ</t>
     </r>
@@ -2570,7 +2572,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ㄙㄏㄧㄨㄚ</t>
     </r>
@@ -2587,7 +2588,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ㄜ</t>
     </r>
@@ -2604,7 +2604,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ㄞㄠ</t>
     </r>
@@ -2621,7 +2620,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ㄣ</t>
     </r>
@@ -3412,7 +3410,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>n</t>
     </r>
@@ -3442,7 +3439,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3464,7 +3460,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3486,7 +3481,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3531,7 +3525,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3656,7 +3649,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3723,7 +3715,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3745,7 +3736,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3767,7 +3757,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3789,7 +3778,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3811,7 +3799,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3841,7 +3828,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3863,7 +3849,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3885,7 +3870,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -4479,14 +4463,12 @@
     <font>
       <sz val="20"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -4543,7 +4525,6 @@
     <font>
       <sz val="18"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -4576,6 +4557,8 @@
       <sz val="28"/>
       <color theme="8"/>
       <name val="Noto Serif TC Bold"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -4636,6 +4619,8 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Noto Serif TC Bold"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <u/>
@@ -4779,7 +4764,6 @@
       <sz val="18"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -4984,7 +4968,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5038,7 +5021,6 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5050,7 +5032,6 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5063,7 +5044,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5076,7 +5056,6 @@
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5158,7 +5137,6 @@
       <sz val="12"/>
       <color theme="9"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5234,7 +5212,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5390,7 +5367,6 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5476,7 +5452,6 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -7423,70 +7398,22 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7507,22 +7434,28 @@
     <xf numFmtId="0" fontId="91" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7534,13 +7467,79 @@
     <xf numFmtId="0" fontId="97" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="95" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7550,6 +7549,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7570,42 +7590,6 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7618,19 +7602,43 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7639,19 +7647,10 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7678,32 +7677,8 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10403,61 +10378,61 @@
   <sheetData>
     <row r="1" spans="2:44" ht="15" thickBot="1"/>
     <row r="2" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="445">
+      <c r="C2" s="429">
         <v>1</v>
       </c>
-      <c r="D2" s="446"/>
-      <c r="E2" s="447"/>
-      <c r="F2" s="445">
+      <c r="D2" s="430"/>
+      <c r="E2" s="431"/>
+      <c r="F2" s="429">
         <v>2</v>
       </c>
-      <c r="G2" s="446"/>
-      <c r="H2" s="447"/>
-      <c r="I2" s="435">
+      <c r="G2" s="430"/>
+      <c r="H2" s="431"/>
+      <c r="I2" s="453">
         <v>3</v>
       </c>
-      <c r="J2" s="436"/>
-      <c r="K2" s="437"/>
-      <c r="L2" s="435">
+      <c r="J2" s="454"/>
+      <c r="K2" s="455"/>
+      <c r="L2" s="453">
         <v>4</v>
       </c>
-      <c r="M2" s="436"/>
-      <c r="N2" s="437"/>
-      <c r="O2" s="435">
+      <c r="M2" s="454"/>
+      <c r="N2" s="455"/>
+      <c r="O2" s="453">
         <v>5</v>
       </c>
-      <c r="P2" s="436"/>
-      <c r="Q2" s="437"/>
-      <c r="R2" s="435">
+      <c r="P2" s="454"/>
+      <c r="Q2" s="455"/>
+      <c r="R2" s="453">
         <v>6</v>
       </c>
-      <c r="S2" s="436"/>
-      <c r="T2" s="437"/>
-      <c r="U2" s="435">
+      <c r="S2" s="454"/>
+      <c r="T2" s="455"/>
+      <c r="U2" s="453">
         <v>7</v>
       </c>
-      <c r="V2" s="436"/>
-      <c r="W2" s="437"/>
-      <c r="X2" s="426">
+      <c r="V2" s="454"/>
+      <c r="W2" s="455"/>
+      <c r="X2" s="432">
         <v>8</v>
       </c>
-      <c r="Y2" s="421"/>
-      <c r="Z2" s="422"/>
-      <c r="AA2" s="426">
+      <c r="Y2" s="433"/>
+      <c r="Z2" s="434"/>
+      <c r="AA2" s="432">
         <v>9</v>
       </c>
-      <c r="AB2" s="421"/>
-      <c r="AC2" s="422"/>
-      <c r="AD2" s="426">
+      <c r="AB2" s="433"/>
+      <c r="AC2" s="434"/>
+      <c r="AD2" s="432">
         <v>0</v>
       </c>
-      <c r="AE2" s="421"/>
-      <c r="AF2" s="422"/>
-      <c r="AG2" s="420" t="s">
+      <c r="AE2" s="433"/>
+      <c r="AF2" s="434"/>
+      <c r="AG2" s="457" t="s">
         <v>451</v>
       </c>
-      <c r="AH2" s="421"/>
-      <c r="AI2" s="422"/>
+      <c r="AH2" s="433"/>
+      <c r="AI2" s="434"/>
       <c r="AJ2" s="142"/>
       <c r="AK2" s="142"/>
       <c r="AL2" s="142"/>
@@ -10466,56 +10441,56 @@
       </c>
     </row>
     <row r="3" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="C3" s="442" t="str">
+      <c r="C3" s="426" t="str">
         <f>D14</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="443"/>
-      <c r="E3" s="444"/>
-      <c r="F3" s="442" t="str">
+      <c r="D3" s="427"/>
+      <c r="E3" s="428"/>
+      <c r="F3" s="426" t="str">
         <f>H14</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="443"/>
-      <c r="H3" s="444"/>
-      <c r="I3" s="439" t="s">
+      <c r="G3" s="427"/>
+      <c r="H3" s="428"/>
+      <c r="I3" s="450" t="s">
         <v>449</v>
       </c>
-      <c r="J3" s="440"/>
-      <c r="K3" s="441"/>
-      <c r="L3" s="439" t="s">
+      <c r="J3" s="451"/>
+      <c r="K3" s="452"/>
+      <c r="L3" s="450" t="s">
         <v>448</v>
       </c>
-      <c r="M3" s="440"/>
-      <c r="N3" s="441"/>
-      <c r="O3" s="439"/>
-      <c r="P3" s="440"/>
-      <c r="Q3" s="441"/>
-      <c r="R3" s="448" t="s">
+      <c r="M3" s="451"/>
+      <c r="N3" s="452"/>
+      <c r="O3" s="450"/>
+      <c r="P3" s="451"/>
+      <c r="Q3" s="452"/>
+      <c r="R3" s="447" t="s">
         <v>447</v>
       </c>
-      <c r="S3" s="449"/>
-      <c r="T3" s="450"/>
-      <c r="U3" s="439" t="s">
+      <c r="S3" s="448"/>
+      <c r="T3" s="449"/>
+      <c r="U3" s="450" t="s">
         <v>446</v>
       </c>
-      <c r="V3" s="440"/>
-      <c r="W3" s="441"/>
-      <c r="X3" s="427" t="str">
+      <c r="V3" s="451"/>
+      <c r="W3" s="452"/>
+      <c r="X3" s="443" t="str">
         <f>D20</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="428"/>
-      <c r="Z3" s="429"/>
-      <c r="AA3" s="427"/>
-      <c r="AB3" s="428"/>
-      <c r="AC3" s="429"/>
-      <c r="AD3" s="427"/>
-      <c r="AE3" s="428"/>
-      <c r="AF3" s="429"/>
-      <c r="AG3" s="423"/>
-      <c r="AH3" s="424"/>
-      <c r="AI3" s="425"/>
+      <c r="Y3" s="444"/>
+      <c r="Z3" s="445"/>
+      <c r="AA3" s="443"/>
+      <c r="AB3" s="444"/>
+      <c r="AC3" s="445"/>
+      <c r="AD3" s="443"/>
+      <c r="AE3" s="444"/>
+      <c r="AF3" s="445"/>
+      <c r="AG3" s="458"/>
+      <c r="AH3" s="459"/>
+      <c r="AI3" s="460"/>
       <c r="AQ3" s="156" t="s">
         <v>445</v>
       </c>
@@ -10524,115 +10499,115 @@
       </c>
     </row>
     <row r="4" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="445" t="s">
+      <c r="D4" s="429" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="446"/>
-      <c r="F4" s="447"/>
-      <c r="G4" s="445" t="s">
+      <c r="E4" s="430"/>
+      <c r="F4" s="431"/>
+      <c r="G4" s="429" t="s">
         <v>379</v>
       </c>
-      <c r="H4" s="446"/>
-      <c r="I4" s="447"/>
-      <c r="J4" s="445" t="s">
+      <c r="H4" s="430"/>
+      <c r="I4" s="431"/>
+      <c r="J4" s="429" t="s">
         <v>443</v>
       </c>
-      <c r="K4" s="446"/>
-      <c r="L4" s="447"/>
-      <c r="M4" s="445" t="s">
+      <c r="K4" s="430"/>
+      <c r="L4" s="431"/>
+      <c r="M4" s="429" t="s">
         <v>442</v>
       </c>
-      <c r="N4" s="446"/>
-      <c r="O4" s="447"/>
-      <c r="P4" s="445" t="s">
+      <c r="N4" s="430"/>
+      <c r="O4" s="431"/>
+      <c r="P4" s="429" t="s">
         <v>441</v>
       </c>
-      <c r="Q4" s="446"/>
-      <c r="R4" s="447"/>
-      <c r="S4" s="445" t="s">
+      <c r="Q4" s="430"/>
+      <c r="R4" s="431"/>
+      <c r="S4" s="429" t="s">
         <v>440</v>
       </c>
-      <c r="T4" s="446"/>
-      <c r="U4" s="447"/>
-      <c r="V4" s="426" t="s">
+      <c r="T4" s="430"/>
+      <c r="U4" s="431"/>
+      <c r="V4" s="432" t="s">
         <v>439</v>
       </c>
-      <c r="W4" s="421"/>
-      <c r="X4" s="422"/>
-      <c r="Y4" s="426" t="s">
+      <c r="W4" s="433"/>
+      <c r="X4" s="434"/>
+      <c r="Y4" s="432" t="s">
         <v>438</v>
       </c>
-      <c r="Z4" s="421"/>
-      <c r="AA4" s="422"/>
-      <c r="AB4" s="426" t="s">
+      <c r="Z4" s="433"/>
+      <c r="AA4" s="434"/>
+      <c r="AB4" s="432" t="s">
         <v>435</v>
       </c>
-      <c r="AC4" s="421"/>
-      <c r="AD4" s="422"/>
-      <c r="AE4" s="426" t="s">
+      <c r="AC4" s="433"/>
+      <c r="AD4" s="434"/>
+      <c r="AE4" s="432" t="s">
         <v>437</v>
       </c>
-      <c r="AF4" s="421"/>
-      <c r="AG4" s="422"/>
+      <c r="AF4" s="433"/>
+      <c r="AG4" s="434"/>
       <c r="AJ4" s="142"/>
       <c r="AK4" s="142"/>
       <c r="AL4" s="142"/>
     </row>
     <row r="5" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="D5" s="442" t="str">
+      <c r="D5" s="426" t="str">
         <f>E14</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="443"/>
-      <c r="F5" s="444"/>
-      <c r="G5" s="442" t="str">
+      <c r="E5" s="427"/>
+      <c r="F5" s="428"/>
+      <c r="G5" s="426" t="str">
         <f>I14</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="443"/>
-      <c r="I5" s="444"/>
-      <c r="J5" s="442" t="str">
+      <c r="H5" s="427"/>
+      <c r="I5" s="428"/>
+      <c r="J5" s="426" t="str">
         <f>L14</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="443"/>
-      <c r="L5" s="444"/>
-      <c r="M5" s="442"/>
-      <c r="N5" s="443"/>
-      <c r="O5" s="444"/>
-      <c r="P5" s="451" t="str">
+      <c r="K5" s="427"/>
+      <c r="L5" s="428"/>
+      <c r="M5" s="426"/>
+      <c r="N5" s="427"/>
+      <c r="O5" s="428"/>
+      <c r="P5" s="423" t="str">
         <f>F14</f>
         <v>ㆠ</v>
       </c>
-      <c r="Q5" s="452"/>
-      <c r="R5" s="453"/>
-      <c r="S5" s="442" t="str">
+      <c r="Q5" s="424"/>
+      <c r="R5" s="425"/>
+      <c r="S5" s="426" t="str">
         <f>Q14</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="443"/>
-      <c r="U5" s="444"/>
-      <c r="V5" s="427" t="str">
+      <c r="T5" s="427"/>
+      <c r="U5" s="428"/>
+      <c r="V5" s="443" t="str">
         <f>F20</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="428"/>
-      <c r="X5" s="429"/>
-      <c r="Y5" s="427" t="str">
+      <c r="W5" s="444"/>
+      <c r="X5" s="445"/>
+      <c r="Y5" s="443" t="str">
         <f>L20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="428"/>
-      <c r="AA5" s="429"/>
-      <c r="AB5" s="427"/>
-      <c r="AC5" s="428"/>
-      <c r="AD5" s="429"/>
-      <c r="AE5" s="432" t="str">
+      <c r="Z5" s="444"/>
+      <c r="AA5" s="445"/>
+      <c r="AB5" s="443"/>
+      <c r="AC5" s="444"/>
+      <c r="AD5" s="445"/>
+      <c r="AE5" s="435" t="str">
         <f>P20</f>
         <v>ㄣ</v>
       </c>
-      <c r="AF5" s="433"/>
-      <c r="AG5" s="434"/>
+      <c r="AF5" s="436"/>
+      <c r="AG5" s="437"/>
       <c r="AQ5" s="156" t="s">
         <v>436</v>
       </c>
@@ -10642,109 +10617,109 @@
     </row>
     <row r="6" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="157"/>
-      <c r="E6" s="445" t="s">
+      <c r="E6" s="429" t="s">
         <v>434</v>
       </c>
-      <c r="F6" s="446"/>
-      <c r="G6" s="447"/>
-      <c r="H6" s="445" t="s">
+      <c r="F6" s="430"/>
+      <c r="G6" s="431"/>
+      <c r="H6" s="429" t="s">
         <v>433</v>
       </c>
-      <c r="I6" s="446"/>
-      <c r="J6" s="447"/>
-      <c r="K6" s="445" t="s">
+      <c r="I6" s="430"/>
+      <c r="J6" s="431"/>
+      <c r="K6" s="429" t="s">
         <v>432</v>
       </c>
-      <c r="L6" s="446"/>
-      <c r="M6" s="447"/>
-      <c r="N6" s="445" t="s">
+      <c r="L6" s="430"/>
+      <c r="M6" s="431"/>
+      <c r="N6" s="429" t="s">
         <v>431</v>
       </c>
-      <c r="O6" s="446"/>
-      <c r="P6" s="447"/>
-      <c r="Q6" s="445" t="s">
+      <c r="O6" s="430"/>
+      <c r="P6" s="431"/>
+      <c r="Q6" s="429" t="s">
         <v>430</v>
       </c>
-      <c r="R6" s="446"/>
-      <c r="S6" s="447"/>
-      <c r="T6" s="445" t="s">
+      <c r="R6" s="430"/>
+      <c r="S6" s="431"/>
+      <c r="T6" s="429" t="s">
         <v>429</v>
       </c>
-      <c r="U6" s="446"/>
-      <c r="V6" s="447"/>
-      <c r="W6" s="426" t="s">
+      <c r="U6" s="430"/>
+      <c r="V6" s="431"/>
+      <c r="W6" s="432" t="s">
         <v>428</v>
       </c>
-      <c r="X6" s="421"/>
-      <c r="Y6" s="422"/>
-      <c r="Z6" s="426" t="s">
+      <c r="X6" s="433"/>
+      <c r="Y6" s="434"/>
+      <c r="Z6" s="432" t="s">
         <v>427</v>
       </c>
-      <c r="AA6" s="421"/>
-      <c r="AB6" s="422"/>
-      <c r="AC6" s="426" t="s">
+      <c r="AA6" s="433"/>
+      <c r="AB6" s="434"/>
+      <c r="AC6" s="432" t="s">
         <v>426</v>
       </c>
-      <c r="AD6" s="421"/>
-      <c r="AE6" s="422"/>
-      <c r="AF6" s="426" t="s">
+      <c r="AD6" s="433"/>
+      <c r="AE6" s="434"/>
+      <c r="AF6" s="432" t="s">
         <v>425</v>
       </c>
-      <c r="AG6" s="421"/>
-      <c r="AH6" s="422"/>
+      <c r="AG6" s="433"/>
+      <c r="AH6" s="434"/>
     </row>
     <row r="7" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="454" t="str">
+      <c r="E7" s="440" t="str">
         <f>G14</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="455"/>
-      <c r="G7" s="456"/>
-      <c r="H7" s="442" t="str">
+      <c r="F7" s="441"/>
+      <c r="G7" s="442"/>
+      <c r="H7" s="426" t="str">
         <f>J14</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="443"/>
-      <c r="J7" s="444"/>
-      <c r="K7" s="442" t="str">
+      <c r="I7" s="427"/>
+      <c r="J7" s="428"/>
+      <c r="K7" s="426" t="str">
         <f>M14</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="443"/>
-      <c r="M7" s="444"/>
-      <c r="N7" s="442"/>
-      <c r="O7" s="443"/>
-      <c r="P7" s="444"/>
-      <c r="Q7" s="457" t="str">
+      <c r="L7" s="427"/>
+      <c r="M7" s="428"/>
+      <c r="N7" s="426"/>
+      <c r="O7" s="427"/>
+      <c r="P7" s="428"/>
+      <c r="Q7" s="446" t="str">
         <f>N14</f>
         <v>ㆣ</v>
       </c>
-      <c r="R7" s="452"/>
-      <c r="S7" s="453"/>
-      <c r="T7" s="442" t="str">
+      <c r="R7" s="424"/>
+      <c r="S7" s="425"/>
+      <c r="T7" s="426" t="str">
         <f>R14</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="443"/>
-      <c r="V7" s="444"/>
-      <c r="W7" s="427" t="str">
+      <c r="U7" s="427"/>
+      <c r="V7" s="428"/>
+      <c r="W7" s="443" t="str">
         <f>H20</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="428"/>
-      <c r="Y7" s="429"/>
-      <c r="Z7" s="427" t="str">
+      <c r="X7" s="444"/>
+      <c r="Y7" s="445"/>
+      <c r="Z7" s="443" t="str">
         <f>N20</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="428"/>
-      <c r="AB7" s="429"/>
-      <c r="AC7" s="427"/>
-      <c r="AD7" s="428"/>
-      <c r="AE7" s="429"/>
-      <c r="AF7" s="431"/>
-      <c r="AG7" s="428"/>
-      <c r="AH7" s="429"/>
+      <c r="AA7" s="444"/>
+      <c r="AB7" s="445"/>
+      <c r="AC7" s="443"/>
+      <c r="AD7" s="444"/>
+      <c r="AE7" s="445"/>
+      <c r="AF7" s="462"/>
+      <c r="AG7" s="444"/>
+      <c r="AH7" s="445"/>
       <c r="AQ7" s="156" t="s">
         <v>424</v>
       </c>
@@ -10753,112 +10728,112 @@
       </c>
     </row>
     <row r="8" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="445" t="s">
+      <c r="F8" s="429" t="s">
         <v>422</v>
       </c>
-      <c r="G8" s="446"/>
-      <c r="H8" s="447"/>
-      <c r="I8" s="445" t="s">
+      <c r="G8" s="430"/>
+      <c r="H8" s="431"/>
+      <c r="I8" s="429" t="s">
         <v>421</v>
       </c>
-      <c r="J8" s="446"/>
-      <c r="K8" s="447"/>
-      <c r="L8" s="445" t="s">
+      <c r="J8" s="430"/>
+      <c r="K8" s="431"/>
+      <c r="L8" s="429" t="s">
         <v>420</v>
       </c>
-      <c r="M8" s="446"/>
-      <c r="N8" s="447"/>
-      <c r="O8" s="445" t="s">
+      <c r="M8" s="430"/>
+      <c r="N8" s="431"/>
+      <c r="O8" s="429" t="s">
         <v>419</v>
       </c>
-      <c r="P8" s="446"/>
-      <c r="Q8" s="447"/>
-      <c r="R8" s="445" t="s">
+      <c r="P8" s="430"/>
+      <c r="Q8" s="431"/>
+      <c r="R8" s="429" t="s">
         <v>418</v>
       </c>
-      <c r="S8" s="446"/>
-      <c r="T8" s="447"/>
-      <c r="U8" s="445" t="s">
+      <c r="S8" s="430"/>
+      <c r="T8" s="431"/>
+      <c r="U8" s="429" t="s">
         <v>377</v>
       </c>
-      <c r="V8" s="446"/>
-      <c r="W8" s="447"/>
-      <c r="X8" s="426" t="s">
+      <c r="V8" s="430"/>
+      <c r="W8" s="431"/>
+      <c r="X8" s="432" t="s">
         <v>417</v>
       </c>
-      <c r="Y8" s="421"/>
-      <c r="Z8" s="422"/>
-      <c r="AA8" s="426" t="s">
+      <c r="Y8" s="433"/>
+      <c r="Z8" s="434"/>
+      <c r="AA8" s="432" t="s">
         <v>416</v>
       </c>
-      <c r="AB8" s="421"/>
-      <c r="AC8" s="422"/>
-      <c r="AD8" s="426" t="s">
+      <c r="AB8" s="433"/>
+      <c r="AC8" s="434"/>
+      <c r="AD8" s="432" t="s">
         <v>415</v>
       </c>
-      <c r="AE8" s="421"/>
-      <c r="AF8" s="422"/>
-      <c r="AG8" s="430" t="s">
+      <c r="AE8" s="433"/>
+      <c r="AF8" s="434"/>
+      <c r="AG8" s="461" t="s">
         <v>414</v>
       </c>
-      <c r="AH8" s="421"/>
-      <c r="AI8" s="422"/>
+      <c r="AH8" s="433"/>
+      <c r="AI8" s="434"/>
     </row>
     <row r="9" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="F9" s="442"/>
-      <c r="G9" s="458"/>
-      <c r="H9" s="459"/>
-      <c r="I9" s="442" t="str">
+      <c r="F9" s="426"/>
+      <c r="G9" s="438"/>
+      <c r="H9" s="439"/>
+      <c r="I9" s="426" t="str">
         <f>K14</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="443"/>
-      <c r="K9" s="444"/>
-      <c r="L9" s="442" t="str">
+      <c r="J9" s="427"/>
+      <c r="K9" s="428"/>
+      <c r="L9" s="426" t="str">
         <f>P14</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="443"/>
-      <c r="N9" s="444"/>
-      <c r="O9" s="454" t="str">
+      <c r="M9" s="427"/>
+      <c r="N9" s="428"/>
+      <c r="O9" s="440" t="str">
         <f>O14</f>
         <v>ㄫ</v>
       </c>
-      <c r="P9" s="455"/>
-      <c r="Q9" s="456"/>
-      <c r="R9" s="451" t="str">
+      <c r="P9" s="441"/>
+      <c r="Q9" s="442"/>
+      <c r="R9" s="423" t="str">
         <f>S14</f>
         <v>ㆡ</v>
       </c>
-      <c r="S9" s="452"/>
-      <c r="T9" s="453"/>
-      <c r="U9" s="442" t="str">
+      <c r="S9" s="424"/>
+      <c r="T9" s="425"/>
+      <c r="U9" s="426" t="str">
         <f>T14</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="443"/>
-      <c r="W9" s="444"/>
-      <c r="X9" s="432" t="str">
+      <c r="V9" s="427"/>
+      <c r="W9" s="428"/>
+      <c r="X9" s="435" t="str">
         <f>O20</f>
         <v>ㆬ</v>
       </c>
-      <c r="Y9" s="433"/>
-      <c r="Z9" s="434"/>
-      <c r="AA9" s="427" t="str">
+      <c r="Y9" s="436"/>
+      <c r="Z9" s="437"/>
+      <c r="AA9" s="443" t="str">
         <f>J20</f>
         <v>ㄝ</v>
       </c>
-      <c r="AB9" s="428"/>
-      <c r="AC9" s="429"/>
-      <c r="AD9" s="438" t="str">
+      <c r="AB9" s="444"/>
+      <c r="AC9" s="445"/>
+      <c r="AD9" s="456" t="str">
         <f>Q20</f>
         <v>ㄥ</v>
       </c>
-      <c r="AE9" s="433"/>
-      <c r="AF9" s="434"/>
-      <c r="AG9" s="427"/>
-      <c r="AH9" s="428"/>
-      <c r="AI9" s="429"/>
+      <c r="AE9" s="436"/>
+      <c r="AF9" s="437"/>
+      <c r="AG9" s="443"/>
+      <c r="AH9" s="444"/>
+      <c r="AI9" s="445"/>
     </row>
     <row r="12" spans="2:44">
       <c r="Z12" s="155"/>
@@ -11309,20 +11284,58 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
     <mergeCell ref="T7:V7"/>
     <mergeCell ref="W7:Y7"/>
     <mergeCell ref="T6:V6"/>
@@ -11339,58 +11352,20 @@
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18095,13 +18070,13 @@
       <c r="AN1" s="77"/>
       <c r="AO1" s="77"/>
       <c r="AP1" s="77"/>
-      <c r="AQ1" s="486"/>
-      <c r="AR1" s="486"/>
+      <c r="AQ1" s="491"/>
+      <c r="AR1" s="491"/>
       <c r="AS1" s="77"/>
       <c r="AT1" s="77"/>
       <c r="AU1" s="77"/>
     </row>
-    <row r="2" spans="1:47" s="76" customFormat="1" ht="34.5">
+    <row r="2" spans="1:47" s="76" customFormat="1" ht="38.25">
       <c r="B2" s="82" t="s">
         <v>319</v>
       </c>
@@ -19413,69 +19388,69 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C11" s="487" t="str">
+      <c r="C11" s="489" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D11" s="487"/>
-      <c r="E11" s="487"/>
-      <c r="F11" s="487"/>
-      <c r="G11" s="487"/>
-      <c r="H11" s="487"/>
-      <c r="I11" s="487"/>
-      <c r="J11" s="487"/>
-      <c r="K11" s="487"/>
-      <c r="L11" s="487"/>
-      <c r="M11" s="487"/>
-      <c r="N11" s="487"/>
-      <c r="O11" s="487"/>
-      <c r="P11" s="487"/>
-      <c r="Q11" s="487"/>
-      <c r="R11" s="487"/>
-      <c r="S11" s="487"/>
-      <c r="T11" s="487"/>
-      <c r="U11" s="487"/>
-      <c r="V11" s="487"/>
-      <c r="W11" s="487"/>
-      <c r="X11" s="487"/>
-      <c r="Y11" s="487"/>
-      <c r="Z11" s="487"/>
+      <c r="D11" s="489"/>
+      <c r="E11" s="489"/>
+      <c r="F11" s="489"/>
+      <c r="G11" s="489"/>
+      <c r="H11" s="489"/>
+      <c r="I11" s="489"/>
+      <c r="J11" s="489"/>
+      <c r="K11" s="489"/>
+      <c r="L11" s="489"/>
+      <c r="M11" s="489"/>
+      <c r="N11" s="489"/>
+      <c r="O11" s="489"/>
+      <c r="P11" s="489"/>
+      <c r="Q11" s="489"/>
+      <c r="R11" s="489"/>
+      <c r="S11" s="489"/>
+      <c r="T11" s="489"/>
+      <c r="U11" s="489"/>
+      <c r="V11" s="489"/>
+      <c r="W11" s="489"/>
+      <c r="X11" s="489"/>
+      <c r="Y11" s="489"/>
+      <c r="Z11" s="489"/>
     </row>
     <row r="12" spans="1:47" s="76" customFormat="1" ht="23.25">
       <c r="B12" s="85" t="str">
         <f>B8</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C12" s="485" t="str">
+      <c r="C12" s="490" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D12" s="485"/>
-      <c r="E12" s="485"/>
-      <c r="F12" s="485"/>
-      <c r="G12" s="485"/>
-      <c r="H12" s="485"/>
-      <c r="I12" s="485"/>
-      <c r="J12" s="485"/>
-      <c r="K12" s="485"/>
-      <c r="L12" s="485"/>
-      <c r="M12" s="485"/>
-      <c r="N12" s="485"/>
-      <c r="O12" s="485"/>
-      <c r="P12" s="485"/>
-      <c r="Q12" s="485"/>
-      <c r="R12" s="485"/>
-      <c r="S12" s="485"/>
-      <c r="T12" s="485"/>
-      <c r="U12" s="485"/>
-      <c r="V12" s="485"/>
-      <c r="W12" s="485"/>
-      <c r="X12" s="485"/>
-      <c r="Y12" s="485"/>
-      <c r="Z12" s="485"/>
+      <c r="D12" s="490"/>
+      <c r="E12" s="490"/>
+      <c r="F12" s="490"/>
+      <c r="G12" s="490"/>
+      <c r="H12" s="490"/>
+      <c r="I12" s="490"/>
+      <c r="J12" s="490"/>
+      <c r="K12" s="490"/>
+      <c r="L12" s="490"/>
+      <c r="M12" s="490"/>
+      <c r="N12" s="490"/>
+      <c r="O12" s="490"/>
+      <c r="P12" s="490"/>
+      <c r="Q12" s="490"/>
+      <c r="R12" s="490"/>
+      <c r="S12" s="490"/>
+      <c r="T12" s="490"/>
+      <c r="U12" s="490"/>
+      <c r="V12" s="490"/>
+      <c r="W12" s="490"/>
+      <c r="X12" s="490"/>
+      <c r="Y12" s="490"/>
+      <c r="Z12" s="490"/>
     </row>
     <row r="13" spans="1:47" s="76" customFormat="1" ht="23.25"/>
-    <row r="14" spans="1:47" s="76" customFormat="1" ht="34.5">
+    <row r="14" spans="1:47" s="76" customFormat="1" ht="38.25">
       <c r="B14" s="82" t="s">
         <v>315</v>
       </c>
@@ -19511,7 +19486,7 @@
       <c r="Z15" s="488"/>
     </row>
     <row r="16" spans="1:47" s="76" customFormat="1" ht="23.25"/>
-    <row r="17" spans="2:26" s="76" customFormat="1" ht="34.5">
+    <row r="17" spans="2:26" s="76" customFormat="1" ht="38.25">
       <c r="B17" s="82" t="s">
         <v>317</v>
       </c>
@@ -19522,69 +19497,69 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C19" s="487" t="str">
+      <c r="C19" s="489" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D19" s="487"/>
-      <c r="E19" s="487"/>
-      <c r="F19" s="487"/>
-      <c r="G19" s="487"/>
-      <c r="H19" s="487"/>
-      <c r="I19" s="487"/>
-      <c r="J19" s="487"/>
-      <c r="K19" s="487"/>
-      <c r="L19" s="487"/>
-      <c r="M19" s="487"/>
-      <c r="N19" s="487"/>
-      <c r="O19" s="487"/>
-      <c r="P19" s="487"/>
-      <c r="Q19" s="487"/>
-      <c r="R19" s="487"/>
-      <c r="S19" s="487"/>
-      <c r="T19" s="487"/>
-      <c r="U19" s="487"/>
-      <c r="V19" s="487"/>
-      <c r="W19" s="487"/>
-      <c r="X19" s="487"/>
-      <c r="Y19" s="487"/>
-      <c r="Z19" s="487"/>
+      <c r="D19" s="489"/>
+      <c r="E19" s="489"/>
+      <c r="F19" s="489"/>
+      <c r="G19" s="489"/>
+      <c r="H19" s="489"/>
+      <c r="I19" s="489"/>
+      <c r="J19" s="489"/>
+      <c r="K19" s="489"/>
+      <c r="L19" s="489"/>
+      <c r="M19" s="489"/>
+      <c r="N19" s="489"/>
+      <c r="O19" s="489"/>
+      <c r="P19" s="489"/>
+      <c r="Q19" s="489"/>
+      <c r="R19" s="489"/>
+      <c r="S19" s="489"/>
+      <c r="T19" s="489"/>
+      <c r="U19" s="489"/>
+      <c r="V19" s="489"/>
+      <c r="W19" s="489"/>
+      <c r="X19" s="489"/>
+      <c r="Y19" s="489"/>
+      <c r="Z19" s="489"/>
     </row>
     <row r="20" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B20" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C20" s="485" t="str">
+      <c r="C20" s="490" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D20" s="485"/>
-      <c r="E20" s="485"/>
-      <c r="F20" s="485"/>
-      <c r="G20" s="485"/>
-      <c r="H20" s="485"/>
-      <c r="I20" s="485"/>
-      <c r="J20" s="485"/>
-      <c r="K20" s="485"/>
-      <c r="L20" s="485"/>
-      <c r="M20" s="485"/>
-      <c r="N20" s="485"/>
-      <c r="O20" s="485"/>
-      <c r="P20" s="485"/>
-      <c r="Q20" s="485"/>
-      <c r="R20" s="485"/>
-      <c r="S20" s="485"/>
-      <c r="T20" s="485"/>
-      <c r="U20" s="485"/>
-      <c r="V20" s="485"/>
-      <c r="W20" s="485"/>
-      <c r="X20" s="485"/>
-      <c r="Y20" s="485"/>
-      <c r="Z20" s="485"/>
+      <c r="D20" s="490"/>
+      <c r="E20" s="490"/>
+      <c r="F20" s="490"/>
+      <c r="G20" s="490"/>
+      <c r="H20" s="490"/>
+      <c r="I20" s="490"/>
+      <c r="J20" s="490"/>
+      <c r="K20" s="490"/>
+      <c r="L20" s="490"/>
+      <c r="M20" s="490"/>
+      <c r="N20" s="490"/>
+      <c r="O20" s="490"/>
+      <c r="P20" s="490"/>
+      <c r="Q20" s="490"/>
+      <c r="R20" s="490"/>
+      <c r="S20" s="490"/>
+      <c r="T20" s="490"/>
+      <c r="U20" s="490"/>
+      <c r="V20" s="490"/>
+      <c r="W20" s="490"/>
+      <c r="X20" s="490"/>
+      <c r="Y20" s="490"/>
+      <c r="Z20" s="490"/>
     </row>
     <row r="21" spans="2:26" s="76" customFormat="1" ht="23.25"/>
-    <row r="22" spans="2:26" s="76" customFormat="1" ht="34.5">
+    <row r="22" spans="2:26" s="76" customFormat="1" ht="38.25">
       <c r="B22" s="82" t="s">
         <v>315</v>
       </c>
@@ -19620,7 +19595,7 @@
       <c r="Z23" s="488"/>
     </row>
     <row r="24" spans="2:26" s="76" customFormat="1" ht="23.25"/>
-    <row r="25" spans="2:26" s="76" customFormat="1" ht="34.5">
+    <row r="25" spans="2:26" s="76" customFormat="1" ht="38.25">
       <c r="B25" s="82" t="s">
         <v>316</v>
       </c>
@@ -19631,69 +19606,69 @@
         <f>B12</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C27" s="487" t="str">
+      <c r="C27" s="489" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D27" s="487"/>
-      <c r="E27" s="487"/>
-      <c r="F27" s="487"/>
-      <c r="G27" s="487"/>
-      <c r="H27" s="487"/>
-      <c r="I27" s="487"/>
-      <c r="J27" s="487"/>
-      <c r="K27" s="487"/>
-      <c r="L27" s="487"/>
-      <c r="M27" s="487"/>
-      <c r="N27" s="487"/>
-      <c r="O27" s="487"/>
-      <c r="P27" s="487"/>
-      <c r="Q27" s="487"/>
-      <c r="R27" s="487"/>
-      <c r="S27" s="487"/>
-      <c r="T27" s="487"/>
-      <c r="U27" s="487"/>
-      <c r="V27" s="487"/>
-      <c r="W27" s="487"/>
-      <c r="X27" s="487"/>
-      <c r="Y27" s="487"/>
-      <c r="Z27" s="487"/>
+      <c r="D27" s="489"/>
+      <c r="E27" s="489"/>
+      <c r="F27" s="489"/>
+      <c r="G27" s="489"/>
+      <c r="H27" s="489"/>
+      <c r="I27" s="489"/>
+      <c r="J27" s="489"/>
+      <c r="K27" s="489"/>
+      <c r="L27" s="489"/>
+      <c r="M27" s="489"/>
+      <c r="N27" s="489"/>
+      <c r="O27" s="489"/>
+      <c r="P27" s="489"/>
+      <c r="Q27" s="489"/>
+      <c r="R27" s="489"/>
+      <c r="S27" s="489"/>
+      <c r="T27" s="489"/>
+      <c r="U27" s="489"/>
+      <c r="V27" s="489"/>
+      <c r="W27" s="489"/>
+      <c r="X27" s="489"/>
+      <c r="Y27" s="489"/>
+      <c r="Z27" s="489"/>
     </row>
     <row r="28" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B28" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C28" s="485" t="str">
+      <c r="C28" s="490" t="str">
         <f>_xlfn.CONCAT(C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D28" s="485"/>
-      <c r="E28" s="485"/>
-      <c r="F28" s="485"/>
-      <c r="G28" s="485"/>
-      <c r="H28" s="485"/>
-      <c r="I28" s="485"/>
-      <c r="J28" s="485"/>
-      <c r="K28" s="485"/>
-      <c r="L28" s="485"/>
-      <c r="M28" s="485"/>
-      <c r="N28" s="485"/>
-      <c r="O28" s="485"/>
-      <c r="P28" s="485"/>
-      <c r="Q28" s="485"/>
-      <c r="R28" s="485"/>
-      <c r="S28" s="485"/>
-      <c r="T28" s="485"/>
-      <c r="U28" s="485"/>
-      <c r="V28" s="485"/>
-      <c r="W28" s="485"/>
-      <c r="X28" s="485"/>
-      <c r="Y28" s="485"/>
-      <c r="Z28" s="485"/>
+      <c r="D28" s="490"/>
+      <c r="E28" s="490"/>
+      <c r="F28" s="490"/>
+      <c r="G28" s="490"/>
+      <c r="H28" s="490"/>
+      <c r="I28" s="490"/>
+      <c r="J28" s="490"/>
+      <c r="K28" s="490"/>
+      <c r="L28" s="490"/>
+      <c r="M28" s="490"/>
+      <c r="N28" s="490"/>
+      <c r="O28" s="490"/>
+      <c r="P28" s="490"/>
+      <c r="Q28" s="490"/>
+      <c r="R28" s="490"/>
+      <c r="S28" s="490"/>
+      <c r="T28" s="490"/>
+      <c r="U28" s="490"/>
+      <c r="V28" s="490"/>
+      <c r="W28" s="490"/>
+      <c r="X28" s="490"/>
+      <c r="Y28" s="490"/>
+      <c r="Z28" s="490"/>
     </row>
     <row r="29" spans="2:26" s="76" customFormat="1" ht="23.25"/>
-    <row r="30" spans="2:26" s="76" customFormat="1" ht="34.5">
+    <row r="30" spans="2:26" s="76" customFormat="1" ht="38.25">
       <c r="B30" s="82" t="s">
         <v>315</v>
       </c>
@@ -20017,8 +19992,8 @@
       <c r="AN38" s="77"/>
       <c r="AO38" s="77"/>
       <c r="AP38" s="77"/>
-      <c r="AQ38" s="486"/>
-      <c r="AR38" s="486"/>
+      <c r="AQ38" s="491"/>
+      <c r="AR38" s="491"/>
       <c r="AS38" s="77"/>
       <c r="AT38" s="77"/>
       <c r="AU38" s="77"/>
@@ -20026,17 +20001,17 @@
     <row r="39" spans="1:47" s="76" customFormat="1" ht="23.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B23:Z23"/>
-    <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="AQ38:AR38"/>
     <mergeCell ref="C20:Z20"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="C12:Z12"/>
     <mergeCell ref="B15:Z15"/>
     <mergeCell ref="C19:Z19"/>
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="AQ38:AR38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20072,161 +20047,161 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="489" t="s">
+      <c r="B2" s="513" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="489" t="s">
+      <c r="C2" s="513"/>
+      <c r="D2" s="513"/>
+      <c r="E2" s="513" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="489"/>
-      <c r="G2" s="489" t="s">
+      <c r="F2" s="513"/>
+      <c r="G2" s="513" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="489"/>
-      <c r="I2" s="489" t="s">
+      <c r="H2" s="513"/>
+      <c r="I2" s="513" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="489"/>
-      <c r="K2" s="489" t="s">
+      <c r="J2" s="513"/>
+      <c r="K2" s="513" t="s">
         <v>207</v>
       </c>
-      <c r="L2" s="489"/>
-      <c r="M2" s="489"/>
-      <c r="N2" s="489"/>
-      <c r="O2" s="489" t="s">
+      <c r="L2" s="513"/>
+      <c r="M2" s="513"/>
+      <c r="N2" s="513"/>
+      <c r="O2" s="513" t="s">
         <v>208</v>
       </c>
-      <c r="P2" s="489"/>
+      <c r="P2" s="513"/>
     </row>
     <row r="3" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="489" t="s">
+      <c r="B3" s="513" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="489"/>
-      <c r="D3" s="489"/>
-      <c r="E3" s="489" t="s">
+      <c r="C3" s="513"/>
+      <c r="D3" s="513"/>
+      <c r="E3" s="513" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="489"/>
-      <c r="G3" s="489" t="s">
+      <c r="F3" s="513"/>
+      <c r="G3" s="513" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="489"/>
-      <c r="I3" s="489" t="s">
+      <c r="H3" s="513"/>
+      <c r="I3" s="513" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="489"/>
-      <c r="K3" s="489" t="s">
+      <c r="J3" s="513"/>
+      <c r="K3" s="513" t="s">
         <v>212</v>
       </c>
-      <c r="L3" s="489"/>
-      <c r="M3" s="489"/>
-      <c r="N3" s="489"/>
-      <c r="O3" s="489" t="s">
+      <c r="L3" s="513"/>
+      <c r="M3" s="513"/>
+      <c r="N3" s="513"/>
+      <c r="O3" s="513" t="s">
         <v>208</v>
       </c>
-      <c r="P3" s="489"/>
+      <c r="P3" s="513"/>
     </row>
     <row r="4" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="489" t="s">
+      <c r="B4" s="513" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="489"/>
-      <c r="D4" s="489"/>
-      <c r="E4" s="489" t="s">
+      <c r="C4" s="513"/>
+      <c r="D4" s="513"/>
+      <c r="E4" s="513" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="489"/>
-      <c r="G4" s="489" t="s">
+      <c r="F4" s="513"/>
+      <c r="G4" s="513" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="489"/>
-      <c r="I4" s="489" t="s">
+      <c r="H4" s="513"/>
+      <c r="I4" s="513" t="s">
         <v>211</v>
       </c>
-      <c r="J4" s="489"/>
-      <c r="K4" s="489" t="s">
+      <c r="J4" s="513"/>
+      <c r="K4" s="513" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="489"/>
-      <c r="M4" s="489"/>
-      <c r="N4" s="489"/>
-      <c r="O4" s="489" t="s">
+      <c r="L4" s="513"/>
+      <c r="M4" s="513"/>
+      <c r="N4" s="513"/>
+      <c r="O4" s="513" t="s">
         <v>208</v>
       </c>
-      <c r="P4" s="489"/>
+      <c r="P4" s="513"/>
     </row>
     <row r="5" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="489" t="s">
+      <c r="B5" s="513" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="489"/>
-      <c r="D5" s="489"/>
-      <c r="E5" s="489" t="s">
+      <c r="C5" s="513"/>
+      <c r="D5" s="513"/>
+      <c r="E5" s="513" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="489"/>
-      <c r="G5" s="489" t="s">
+      <c r="F5" s="513"/>
+      <c r="G5" s="513" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="489"/>
-      <c r="I5" s="489" t="s">
+      <c r="H5" s="513"/>
+      <c r="I5" s="513" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="489"/>
-      <c r="K5" s="489" t="s">
+      <c r="J5" s="513"/>
+      <c r="K5" s="513" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="489"/>
-      <c r="M5" s="489"/>
-      <c r="N5" s="489"/>
-      <c r="O5" s="489" t="s">
+      <c r="L5" s="513"/>
+      <c r="M5" s="513"/>
+      <c r="N5" s="513"/>
+      <c r="O5" s="513" t="s">
         <v>220</v>
       </c>
-      <c r="P5" s="489"/>
+      <c r="P5" s="513"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
-      <c r="B7" s="498" t="s">
+      <c r="B7" s="506" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="499"/>
-      <c r="D7" s="500"/>
-      <c r="E7" s="501" t="s">
+      <c r="C7" s="507"/>
+      <c r="D7" s="508"/>
+      <c r="E7" s="509" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="502"/>
-      <c r="G7" s="490" t="s">
+      <c r="F7" s="510"/>
+      <c r="G7" s="501" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="491"/>
-      <c r="I7" s="503" t="s">
+      <c r="H7" s="502"/>
+      <c r="I7" s="511" t="s">
         <v>223</v>
       </c>
-      <c r="J7" s="504"/>
-      <c r="K7" s="490" t="s">
+      <c r="J7" s="512"/>
+      <c r="K7" s="501" t="s">
         <v>224</v>
       </c>
-      <c r="L7" s="491"/>
-      <c r="M7" s="490" t="s">
+      <c r="L7" s="502"/>
+      <c r="M7" s="501" t="s">
         <v>225</v>
       </c>
-      <c r="N7" s="491"/>
-      <c r="O7" s="490" t="s">
+      <c r="N7" s="502"/>
+      <c r="O7" s="501" t="s">
         <v>226</v>
       </c>
-      <c r="P7" s="491"/>
+      <c r="P7" s="502"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
       <c r="B8" s="492" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="493" t="s">
+      <c r="C8" s="503" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="494" t="s">
+      <c r="D8" s="504" t="s">
         <v>229</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -20260,8 +20235,8 @@
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
       <c r="B9" s="492"/>
-      <c r="C9" s="493"/>
-      <c r="D9" s="494"/>
+      <c r="C9" s="503"/>
+      <c r="D9" s="504"/>
       <c r="E9" s="24" t="s">
         <v>232</v>
       </c>
@@ -20293,8 +20268,8 @@
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
       <c r="B10" s="492"/>
-      <c r="C10" s="493"/>
-      <c r="D10" s="495" t="s">
+      <c r="C10" s="503"/>
+      <c r="D10" s="500" t="s">
         <v>240</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -20324,8 +20299,8 @@
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
       <c r="B11" s="492"/>
-      <c r="C11" s="493"/>
-      <c r="D11" s="495"/>
+      <c r="C11" s="503"/>
+      <c r="D11" s="500"/>
       <c r="E11" s="24" t="s">
         <v>241</v>
       </c>
@@ -20353,10 +20328,10 @@
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
       <c r="B12" s="492"/>
-      <c r="C12" s="496" t="s">
+      <c r="C12" s="493" t="s">
         <v>247</v>
       </c>
-      <c r="D12" s="497" t="s">
+      <c r="D12" s="505" t="s">
         <v>248</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -20382,8 +20357,8 @@
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
       <c r="B13" s="492"/>
-      <c r="C13" s="496"/>
-      <c r="D13" s="497"/>
+      <c r="C13" s="493"/>
+      <c r="D13" s="505"/>
       <c r="E13" s="24" t="s">
         <v>192</v>
       </c>
@@ -20409,10 +20384,10 @@
       <c r="B14" s="492" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="505" t="s">
+      <c r="C14" s="498" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="506" t="s">
+      <c r="D14" s="494" t="s">
         <v>229</v>
       </c>
       <c r="E14" s="19"/>
@@ -20438,8 +20413,8 @@
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
       <c r="B15" s="492"/>
-      <c r="C15" s="505"/>
-      <c r="D15" s="506"/>
+      <c r="C15" s="498"/>
+      <c r="D15" s="494"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
@@ -20463,8 +20438,8 @@
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
       <c r="B16" s="492"/>
-      <c r="C16" s="505"/>
-      <c r="D16" s="495" t="s">
+      <c r="C16" s="498"/>
+      <c r="D16" s="500" t="s">
         <v>240</v>
       </c>
       <c r="E16" s="19"/>
@@ -20490,8 +20465,8 @@
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
       <c r="B17" s="492"/>
-      <c r="C17" s="505"/>
-      <c r="D17" s="495"/>
+      <c r="C17" s="498"/>
+      <c r="D17" s="500"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -20515,10 +20490,10 @@
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
       <c r="B18" s="492"/>
-      <c r="C18" s="496" t="s">
+      <c r="C18" s="493" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="506" t="s">
+      <c r="D18" s="494" t="s">
         <v>248</v>
       </c>
       <c r="E18" s="19"/>
@@ -20544,8 +20519,8 @@
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
       <c r="B19" s="492"/>
-      <c r="C19" s="496"/>
-      <c r="D19" s="506"/>
+      <c r="C19" s="493"/>
+      <c r="D19" s="494"/>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -20571,10 +20546,10 @@
       <c r="B20" s="492" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="505" t="s">
+      <c r="C20" s="498" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="506" t="s">
+      <c r="D20" s="494" t="s">
         <v>248</v>
       </c>
       <c r="E20" s="19"/>
@@ -20600,8 +20575,8 @@
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
       <c r="B21" s="492"/>
-      <c r="C21" s="505"/>
-      <c r="D21" s="506"/>
+      <c r="C21" s="498"/>
+      <c r="D21" s="494"/>
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
@@ -20625,8 +20600,8 @@
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
       <c r="B22" s="492"/>
-      <c r="C22" s="505"/>
-      <c r="D22" s="507" t="s">
+      <c r="C22" s="498"/>
+      <c r="D22" s="499" t="s">
         <v>275</v>
       </c>
       <c r="E22" s="19"/>
@@ -20648,8 +20623,8 @@
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
       <c r="B23" s="492"/>
-      <c r="C23" s="505"/>
-      <c r="D23" s="507"/>
+      <c r="C23" s="498"/>
+      <c r="D23" s="499"/>
       <c r="E23" s="24"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -20671,10 +20646,10 @@
       <c r="B24" s="492" t="s">
         <v>278</v>
       </c>
-      <c r="C24" s="496" t="s">
+      <c r="C24" s="493" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="506" t="s">
+      <c r="D24" s="494" t="s">
         <v>248</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -20704,8 +20679,8 @@
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
       <c r="B25" s="492"/>
-      <c r="C25" s="496"/>
-      <c r="D25" s="506"/>
+      <c r="C25" s="493"/>
+      <c r="D25" s="494"/>
       <c r="E25" s="24" t="s">
         <v>191</v>
       </c>
@@ -20735,10 +20710,10 @@
       <c r="B26" s="492" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="496" t="s">
+      <c r="C26" s="493" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="506" t="s">
+      <c r="D26" s="494" t="s">
         <v>248</v>
       </c>
       <c r="E26" s="19"/>
@@ -20760,8 +20735,8 @@
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
       <c r="B27" s="492"/>
-      <c r="C27" s="496"/>
-      <c r="D27" s="506"/>
+      <c r="C27" s="493"/>
+      <c r="D27" s="494"/>
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26" t="s">
@@ -20783,23 +20758,23 @@
       <c r="B29" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C29" s="508" t="s">
+      <c r="C29" s="495" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="508"/>
-      <c r="E29" s="508"/>
-      <c r="F29" s="508"/>
-      <c r="G29" s="508"/>
-      <c r="H29" s="508"/>
-      <c r="I29" s="508"/>
-      <c r="J29" s="508"/>
-      <c r="K29" s="508"/>
-      <c r="L29" s="508"/>
-      <c r="M29" s="508"/>
-      <c r="N29" s="508"/>
-      <c r="O29" s="508"/>
-      <c r="P29" s="508"/>
-      <c r="Q29" s="508"/>
+      <c r="D29" s="495"/>
+      <c r="E29" s="495"/>
+      <c r="F29" s="495"/>
+      <c r="G29" s="495"/>
+      <c r="H29" s="495"/>
+      <c r="I29" s="495"/>
+      <c r="J29" s="495"/>
+      <c r="K29" s="495"/>
+      <c r="L29" s="495"/>
+      <c r="M29" s="495"/>
+      <c r="N29" s="495"/>
+      <c r="O29" s="495"/>
+      <c r="P29" s="495"/>
+      <c r="Q29" s="495"/>
     </row>
     <row r="30" spans="2:17" s="31" customFormat="1" ht="25.5">
       <c r="B30" s="29"/>
@@ -20843,10 +20818,10 @@
       <c r="B32" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="509" t="s">
+      <c r="C32" s="496" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="510"/>
+      <c r="D32" s="497"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="32" t="s">
@@ -20861,37 +20836,20 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -20906,20 +20864,37 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -20953,7 +20928,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="AH4" sqref="AH4:AQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8984375" defaultRowHeight="21"/>
@@ -21870,36 +21845,36 @@
       <c r="F8" s="323" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="460" t="s">
+      <c r="G8" s="468" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="461"/>
-      <c r="I8" s="462"/>
-      <c r="J8" s="463" t="s">
+      <c r="H8" s="469"/>
+      <c r="I8" s="470"/>
+      <c r="J8" s="478" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="464"/>
-      <c r="L8" s="465"/>
-      <c r="M8" s="463" t="s">
+      <c r="K8" s="479"/>
+      <c r="L8" s="480"/>
+      <c r="M8" s="478" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="464"/>
-      <c r="O8" s="465"/>
-      <c r="P8" s="466" t="s">
+      <c r="N8" s="479"/>
+      <c r="O8" s="480"/>
+      <c r="P8" s="481" t="s">
         <v>689</v>
       </c>
-      <c r="Q8" s="467"/>
-      <c r="R8" s="468"/>
-      <c r="S8" s="463" t="s">
+      <c r="Q8" s="482"/>
+      <c r="R8" s="483"/>
+      <c r="S8" s="478" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="464"/>
-      <c r="U8" s="465"/>
-      <c r="V8" s="463" t="s">
+      <c r="T8" s="479"/>
+      <c r="U8" s="480"/>
+      <c r="V8" s="478" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="464"/>
-      <c r="X8" s="465"/>
+      <c r="W8" s="479"/>
+      <c r="X8" s="480"/>
       <c r="Y8" s="325" t="s">
         <v>107</v>
       </c>
@@ -21918,21 +21893,21 @@
       <c r="AD8" s="326" t="s">
         <v>907</v>
       </c>
-      <c r="AE8" s="478" t="s">
+      <c r="AE8" s="471" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="479"/>
-      <c r="AG8" s="480"/>
-      <c r="AH8" s="469" t="s">
+      <c r="AF8" s="472"/>
+      <c r="AG8" s="473"/>
+      <c r="AH8" s="465" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="470"/>
-      <c r="AJ8" s="471"/>
-      <c r="AK8" s="469" t="s">
+      <c r="AI8" s="466"/>
+      <c r="AJ8" s="467"/>
+      <c r="AK8" s="465" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="470"/>
-      <c r="AM8" s="471"/>
+      <c r="AL8" s="466"/>
+      <c r="AM8" s="467"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -21989,38 +21964,38 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="472" t="s">
+      <c r="J9" s="474" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="473"/>
+      <c r="K9" s="475"/>
       <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="472" t="s">
+      <c r="M9" s="474" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="473"/>
+      <c r="N9" s="475"/>
       <c r="O9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="474" t="s">
+      <c r="P9" s="476" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="475"/>
+      <c r="Q9" s="477"/>
       <c r="R9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="472" t="s">
+      <c r="S9" s="474" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="473"/>
+      <c r="T9" s="475"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="474" t="s">
+      <c r="V9" s="476" t="s">
         <v>909</v>
       </c>
-      <c r="W9" s="475"/>
+      <c r="W9" s="477"/>
       <c r="X9" s="6" t="s">
         <v>729</v>
       </c>
@@ -22054,8 +22029,8 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="53"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="476"/>
-      <c r="AL9" s="477"/>
+      <c r="AK9" s="463"/>
+      <c r="AL9" s="464"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -22106,16 +22081,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="460" t="s">
+      <c r="E10" s="468" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="461"/>
-      <c r="G10" s="462"/>
-      <c r="H10" s="460" t="s">
+      <c r="F10" s="469"/>
+      <c r="G10" s="470"/>
+      <c r="H10" s="468" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="461"/>
-      <c r="J10" s="462"/>
+      <c r="I10" s="469"/>
+      <c r="J10" s="470"/>
       <c r="K10" s="324" t="s">
         <v>44</v>
       </c>
@@ -22125,16 +22100,16 @@
       <c r="M10" s="323" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="460" t="s">
+      <c r="N10" s="468" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="461"/>
-      <c r="P10" s="462"/>
-      <c r="Q10" s="460" t="s">
+      <c r="O10" s="469"/>
+      <c r="P10" s="470"/>
+      <c r="Q10" s="468" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="461"/>
-      <c r="S10" s="462"/>
+      <c r="R10" s="469"/>
+      <c r="S10" s="470"/>
       <c r="T10" s="324" t="s">
         <v>106</v>
       </c>
@@ -22162,31 +22137,31 @@
       <c r="AB10" s="326" t="s">
         <v>905</v>
       </c>
-      <c r="AC10" s="478" t="s">
+      <c r="AC10" s="471" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="479"/>
-      <c r="AE10" s="480"/>
-      <c r="AF10" s="478" t="s">
+      <c r="AD10" s="472"/>
+      <c r="AE10" s="473"/>
+      <c r="AF10" s="471" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="479"/>
-      <c r="AH10" s="480"/>
-      <c r="AI10" s="478" t="s">
+      <c r="AG10" s="472"/>
+      <c r="AH10" s="473"/>
+      <c r="AI10" s="471" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="479"/>
-      <c r="AK10" s="480"/>
-      <c r="AL10" s="478" t="s">
+      <c r="AJ10" s="472"/>
+      <c r="AK10" s="473"/>
+      <c r="AL10" s="471" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="479"/>
-      <c r="AN10" s="480"/>
-      <c r="AO10" s="469" t="s">
+      <c r="AM10" s="472"/>
+      <c r="AN10" s="473"/>
+      <c r="AO10" s="465" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="470"/>
-      <c r="AQ10" s="471"/>
+      <c r="AP10" s="466"/>
+      <c r="AQ10" s="467"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="57"/>
@@ -22303,14 +22278,14 @@
       <c r="AH11" s="128" t="s">
         <v>329</v>
       </c>
-      <c r="AI11" s="476"/>
-      <c r="AJ11" s="477"/>
+      <c r="AI11" s="463"/>
+      <c r="AJ11" s="464"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="476"/>
-      <c r="AM11" s="477"/>
+      <c r="AL11" s="463"/>
+      <c r="AM11" s="464"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="476"/>
-      <c r="AP11" s="477"/>
+      <c r="AO11" s="463"/>
+      <c r="AP11" s="464"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="4"/>
@@ -22353,36 +22328,36 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="460" t="s">
+      <c r="F12" s="468" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="461"/>
-      <c r="H12" s="462"/>
-      <c r="I12" s="460" t="s">
+      <c r="G12" s="469"/>
+      <c r="H12" s="470"/>
+      <c r="I12" s="468" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="461"/>
-      <c r="K12" s="462"/>
-      <c r="L12" s="460" t="s">
+      <c r="J12" s="469"/>
+      <c r="K12" s="470"/>
+      <c r="L12" s="468" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="461"/>
-      <c r="N12" s="462"/>
-      <c r="O12" s="460" t="s">
+      <c r="M12" s="469"/>
+      <c r="N12" s="470"/>
+      <c r="O12" s="468" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="461"/>
-      <c r="Q12" s="462"/>
-      <c r="R12" s="460" t="s">
+      <c r="P12" s="469"/>
+      <c r="Q12" s="470"/>
+      <c r="R12" s="468" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="461"/>
-      <c r="T12" s="462"/>
-      <c r="U12" s="460" t="s">
+      <c r="S12" s="469"/>
+      <c r="T12" s="470"/>
+      <c r="U12" s="468" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="461"/>
-      <c r="W12" s="462"/>
+      <c r="V12" s="469"/>
+      <c r="W12" s="470"/>
       <c r="X12" s="325" t="s">
         <v>117</v>
       </c>
@@ -22392,11 +22367,11 @@
       <c r="Z12" s="326" t="s">
         <v>605</v>
       </c>
-      <c r="AA12" s="478" t="s">
+      <c r="AA12" s="471" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="479"/>
-      <c r="AC12" s="480"/>
+      <c r="AB12" s="472"/>
+      <c r="AC12" s="473"/>
       <c r="AD12" s="325" t="s">
         <v>112</v>
       </c>
@@ -22406,16 +22381,16 @@
       <c r="AF12" s="326" t="s">
         <v>908</v>
       </c>
-      <c r="AG12" s="478" t="s">
+      <c r="AG12" s="471" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="479"/>
-      <c r="AI12" s="480"/>
-      <c r="AJ12" s="469" t="s">
+      <c r="AH12" s="472"/>
+      <c r="AI12" s="473"/>
+      <c r="AJ12" s="465" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="470"/>
-      <c r="AL12" s="471"/>
+      <c r="AK12" s="466"/>
+      <c r="AL12" s="467"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -22541,8 +22516,8 @@
       <c r="AI13" s="128" t="s">
         <v>609</v>
       </c>
-      <c r="AJ13" s="476"/>
-      <c r="AK13" s="477"/>
+      <c r="AJ13" s="463"/>
+      <c r="AK13" s="464"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -22594,41 +22569,41 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="460" t="s">
+      <c r="G14" s="468" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="461"/>
-      <c r="I14" s="462"/>
-      <c r="J14" s="460" t="s">
+      <c r="H14" s="469"/>
+      <c r="I14" s="470"/>
+      <c r="J14" s="468" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="461"/>
-      <c r="L14" s="462"/>
-      <c r="M14" s="460" t="s">
+      <c r="K14" s="469"/>
+      <c r="L14" s="470"/>
+      <c r="M14" s="468" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="461"/>
-      <c r="O14" s="462"/>
-      <c r="P14" s="460" t="s">
+      <c r="N14" s="469"/>
+      <c r="O14" s="470"/>
+      <c r="P14" s="468" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="461"/>
-      <c r="R14" s="462"/>
-      <c r="S14" s="460" t="s">
+      <c r="Q14" s="469"/>
+      <c r="R14" s="470"/>
+      <c r="S14" s="468" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="461"/>
-      <c r="U14" s="462"/>
-      <c r="V14" s="460" t="s">
+      <c r="T14" s="469"/>
+      <c r="U14" s="470"/>
+      <c r="V14" s="468" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="461"/>
-      <c r="X14" s="462"/>
-      <c r="Y14" s="478" t="s">
+      <c r="W14" s="469"/>
+      <c r="X14" s="470"/>
+      <c r="Y14" s="471" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="479"/>
-      <c r="AA14" s="480"/>
+      <c r="Z14" s="472"/>
+      <c r="AA14" s="473"/>
       <c r="AB14" s="325" t="s">
         <v>110</v>
       </c>
@@ -22638,16 +22613,16 @@
       <c r="AD14" s="326" t="s">
         <v>906</v>
       </c>
-      <c r="AE14" s="478" t="s">
+      <c r="AE14" s="471" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="479"/>
-      <c r="AG14" s="480"/>
-      <c r="AH14" s="469" t="s">
+      <c r="AF14" s="472"/>
+      <c r="AG14" s="473"/>
+      <c r="AH14" s="465" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="470"/>
-      <c r="AJ14" s="471"/>
+      <c r="AI14" s="466"/>
+      <c r="AJ14" s="467"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -23053,10 +23028,10 @@
       <c r="AG19" s="61"/>
       <c r="AH19" s="60"/>
       <c r="AI19" s="60"/>
-      <c r="AJ19" s="511" t="s">
+      <c r="AJ19" s="420" t="s">
         <v>196</v>
       </c>
-      <c r="AK19" s="512">
+      <c r="AK19" s="421">
         <f>FIND(AJ19, D19)</f>
         <v>1</v>
       </c>
@@ -23148,11 +23123,11 @@
       <c r="AG20" s="71"/>
       <c r="AH20" s="60"/>
       <c r="AI20" s="60"/>
-      <c r="AJ20" s="512" t="str">
+      <c r="AJ20" s="421" t="str">
         <f xml:space="preserve"> MID(D20,AK19,1)</f>
         <v>1</v>
       </c>
-      <c r="AK20" s="513"/>
+      <c r="AK20" s="422"/>
       <c r="AL20" s="60"/>
       <c r="AM20" s="60"/>
       <c r="AN20" s="60"/>
@@ -26364,6 +26339,42 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="AO10:AQ10"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="AJ12:AL12"/>
     <mergeCell ref="AJ13:AK13"/>
     <mergeCell ref="AH14:AJ14"/>
     <mergeCell ref="G14:I14"/>
@@ -26374,42 +26385,6 @@
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="Y14:AA14"/>
     <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AG12:AI12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30991,36 +30966,36 @@
         <v>755</v>
       </c>
       <c r="F8" s="323"/>
-      <c r="G8" s="460" t="s">
+      <c r="G8" s="468" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="461"/>
-      <c r="I8" s="462"/>
-      <c r="J8" s="463" t="s">
+      <c r="H8" s="469"/>
+      <c r="I8" s="470"/>
+      <c r="J8" s="478" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="464"/>
-      <c r="L8" s="465"/>
-      <c r="M8" s="463" t="s">
+      <c r="K8" s="479"/>
+      <c r="L8" s="480"/>
+      <c r="M8" s="478" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="464"/>
-      <c r="O8" s="465"/>
+      <c r="N8" s="479"/>
+      <c r="O8" s="480"/>
       <c r="P8" s="324"/>
       <c r="Q8" s="346" t="s">
         <v>809</v>
       </c>
       <c r="R8" s="323"/>
-      <c r="S8" s="463" t="s">
+      <c r="S8" s="478" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="464"/>
-      <c r="U8" s="465"/>
-      <c r="V8" s="463" t="s">
+      <c r="T8" s="479"/>
+      <c r="U8" s="480"/>
+      <c r="V8" s="478" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="464"/>
-      <c r="X8" s="465"/>
+      <c r="W8" s="479"/>
+      <c r="X8" s="480"/>
       <c r="Y8" s="325"/>
       <c r="Z8" s="321" t="s">
         <v>757</v>
@@ -31031,21 +31006,21 @@
         <v>756</v>
       </c>
       <c r="AD8" s="326"/>
-      <c r="AE8" s="478" t="s">
+      <c r="AE8" s="471" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="479"/>
-      <c r="AG8" s="480"/>
-      <c r="AH8" s="469" t="s">
+      <c r="AF8" s="472"/>
+      <c r="AG8" s="473"/>
+      <c r="AH8" s="465" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="470"/>
-      <c r="AJ8" s="471"/>
-      <c r="AK8" s="469" t="s">
+      <c r="AI8" s="466"/>
+      <c r="AJ8" s="467"/>
+      <c r="AK8" s="465" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="470"/>
-      <c r="AM8" s="471"/>
+      <c r="AL8" s="466"/>
+      <c r="AM8" s="467"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -31123,19 +31098,19 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="481" t="str">
+      <c r="J9" s="484" t="str">
         <f ca="1">AQ4</f>
         <v>ˇ</v>
       </c>
-      <c r="K9" s="482"/>
+      <c r="K9" s="485"/>
       <c r="L9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="483" t="str">
+      <c r="M9" s="486" t="str">
         <f ca="1">AR4</f>
         <v>ˋ</v>
       </c>
-      <c r="N9" s="484"/>
+      <c r="N9" s="487"/>
       <c r="O9" s="353" t="s">
         <v>890</v>
       </c>
@@ -31151,19 +31126,19 @@
         <f ca="1">R6</f>
         <v>zh</v>
       </c>
-      <c r="S9" s="483" t="str">
+      <c r="S9" s="486" t="str">
         <f ca="1">AP4</f>
         <v>ˊ</v>
       </c>
-      <c r="T9" s="484"/>
+      <c r="T9" s="487"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="474" t="str">
+      <c r="V9" s="476" t="str">
         <f ca="1">AS4</f>
         <v>˙</v>
       </c>
-      <c r="W9" s="473"/>
+      <c r="W9" s="475"/>
       <c r="X9" s="353" t="s">
         <v>891</v>
       </c>
@@ -31212,8 +31187,8 @@
         <f ca="1">AN6</f>
         <v>er</v>
       </c>
-      <c r="AK9" s="476"/>
-      <c r="AL9" s="477"/>
+      <c r="AK9" s="463"/>
+      <c r="AL9" s="464"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -31280,31 +31255,31 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="460" t="s">
+      <c r="E10" s="468" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="461"/>
-      <c r="G10" s="462"/>
-      <c r="H10" s="460" t="s">
+      <c r="F10" s="469"/>
+      <c r="G10" s="470"/>
+      <c r="H10" s="468" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="461"/>
-      <c r="J10" s="462"/>
+      <c r="I10" s="469"/>
+      <c r="J10" s="470"/>
       <c r="K10" s="324"/>
       <c r="L10" s="320" t="s">
         <v>746</v>
       </c>
       <c r="M10" s="323"/>
-      <c r="N10" s="460" t="s">
+      <c r="N10" s="468" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="461"/>
-      <c r="P10" s="462"/>
-      <c r="Q10" s="460" t="s">
+      <c r="O10" s="469"/>
+      <c r="P10" s="470"/>
+      <c r="Q10" s="468" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="461"/>
-      <c r="S10" s="462"/>
+      <c r="R10" s="469"/>
+      <c r="S10" s="470"/>
       <c r="T10" s="324"/>
       <c r="U10" s="320" t="s">
         <v>306</v>
@@ -31320,31 +31295,31 @@
         <v>615</v>
       </c>
       <c r="AB10" s="326"/>
-      <c r="AC10" s="478" t="s">
+      <c r="AC10" s="471" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="479"/>
-      <c r="AE10" s="480"/>
-      <c r="AF10" s="478" t="s">
+      <c r="AD10" s="472"/>
+      <c r="AE10" s="473"/>
+      <c r="AF10" s="471" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="479"/>
-      <c r="AH10" s="480"/>
-      <c r="AI10" s="478" t="s">
+      <c r="AG10" s="472"/>
+      <c r="AH10" s="473"/>
+      <c r="AI10" s="471" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="479"/>
-      <c r="AK10" s="480"/>
-      <c r="AL10" s="478" t="s">
+      <c r="AJ10" s="472"/>
+      <c r="AK10" s="473"/>
+      <c r="AL10" s="471" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="479"/>
-      <c r="AN10" s="480"/>
-      <c r="AO10" s="469" t="s">
+      <c r="AM10" s="472"/>
+      <c r="AN10" s="473"/>
+      <c r="AO10" s="465" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="470"/>
-      <c r="AQ10" s="471"/>
+      <c r="AP10" s="466"/>
+      <c r="AQ10" s="467"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="173" cm="1">
         <f t="array" ref="AV10" xml:space="preserve"> ROW() - ROW($8:$8)</f>
@@ -31522,14 +31497,14 @@
         <f ca="1">AK6</f>
         <v>enn</v>
       </c>
-      <c r="AI11" s="476"/>
-      <c r="AJ11" s="477"/>
+      <c r="AI11" s="463"/>
+      <c r="AJ11" s="464"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="476"/>
-      <c r="AM11" s="477"/>
+      <c r="AL11" s="463"/>
+      <c r="AM11" s="464"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="476"/>
-      <c r="AP11" s="477"/>
+      <c r="AO11" s="463"/>
+      <c r="AP11" s="464"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="173" cm="1">
@@ -31590,61 +31565,61 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="460" t="s">
+      <c r="F12" s="468" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="461"/>
-      <c r="H12" s="462"/>
-      <c r="I12" s="460" t="s">
+      <c r="G12" s="469"/>
+      <c r="H12" s="470"/>
+      <c r="I12" s="468" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="461"/>
-      <c r="K12" s="462"/>
-      <c r="L12" s="460" t="s">
+      <c r="J12" s="469"/>
+      <c r="K12" s="470"/>
+      <c r="L12" s="468" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="461"/>
-      <c r="N12" s="462"/>
-      <c r="O12" s="460" t="s">
+      <c r="M12" s="469"/>
+      <c r="N12" s="470"/>
+      <c r="O12" s="468" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="461"/>
-      <c r="Q12" s="462"/>
-      <c r="R12" s="460" t="s">
+      <c r="P12" s="469"/>
+      <c r="Q12" s="470"/>
+      <c r="R12" s="468" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="461"/>
-      <c r="T12" s="462"/>
-      <c r="U12" s="460" t="s">
+      <c r="S12" s="469"/>
+      <c r="T12" s="470"/>
+      <c r="U12" s="468" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="461"/>
-      <c r="W12" s="462"/>
+      <c r="V12" s="469"/>
+      <c r="W12" s="470"/>
       <c r="X12" s="325"/>
       <c r="Y12" s="321" t="s">
         <v>742</v>
       </c>
       <c r="Z12" s="326"/>
-      <c r="AA12" s="478" t="s">
+      <c r="AA12" s="471" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="479"/>
-      <c r="AC12" s="480"/>
+      <c r="AB12" s="472"/>
+      <c r="AC12" s="473"/>
       <c r="AD12" s="325"/>
       <c r="AE12" s="321" t="s">
         <v>724</v>
       </c>
       <c r="AF12" s="326"/>
-      <c r="AG12" s="478" t="s">
+      <c r="AG12" s="471" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="479"/>
-      <c r="AI12" s="480"/>
-      <c r="AJ12" s="469" t="s">
+      <c r="AH12" s="472"/>
+      <c r="AI12" s="473"/>
+      <c r="AJ12" s="465" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="470"/>
-      <c r="AL12" s="471"/>
+      <c r="AK12" s="466"/>
+      <c r="AL12" s="467"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -31831,8 +31806,8 @@
         <f ca="1">AL6</f>
         <v>ang</v>
       </c>
-      <c r="AJ13" s="476"/>
-      <c r="AK13" s="477"/>
+      <c r="AJ13" s="463"/>
+      <c r="AK13" s="464"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -31902,56 +31877,56 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="460" t="s">
+      <c r="G14" s="468" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="461"/>
-      <c r="I14" s="462"/>
-      <c r="J14" s="460" t="s">
+      <c r="H14" s="469"/>
+      <c r="I14" s="470"/>
+      <c r="J14" s="468" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="461"/>
-      <c r="L14" s="462"/>
-      <c r="M14" s="460" t="s">
+      <c r="K14" s="469"/>
+      <c r="L14" s="470"/>
+      <c r="M14" s="468" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="461"/>
-      <c r="O14" s="462"/>
-      <c r="P14" s="460" t="s">
+      <c r="N14" s="469"/>
+      <c r="O14" s="470"/>
+      <c r="P14" s="468" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="461"/>
-      <c r="R14" s="462"/>
-      <c r="S14" s="460" t="s">
+      <c r="Q14" s="469"/>
+      <c r="R14" s="470"/>
+      <c r="S14" s="468" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="461"/>
-      <c r="U14" s="462"/>
-      <c r="V14" s="460" t="s">
+      <c r="T14" s="469"/>
+      <c r="U14" s="470"/>
+      <c r="V14" s="468" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="461"/>
-      <c r="X14" s="462"/>
-      <c r="Y14" s="478" t="s">
+      <c r="W14" s="469"/>
+      <c r="X14" s="470"/>
+      <c r="Y14" s="471" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="479"/>
-      <c r="AA14" s="480"/>
+      <c r="Z14" s="472"/>
+      <c r="AA14" s="473"/>
       <c r="AB14" s="325"/>
       <c r="AC14" s="321" t="s">
         <v>758</v>
       </c>
       <c r="AD14" s="326"/>
-      <c r="AE14" s="478" t="s">
+      <c r="AE14" s="471" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="479"/>
-      <c r="AG14" s="480"/>
-      <c r="AH14" s="469" t="s">
+      <c r="AF14" s="472"/>
+      <c r="AG14" s="473"/>
+      <c r="AH14" s="465" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="470"/>
-      <c r="AJ14" s="471"/>
+      <c r="AI14" s="466"/>
+      <c r="AJ14" s="467"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -35943,24 +35918,16 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
     <mergeCell ref="AO10:AQ10"/>
     <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AL11:AM11"/>
@@ -35977,16 +35944,24 @@
     <mergeCell ref="AF10:AH10"/>
     <mergeCell ref="AI10:AK10"/>
     <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40100,7 +40075,7 @@
       </c>
       <c r="AU9" s="189">
         <f ca="1" xml:space="preserve"> FIND(AT9, AF9)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="32.25">
@@ -40189,9 +40164,9 @@
         <f xml:space="preserve"> _xlfn.CONCAT(X$3:X$38,X$40:X$44)</f>
         <v>ㄅㄆㆠㄉㄊㄋㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆤㄜㆦㄞㄠㆭㄣㆬ鼻ㄇㄌㄫㄐㄑㄒㄤㄢㆰㆲˋ˪ˊ˫˙</v>
       </c>
-      <c r="AT10" s="315">
+      <c r="AT10" s="315" t="str">
         <f ca="1" xml:space="preserve"> MID(AF10, AU9, 1)</f>
-        <v>0</v>
+        <v>ㄢ</v>
       </c>
       <c r="AU10" s="189"/>
     </row>
@@ -50119,7 +50094,7 @@
       </c>
       <c r="AU9" s="189">
         <f ca="1" xml:space="preserve"> FIND(AT9, AF9)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="32.25">
@@ -50208,9 +50183,9 @@
         <f xml:space="preserve"> _xlfn.CONCAT(X$3:X$38,X$40:X$44)</f>
         <v>ㄅㄆㆠㄉㄊㄋㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆤㄜㆦㄞㄠㆭㄣㆬ鼻ㄇㄌㄫㄐㄑㄒㄤㄢㆰㆲˋ˪ˊ˫˙</v>
       </c>
-      <c r="AT10" s="315">
+      <c r="AT10" s="315" t="str">
         <f ca="1" xml:space="preserve"> MID(AF10, AU9, 1)</f>
-        <v>0</v>
+        <v>ㄢ</v>
       </c>
       <c r="AU10" s="189"/>
     </row>

--- a/docs/鍵盤設計規格_河洛注音.xlsx
+++ b/docs/鍵盤設計規格_河洛注音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E807B90-691F-47CE-9218-C5C42BDF36E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5FBD75-D9E9-4011-B873-46F40F27A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
   </bookViews>
   <sheets>
     <sheet name="鍵盤圖" sheetId="6" r:id="rId1"/>
@@ -2540,6 +2540,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄉㄊㄌㄍㄎ</t>
     </r>
@@ -2556,6 +2557,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄗㄘ</t>
     </r>
@@ -2572,6 +2574,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄙㄏㄧㄨㄚ</t>
     </r>
@@ -2588,6 +2591,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄜ</t>
     </r>
@@ -2604,6 +2608,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄞㄠ</t>
     </r>
@@ -2620,6 +2625,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄣ</t>
     </r>
@@ -3410,6 +3416,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>n</t>
     </r>
@@ -3439,6 +3446,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3460,6 +3468,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3481,6 +3490,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3525,6 +3535,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3649,6 +3660,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3715,6 +3727,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3736,6 +3749,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3757,6 +3771,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3778,6 +3793,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3799,6 +3815,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3828,6 +3845,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3849,6 +3867,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3870,6 +3889,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -4463,12 +4483,14 @@
     <font>
       <sz val="20"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -4525,6 +4547,7 @@
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -4764,6 +4787,7 @@
       <sz val="18"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -4968,6 +4992,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5021,6 +5046,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5032,6 +5058,7 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5044,6 +5071,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5056,6 +5084,7 @@
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5137,6 +5166,7 @@
       <sz val="12"/>
       <color theme="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5212,6 +5242,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5367,6 +5398,7 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5452,6 +5484,7 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -7407,13 +7440,70 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7434,28 +7524,22 @@
     <xf numFmtId="0" fontId="91" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7467,79 +7551,13 @@
     <xf numFmtId="0" fontId="97" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="95" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7549,27 +7567,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7590,6 +7587,42 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7602,43 +7635,19 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7647,10 +7656,19 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7677,8 +7695,23 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10378,61 +10411,61 @@
   <sheetData>
     <row r="1" spans="2:44" ht="15" thickBot="1"/>
     <row r="2" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="429">
+      <c r="C2" s="448">
         <v>1</v>
       </c>
-      <c r="D2" s="430"/>
-      <c r="E2" s="431"/>
-      <c r="F2" s="429">
+      <c r="D2" s="449"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="448">
         <v>2</v>
       </c>
-      <c r="G2" s="430"/>
-      <c r="H2" s="431"/>
-      <c r="I2" s="453">
+      <c r="G2" s="449"/>
+      <c r="H2" s="450"/>
+      <c r="I2" s="438">
         <v>3</v>
       </c>
-      <c r="J2" s="454"/>
-      <c r="K2" s="455"/>
-      <c r="L2" s="453">
+      <c r="J2" s="439"/>
+      <c r="K2" s="440"/>
+      <c r="L2" s="438">
         <v>4</v>
       </c>
-      <c r="M2" s="454"/>
-      <c r="N2" s="455"/>
-      <c r="O2" s="453">
+      <c r="M2" s="439"/>
+      <c r="N2" s="440"/>
+      <c r="O2" s="438">
         <v>5</v>
       </c>
-      <c r="P2" s="454"/>
-      <c r="Q2" s="455"/>
-      <c r="R2" s="453">
+      <c r="P2" s="439"/>
+      <c r="Q2" s="440"/>
+      <c r="R2" s="438">
         <v>6</v>
       </c>
-      <c r="S2" s="454"/>
-      <c r="T2" s="455"/>
-      <c r="U2" s="453">
+      <c r="S2" s="439"/>
+      <c r="T2" s="440"/>
+      <c r="U2" s="438">
         <v>7</v>
       </c>
-      <c r="V2" s="454"/>
-      <c r="W2" s="455"/>
-      <c r="X2" s="432">
+      <c r="V2" s="439"/>
+      <c r="W2" s="440"/>
+      <c r="X2" s="429">
         <v>8</v>
       </c>
-      <c r="Y2" s="433"/>
-      <c r="Z2" s="434"/>
-      <c r="AA2" s="432">
+      <c r="Y2" s="424"/>
+      <c r="Z2" s="425"/>
+      <c r="AA2" s="429">
         <v>9</v>
       </c>
-      <c r="AB2" s="433"/>
-      <c r="AC2" s="434"/>
-      <c r="AD2" s="432">
+      <c r="AB2" s="424"/>
+      <c r="AC2" s="425"/>
+      <c r="AD2" s="429">
         <v>0</v>
       </c>
-      <c r="AE2" s="433"/>
-      <c r="AF2" s="434"/>
-      <c r="AG2" s="457" t="s">
+      <c r="AE2" s="424"/>
+      <c r="AF2" s="425"/>
+      <c r="AG2" s="423" t="s">
         <v>451</v>
       </c>
-      <c r="AH2" s="433"/>
-      <c r="AI2" s="434"/>
+      <c r="AH2" s="424"/>
+      <c r="AI2" s="425"/>
       <c r="AJ2" s="142"/>
       <c r="AK2" s="142"/>
       <c r="AL2" s="142"/>
@@ -10441,56 +10474,56 @@
       </c>
     </row>
     <row r="3" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="C3" s="426" t="str">
+      <c r="C3" s="445" t="str">
         <f>D14</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="427"/>
-      <c r="E3" s="428"/>
-      <c r="F3" s="426" t="str">
+      <c r="D3" s="446"/>
+      <c r="E3" s="447"/>
+      <c r="F3" s="445" t="str">
         <f>H14</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="427"/>
-      <c r="H3" s="428"/>
-      <c r="I3" s="450" t="s">
+      <c r="G3" s="446"/>
+      <c r="H3" s="447"/>
+      <c r="I3" s="442" t="s">
         <v>449</v>
       </c>
-      <c r="J3" s="451"/>
-      <c r="K3" s="452"/>
-      <c r="L3" s="450" t="s">
+      <c r="J3" s="443"/>
+      <c r="K3" s="444"/>
+      <c r="L3" s="442" t="s">
         <v>448</v>
       </c>
-      <c r="M3" s="451"/>
-      <c r="N3" s="452"/>
-      <c r="O3" s="450"/>
-      <c r="P3" s="451"/>
-      <c r="Q3" s="452"/>
-      <c r="R3" s="447" t="s">
+      <c r="M3" s="443"/>
+      <c r="N3" s="444"/>
+      <c r="O3" s="442"/>
+      <c r="P3" s="443"/>
+      <c r="Q3" s="444"/>
+      <c r="R3" s="451" t="s">
         <v>447</v>
       </c>
-      <c r="S3" s="448"/>
-      <c r="T3" s="449"/>
-      <c r="U3" s="450" t="s">
+      <c r="S3" s="452"/>
+      <c r="T3" s="453"/>
+      <c r="U3" s="442" t="s">
         <v>446</v>
       </c>
-      <c r="V3" s="451"/>
-      <c r="W3" s="452"/>
-      <c r="X3" s="443" t="str">
+      <c r="V3" s="443"/>
+      <c r="W3" s="444"/>
+      <c r="X3" s="430" t="str">
         <f>D20</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="444"/>
-      <c r="Z3" s="445"/>
-      <c r="AA3" s="443"/>
-      <c r="AB3" s="444"/>
-      <c r="AC3" s="445"/>
-      <c r="AD3" s="443"/>
-      <c r="AE3" s="444"/>
-      <c r="AF3" s="445"/>
-      <c r="AG3" s="458"/>
-      <c r="AH3" s="459"/>
-      <c r="AI3" s="460"/>
+      <c r="Y3" s="431"/>
+      <c r="Z3" s="432"/>
+      <c r="AA3" s="430"/>
+      <c r="AB3" s="431"/>
+      <c r="AC3" s="432"/>
+      <c r="AD3" s="430"/>
+      <c r="AE3" s="431"/>
+      <c r="AF3" s="432"/>
+      <c r="AG3" s="426"/>
+      <c r="AH3" s="427"/>
+      <c r="AI3" s="428"/>
       <c r="AQ3" s="156" t="s">
         <v>445</v>
       </c>
@@ -10499,109 +10532,109 @@
       </c>
     </row>
     <row r="4" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="429" t="s">
+      <c r="D4" s="448" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="430"/>
-      <c r="F4" s="431"/>
-      <c r="G4" s="429" t="s">
+      <c r="E4" s="449"/>
+      <c r="F4" s="450"/>
+      <c r="G4" s="448" t="s">
         <v>379</v>
       </c>
-      <c r="H4" s="430"/>
-      <c r="I4" s="431"/>
-      <c r="J4" s="429" t="s">
+      <c r="H4" s="449"/>
+      <c r="I4" s="450"/>
+      <c r="J4" s="448" t="s">
         <v>443</v>
       </c>
-      <c r="K4" s="430"/>
-      <c r="L4" s="431"/>
-      <c r="M4" s="429" t="s">
+      <c r="K4" s="449"/>
+      <c r="L4" s="450"/>
+      <c r="M4" s="448" t="s">
         <v>442</v>
       </c>
-      <c r="N4" s="430"/>
-      <c r="O4" s="431"/>
-      <c r="P4" s="429" t="s">
+      <c r="N4" s="449"/>
+      <c r="O4" s="450"/>
+      <c r="P4" s="448" t="s">
         <v>441</v>
       </c>
-      <c r="Q4" s="430"/>
-      <c r="R4" s="431"/>
-      <c r="S4" s="429" t="s">
+      <c r="Q4" s="449"/>
+      <c r="R4" s="450"/>
+      <c r="S4" s="448" t="s">
         <v>440</v>
       </c>
-      <c r="T4" s="430"/>
-      <c r="U4" s="431"/>
-      <c r="V4" s="432" t="s">
+      <c r="T4" s="449"/>
+      <c r="U4" s="450"/>
+      <c r="V4" s="429" t="s">
         <v>439</v>
       </c>
-      <c r="W4" s="433"/>
-      <c r="X4" s="434"/>
-      <c r="Y4" s="432" t="s">
+      <c r="W4" s="424"/>
+      <c r="X4" s="425"/>
+      <c r="Y4" s="429" t="s">
         <v>438</v>
       </c>
-      <c r="Z4" s="433"/>
-      <c r="AA4" s="434"/>
-      <c r="AB4" s="432" t="s">
+      <c r="Z4" s="424"/>
+      <c r="AA4" s="425"/>
+      <c r="AB4" s="429" t="s">
         <v>435</v>
       </c>
-      <c r="AC4" s="433"/>
-      <c r="AD4" s="434"/>
-      <c r="AE4" s="432" t="s">
+      <c r="AC4" s="424"/>
+      <c r="AD4" s="425"/>
+      <c r="AE4" s="429" t="s">
         <v>437</v>
       </c>
-      <c r="AF4" s="433"/>
-      <c r="AG4" s="434"/>
+      <c r="AF4" s="424"/>
+      <c r="AG4" s="425"/>
       <c r="AJ4" s="142"/>
       <c r="AK4" s="142"/>
       <c r="AL4" s="142"/>
     </row>
     <row r="5" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="D5" s="426" t="str">
+      <c r="D5" s="445" t="str">
         <f>E14</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="427"/>
-      <c r="F5" s="428"/>
-      <c r="G5" s="426" t="str">
+      <c r="E5" s="446"/>
+      <c r="F5" s="447"/>
+      <c r="G5" s="445" t="str">
         <f>I14</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="427"/>
-      <c r="I5" s="428"/>
-      <c r="J5" s="426" t="str">
+      <c r="H5" s="446"/>
+      <c r="I5" s="447"/>
+      <c r="J5" s="445" t="str">
         <f>L14</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="427"/>
-      <c r="L5" s="428"/>
-      <c r="M5" s="426"/>
-      <c r="N5" s="427"/>
-      <c r="O5" s="428"/>
-      <c r="P5" s="423" t="str">
+      <c r="K5" s="446"/>
+      <c r="L5" s="447"/>
+      <c r="M5" s="445"/>
+      <c r="N5" s="446"/>
+      <c r="O5" s="447"/>
+      <c r="P5" s="454" t="str">
         <f>F14</f>
         <v>ㆠ</v>
       </c>
-      <c r="Q5" s="424"/>
-      <c r="R5" s="425"/>
-      <c r="S5" s="426" t="str">
+      <c r="Q5" s="455"/>
+      <c r="R5" s="456"/>
+      <c r="S5" s="445" t="str">
         <f>Q14</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="427"/>
-      <c r="U5" s="428"/>
-      <c r="V5" s="443" t="str">
+      <c r="T5" s="446"/>
+      <c r="U5" s="447"/>
+      <c r="V5" s="430" t="str">
         <f>F20</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="444"/>
-      <c r="X5" s="445"/>
-      <c r="Y5" s="443" t="str">
+      <c r="W5" s="431"/>
+      <c r="X5" s="432"/>
+      <c r="Y5" s="430" t="str">
         <f>L20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="444"/>
-      <c r="AA5" s="445"/>
-      <c r="AB5" s="443"/>
-      <c r="AC5" s="444"/>
-      <c r="AD5" s="445"/>
+      <c r="Z5" s="431"/>
+      <c r="AA5" s="432"/>
+      <c r="AB5" s="430"/>
+      <c r="AC5" s="431"/>
+      <c r="AD5" s="432"/>
       <c r="AE5" s="435" t="str">
         <f>P20</f>
         <v>ㄣ</v>
@@ -10617,109 +10650,109 @@
     </row>
     <row r="6" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="157"/>
-      <c r="E6" s="429" t="s">
+      <c r="E6" s="448" t="s">
         <v>434</v>
       </c>
-      <c r="F6" s="430"/>
-      <c r="G6" s="431"/>
-      <c r="H6" s="429" t="s">
+      <c r="F6" s="449"/>
+      <c r="G6" s="450"/>
+      <c r="H6" s="448" t="s">
         <v>433</v>
       </c>
-      <c r="I6" s="430"/>
-      <c r="J6" s="431"/>
-      <c r="K6" s="429" t="s">
+      <c r="I6" s="449"/>
+      <c r="J6" s="450"/>
+      <c r="K6" s="448" t="s">
         <v>432</v>
       </c>
-      <c r="L6" s="430"/>
-      <c r="M6" s="431"/>
-      <c r="N6" s="429" t="s">
+      <c r="L6" s="449"/>
+      <c r="M6" s="450"/>
+      <c r="N6" s="448" t="s">
         <v>431</v>
       </c>
-      <c r="O6" s="430"/>
-      <c r="P6" s="431"/>
-      <c r="Q6" s="429" t="s">
+      <c r="O6" s="449"/>
+      <c r="P6" s="450"/>
+      <c r="Q6" s="448" t="s">
         <v>430</v>
       </c>
-      <c r="R6" s="430"/>
-      <c r="S6" s="431"/>
-      <c r="T6" s="429" t="s">
+      <c r="R6" s="449"/>
+      <c r="S6" s="450"/>
+      <c r="T6" s="448" t="s">
         <v>429</v>
       </c>
-      <c r="U6" s="430"/>
-      <c r="V6" s="431"/>
-      <c r="W6" s="432" t="s">
+      <c r="U6" s="449"/>
+      <c r="V6" s="450"/>
+      <c r="W6" s="429" t="s">
         <v>428</v>
       </c>
-      <c r="X6" s="433"/>
-      <c r="Y6" s="434"/>
-      <c r="Z6" s="432" t="s">
+      <c r="X6" s="424"/>
+      <c r="Y6" s="425"/>
+      <c r="Z6" s="429" t="s">
         <v>427</v>
       </c>
-      <c r="AA6" s="433"/>
-      <c r="AB6" s="434"/>
-      <c r="AC6" s="432" t="s">
+      <c r="AA6" s="424"/>
+      <c r="AB6" s="425"/>
+      <c r="AC6" s="429" t="s">
         <v>426</v>
       </c>
-      <c r="AD6" s="433"/>
-      <c r="AE6" s="434"/>
-      <c r="AF6" s="432" t="s">
+      <c r="AD6" s="424"/>
+      <c r="AE6" s="425"/>
+      <c r="AF6" s="429" t="s">
         <v>425</v>
       </c>
-      <c r="AG6" s="433"/>
-      <c r="AH6" s="434"/>
+      <c r="AG6" s="424"/>
+      <c r="AH6" s="425"/>
     </row>
     <row r="7" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="440" t="str">
+      <c r="E7" s="457" t="str">
         <f>G14</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="441"/>
-      <c r="G7" s="442"/>
-      <c r="H7" s="426" t="str">
+      <c r="F7" s="458"/>
+      <c r="G7" s="459"/>
+      <c r="H7" s="445" t="str">
         <f>J14</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="427"/>
-      <c r="J7" s="428"/>
-      <c r="K7" s="426" t="str">
+      <c r="I7" s="446"/>
+      <c r="J7" s="447"/>
+      <c r="K7" s="445" t="str">
         <f>M14</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="427"/>
-      <c r="M7" s="428"/>
-      <c r="N7" s="426"/>
-      <c r="O7" s="427"/>
-      <c r="P7" s="428"/>
-      <c r="Q7" s="446" t="str">
+      <c r="L7" s="446"/>
+      <c r="M7" s="447"/>
+      <c r="N7" s="445"/>
+      <c r="O7" s="446"/>
+      <c r="P7" s="447"/>
+      <c r="Q7" s="460" t="str">
         <f>N14</f>
         <v>ㆣ</v>
       </c>
-      <c r="R7" s="424"/>
-      <c r="S7" s="425"/>
-      <c r="T7" s="426" t="str">
+      <c r="R7" s="455"/>
+      <c r="S7" s="456"/>
+      <c r="T7" s="445" t="str">
         <f>R14</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="427"/>
-      <c r="V7" s="428"/>
-      <c r="W7" s="443" t="str">
+      <c r="U7" s="446"/>
+      <c r="V7" s="447"/>
+      <c r="W7" s="430" t="str">
         <f>H20</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="444"/>
-      <c r="Y7" s="445"/>
-      <c r="Z7" s="443" t="str">
+      <c r="X7" s="431"/>
+      <c r="Y7" s="432"/>
+      <c r="Z7" s="430" t="str">
         <f>N20</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="444"/>
-      <c r="AB7" s="445"/>
-      <c r="AC7" s="443"/>
-      <c r="AD7" s="444"/>
-      <c r="AE7" s="445"/>
-      <c r="AF7" s="462"/>
-      <c r="AG7" s="444"/>
-      <c r="AH7" s="445"/>
+      <c r="AA7" s="431"/>
+      <c r="AB7" s="432"/>
+      <c r="AC7" s="430"/>
+      <c r="AD7" s="431"/>
+      <c r="AE7" s="432"/>
+      <c r="AF7" s="434"/>
+      <c r="AG7" s="431"/>
+      <c r="AH7" s="432"/>
       <c r="AQ7" s="156" t="s">
         <v>424</v>
       </c>
@@ -10728,112 +10761,112 @@
       </c>
     </row>
     <row r="8" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="429" t="s">
+      <c r="F8" s="448" t="s">
         <v>422</v>
       </c>
-      <c r="G8" s="430"/>
-      <c r="H8" s="431"/>
-      <c r="I8" s="429" t="s">
+      <c r="G8" s="449"/>
+      <c r="H8" s="450"/>
+      <c r="I8" s="448" t="s">
         <v>421</v>
       </c>
-      <c r="J8" s="430"/>
-      <c r="K8" s="431"/>
-      <c r="L8" s="429" t="s">
+      <c r="J8" s="449"/>
+      <c r="K8" s="450"/>
+      <c r="L8" s="448" t="s">
         <v>420</v>
       </c>
-      <c r="M8" s="430"/>
-      <c r="N8" s="431"/>
-      <c r="O8" s="429" t="s">
+      <c r="M8" s="449"/>
+      <c r="N8" s="450"/>
+      <c r="O8" s="448" t="s">
         <v>419</v>
       </c>
-      <c r="P8" s="430"/>
-      <c r="Q8" s="431"/>
-      <c r="R8" s="429" t="s">
+      <c r="P8" s="449"/>
+      <c r="Q8" s="450"/>
+      <c r="R8" s="448" t="s">
         <v>418</v>
       </c>
-      <c r="S8" s="430"/>
-      <c r="T8" s="431"/>
-      <c r="U8" s="429" t="s">
+      <c r="S8" s="449"/>
+      <c r="T8" s="450"/>
+      <c r="U8" s="448" t="s">
         <v>377</v>
       </c>
-      <c r="V8" s="430"/>
-      <c r="W8" s="431"/>
-      <c r="X8" s="432" t="s">
+      <c r="V8" s="449"/>
+      <c r="W8" s="450"/>
+      <c r="X8" s="429" t="s">
         <v>417</v>
       </c>
-      <c r="Y8" s="433"/>
-      <c r="Z8" s="434"/>
-      <c r="AA8" s="432" t="s">
+      <c r="Y8" s="424"/>
+      <c r="Z8" s="425"/>
+      <c r="AA8" s="429" t="s">
         <v>416</v>
       </c>
-      <c r="AB8" s="433"/>
-      <c r="AC8" s="434"/>
-      <c r="AD8" s="432" t="s">
+      <c r="AB8" s="424"/>
+      <c r="AC8" s="425"/>
+      <c r="AD8" s="429" t="s">
         <v>415</v>
       </c>
-      <c r="AE8" s="433"/>
-      <c r="AF8" s="434"/>
-      <c r="AG8" s="461" t="s">
+      <c r="AE8" s="424"/>
+      <c r="AF8" s="425"/>
+      <c r="AG8" s="433" t="s">
         <v>414</v>
       </c>
-      <c r="AH8" s="433"/>
-      <c r="AI8" s="434"/>
+      <c r="AH8" s="424"/>
+      <c r="AI8" s="425"/>
     </row>
     <row r="9" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="F9" s="426"/>
-      <c r="G9" s="438"/>
-      <c r="H9" s="439"/>
-      <c r="I9" s="426" t="str">
+      <c r="F9" s="445"/>
+      <c r="G9" s="461"/>
+      <c r="H9" s="462"/>
+      <c r="I9" s="445" t="str">
         <f>K14</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="427"/>
-      <c r="K9" s="428"/>
-      <c r="L9" s="426" t="str">
+      <c r="J9" s="446"/>
+      <c r="K9" s="447"/>
+      <c r="L9" s="445" t="str">
         <f>P14</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="427"/>
-      <c r="N9" s="428"/>
-      <c r="O9" s="440" t="str">
+      <c r="M9" s="446"/>
+      <c r="N9" s="447"/>
+      <c r="O9" s="457" t="str">
         <f>O14</f>
         <v>ㄫ</v>
       </c>
-      <c r="P9" s="441"/>
-      <c r="Q9" s="442"/>
-      <c r="R9" s="423" t="str">
+      <c r="P9" s="458"/>
+      <c r="Q9" s="459"/>
+      <c r="R9" s="454" t="str">
         <f>S14</f>
         <v>ㆡ</v>
       </c>
-      <c r="S9" s="424"/>
-      <c r="T9" s="425"/>
-      <c r="U9" s="426" t="str">
+      <c r="S9" s="455"/>
+      <c r="T9" s="456"/>
+      <c r="U9" s="445" t="str">
         <f>T14</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="427"/>
-      <c r="W9" s="428"/>
+      <c r="V9" s="446"/>
+      <c r="W9" s="447"/>
       <c r="X9" s="435" t="str">
         <f>O20</f>
         <v>ㆬ</v>
       </c>
       <c r="Y9" s="436"/>
       <c r="Z9" s="437"/>
-      <c r="AA9" s="443" t="str">
+      <c r="AA9" s="430" t="str">
         <f>J20</f>
         <v>ㄝ</v>
       </c>
-      <c r="AB9" s="444"/>
-      <c r="AC9" s="445"/>
-      <c r="AD9" s="456" t="str">
+      <c r="AB9" s="431"/>
+      <c r="AC9" s="432"/>
+      <c r="AD9" s="441" t="str">
         <f>Q20</f>
         <v>ㄥ</v>
       </c>
       <c r="AE9" s="436"/>
       <c r="AF9" s="437"/>
-      <c r="AG9" s="443"/>
-      <c r="AH9" s="444"/>
-      <c r="AI9" s="445"/>
+      <c r="AG9" s="430"/>
+      <c r="AH9" s="431"/>
+      <c r="AI9" s="432"/>
     </row>
     <row r="12" spans="2:44">
       <c r="Z12" s="155"/>
@@ -11284,20 +11317,58 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="AD9:AF9"/>
     <mergeCell ref="U2:W2"/>
@@ -11314,58 +11385,20 @@
     <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="S5:U5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AC6:AE6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18070,8 +18103,8 @@
       <c r="AN1" s="77"/>
       <c r="AO1" s="77"/>
       <c r="AP1" s="77"/>
-      <c r="AQ1" s="491"/>
-      <c r="AR1" s="491"/>
+      <c r="AQ1" s="489"/>
+      <c r="AR1" s="489"/>
       <c r="AS1" s="77"/>
       <c r="AT1" s="77"/>
       <c r="AU1" s="77"/>
@@ -19388,66 +19421,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C11" s="489" t="str">
+      <c r="C11" s="490" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D11" s="489"/>
-      <c r="E11" s="489"/>
-      <c r="F11" s="489"/>
-      <c r="G11" s="489"/>
-      <c r="H11" s="489"/>
-      <c r="I11" s="489"/>
-      <c r="J11" s="489"/>
-      <c r="K11" s="489"/>
-      <c r="L11" s="489"/>
-      <c r="M11" s="489"/>
-      <c r="N11" s="489"/>
-      <c r="O11" s="489"/>
-      <c r="P11" s="489"/>
-      <c r="Q11" s="489"/>
-      <c r="R11" s="489"/>
-      <c r="S11" s="489"/>
-      <c r="T11" s="489"/>
-      <c r="U11" s="489"/>
-      <c r="V11" s="489"/>
-      <c r="W11" s="489"/>
-      <c r="X11" s="489"/>
-      <c r="Y11" s="489"/>
-      <c r="Z11" s="489"/>
+      <c r="D11" s="490"/>
+      <c r="E11" s="490"/>
+      <c r="F11" s="490"/>
+      <c r="G11" s="490"/>
+      <c r="H11" s="490"/>
+      <c r="I11" s="490"/>
+      <c r="J11" s="490"/>
+      <c r="K11" s="490"/>
+      <c r="L11" s="490"/>
+      <c r="M11" s="490"/>
+      <c r="N11" s="490"/>
+      <c r="O11" s="490"/>
+      <c r="P11" s="490"/>
+      <c r="Q11" s="490"/>
+      <c r="R11" s="490"/>
+      <c r="S11" s="490"/>
+      <c r="T11" s="490"/>
+      <c r="U11" s="490"/>
+      <c r="V11" s="490"/>
+      <c r="W11" s="490"/>
+      <c r="X11" s="490"/>
+      <c r="Y11" s="490"/>
+      <c r="Z11" s="490"/>
     </row>
     <row r="12" spans="1:47" s="76" customFormat="1" ht="23.25">
       <c r="B12" s="85" t="str">
         <f>B8</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C12" s="490" t="str">
+      <c r="C12" s="488" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D12" s="490"/>
-      <c r="E12" s="490"/>
-      <c r="F12" s="490"/>
-      <c r="G12" s="490"/>
-      <c r="H12" s="490"/>
-      <c r="I12" s="490"/>
-      <c r="J12" s="490"/>
-      <c r="K12" s="490"/>
-      <c r="L12" s="490"/>
-      <c r="M12" s="490"/>
-      <c r="N12" s="490"/>
-      <c r="O12" s="490"/>
-      <c r="P12" s="490"/>
-      <c r="Q12" s="490"/>
-      <c r="R12" s="490"/>
-      <c r="S12" s="490"/>
-      <c r="T12" s="490"/>
-      <c r="U12" s="490"/>
-      <c r="V12" s="490"/>
-      <c r="W12" s="490"/>
-      <c r="X12" s="490"/>
-      <c r="Y12" s="490"/>
-      <c r="Z12" s="490"/>
+      <c r="D12" s="488"/>
+      <c r="E12" s="488"/>
+      <c r="F12" s="488"/>
+      <c r="G12" s="488"/>
+      <c r="H12" s="488"/>
+      <c r="I12" s="488"/>
+      <c r="J12" s="488"/>
+      <c r="K12" s="488"/>
+      <c r="L12" s="488"/>
+      <c r="M12" s="488"/>
+      <c r="N12" s="488"/>
+      <c r="O12" s="488"/>
+      <c r="P12" s="488"/>
+      <c r="Q12" s="488"/>
+      <c r="R12" s="488"/>
+      <c r="S12" s="488"/>
+      <c r="T12" s="488"/>
+      <c r="U12" s="488"/>
+      <c r="V12" s="488"/>
+      <c r="W12" s="488"/>
+      <c r="X12" s="488"/>
+      <c r="Y12" s="488"/>
+      <c r="Z12" s="488"/>
     </row>
     <row r="13" spans="1:47" s="76" customFormat="1" ht="23.25"/>
     <row r="14" spans="1:47" s="76" customFormat="1" ht="38.25">
@@ -19456,34 +19489,34 @@
       </c>
     </row>
     <row r="15" spans="1:47" s="76" customFormat="1" ht="23.25">
-      <c r="B15" s="488" t="str">
+      <c r="B15" s="491" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C11 &amp; "|" &amp; C12 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|</v>
       </c>
-      <c r="C15" s="488"/>
-      <c r="D15" s="488"/>
-      <c r="E15" s="488"/>
-      <c r="F15" s="488"/>
-      <c r="G15" s="488"/>
-      <c r="H15" s="488"/>
-      <c r="I15" s="488"/>
-      <c r="J15" s="488"/>
-      <c r="K15" s="488"/>
-      <c r="L15" s="488"/>
-      <c r="M15" s="488"/>
-      <c r="N15" s="488"/>
-      <c r="O15" s="488"/>
-      <c r="P15" s="488"/>
-      <c r="Q15" s="488"/>
-      <c r="R15" s="488"/>
-      <c r="S15" s="488"/>
-      <c r="T15" s="488"/>
-      <c r="U15" s="488"/>
-      <c r="V15" s="488"/>
-      <c r="W15" s="488"/>
-      <c r="X15" s="488"/>
-      <c r="Y15" s="488"/>
-      <c r="Z15" s="488"/>
+      <c r="C15" s="491"/>
+      <c r="D15" s="491"/>
+      <c r="E15" s="491"/>
+      <c r="F15" s="491"/>
+      <c r="G15" s="491"/>
+      <c r="H15" s="491"/>
+      <c r="I15" s="491"/>
+      <c r="J15" s="491"/>
+      <c r="K15" s="491"/>
+      <c r="L15" s="491"/>
+      <c r="M15" s="491"/>
+      <c r="N15" s="491"/>
+      <c r="O15" s="491"/>
+      <c r="P15" s="491"/>
+      <c r="Q15" s="491"/>
+      <c r="R15" s="491"/>
+      <c r="S15" s="491"/>
+      <c r="T15" s="491"/>
+      <c r="U15" s="491"/>
+      <c r="V15" s="491"/>
+      <c r="W15" s="491"/>
+      <c r="X15" s="491"/>
+      <c r="Y15" s="491"/>
+      <c r="Z15" s="491"/>
     </row>
     <row r="16" spans="1:47" s="76" customFormat="1" ht="23.25"/>
     <row r="17" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -19497,66 +19530,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C19" s="489" t="str">
+      <c r="C19" s="490" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D19" s="489"/>
-      <c r="E19" s="489"/>
-      <c r="F19" s="489"/>
-      <c r="G19" s="489"/>
-      <c r="H19" s="489"/>
-      <c r="I19" s="489"/>
-      <c r="J19" s="489"/>
-      <c r="K19" s="489"/>
-      <c r="L19" s="489"/>
-      <c r="M19" s="489"/>
-      <c r="N19" s="489"/>
-      <c r="O19" s="489"/>
-      <c r="P19" s="489"/>
-      <c r="Q19" s="489"/>
-      <c r="R19" s="489"/>
-      <c r="S19" s="489"/>
-      <c r="T19" s="489"/>
-      <c r="U19" s="489"/>
-      <c r="V19" s="489"/>
-      <c r="W19" s="489"/>
-      <c r="X19" s="489"/>
-      <c r="Y19" s="489"/>
-      <c r="Z19" s="489"/>
+      <c r="D19" s="490"/>
+      <c r="E19" s="490"/>
+      <c r="F19" s="490"/>
+      <c r="G19" s="490"/>
+      <c r="H19" s="490"/>
+      <c r="I19" s="490"/>
+      <c r="J19" s="490"/>
+      <c r="K19" s="490"/>
+      <c r="L19" s="490"/>
+      <c r="M19" s="490"/>
+      <c r="N19" s="490"/>
+      <c r="O19" s="490"/>
+      <c r="P19" s="490"/>
+      <c r="Q19" s="490"/>
+      <c r="R19" s="490"/>
+      <c r="S19" s="490"/>
+      <c r="T19" s="490"/>
+      <c r="U19" s="490"/>
+      <c r="V19" s="490"/>
+      <c r="W19" s="490"/>
+      <c r="X19" s="490"/>
+      <c r="Y19" s="490"/>
+      <c r="Z19" s="490"/>
     </row>
     <row r="20" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B20" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C20" s="490" t="str">
+      <c r="C20" s="488" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D20" s="490"/>
-      <c r="E20" s="490"/>
-      <c r="F20" s="490"/>
-      <c r="G20" s="490"/>
-      <c r="H20" s="490"/>
-      <c r="I20" s="490"/>
-      <c r="J20" s="490"/>
-      <c r="K20" s="490"/>
-      <c r="L20" s="490"/>
-      <c r="M20" s="490"/>
-      <c r="N20" s="490"/>
-      <c r="O20" s="490"/>
-      <c r="P20" s="490"/>
-      <c r="Q20" s="490"/>
-      <c r="R20" s="490"/>
-      <c r="S20" s="490"/>
-      <c r="T20" s="490"/>
-      <c r="U20" s="490"/>
-      <c r="V20" s="490"/>
-      <c r="W20" s="490"/>
-      <c r="X20" s="490"/>
-      <c r="Y20" s="490"/>
-      <c r="Z20" s="490"/>
+      <c r="D20" s="488"/>
+      <c r="E20" s="488"/>
+      <c r="F20" s="488"/>
+      <c r="G20" s="488"/>
+      <c r="H20" s="488"/>
+      <c r="I20" s="488"/>
+      <c r="J20" s="488"/>
+      <c r="K20" s="488"/>
+      <c r="L20" s="488"/>
+      <c r="M20" s="488"/>
+      <c r="N20" s="488"/>
+      <c r="O20" s="488"/>
+      <c r="P20" s="488"/>
+      <c r="Q20" s="488"/>
+      <c r="R20" s="488"/>
+      <c r="S20" s="488"/>
+      <c r="T20" s="488"/>
+      <c r="U20" s="488"/>
+      <c r="V20" s="488"/>
+      <c r="W20" s="488"/>
+      <c r="X20" s="488"/>
+      <c r="Y20" s="488"/>
+      <c r="Z20" s="488"/>
     </row>
     <row r="21" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="22" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -19565,34 +19598,34 @@
       </c>
     </row>
     <row r="23" spans="2:26" s="76" customFormat="1" ht="23.25">
-      <c r="B23" s="488" t="str">
+      <c r="B23" s="491" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C19 &amp; "|" &amp; C20 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C23" s="488"/>
-      <c r="D23" s="488"/>
-      <c r="E23" s="488"/>
-      <c r="F23" s="488"/>
-      <c r="G23" s="488"/>
-      <c r="H23" s="488"/>
-      <c r="I23" s="488"/>
-      <c r="J23" s="488"/>
-      <c r="K23" s="488"/>
-      <c r="L23" s="488"/>
-      <c r="M23" s="488"/>
-      <c r="N23" s="488"/>
-      <c r="O23" s="488"/>
-      <c r="P23" s="488"/>
-      <c r="Q23" s="488"/>
-      <c r="R23" s="488"/>
-      <c r="S23" s="488"/>
-      <c r="T23" s="488"/>
-      <c r="U23" s="488"/>
-      <c r="V23" s="488"/>
-      <c r="W23" s="488"/>
-      <c r="X23" s="488"/>
-      <c r="Y23" s="488"/>
-      <c r="Z23" s="488"/>
+      <c r="C23" s="491"/>
+      <c r="D23" s="491"/>
+      <c r="E23" s="491"/>
+      <c r="F23" s="491"/>
+      <c r="G23" s="491"/>
+      <c r="H23" s="491"/>
+      <c r="I23" s="491"/>
+      <c r="J23" s="491"/>
+      <c r="K23" s="491"/>
+      <c r="L23" s="491"/>
+      <c r="M23" s="491"/>
+      <c r="N23" s="491"/>
+      <c r="O23" s="491"/>
+      <c r="P23" s="491"/>
+      <c r="Q23" s="491"/>
+      <c r="R23" s="491"/>
+      <c r="S23" s="491"/>
+      <c r="T23" s="491"/>
+      <c r="U23" s="491"/>
+      <c r="V23" s="491"/>
+      <c r="W23" s="491"/>
+      <c r="X23" s="491"/>
+      <c r="Y23" s="491"/>
+      <c r="Z23" s="491"/>
     </row>
     <row r="24" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="25" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -19606,66 +19639,66 @@
         <f>B12</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C27" s="489" t="str">
+      <c r="C27" s="490" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D27" s="489"/>
-      <c r="E27" s="489"/>
-      <c r="F27" s="489"/>
-      <c r="G27" s="489"/>
-      <c r="H27" s="489"/>
-      <c r="I27" s="489"/>
-      <c r="J27" s="489"/>
-      <c r="K27" s="489"/>
-      <c r="L27" s="489"/>
-      <c r="M27" s="489"/>
-      <c r="N27" s="489"/>
-      <c r="O27" s="489"/>
-      <c r="P27" s="489"/>
-      <c r="Q27" s="489"/>
-      <c r="R27" s="489"/>
-      <c r="S27" s="489"/>
-      <c r="T27" s="489"/>
-      <c r="U27" s="489"/>
-      <c r="V27" s="489"/>
-      <c r="W27" s="489"/>
-      <c r="X27" s="489"/>
-      <c r="Y27" s="489"/>
-      <c r="Z27" s="489"/>
+      <c r="D27" s="490"/>
+      <c r="E27" s="490"/>
+      <c r="F27" s="490"/>
+      <c r="G27" s="490"/>
+      <c r="H27" s="490"/>
+      <c r="I27" s="490"/>
+      <c r="J27" s="490"/>
+      <c r="K27" s="490"/>
+      <c r="L27" s="490"/>
+      <c r="M27" s="490"/>
+      <c r="N27" s="490"/>
+      <c r="O27" s="490"/>
+      <c r="P27" s="490"/>
+      <c r="Q27" s="490"/>
+      <c r="R27" s="490"/>
+      <c r="S27" s="490"/>
+      <c r="T27" s="490"/>
+      <c r="U27" s="490"/>
+      <c r="V27" s="490"/>
+      <c r="W27" s="490"/>
+      <c r="X27" s="490"/>
+      <c r="Y27" s="490"/>
+      <c r="Z27" s="490"/>
     </row>
     <row r="28" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B28" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C28" s="490" t="str">
+      <c r="C28" s="488" t="str">
         <f>_xlfn.CONCAT(C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D28" s="490"/>
-      <c r="E28" s="490"/>
-      <c r="F28" s="490"/>
-      <c r="G28" s="490"/>
-      <c r="H28" s="490"/>
-      <c r="I28" s="490"/>
-      <c r="J28" s="490"/>
-      <c r="K28" s="490"/>
-      <c r="L28" s="490"/>
-      <c r="M28" s="490"/>
-      <c r="N28" s="490"/>
-      <c r="O28" s="490"/>
-      <c r="P28" s="490"/>
-      <c r="Q28" s="490"/>
-      <c r="R28" s="490"/>
-      <c r="S28" s="490"/>
-      <c r="T28" s="490"/>
-      <c r="U28" s="490"/>
-      <c r="V28" s="490"/>
-      <c r="W28" s="490"/>
-      <c r="X28" s="490"/>
-      <c r="Y28" s="490"/>
-      <c r="Z28" s="490"/>
+      <c r="D28" s="488"/>
+      <c r="E28" s="488"/>
+      <c r="F28" s="488"/>
+      <c r="G28" s="488"/>
+      <c r="H28" s="488"/>
+      <c r="I28" s="488"/>
+      <c r="J28" s="488"/>
+      <c r="K28" s="488"/>
+      <c r="L28" s="488"/>
+      <c r="M28" s="488"/>
+      <c r="N28" s="488"/>
+      <c r="O28" s="488"/>
+      <c r="P28" s="488"/>
+      <c r="Q28" s="488"/>
+      <c r="R28" s="488"/>
+      <c r="S28" s="488"/>
+      <c r="T28" s="488"/>
+      <c r="U28" s="488"/>
+      <c r="V28" s="488"/>
+      <c r="W28" s="488"/>
+      <c r="X28" s="488"/>
+      <c r="Y28" s="488"/>
+      <c r="Z28" s="488"/>
     </row>
     <row r="29" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="30" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -19674,34 +19707,34 @@
       </c>
     </row>
     <row r="31" spans="2:26" s="76" customFormat="1" ht="23.25">
-      <c r="B31" s="488" t="str">
+      <c r="B31" s="491" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C27 &amp; "|" &amp; C28 &amp; "|"</f>
         <v>- xlit|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C31" s="488"/>
-      <c r="D31" s="488"/>
-      <c r="E31" s="488"/>
-      <c r="F31" s="488"/>
-      <c r="G31" s="488"/>
-      <c r="H31" s="488"/>
-      <c r="I31" s="488"/>
-      <c r="J31" s="488"/>
-      <c r="K31" s="488"/>
-      <c r="L31" s="488"/>
-      <c r="M31" s="488"/>
-      <c r="N31" s="488"/>
-      <c r="O31" s="488"/>
-      <c r="P31" s="488"/>
-      <c r="Q31" s="488"/>
-      <c r="R31" s="488"/>
-      <c r="S31" s="488"/>
-      <c r="T31" s="488"/>
-      <c r="U31" s="488"/>
-      <c r="V31" s="488"/>
-      <c r="W31" s="488"/>
-      <c r="X31" s="488"/>
-      <c r="Y31" s="488"/>
-      <c r="Z31" s="488"/>
+      <c r="C31" s="491"/>
+      <c r="D31" s="491"/>
+      <c r="E31" s="491"/>
+      <c r="F31" s="491"/>
+      <c r="G31" s="491"/>
+      <c r="H31" s="491"/>
+      <c r="I31" s="491"/>
+      <c r="J31" s="491"/>
+      <c r="K31" s="491"/>
+      <c r="L31" s="491"/>
+      <c r="M31" s="491"/>
+      <c r="N31" s="491"/>
+      <c r="O31" s="491"/>
+      <c r="P31" s="491"/>
+      <c r="Q31" s="491"/>
+      <c r="R31" s="491"/>
+      <c r="S31" s="491"/>
+      <c r="T31" s="491"/>
+      <c r="U31" s="491"/>
+      <c r="V31" s="491"/>
+      <c r="W31" s="491"/>
+      <c r="X31" s="491"/>
+      <c r="Y31" s="491"/>
+      <c r="Z31" s="491"/>
     </row>
     <row r="32" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="33" spans="1:47" s="78" customFormat="1">
@@ -19992,8 +20025,8 @@
       <c r="AN38" s="77"/>
       <c r="AO38" s="77"/>
       <c r="AP38" s="77"/>
-      <c r="AQ38" s="491"/>
-      <c r="AR38" s="491"/>
+      <c r="AQ38" s="489"/>
+      <c r="AR38" s="489"/>
       <c r="AS38" s="77"/>
       <c r="AT38" s="77"/>
       <c r="AU38" s="77"/>
@@ -20001,17 +20034,17 @@
     <row r="39" spans="1:47" s="76" customFormat="1" ht="23.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="AQ38:AR38"/>
     <mergeCell ref="C20:Z20"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="C12:Z12"/>
     <mergeCell ref="B15:Z15"/>
     <mergeCell ref="C19:Z19"/>
-    <mergeCell ref="B23:Z23"/>
-    <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="AQ38:AR38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20047,161 +20080,161 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="513" t="s">
+      <c r="B2" s="492" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="513"/>
-      <c r="D2" s="513"/>
-      <c r="E2" s="513" t="s">
+      <c r="C2" s="492"/>
+      <c r="D2" s="492"/>
+      <c r="E2" s="492" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="513"/>
-      <c r="G2" s="513" t="s">
+      <c r="F2" s="492"/>
+      <c r="G2" s="492" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="513"/>
-      <c r="I2" s="513" t="s">
+      <c r="H2" s="492"/>
+      <c r="I2" s="492" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="513"/>
-      <c r="K2" s="513" t="s">
+      <c r="J2" s="492"/>
+      <c r="K2" s="492" t="s">
         <v>207</v>
       </c>
-      <c r="L2" s="513"/>
-      <c r="M2" s="513"/>
-      <c r="N2" s="513"/>
-      <c r="O2" s="513" t="s">
+      <c r="L2" s="492"/>
+      <c r="M2" s="492"/>
+      <c r="N2" s="492"/>
+      <c r="O2" s="492" t="s">
         <v>208</v>
       </c>
-      <c r="P2" s="513"/>
+      <c r="P2" s="492"/>
     </row>
     <row r="3" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="513" t="s">
+      <c r="B3" s="492" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="513"/>
-      <c r="D3" s="513"/>
-      <c r="E3" s="513" t="s">
+      <c r="C3" s="492"/>
+      <c r="D3" s="492"/>
+      <c r="E3" s="492" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="513"/>
-      <c r="G3" s="513" t="s">
+      <c r="F3" s="492"/>
+      <c r="G3" s="492" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="513"/>
-      <c r="I3" s="513" t="s">
+      <c r="H3" s="492"/>
+      <c r="I3" s="492" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="513"/>
-      <c r="K3" s="513" t="s">
+      <c r="J3" s="492"/>
+      <c r="K3" s="492" t="s">
         <v>212</v>
       </c>
-      <c r="L3" s="513"/>
-      <c r="M3" s="513"/>
-      <c r="N3" s="513"/>
-      <c r="O3" s="513" t="s">
+      <c r="L3" s="492"/>
+      <c r="M3" s="492"/>
+      <c r="N3" s="492"/>
+      <c r="O3" s="492" t="s">
         <v>208</v>
       </c>
-      <c r="P3" s="513"/>
+      <c r="P3" s="492"/>
     </row>
     <row r="4" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="513" t="s">
+      <c r="B4" s="492" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="513"/>
-      <c r="D4" s="513"/>
-      <c r="E4" s="513" t="s">
+      <c r="C4" s="492"/>
+      <c r="D4" s="492"/>
+      <c r="E4" s="492" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="513"/>
-      <c r="G4" s="513" t="s">
+      <c r="F4" s="492"/>
+      <c r="G4" s="492" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="513"/>
-      <c r="I4" s="513" t="s">
+      <c r="H4" s="492"/>
+      <c r="I4" s="492" t="s">
         <v>211</v>
       </c>
-      <c r="J4" s="513"/>
-      <c r="K4" s="513" t="s">
+      <c r="J4" s="492"/>
+      <c r="K4" s="492" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="513"/>
-      <c r="M4" s="513"/>
-      <c r="N4" s="513"/>
-      <c r="O4" s="513" t="s">
+      <c r="L4" s="492"/>
+      <c r="M4" s="492"/>
+      <c r="N4" s="492"/>
+      <c r="O4" s="492" t="s">
         <v>208</v>
       </c>
-      <c r="P4" s="513"/>
+      <c r="P4" s="492"/>
     </row>
     <row r="5" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="513" t="s">
+      <c r="B5" s="492" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="513"/>
-      <c r="D5" s="513"/>
-      <c r="E5" s="513" t="s">
+      <c r="C5" s="492"/>
+      <c r="D5" s="492"/>
+      <c r="E5" s="492" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513" t="s">
+      <c r="F5" s="492"/>
+      <c r="G5" s="492" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="513"/>
-      <c r="I5" s="513" t="s">
+      <c r="H5" s="492"/>
+      <c r="I5" s="492" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="513"/>
-      <c r="K5" s="513" t="s">
+      <c r="J5" s="492"/>
+      <c r="K5" s="492" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="513"/>
-      <c r="M5" s="513"/>
-      <c r="N5" s="513"/>
-      <c r="O5" s="513" t="s">
+      <c r="L5" s="492"/>
+      <c r="M5" s="492"/>
+      <c r="N5" s="492"/>
+      <c r="O5" s="492" t="s">
         <v>220</v>
       </c>
-      <c r="P5" s="513"/>
+      <c r="P5" s="492"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
-      <c r="B7" s="506" t="s">
+      <c r="B7" s="501" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="507"/>
-      <c r="D7" s="508"/>
-      <c r="E7" s="509" t="s">
+      <c r="C7" s="502"/>
+      <c r="D7" s="503"/>
+      <c r="E7" s="504" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="510"/>
-      <c r="G7" s="501" t="s">
+      <c r="F7" s="505"/>
+      <c r="G7" s="493" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="502"/>
-      <c r="I7" s="511" t="s">
+      <c r="H7" s="494"/>
+      <c r="I7" s="506" t="s">
         <v>223</v>
       </c>
-      <c r="J7" s="512"/>
-      <c r="K7" s="501" t="s">
+      <c r="J7" s="507"/>
+      <c r="K7" s="493" t="s">
         <v>224</v>
       </c>
-      <c r="L7" s="502"/>
-      <c r="M7" s="501" t="s">
+      <c r="L7" s="494"/>
+      <c r="M7" s="493" t="s">
         <v>225</v>
       </c>
-      <c r="N7" s="502"/>
-      <c r="O7" s="501" t="s">
+      <c r="N7" s="494"/>
+      <c r="O7" s="493" t="s">
         <v>226</v>
       </c>
-      <c r="P7" s="502"/>
+      <c r="P7" s="494"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
-      <c r="B8" s="492" t="s">
+      <c r="B8" s="495" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="503" t="s">
+      <c r="C8" s="496" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="504" t="s">
+      <c r="D8" s="497" t="s">
         <v>229</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -20234,9 +20267,9 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
-      <c r="B9" s="492"/>
-      <c r="C9" s="503"/>
-      <c r="D9" s="504"/>
+      <c r="B9" s="495"/>
+      <c r="C9" s="496"/>
+      <c r="D9" s="497"/>
       <c r="E9" s="24" t="s">
         <v>232</v>
       </c>
@@ -20267,9 +20300,9 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
-      <c r="B10" s="492"/>
-      <c r="C10" s="503"/>
-      <c r="D10" s="500" t="s">
+      <c r="B10" s="495"/>
+      <c r="C10" s="496"/>
+      <c r="D10" s="498" t="s">
         <v>240</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -20298,9 +20331,9 @@
       <c r="P10" s="20"/>
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
-      <c r="B11" s="492"/>
-      <c r="C11" s="503"/>
-      <c r="D11" s="500"/>
+      <c r="B11" s="495"/>
+      <c r="C11" s="496"/>
+      <c r="D11" s="498"/>
       <c r="E11" s="24" t="s">
         <v>241</v>
       </c>
@@ -20327,11 +20360,11 @@
       <c r="P11" s="25"/>
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
-      <c r="B12" s="492"/>
-      <c r="C12" s="493" t="s">
+      <c r="B12" s="495"/>
+      <c r="C12" s="499" t="s">
         <v>247</v>
       </c>
-      <c r="D12" s="505" t="s">
+      <c r="D12" s="500" t="s">
         <v>248</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -20356,9 +20389,9 @@
       <c r="P12" s="20"/>
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
-      <c r="B13" s="492"/>
-      <c r="C13" s="493"/>
-      <c r="D13" s="505"/>
+      <c r="B13" s="495"/>
+      <c r="C13" s="499"/>
+      <c r="D13" s="500"/>
       <c r="E13" s="24" t="s">
         <v>192</v>
       </c>
@@ -20381,13 +20414,13 @@
       <c r="P13" s="25"/>
     </row>
     <row r="14" spans="2:16" ht="39" customHeight="1">
-      <c r="B14" s="492" t="s">
+      <c r="B14" s="495" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="498" t="s">
+      <c r="C14" s="508" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="494" t="s">
+      <c r="D14" s="509" t="s">
         <v>229</v>
       </c>
       <c r="E14" s="19"/>
@@ -20412,9 +20445,9 @@
       <c r="P14" s="20"/>
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
-      <c r="B15" s="492"/>
-      <c r="C15" s="498"/>
-      <c r="D15" s="494"/>
+      <c r="B15" s="495"/>
+      <c r="C15" s="508"/>
+      <c r="D15" s="509"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
@@ -20437,9 +20470,9 @@
       <c r="P15" s="25"/>
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
-      <c r="B16" s="492"/>
-      <c r="C16" s="498"/>
-      <c r="D16" s="500" t="s">
+      <c r="B16" s="495"/>
+      <c r="C16" s="508"/>
+      <c r="D16" s="498" t="s">
         <v>240</v>
       </c>
       <c r="E16" s="19"/>
@@ -20464,9 +20497,9 @@
       <c r="P16" s="20"/>
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
-      <c r="B17" s="492"/>
-      <c r="C17" s="498"/>
-      <c r="D17" s="500"/>
+      <c r="B17" s="495"/>
+      <c r="C17" s="508"/>
+      <c r="D17" s="498"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -20489,11 +20522,11 @@
       <c r="P17" s="25"/>
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
-      <c r="B18" s="492"/>
-      <c r="C18" s="493" t="s">
+      <c r="B18" s="495"/>
+      <c r="C18" s="499" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="494" t="s">
+      <c r="D18" s="509" t="s">
         <v>248</v>
       </c>
       <c r="E18" s="19"/>
@@ -20518,9 +20551,9 @@
       <c r="P18" s="20"/>
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
-      <c r="B19" s="492"/>
-      <c r="C19" s="493"/>
-      <c r="D19" s="494"/>
+      <c r="B19" s="495"/>
+      <c r="C19" s="499"/>
+      <c r="D19" s="509"/>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -20543,13 +20576,13 @@
       <c r="P19" s="25"/>
     </row>
     <row r="20" spans="2:17" ht="39" customHeight="1">
-      <c r="B20" s="492" t="s">
+      <c r="B20" s="495" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="498" t="s">
+      <c r="C20" s="508" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="494" t="s">
+      <c r="D20" s="509" t="s">
         <v>248</v>
       </c>
       <c r="E20" s="19"/>
@@ -20574,9 +20607,9 @@
       <c r="P20" s="20"/>
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
-      <c r="B21" s="492"/>
-      <c r="C21" s="498"/>
-      <c r="D21" s="494"/>
+      <c r="B21" s="495"/>
+      <c r="C21" s="508"/>
+      <c r="D21" s="509"/>
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
@@ -20599,9 +20632,9 @@
       <c r="P21" s="25"/>
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
-      <c r="B22" s="492"/>
-      <c r="C22" s="498"/>
-      <c r="D22" s="499" t="s">
+      <c r="B22" s="495"/>
+      <c r="C22" s="508"/>
+      <c r="D22" s="510" t="s">
         <v>275</v>
       </c>
       <c r="E22" s="19"/>
@@ -20622,9 +20655,9 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
-      <c r="B23" s="492"/>
-      <c r="C23" s="498"/>
-      <c r="D23" s="499"/>
+      <c r="B23" s="495"/>
+      <c r="C23" s="508"/>
+      <c r="D23" s="510"/>
       <c r="E23" s="24"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -20643,13 +20676,13 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="39" customHeight="1">
-      <c r="B24" s="492" t="s">
+      <c r="B24" s="495" t="s">
         <v>278</v>
       </c>
-      <c r="C24" s="493" t="s">
+      <c r="C24" s="499" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="494" t="s">
+      <c r="D24" s="509" t="s">
         <v>248</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -20678,9 +20711,9 @@
       <c r="P24" s="20"/>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
-      <c r="B25" s="492"/>
-      <c r="C25" s="493"/>
-      <c r="D25" s="494"/>
+      <c r="B25" s="495"/>
+      <c r="C25" s="499"/>
+      <c r="D25" s="509"/>
       <c r="E25" s="24" t="s">
         <v>191</v>
       </c>
@@ -20707,13 +20740,13 @@
       <c r="P25" s="25"/>
     </row>
     <row r="26" spans="2:17" ht="39" customHeight="1">
-      <c r="B26" s="492" t="s">
+      <c r="B26" s="495" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="493" t="s">
+      <c r="C26" s="499" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="494" t="s">
+      <c r="D26" s="509" t="s">
         <v>248</v>
       </c>
       <c r="E26" s="19"/>
@@ -20734,9 +20767,9 @@
       <c r="P26" s="20"/>
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
-      <c r="B27" s="492"/>
-      <c r="C27" s="493"/>
-      <c r="D27" s="494"/>
+      <c r="B27" s="495"/>
+      <c r="C27" s="499"/>
+      <c r="D27" s="509"/>
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26" t="s">
@@ -20758,23 +20791,23 @@
       <c r="B29" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C29" s="495" t="s">
+      <c r="C29" s="511" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="495"/>
-      <c r="E29" s="495"/>
-      <c r="F29" s="495"/>
-      <c r="G29" s="495"/>
-      <c r="H29" s="495"/>
-      <c r="I29" s="495"/>
-      <c r="J29" s="495"/>
-      <c r="K29" s="495"/>
-      <c r="L29" s="495"/>
-      <c r="M29" s="495"/>
-      <c r="N29" s="495"/>
-      <c r="O29" s="495"/>
-      <c r="P29" s="495"/>
-      <c r="Q29" s="495"/>
+      <c r="D29" s="511"/>
+      <c r="E29" s="511"/>
+      <c r="F29" s="511"/>
+      <c r="G29" s="511"/>
+      <c r="H29" s="511"/>
+      <c r="I29" s="511"/>
+      <c r="J29" s="511"/>
+      <c r="K29" s="511"/>
+      <c r="L29" s="511"/>
+      <c r="M29" s="511"/>
+      <c r="N29" s="511"/>
+      <c r="O29" s="511"/>
+      <c r="P29" s="511"/>
+      <c r="Q29" s="511"/>
     </row>
     <row r="30" spans="2:17" s="31" customFormat="1" ht="25.5">
       <c r="B30" s="29"/>
@@ -20818,10 +20851,10 @@
       <c r="B32" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="496" t="s">
+      <c r="C32" s="512" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="497"/>
+      <c r="D32" s="513"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="32" t="s">
@@ -20836,6 +20869,51 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -20850,51 +20928,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -20927,8 +20960,8 @@
   <dimension ref="A1:BK63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH4" sqref="AH4:AQ4"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO4" sqref="AO4:AQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8984375" defaultRowHeight="21"/>
@@ -21845,36 +21878,36 @@
       <c r="F8" s="323" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="468" t="s">
+      <c r="G8" s="463" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="469"/>
-      <c r="I8" s="470"/>
-      <c r="J8" s="478" t="s">
+      <c r="H8" s="464"/>
+      <c r="I8" s="465"/>
+      <c r="J8" s="466" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="479"/>
-      <c r="L8" s="480"/>
-      <c r="M8" s="478" t="s">
+      <c r="K8" s="467"/>
+      <c r="L8" s="468"/>
+      <c r="M8" s="466" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="479"/>
-      <c r="O8" s="480"/>
-      <c r="P8" s="481" t="s">
+      <c r="N8" s="467"/>
+      <c r="O8" s="468"/>
+      <c r="P8" s="469" t="s">
         <v>689</v>
       </c>
-      <c r="Q8" s="482"/>
-      <c r="R8" s="483"/>
-      <c r="S8" s="478" t="s">
+      <c r="Q8" s="470"/>
+      <c r="R8" s="471"/>
+      <c r="S8" s="466" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="479"/>
-      <c r="U8" s="480"/>
-      <c r="V8" s="478" t="s">
+      <c r="T8" s="467"/>
+      <c r="U8" s="468"/>
+      <c r="V8" s="466" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="479"/>
-      <c r="X8" s="480"/>
+      <c r="W8" s="467"/>
+      <c r="X8" s="468"/>
       <c r="Y8" s="325" t="s">
         <v>107</v>
       </c>
@@ -21893,21 +21926,21 @@
       <c r="AD8" s="326" t="s">
         <v>907</v>
       </c>
-      <c r="AE8" s="471" t="s">
+      <c r="AE8" s="481" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="472"/>
-      <c r="AG8" s="473"/>
-      <c r="AH8" s="465" t="s">
+      <c r="AF8" s="482"/>
+      <c r="AG8" s="483"/>
+      <c r="AH8" s="472" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="466"/>
-      <c r="AJ8" s="467"/>
-      <c r="AK8" s="465" t="s">
+      <c r="AI8" s="473"/>
+      <c r="AJ8" s="474"/>
+      <c r="AK8" s="472" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="466"/>
-      <c r="AM8" s="467"/>
+      <c r="AL8" s="473"/>
+      <c r="AM8" s="474"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -21964,38 +21997,38 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="474" t="s">
+      <c r="J9" s="475" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="475"/>
+      <c r="K9" s="476"/>
       <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="474" t="s">
+      <c r="M9" s="475" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="475"/>
+      <c r="N9" s="476"/>
       <c r="O9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="476" t="s">
+      <c r="P9" s="477" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="477"/>
+      <c r="Q9" s="478"/>
       <c r="R9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="474" t="s">
+      <c r="S9" s="475" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="475"/>
+      <c r="T9" s="476"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="476" t="s">
+      <c r="V9" s="477" t="s">
         <v>909</v>
       </c>
-      <c r="W9" s="477"/>
+      <c r="W9" s="478"/>
       <c r="X9" s="6" t="s">
         <v>729</v>
       </c>
@@ -22029,8 +22062,8 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="53"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="463"/>
-      <c r="AL9" s="464"/>
+      <c r="AK9" s="479"/>
+      <c r="AL9" s="480"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -22081,16 +22114,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="468" t="s">
+      <c r="E10" s="463" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="469"/>
-      <c r="G10" s="470"/>
-      <c r="H10" s="468" t="s">
+      <c r="F10" s="464"/>
+      <c r="G10" s="465"/>
+      <c r="H10" s="463" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="469"/>
-      <c r="J10" s="470"/>
+      <c r="I10" s="464"/>
+      <c r="J10" s="465"/>
       <c r="K10" s="324" t="s">
         <v>44</v>
       </c>
@@ -22100,16 +22133,16 @@
       <c r="M10" s="323" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="468" t="s">
+      <c r="N10" s="463" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="469"/>
-      <c r="P10" s="470"/>
-      <c r="Q10" s="468" t="s">
+      <c r="O10" s="464"/>
+      <c r="P10" s="465"/>
+      <c r="Q10" s="463" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="469"/>
-      <c r="S10" s="470"/>
+      <c r="R10" s="464"/>
+      <c r="S10" s="465"/>
       <c r="T10" s="324" t="s">
         <v>106</v>
       </c>
@@ -22137,31 +22170,31 @@
       <c r="AB10" s="326" t="s">
         <v>905</v>
       </c>
-      <c r="AC10" s="471" t="s">
+      <c r="AC10" s="481" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="472"/>
-      <c r="AE10" s="473"/>
-      <c r="AF10" s="471" t="s">
+      <c r="AD10" s="482"/>
+      <c r="AE10" s="483"/>
+      <c r="AF10" s="481" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="472"/>
-      <c r="AH10" s="473"/>
-      <c r="AI10" s="471" t="s">
+      <c r="AG10" s="482"/>
+      <c r="AH10" s="483"/>
+      <c r="AI10" s="481" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="472"/>
-      <c r="AK10" s="473"/>
-      <c r="AL10" s="471" t="s">
+      <c r="AJ10" s="482"/>
+      <c r="AK10" s="483"/>
+      <c r="AL10" s="481" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="472"/>
-      <c r="AN10" s="473"/>
-      <c r="AO10" s="465" t="s">
+      <c r="AM10" s="482"/>
+      <c r="AN10" s="483"/>
+      <c r="AO10" s="472" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="466"/>
-      <c r="AQ10" s="467"/>
+      <c r="AP10" s="473"/>
+      <c r="AQ10" s="474"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="57"/>
@@ -22278,14 +22311,14 @@
       <c r="AH11" s="128" t="s">
         <v>329</v>
       </c>
-      <c r="AI11" s="463"/>
-      <c r="AJ11" s="464"/>
+      <c r="AI11" s="479"/>
+      <c r="AJ11" s="480"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="463"/>
-      <c r="AM11" s="464"/>
+      <c r="AL11" s="479"/>
+      <c r="AM11" s="480"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="463"/>
-      <c r="AP11" s="464"/>
+      <c r="AO11" s="479"/>
+      <c r="AP11" s="480"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="4"/>
@@ -22328,36 +22361,36 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="468" t="s">
+      <c r="F12" s="463" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="469"/>
-      <c r="H12" s="470"/>
-      <c r="I12" s="468" t="s">
+      <c r="G12" s="464"/>
+      <c r="H12" s="465"/>
+      <c r="I12" s="463" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="469"/>
-      <c r="K12" s="470"/>
-      <c r="L12" s="468" t="s">
+      <c r="J12" s="464"/>
+      <c r="K12" s="465"/>
+      <c r="L12" s="463" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="469"/>
-      <c r="N12" s="470"/>
-      <c r="O12" s="468" t="s">
+      <c r="M12" s="464"/>
+      <c r="N12" s="465"/>
+      <c r="O12" s="463" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="469"/>
-      <c r="Q12" s="470"/>
-      <c r="R12" s="468" t="s">
+      <c r="P12" s="464"/>
+      <c r="Q12" s="465"/>
+      <c r="R12" s="463" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="469"/>
-      <c r="T12" s="470"/>
-      <c r="U12" s="468" t="s">
+      <c r="S12" s="464"/>
+      <c r="T12" s="465"/>
+      <c r="U12" s="463" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="469"/>
-      <c r="W12" s="470"/>
+      <c r="V12" s="464"/>
+      <c r="W12" s="465"/>
       <c r="X12" s="325" t="s">
         <v>117</v>
       </c>
@@ -22367,11 +22400,11 @@
       <c r="Z12" s="326" t="s">
         <v>605</v>
       </c>
-      <c r="AA12" s="471" t="s">
+      <c r="AA12" s="481" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="472"/>
-      <c r="AC12" s="473"/>
+      <c r="AB12" s="482"/>
+      <c r="AC12" s="483"/>
       <c r="AD12" s="325" t="s">
         <v>112</v>
       </c>
@@ -22381,16 +22414,16 @@
       <c r="AF12" s="326" t="s">
         <v>908</v>
       </c>
-      <c r="AG12" s="471" t="s">
+      <c r="AG12" s="481" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="472"/>
-      <c r="AI12" s="473"/>
-      <c r="AJ12" s="465" t="s">
+      <c r="AH12" s="482"/>
+      <c r="AI12" s="483"/>
+      <c r="AJ12" s="472" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="466"/>
-      <c r="AL12" s="467"/>
+      <c r="AK12" s="473"/>
+      <c r="AL12" s="474"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -22516,8 +22549,8 @@
       <c r="AI13" s="128" t="s">
         <v>609</v>
       </c>
-      <c r="AJ13" s="463"/>
-      <c r="AK13" s="464"/>
+      <c r="AJ13" s="479"/>
+      <c r="AK13" s="480"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -22569,41 +22602,41 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="468" t="s">
+      <c r="G14" s="463" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="469"/>
-      <c r="I14" s="470"/>
-      <c r="J14" s="468" t="s">
+      <c r="H14" s="464"/>
+      <c r="I14" s="465"/>
+      <c r="J14" s="463" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="469"/>
-      <c r="L14" s="470"/>
-      <c r="M14" s="468" t="s">
+      <c r="K14" s="464"/>
+      <c r="L14" s="465"/>
+      <c r="M14" s="463" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="469"/>
-      <c r="O14" s="470"/>
-      <c r="P14" s="468" t="s">
+      <c r="N14" s="464"/>
+      <c r="O14" s="465"/>
+      <c r="P14" s="463" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="469"/>
-      <c r="R14" s="470"/>
-      <c r="S14" s="468" t="s">
+      <c r="Q14" s="464"/>
+      <c r="R14" s="465"/>
+      <c r="S14" s="463" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="469"/>
-      <c r="U14" s="470"/>
-      <c r="V14" s="468" t="s">
+      <c r="T14" s="464"/>
+      <c r="U14" s="465"/>
+      <c r="V14" s="463" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="469"/>
-      <c r="X14" s="470"/>
-      <c r="Y14" s="471" t="s">
+      <c r="W14" s="464"/>
+      <c r="X14" s="465"/>
+      <c r="Y14" s="481" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="472"/>
-      <c r="AA14" s="473"/>
+      <c r="Z14" s="482"/>
+      <c r="AA14" s="483"/>
       <c r="AB14" s="325" t="s">
         <v>110</v>
       </c>
@@ -22613,16 +22646,16 @@
       <c r="AD14" s="326" t="s">
         <v>906</v>
       </c>
-      <c r="AE14" s="471" t="s">
+      <c r="AE14" s="481" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="472"/>
-      <c r="AG14" s="473"/>
-      <c r="AH14" s="465" t="s">
+      <c r="AF14" s="482"/>
+      <c r="AG14" s="483"/>
+      <c r="AH14" s="472" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="466"/>
-      <c r="AJ14" s="467"/>
+      <c r="AI14" s="473"/>
+      <c r="AJ14" s="474"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -26339,11 +26372,37 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="AO10:AQ10"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
     <mergeCell ref="AK8:AM8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="M9:N9"/>
@@ -26354,37 +26413,11 @@
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="AE8:AG8"/>
     <mergeCell ref="V9:W9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AG12:AI12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30966,36 +30999,36 @@
         <v>755</v>
       </c>
       <c r="F8" s="323"/>
-      <c r="G8" s="468" t="s">
+      <c r="G8" s="463" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="469"/>
-      <c r="I8" s="470"/>
-      <c r="J8" s="478" t="s">
+      <c r="H8" s="464"/>
+      <c r="I8" s="465"/>
+      <c r="J8" s="466" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="479"/>
-      <c r="L8" s="480"/>
-      <c r="M8" s="478" t="s">
+      <c r="K8" s="467"/>
+      <c r="L8" s="468"/>
+      <c r="M8" s="466" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="479"/>
-      <c r="O8" s="480"/>
+      <c r="N8" s="467"/>
+      <c r="O8" s="468"/>
       <c r="P8" s="324"/>
       <c r="Q8" s="346" t="s">
         <v>809</v>
       </c>
       <c r="R8" s="323"/>
-      <c r="S8" s="478" t="s">
+      <c r="S8" s="466" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="479"/>
-      <c r="U8" s="480"/>
-      <c r="V8" s="478" t="s">
+      <c r="T8" s="467"/>
+      <c r="U8" s="468"/>
+      <c r="V8" s="466" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="479"/>
-      <c r="X8" s="480"/>
+      <c r="W8" s="467"/>
+      <c r="X8" s="468"/>
       <c r="Y8" s="325"/>
       <c r="Z8" s="321" t="s">
         <v>757</v>
@@ -31006,21 +31039,21 @@
         <v>756</v>
       </c>
       <c r="AD8" s="326"/>
-      <c r="AE8" s="471" t="s">
+      <c r="AE8" s="481" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="472"/>
-      <c r="AG8" s="473"/>
-      <c r="AH8" s="465" t="s">
+      <c r="AF8" s="482"/>
+      <c r="AG8" s="483"/>
+      <c r="AH8" s="472" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="466"/>
-      <c r="AJ8" s="467"/>
-      <c r="AK8" s="465" t="s">
+      <c r="AI8" s="473"/>
+      <c r="AJ8" s="474"/>
+      <c r="AK8" s="472" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="466"/>
-      <c r="AM8" s="467"/>
+      <c r="AL8" s="473"/>
+      <c r="AM8" s="474"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -31134,11 +31167,11 @@
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="476" t="str">
+      <c r="V9" s="477" t="str">
         <f ca="1">AS4</f>
         <v>˙</v>
       </c>
-      <c r="W9" s="475"/>
+      <c r="W9" s="476"/>
       <c r="X9" s="353" t="s">
         <v>891</v>
       </c>
@@ -31187,8 +31220,8 @@
         <f ca="1">AN6</f>
         <v>er</v>
       </c>
-      <c r="AK9" s="463"/>
-      <c r="AL9" s="464"/>
+      <c r="AK9" s="479"/>
+      <c r="AL9" s="480"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -31255,31 +31288,31 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="468" t="s">
+      <c r="E10" s="463" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="469"/>
-      <c r="G10" s="470"/>
-      <c r="H10" s="468" t="s">
+      <c r="F10" s="464"/>
+      <c r="G10" s="465"/>
+      <c r="H10" s="463" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="469"/>
-      <c r="J10" s="470"/>
+      <c r="I10" s="464"/>
+      <c r="J10" s="465"/>
       <c r="K10" s="324"/>
       <c r="L10" s="320" t="s">
         <v>746</v>
       </c>
       <c r="M10" s="323"/>
-      <c r="N10" s="468" t="s">
+      <c r="N10" s="463" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="469"/>
-      <c r="P10" s="470"/>
-      <c r="Q10" s="468" t="s">
+      <c r="O10" s="464"/>
+      <c r="P10" s="465"/>
+      <c r="Q10" s="463" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="469"/>
-      <c r="S10" s="470"/>
+      <c r="R10" s="464"/>
+      <c r="S10" s="465"/>
       <c r="T10" s="324"/>
       <c r="U10" s="320" t="s">
         <v>306</v>
@@ -31295,31 +31328,31 @@
         <v>615</v>
       </c>
       <c r="AB10" s="326"/>
-      <c r="AC10" s="471" t="s">
+      <c r="AC10" s="481" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="472"/>
-      <c r="AE10" s="473"/>
-      <c r="AF10" s="471" t="s">
+      <c r="AD10" s="482"/>
+      <c r="AE10" s="483"/>
+      <c r="AF10" s="481" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="472"/>
-      <c r="AH10" s="473"/>
-      <c r="AI10" s="471" t="s">
+      <c r="AG10" s="482"/>
+      <c r="AH10" s="483"/>
+      <c r="AI10" s="481" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="472"/>
-      <c r="AK10" s="473"/>
-      <c r="AL10" s="471" t="s">
+      <c r="AJ10" s="482"/>
+      <c r="AK10" s="483"/>
+      <c r="AL10" s="481" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="472"/>
-      <c r="AN10" s="473"/>
-      <c r="AO10" s="465" t="s">
+      <c r="AM10" s="482"/>
+      <c r="AN10" s="483"/>
+      <c r="AO10" s="472" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="466"/>
-      <c r="AQ10" s="467"/>
+      <c r="AP10" s="473"/>
+      <c r="AQ10" s="474"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="173" cm="1">
         <f t="array" ref="AV10" xml:space="preserve"> ROW() - ROW($8:$8)</f>
@@ -31497,14 +31530,14 @@
         <f ca="1">AK6</f>
         <v>enn</v>
       </c>
-      <c r="AI11" s="463"/>
-      <c r="AJ11" s="464"/>
+      <c r="AI11" s="479"/>
+      <c r="AJ11" s="480"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="463"/>
-      <c r="AM11" s="464"/>
+      <c r="AL11" s="479"/>
+      <c r="AM11" s="480"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="463"/>
-      <c r="AP11" s="464"/>
+      <c r="AO11" s="479"/>
+      <c r="AP11" s="480"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="173" cm="1">
@@ -31565,61 +31598,61 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="468" t="s">
+      <c r="F12" s="463" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="469"/>
-      <c r="H12" s="470"/>
-      <c r="I12" s="468" t="s">
+      <c r="G12" s="464"/>
+      <c r="H12" s="465"/>
+      <c r="I12" s="463" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="469"/>
-      <c r="K12" s="470"/>
-      <c r="L12" s="468" t="s">
+      <c r="J12" s="464"/>
+      <c r="K12" s="465"/>
+      <c r="L12" s="463" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="469"/>
-      <c r="N12" s="470"/>
-      <c r="O12" s="468" t="s">
+      <c r="M12" s="464"/>
+      <c r="N12" s="465"/>
+      <c r="O12" s="463" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="469"/>
-      <c r="Q12" s="470"/>
-      <c r="R12" s="468" t="s">
+      <c r="P12" s="464"/>
+      <c r="Q12" s="465"/>
+      <c r="R12" s="463" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="469"/>
-      <c r="T12" s="470"/>
-      <c r="U12" s="468" t="s">
+      <c r="S12" s="464"/>
+      <c r="T12" s="465"/>
+      <c r="U12" s="463" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="469"/>
-      <c r="W12" s="470"/>
+      <c r="V12" s="464"/>
+      <c r="W12" s="465"/>
       <c r="X12" s="325"/>
       <c r="Y12" s="321" t="s">
         <v>742</v>
       </c>
       <c r="Z12" s="326"/>
-      <c r="AA12" s="471" t="s">
+      <c r="AA12" s="481" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="472"/>
-      <c r="AC12" s="473"/>
+      <c r="AB12" s="482"/>
+      <c r="AC12" s="483"/>
       <c r="AD12" s="325"/>
       <c r="AE12" s="321" t="s">
         <v>724</v>
       </c>
       <c r="AF12" s="326"/>
-      <c r="AG12" s="471" t="s">
+      <c r="AG12" s="481" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="472"/>
-      <c r="AI12" s="473"/>
-      <c r="AJ12" s="465" t="s">
+      <c r="AH12" s="482"/>
+      <c r="AI12" s="483"/>
+      <c r="AJ12" s="472" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="466"/>
-      <c r="AL12" s="467"/>
+      <c r="AK12" s="473"/>
+      <c r="AL12" s="474"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -31806,8 +31839,8 @@
         <f ca="1">AL6</f>
         <v>ang</v>
       </c>
-      <c r="AJ13" s="463"/>
-      <c r="AK13" s="464"/>
+      <c r="AJ13" s="479"/>
+      <c r="AK13" s="480"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -31877,56 +31910,56 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="468" t="s">
+      <c r="G14" s="463" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="469"/>
-      <c r="I14" s="470"/>
-      <c r="J14" s="468" t="s">
+      <c r="H14" s="464"/>
+      <c r="I14" s="465"/>
+      <c r="J14" s="463" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="469"/>
-      <c r="L14" s="470"/>
-      <c r="M14" s="468" t="s">
+      <c r="K14" s="464"/>
+      <c r="L14" s="465"/>
+      <c r="M14" s="463" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="469"/>
-      <c r="O14" s="470"/>
-      <c r="P14" s="468" t="s">
+      <c r="N14" s="464"/>
+      <c r="O14" s="465"/>
+      <c r="P14" s="463" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="469"/>
-      <c r="R14" s="470"/>
-      <c r="S14" s="468" t="s">
+      <c r="Q14" s="464"/>
+      <c r="R14" s="465"/>
+      <c r="S14" s="463" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="469"/>
-      <c r="U14" s="470"/>
-      <c r="V14" s="468" t="s">
+      <c r="T14" s="464"/>
+      <c r="U14" s="465"/>
+      <c r="V14" s="463" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="469"/>
-      <c r="X14" s="470"/>
-      <c r="Y14" s="471" t="s">
+      <c r="W14" s="464"/>
+      <c r="X14" s="465"/>
+      <c r="Y14" s="481" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="472"/>
-      <c r="AA14" s="473"/>
+      <c r="Z14" s="482"/>
+      <c r="AA14" s="483"/>
       <c r="AB14" s="325"/>
       <c r="AC14" s="321" t="s">
         <v>758</v>
       </c>
       <c r="AD14" s="326"/>
-      <c r="AE14" s="471" t="s">
+      <c r="AE14" s="481" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="472"/>
-      <c r="AG14" s="473"/>
-      <c r="AH14" s="465" t="s">
+      <c r="AF14" s="482"/>
+      <c r="AG14" s="483"/>
+      <c r="AH14" s="472" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="466"/>
-      <c r="AJ14" s="467"/>
+      <c r="AI14" s="473"/>
+      <c r="AJ14" s="474"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -35918,16 +35951,24 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
     <mergeCell ref="AO10:AQ10"/>
     <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AL11:AM11"/>
@@ -35944,24 +35985,16 @@
     <mergeCell ref="AF10:AH10"/>
     <mergeCell ref="AI10:AK10"/>
     <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/鍵盤設計規格_河洛注音.xlsx
+++ b/docs/鍵盤設計規格_河洛注音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5FBD75-D9E9-4011-B873-46F40F27A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C712F6-67EF-4043-A0C4-91A287A91CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="9" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
   </bookViews>
   <sheets>
     <sheet name="鍵盤圖" sheetId="6" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <definedName name="鍵盤位置" localSheetId="10">'RIME對映編碼 (原設計)'!$W$3:$W$47</definedName>
     <definedName name="鍵盤位置" localSheetId="4">'RIME對映編碼 (萌台語)'!$R$3:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2540,7 +2540,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ㄉㄊㄌㄍㄎ</t>
     </r>
@@ -2557,7 +2556,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ㄗㄘ</t>
     </r>
@@ -2574,7 +2572,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ㄙㄏㄧㄨㄚ</t>
     </r>
@@ -2591,7 +2588,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ㄜ</t>
     </r>
@@ -2608,7 +2604,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ㄞㄠ</t>
     </r>
@@ -2625,7 +2620,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ㄣ</t>
     </r>
@@ -3416,7 +3410,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>n</t>
     </r>
@@ -3446,7 +3439,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3468,7 +3460,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3490,7 +3481,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3535,7 +3525,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3660,7 +3649,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3727,7 +3715,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3749,7 +3736,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3771,7 +3757,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3793,7 +3778,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3815,7 +3799,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3845,7 +3828,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3867,7 +3849,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3889,7 +3870,6 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -4483,14 +4463,12 @@
     <font>
       <sz val="20"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -4547,7 +4525,6 @@
     <font>
       <sz val="18"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -4787,7 +4764,6 @@
       <sz val="18"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -4992,7 +4968,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5046,7 +5021,6 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5058,7 +5032,6 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5071,7 +5044,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5084,7 +5056,6 @@
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5166,7 +5137,6 @@
       <sz val="12"/>
       <color theme="9"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5242,7 +5212,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5398,7 +5367,6 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5484,7 +5452,6 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -7440,70 +7407,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7524,22 +7434,28 @@
     <xf numFmtId="0" fontId="91" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7551,13 +7467,79 @@
     <xf numFmtId="0" fontId="97" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="95" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7567,6 +7549,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7587,42 +7590,6 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7635,19 +7602,43 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7656,19 +7647,10 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7695,23 +7677,8 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10411,61 +10378,61 @@
   <sheetData>
     <row r="1" spans="2:44" ht="15" thickBot="1"/>
     <row r="2" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="448">
+      <c r="C2" s="429">
         <v>1</v>
       </c>
-      <c r="D2" s="449"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="448">
+      <c r="D2" s="430"/>
+      <c r="E2" s="431"/>
+      <c r="F2" s="429">
         <v>2</v>
       </c>
-      <c r="G2" s="449"/>
-      <c r="H2" s="450"/>
-      <c r="I2" s="438">
+      <c r="G2" s="430"/>
+      <c r="H2" s="431"/>
+      <c r="I2" s="453">
         <v>3</v>
       </c>
-      <c r="J2" s="439"/>
-      <c r="K2" s="440"/>
-      <c r="L2" s="438">
+      <c r="J2" s="454"/>
+      <c r="K2" s="455"/>
+      <c r="L2" s="453">
         <v>4</v>
       </c>
-      <c r="M2" s="439"/>
-      <c r="N2" s="440"/>
-      <c r="O2" s="438">
+      <c r="M2" s="454"/>
+      <c r="N2" s="455"/>
+      <c r="O2" s="453">
         <v>5</v>
       </c>
-      <c r="P2" s="439"/>
-      <c r="Q2" s="440"/>
-      <c r="R2" s="438">
+      <c r="P2" s="454"/>
+      <c r="Q2" s="455"/>
+      <c r="R2" s="453">
         <v>6</v>
       </c>
-      <c r="S2" s="439"/>
-      <c r="T2" s="440"/>
-      <c r="U2" s="438">
+      <c r="S2" s="454"/>
+      <c r="T2" s="455"/>
+      <c r="U2" s="453">
         <v>7</v>
       </c>
-      <c r="V2" s="439"/>
-      <c r="W2" s="440"/>
-      <c r="X2" s="429">
+      <c r="V2" s="454"/>
+      <c r="W2" s="455"/>
+      <c r="X2" s="432">
         <v>8</v>
       </c>
-      <c r="Y2" s="424"/>
-      <c r="Z2" s="425"/>
-      <c r="AA2" s="429">
+      <c r="Y2" s="433"/>
+      <c r="Z2" s="434"/>
+      <c r="AA2" s="432">
         <v>9</v>
       </c>
-      <c r="AB2" s="424"/>
-      <c r="AC2" s="425"/>
-      <c r="AD2" s="429">
+      <c r="AB2" s="433"/>
+      <c r="AC2" s="434"/>
+      <c r="AD2" s="432">
         <v>0</v>
       </c>
-      <c r="AE2" s="424"/>
-      <c r="AF2" s="425"/>
-      <c r="AG2" s="423" t="s">
+      <c r="AE2" s="433"/>
+      <c r="AF2" s="434"/>
+      <c r="AG2" s="457" t="s">
         <v>451</v>
       </c>
-      <c r="AH2" s="424"/>
-      <c r="AI2" s="425"/>
+      <c r="AH2" s="433"/>
+      <c r="AI2" s="434"/>
       <c r="AJ2" s="142"/>
       <c r="AK2" s="142"/>
       <c r="AL2" s="142"/>
@@ -10474,56 +10441,56 @@
       </c>
     </row>
     <row r="3" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="C3" s="445" t="str">
+      <c r="C3" s="426" t="str">
         <f>D14</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="446"/>
-      <c r="E3" s="447"/>
-      <c r="F3" s="445" t="str">
+      <c r="D3" s="427"/>
+      <c r="E3" s="428"/>
+      <c r="F3" s="426" t="str">
         <f>H14</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="446"/>
-      <c r="H3" s="447"/>
-      <c r="I3" s="442" t="s">
+      <c r="G3" s="427"/>
+      <c r="H3" s="428"/>
+      <c r="I3" s="450" t="s">
         <v>449</v>
       </c>
-      <c r="J3" s="443"/>
-      <c r="K3" s="444"/>
-      <c r="L3" s="442" t="s">
+      <c r="J3" s="451"/>
+      <c r="K3" s="452"/>
+      <c r="L3" s="450" t="s">
         <v>448</v>
       </c>
-      <c r="M3" s="443"/>
-      <c r="N3" s="444"/>
-      <c r="O3" s="442"/>
-      <c r="P3" s="443"/>
-      <c r="Q3" s="444"/>
-      <c r="R3" s="451" t="s">
+      <c r="M3" s="451"/>
+      <c r="N3" s="452"/>
+      <c r="O3" s="450"/>
+      <c r="P3" s="451"/>
+      <c r="Q3" s="452"/>
+      <c r="R3" s="447" t="s">
         <v>447</v>
       </c>
-      <c r="S3" s="452"/>
-      <c r="T3" s="453"/>
-      <c r="U3" s="442" t="s">
+      <c r="S3" s="448"/>
+      <c r="T3" s="449"/>
+      <c r="U3" s="450" t="s">
         <v>446</v>
       </c>
-      <c r="V3" s="443"/>
-      <c r="W3" s="444"/>
-      <c r="X3" s="430" t="str">
+      <c r="V3" s="451"/>
+      <c r="W3" s="452"/>
+      <c r="X3" s="443" t="str">
         <f>D20</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="431"/>
-      <c r="Z3" s="432"/>
-      <c r="AA3" s="430"/>
-      <c r="AB3" s="431"/>
-      <c r="AC3" s="432"/>
-      <c r="AD3" s="430"/>
-      <c r="AE3" s="431"/>
-      <c r="AF3" s="432"/>
-      <c r="AG3" s="426"/>
-      <c r="AH3" s="427"/>
-      <c r="AI3" s="428"/>
+      <c r="Y3" s="444"/>
+      <c r="Z3" s="445"/>
+      <c r="AA3" s="443"/>
+      <c r="AB3" s="444"/>
+      <c r="AC3" s="445"/>
+      <c r="AD3" s="443"/>
+      <c r="AE3" s="444"/>
+      <c r="AF3" s="445"/>
+      <c r="AG3" s="458"/>
+      <c r="AH3" s="459"/>
+      <c r="AI3" s="460"/>
       <c r="AQ3" s="156" t="s">
         <v>445</v>
       </c>
@@ -10532,109 +10499,109 @@
       </c>
     </row>
     <row r="4" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="448" t="s">
+      <c r="D4" s="429" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="449"/>
-      <c r="F4" s="450"/>
-      <c r="G4" s="448" t="s">
+      <c r="E4" s="430"/>
+      <c r="F4" s="431"/>
+      <c r="G4" s="429" t="s">
         <v>379</v>
       </c>
-      <c r="H4" s="449"/>
-      <c r="I4" s="450"/>
-      <c r="J4" s="448" t="s">
+      <c r="H4" s="430"/>
+      <c r="I4" s="431"/>
+      <c r="J4" s="429" t="s">
         <v>443</v>
       </c>
-      <c r="K4" s="449"/>
-      <c r="L4" s="450"/>
-      <c r="M4" s="448" t="s">
+      <c r="K4" s="430"/>
+      <c r="L4" s="431"/>
+      <c r="M4" s="429" t="s">
         <v>442</v>
       </c>
-      <c r="N4" s="449"/>
-      <c r="O4" s="450"/>
-      <c r="P4" s="448" t="s">
+      <c r="N4" s="430"/>
+      <c r="O4" s="431"/>
+      <c r="P4" s="429" t="s">
         <v>441</v>
       </c>
-      <c r="Q4" s="449"/>
-      <c r="R4" s="450"/>
-      <c r="S4" s="448" t="s">
+      <c r="Q4" s="430"/>
+      <c r="R4" s="431"/>
+      <c r="S4" s="429" t="s">
         <v>440</v>
       </c>
-      <c r="T4" s="449"/>
-      <c r="U4" s="450"/>
-      <c r="V4" s="429" t="s">
+      <c r="T4" s="430"/>
+      <c r="U4" s="431"/>
+      <c r="V4" s="432" t="s">
         <v>439</v>
       </c>
-      <c r="W4" s="424"/>
-      <c r="X4" s="425"/>
-      <c r="Y4" s="429" t="s">
+      <c r="W4" s="433"/>
+      <c r="X4" s="434"/>
+      <c r="Y4" s="432" t="s">
         <v>438</v>
       </c>
-      <c r="Z4" s="424"/>
-      <c r="AA4" s="425"/>
-      <c r="AB4" s="429" t="s">
+      <c r="Z4" s="433"/>
+      <c r="AA4" s="434"/>
+      <c r="AB4" s="432" t="s">
         <v>435</v>
       </c>
-      <c r="AC4" s="424"/>
-      <c r="AD4" s="425"/>
-      <c r="AE4" s="429" t="s">
+      <c r="AC4" s="433"/>
+      <c r="AD4" s="434"/>
+      <c r="AE4" s="432" t="s">
         <v>437</v>
       </c>
-      <c r="AF4" s="424"/>
-      <c r="AG4" s="425"/>
+      <c r="AF4" s="433"/>
+      <c r="AG4" s="434"/>
       <c r="AJ4" s="142"/>
       <c r="AK4" s="142"/>
       <c r="AL4" s="142"/>
     </row>
     <row r="5" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="D5" s="445" t="str">
+      <c r="D5" s="426" t="str">
         <f>E14</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="446"/>
-      <c r="F5" s="447"/>
-      <c r="G5" s="445" t="str">
+      <c r="E5" s="427"/>
+      <c r="F5" s="428"/>
+      <c r="G5" s="426" t="str">
         <f>I14</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="446"/>
-      <c r="I5" s="447"/>
-      <c r="J5" s="445" t="str">
+      <c r="H5" s="427"/>
+      <c r="I5" s="428"/>
+      <c r="J5" s="426" t="str">
         <f>L14</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="446"/>
-      <c r="L5" s="447"/>
-      <c r="M5" s="445"/>
-      <c r="N5" s="446"/>
-      <c r="O5" s="447"/>
-      <c r="P5" s="454" t="str">
+      <c r="K5" s="427"/>
+      <c r="L5" s="428"/>
+      <c r="M5" s="426"/>
+      <c r="N5" s="427"/>
+      <c r="O5" s="428"/>
+      <c r="P5" s="423" t="str">
         <f>F14</f>
         <v>ㆠ</v>
       </c>
-      <c r="Q5" s="455"/>
-      <c r="R5" s="456"/>
-      <c r="S5" s="445" t="str">
+      <c r="Q5" s="424"/>
+      <c r="R5" s="425"/>
+      <c r="S5" s="426" t="str">
         <f>Q14</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="446"/>
-      <c r="U5" s="447"/>
-      <c r="V5" s="430" t="str">
+      <c r="T5" s="427"/>
+      <c r="U5" s="428"/>
+      <c r="V5" s="443" t="str">
         <f>F20</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="431"/>
-      <c r="X5" s="432"/>
-      <c r="Y5" s="430" t="str">
+      <c r="W5" s="444"/>
+      <c r="X5" s="445"/>
+      <c r="Y5" s="443" t="str">
         <f>L20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="431"/>
-      <c r="AA5" s="432"/>
-      <c r="AB5" s="430"/>
-      <c r="AC5" s="431"/>
-      <c r="AD5" s="432"/>
+      <c r="Z5" s="444"/>
+      <c r="AA5" s="445"/>
+      <c r="AB5" s="443"/>
+      <c r="AC5" s="444"/>
+      <c r="AD5" s="445"/>
       <c r="AE5" s="435" t="str">
         <f>P20</f>
         <v>ㄣ</v>
@@ -10650,109 +10617,109 @@
     </row>
     <row r="6" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="157"/>
-      <c r="E6" s="448" t="s">
+      <c r="E6" s="429" t="s">
         <v>434</v>
       </c>
-      <c r="F6" s="449"/>
-      <c r="G6" s="450"/>
-      <c r="H6" s="448" t="s">
+      <c r="F6" s="430"/>
+      <c r="G6" s="431"/>
+      <c r="H6" s="429" t="s">
         <v>433</v>
       </c>
-      <c r="I6" s="449"/>
-      <c r="J6" s="450"/>
-      <c r="K6" s="448" t="s">
+      <c r="I6" s="430"/>
+      <c r="J6" s="431"/>
+      <c r="K6" s="429" t="s">
         <v>432</v>
       </c>
-      <c r="L6" s="449"/>
-      <c r="M6" s="450"/>
-      <c r="N6" s="448" t="s">
+      <c r="L6" s="430"/>
+      <c r="M6" s="431"/>
+      <c r="N6" s="429" t="s">
         <v>431</v>
       </c>
-      <c r="O6" s="449"/>
-      <c r="P6" s="450"/>
-      <c r="Q6" s="448" t="s">
+      <c r="O6" s="430"/>
+      <c r="P6" s="431"/>
+      <c r="Q6" s="429" t="s">
         <v>430</v>
       </c>
-      <c r="R6" s="449"/>
-      <c r="S6" s="450"/>
-      <c r="T6" s="448" t="s">
+      <c r="R6" s="430"/>
+      <c r="S6" s="431"/>
+      <c r="T6" s="429" t="s">
         <v>429</v>
       </c>
-      <c r="U6" s="449"/>
-      <c r="V6" s="450"/>
-      <c r="W6" s="429" t="s">
+      <c r="U6" s="430"/>
+      <c r="V6" s="431"/>
+      <c r="W6" s="432" t="s">
         <v>428</v>
       </c>
-      <c r="X6" s="424"/>
-      <c r="Y6" s="425"/>
-      <c r="Z6" s="429" t="s">
+      <c r="X6" s="433"/>
+      <c r="Y6" s="434"/>
+      <c r="Z6" s="432" t="s">
         <v>427</v>
       </c>
-      <c r="AA6" s="424"/>
-      <c r="AB6" s="425"/>
-      <c r="AC6" s="429" t="s">
+      <c r="AA6" s="433"/>
+      <c r="AB6" s="434"/>
+      <c r="AC6" s="432" t="s">
         <v>426</v>
       </c>
-      <c r="AD6" s="424"/>
-      <c r="AE6" s="425"/>
-      <c r="AF6" s="429" t="s">
+      <c r="AD6" s="433"/>
+      <c r="AE6" s="434"/>
+      <c r="AF6" s="432" t="s">
         <v>425</v>
       </c>
-      <c r="AG6" s="424"/>
-      <c r="AH6" s="425"/>
+      <c r="AG6" s="433"/>
+      <c r="AH6" s="434"/>
     </row>
     <row r="7" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="457" t="str">
+      <c r="E7" s="440" t="str">
         <f>G14</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="458"/>
-      <c r="G7" s="459"/>
-      <c r="H7" s="445" t="str">
+      <c r="F7" s="441"/>
+      <c r="G7" s="442"/>
+      <c r="H7" s="426" t="str">
         <f>J14</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="446"/>
-      <c r="J7" s="447"/>
-      <c r="K7" s="445" t="str">
+      <c r="I7" s="427"/>
+      <c r="J7" s="428"/>
+      <c r="K7" s="426" t="str">
         <f>M14</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="446"/>
-      <c r="M7" s="447"/>
-      <c r="N7" s="445"/>
-      <c r="O7" s="446"/>
-      <c r="P7" s="447"/>
-      <c r="Q7" s="460" t="str">
+      <c r="L7" s="427"/>
+      <c r="M7" s="428"/>
+      <c r="N7" s="426"/>
+      <c r="O7" s="427"/>
+      <c r="P7" s="428"/>
+      <c r="Q7" s="446" t="str">
         <f>N14</f>
         <v>ㆣ</v>
       </c>
-      <c r="R7" s="455"/>
-      <c r="S7" s="456"/>
-      <c r="T7" s="445" t="str">
+      <c r="R7" s="424"/>
+      <c r="S7" s="425"/>
+      <c r="T7" s="426" t="str">
         <f>R14</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="446"/>
-      <c r="V7" s="447"/>
-      <c r="W7" s="430" t="str">
+      <c r="U7" s="427"/>
+      <c r="V7" s="428"/>
+      <c r="W7" s="443" t="str">
         <f>H20</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="431"/>
-      <c r="Y7" s="432"/>
-      <c r="Z7" s="430" t="str">
+      <c r="X7" s="444"/>
+      <c r="Y7" s="445"/>
+      <c r="Z7" s="443" t="str">
         <f>N20</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="431"/>
-      <c r="AB7" s="432"/>
-      <c r="AC7" s="430"/>
-      <c r="AD7" s="431"/>
-      <c r="AE7" s="432"/>
-      <c r="AF7" s="434"/>
-      <c r="AG7" s="431"/>
-      <c r="AH7" s="432"/>
+      <c r="AA7" s="444"/>
+      <c r="AB7" s="445"/>
+      <c r="AC7" s="443"/>
+      <c r="AD7" s="444"/>
+      <c r="AE7" s="445"/>
+      <c r="AF7" s="462"/>
+      <c r="AG7" s="444"/>
+      <c r="AH7" s="445"/>
       <c r="AQ7" s="156" t="s">
         <v>424</v>
       </c>
@@ -10761,112 +10728,112 @@
       </c>
     </row>
     <row r="8" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="448" t="s">
+      <c r="F8" s="429" t="s">
         <v>422</v>
       </c>
-      <c r="G8" s="449"/>
-      <c r="H8" s="450"/>
-      <c r="I8" s="448" t="s">
+      <c r="G8" s="430"/>
+      <c r="H8" s="431"/>
+      <c r="I8" s="429" t="s">
         <v>421</v>
       </c>
-      <c r="J8" s="449"/>
-      <c r="K8" s="450"/>
-      <c r="L8" s="448" t="s">
+      <c r="J8" s="430"/>
+      <c r="K8" s="431"/>
+      <c r="L8" s="429" t="s">
         <v>420</v>
       </c>
-      <c r="M8" s="449"/>
-      <c r="N8" s="450"/>
-      <c r="O8" s="448" t="s">
+      <c r="M8" s="430"/>
+      <c r="N8" s="431"/>
+      <c r="O8" s="429" t="s">
         <v>419</v>
       </c>
-      <c r="P8" s="449"/>
-      <c r="Q8" s="450"/>
-      <c r="R8" s="448" t="s">
+      <c r="P8" s="430"/>
+      <c r="Q8" s="431"/>
+      <c r="R8" s="429" t="s">
         <v>418</v>
       </c>
-      <c r="S8" s="449"/>
-      <c r="T8" s="450"/>
-      <c r="U8" s="448" t="s">
+      <c r="S8" s="430"/>
+      <c r="T8" s="431"/>
+      <c r="U8" s="429" t="s">
         <v>377</v>
       </c>
-      <c r="V8" s="449"/>
-      <c r="W8" s="450"/>
-      <c r="X8" s="429" t="s">
+      <c r="V8" s="430"/>
+      <c r="W8" s="431"/>
+      <c r="X8" s="432" t="s">
         <v>417</v>
       </c>
-      <c r="Y8" s="424"/>
-      <c r="Z8" s="425"/>
-      <c r="AA8" s="429" t="s">
+      <c r="Y8" s="433"/>
+      <c r="Z8" s="434"/>
+      <c r="AA8" s="432" t="s">
         <v>416</v>
       </c>
-      <c r="AB8" s="424"/>
-      <c r="AC8" s="425"/>
-      <c r="AD8" s="429" t="s">
+      <c r="AB8" s="433"/>
+      <c r="AC8" s="434"/>
+      <c r="AD8" s="432" t="s">
         <v>415</v>
       </c>
-      <c r="AE8" s="424"/>
-      <c r="AF8" s="425"/>
-      <c r="AG8" s="433" t="s">
+      <c r="AE8" s="433"/>
+      <c r="AF8" s="434"/>
+      <c r="AG8" s="461" t="s">
         <v>414</v>
       </c>
-      <c r="AH8" s="424"/>
-      <c r="AI8" s="425"/>
+      <c r="AH8" s="433"/>
+      <c r="AI8" s="434"/>
     </row>
     <row r="9" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="F9" s="445"/>
-      <c r="G9" s="461"/>
-      <c r="H9" s="462"/>
-      <c r="I9" s="445" t="str">
+      <c r="F9" s="426"/>
+      <c r="G9" s="438"/>
+      <c r="H9" s="439"/>
+      <c r="I9" s="426" t="str">
         <f>K14</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="446"/>
-      <c r="K9" s="447"/>
-      <c r="L9" s="445" t="str">
+      <c r="J9" s="427"/>
+      <c r="K9" s="428"/>
+      <c r="L9" s="426" t="str">
         <f>P14</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="446"/>
-      <c r="N9" s="447"/>
-      <c r="O9" s="457" t="str">
+      <c r="M9" s="427"/>
+      <c r="N9" s="428"/>
+      <c r="O9" s="440" t="str">
         <f>O14</f>
         <v>ㄫ</v>
       </c>
-      <c r="P9" s="458"/>
-      <c r="Q9" s="459"/>
-      <c r="R9" s="454" t="str">
+      <c r="P9" s="441"/>
+      <c r="Q9" s="442"/>
+      <c r="R9" s="423" t="str">
         <f>S14</f>
         <v>ㆡ</v>
       </c>
-      <c r="S9" s="455"/>
-      <c r="T9" s="456"/>
-      <c r="U9" s="445" t="str">
+      <c r="S9" s="424"/>
+      <c r="T9" s="425"/>
+      <c r="U9" s="426" t="str">
         <f>T14</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="446"/>
-      <c r="W9" s="447"/>
+      <c r="V9" s="427"/>
+      <c r="W9" s="428"/>
       <c r="X9" s="435" t="str">
         <f>O20</f>
         <v>ㆬ</v>
       </c>
       <c r="Y9" s="436"/>
       <c r="Z9" s="437"/>
-      <c r="AA9" s="430" t="str">
+      <c r="AA9" s="443" t="str">
         <f>J20</f>
         <v>ㄝ</v>
       </c>
-      <c r="AB9" s="431"/>
-      <c r="AC9" s="432"/>
-      <c r="AD9" s="441" t="str">
+      <c r="AB9" s="444"/>
+      <c r="AC9" s="445"/>
+      <c r="AD9" s="456" t="str">
         <f>Q20</f>
         <v>ㄥ</v>
       </c>
       <c r="AE9" s="436"/>
       <c r="AF9" s="437"/>
-      <c r="AG9" s="430"/>
-      <c r="AH9" s="431"/>
-      <c r="AI9" s="432"/>
+      <c r="AG9" s="443"/>
+      <c r="AH9" s="444"/>
+      <c r="AI9" s="445"/>
     </row>
     <row r="12" spans="2:44">
       <c r="Z12" s="155"/>
@@ -11317,20 +11284,58 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
     <mergeCell ref="T7:V7"/>
     <mergeCell ref="W7:Y7"/>
     <mergeCell ref="T6:V6"/>
@@ -11347,58 +11352,20 @@
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11411,8 +11378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FD1CD5-4651-439A-98A6-5245A83D236D}">
   <dimension ref="B1:AG60"/>
   <sheetViews>
-    <sheetView topLeftCell="L19" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="32.25"/>
@@ -18103,8 +18070,8 @@
       <c r="AN1" s="77"/>
       <c r="AO1" s="77"/>
       <c r="AP1" s="77"/>
-      <c r="AQ1" s="489"/>
-      <c r="AR1" s="489"/>
+      <c r="AQ1" s="491"/>
+      <c r="AR1" s="491"/>
       <c r="AS1" s="77"/>
       <c r="AT1" s="77"/>
       <c r="AU1" s="77"/>
@@ -19421,66 +19388,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C11" s="490" t="str">
+      <c r="C11" s="489" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D11" s="490"/>
-      <c r="E11" s="490"/>
-      <c r="F11" s="490"/>
-      <c r="G11" s="490"/>
-      <c r="H11" s="490"/>
-      <c r="I11" s="490"/>
-      <c r="J11" s="490"/>
-      <c r="K11" s="490"/>
-      <c r="L11" s="490"/>
-      <c r="M11" s="490"/>
-      <c r="N11" s="490"/>
-      <c r="O11" s="490"/>
-      <c r="P11" s="490"/>
-      <c r="Q11" s="490"/>
-      <c r="R11" s="490"/>
-      <c r="S11" s="490"/>
-      <c r="T11" s="490"/>
-      <c r="U11" s="490"/>
-      <c r="V11" s="490"/>
-      <c r="W11" s="490"/>
-      <c r="X11" s="490"/>
-      <c r="Y11" s="490"/>
-      <c r="Z11" s="490"/>
+      <c r="D11" s="489"/>
+      <c r="E11" s="489"/>
+      <c r="F11" s="489"/>
+      <c r="G11" s="489"/>
+      <c r="H11" s="489"/>
+      <c r="I11" s="489"/>
+      <c r="J11" s="489"/>
+      <c r="K11" s="489"/>
+      <c r="L11" s="489"/>
+      <c r="M11" s="489"/>
+      <c r="N11" s="489"/>
+      <c r="O11" s="489"/>
+      <c r="P11" s="489"/>
+      <c r="Q11" s="489"/>
+      <c r="R11" s="489"/>
+      <c r="S11" s="489"/>
+      <c r="T11" s="489"/>
+      <c r="U11" s="489"/>
+      <c r="V11" s="489"/>
+      <c r="W11" s="489"/>
+      <c r="X11" s="489"/>
+      <c r="Y11" s="489"/>
+      <c r="Z11" s="489"/>
     </row>
     <row r="12" spans="1:47" s="76" customFormat="1" ht="23.25">
       <c r="B12" s="85" t="str">
         <f>B8</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C12" s="488" t="str">
+      <c r="C12" s="490" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D12" s="488"/>
-      <c r="E12" s="488"/>
-      <c r="F12" s="488"/>
-      <c r="G12" s="488"/>
-      <c r="H12" s="488"/>
-      <c r="I12" s="488"/>
-      <c r="J12" s="488"/>
-      <c r="K12" s="488"/>
-      <c r="L12" s="488"/>
-      <c r="M12" s="488"/>
-      <c r="N12" s="488"/>
-      <c r="O12" s="488"/>
-      <c r="P12" s="488"/>
-      <c r="Q12" s="488"/>
-      <c r="R12" s="488"/>
-      <c r="S12" s="488"/>
-      <c r="T12" s="488"/>
-      <c r="U12" s="488"/>
-      <c r="V12" s="488"/>
-      <c r="W12" s="488"/>
-      <c r="X12" s="488"/>
-      <c r="Y12" s="488"/>
-      <c r="Z12" s="488"/>
+      <c r="D12" s="490"/>
+      <c r="E12" s="490"/>
+      <c r="F12" s="490"/>
+      <c r="G12" s="490"/>
+      <c r="H12" s="490"/>
+      <c r="I12" s="490"/>
+      <c r="J12" s="490"/>
+      <c r="K12" s="490"/>
+      <c r="L12" s="490"/>
+      <c r="M12" s="490"/>
+      <c r="N12" s="490"/>
+      <c r="O12" s="490"/>
+      <c r="P12" s="490"/>
+      <c r="Q12" s="490"/>
+      <c r="R12" s="490"/>
+      <c r="S12" s="490"/>
+      <c r="T12" s="490"/>
+      <c r="U12" s="490"/>
+      <c r="V12" s="490"/>
+      <c r="W12" s="490"/>
+      <c r="X12" s="490"/>
+      <c r="Y12" s="490"/>
+      <c r="Z12" s="490"/>
     </row>
     <row r="13" spans="1:47" s="76" customFormat="1" ht="23.25"/>
     <row r="14" spans="1:47" s="76" customFormat="1" ht="38.25">
@@ -19489,34 +19456,34 @@
       </c>
     </row>
     <row r="15" spans="1:47" s="76" customFormat="1" ht="23.25">
-      <c r="B15" s="491" t="str">
+      <c r="B15" s="488" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C11 &amp; "|" &amp; C12 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|</v>
       </c>
-      <c r="C15" s="491"/>
-      <c r="D15" s="491"/>
-      <c r="E15" s="491"/>
-      <c r="F15" s="491"/>
-      <c r="G15" s="491"/>
-      <c r="H15" s="491"/>
-      <c r="I15" s="491"/>
-      <c r="J15" s="491"/>
-      <c r="K15" s="491"/>
-      <c r="L15" s="491"/>
-      <c r="M15" s="491"/>
-      <c r="N15" s="491"/>
-      <c r="O15" s="491"/>
-      <c r="P15" s="491"/>
-      <c r="Q15" s="491"/>
-      <c r="R15" s="491"/>
-      <c r="S15" s="491"/>
-      <c r="T15" s="491"/>
-      <c r="U15" s="491"/>
-      <c r="V15" s="491"/>
-      <c r="W15" s="491"/>
-      <c r="X15" s="491"/>
-      <c r="Y15" s="491"/>
-      <c r="Z15" s="491"/>
+      <c r="C15" s="488"/>
+      <c r="D15" s="488"/>
+      <c r="E15" s="488"/>
+      <c r="F15" s="488"/>
+      <c r="G15" s="488"/>
+      <c r="H15" s="488"/>
+      <c r="I15" s="488"/>
+      <c r="J15" s="488"/>
+      <c r="K15" s="488"/>
+      <c r="L15" s="488"/>
+      <c r="M15" s="488"/>
+      <c r="N15" s="488"/>
+      <c r="O15" s="488"/>
+      <c r="P15" s="488"/>
+      <c r="Q15" s="488"/>
+      <c r="R15" s="488"/>
+      <c r="S15" s="488"/>
+      <c r="T15" s="488"/>
+      <c r="U15" s="488"/>
+      <c r="V15" s="488"/>
+      <c r="W15" s="488"/>
+      <c r="X15" s="488"/>
+      <c r="Y15" s="488"/>
+      <c r="Z15" s="488"/>
     </row>
     <row r="16" spans="1:47" s="76" customFormat="1" ht="23.25"/>
     <row r="17" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -19530,66 +19497,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C19" s="490" t="str">
+      <c r="C19" s="489" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D19" s="490"/>
-      <c r="E19" s="490"/>
-      <c r="F19" s="490"/>
-      <c r="G19" s="490"/>
-      <c r="H19" s="490"/>
-      <c r="I19" s="490"/>
-      <c r="J19" s="490"/>
-      <c r="K19" s="490"/>
-      <c r="L19" s="490"/>
-      <c r="M19" s="490"/>
-      <c r="N19" s="490"/>
-      <c r="O19" s="490"/>
-      <c r="P19" s="490"/>
-      <c r="Q19" s="490"/>
-      <c r="R19" s="490"/>
-      <c r="S19" s="490"/>
-      <c r="T19" s="490"/>
-      <c r="U19" s="490"/>
-      <c r="V19" s="490"/>
-      <c r="W19" s="490"/>
-      <c r="X19" s="490"/>
-      <c r="Y19" s="490"/>
-      <c r="Z19" s="490"/>
+      <c r="D19" s="489"/>
+      <c r="E19" s="489"/>
+      <c r="F19" s="489"/>
+      <c r="G19" s="489"/>
+      <c r="H19" s="489"/>
+      <c r="I19" s="489"/>
+      <c r="J19" s="489"/>
+      <c r="K19" s="489"/>
+      <c r="L19" s="489"/>
+      <c r="M19" s="489"/>
+      <c r="N19" s="489"/>
+      <c r="O19" s="489"/>
+      <c r="P19" s="489"/>
+      <c r="Q19" s="489"/>
+      <c r="R19" s="489"/>
+      <c r="S19" s="489"/>
+      <c r="T19" s="489"/>
+      <c r="U19" s="489"/>
+      <c r="V19" s="489"/>
+      <c r="W19" s="489"/>
+      <c r="X19" s="489"/>
+      <c r="Y19" s="489"/>
+      <c r="Z19" s="489"/>
     </row>
     <row r="20" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B20" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C20" s="488" t="str">
+      <c r="C20" s="490" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D20" s="488"/>
-      <c r="E20" s="488"/>
-      <c r="F20" s="488"/>
-      <c r="G20" s="488"/>
-      <c r="H20" s="488"/>
-      <c r="I20" s="488"/>
-      <c r="J20" s="488"/>
-      <c r="K20" s="488"/>
-      <c r="L20" s="488"/>
-      <c r="M20" s="488"/>
-      <c r="N20" s="488"/>
-      <c r="O20" s="488"/>
-      <c r="P20" s="488"/>
-      <c r="Q20" s="488"/>
-      <c r="R20" s="488"/>
-      <c r="S20" s="488"/>
-      <c r="T20" s="488"/>
-      <c r="U20" s="488"/>
-      <c r="V20" s="488"/>
-      <c r="W20" s="488"/>
-      <c r="X20" s="488"/>
-      <c r="Y20" s="488"/>
-      <c r="Z20" s="488"/>
+      <c r="D20" s="490"/>
+      <c r="E20" s="490"/>
+      <c r="F20" s="490"/>
+      <c r="G20" s="490"/>
+      <c r="H20" s="490"/>
+      <c r="I20" s="490"/>
+      <c r="J20" s="490"/>
+      <c r="K20" s="490"/>
+      <c r="L20" s="490"/>
+      <c r="M20" s="490"/>
+      <c r="N20" s="490"/>
+      <c r="O20" s="490"/>
+      <c r="P20" s="490"/>
+      <c r="Q20" s="490"/>
+      <c r="R20" s="490"/>
+      <c r="S20" s="490"/>
+      <c r="T20" s="490"/>
+      <c r="U20" s="490"/>
+      <c r="V20" s="490"/>
+      <c r="W20" s="490"/>
+      <c r="X20" s="490"/>
+      <c r="Y20" s="490"/>
+      <c r="Z20" s="490"/>
     </row>
     <row r="21" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="22" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -19598,34 +19565,34 @@
       </c>
     </row>
     <row r="23" spans="2:26" s="76" customFormat="1" ht="23.25">
-      <c r="B23" s="491" t="str">
+      <c r="B23" s="488" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C19 &amp; "|" &amp; C20 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C23" s="491"/>
-      <c r="D23" s="491"/>
-      <c r="E23" s="491"/>
-      <c r="F23" s="491"/>
-      <c r="G23" s="491"/>
-      <c r="H23" s="491"/>
-      <c r="I23" s="491"/>
-      <c r="J23" s="491"/>
-      <c r="K23" s="491"/>
-      <c r="L23" s="491"/>
-      <c r="M23" s="491"/>
-      <c r="N23" s="491"/>
-      <c r="O23" s="491"/>
-      <c r="P23" s="491"/>
-      <c r="Q23" s="491"/>
-      <c r="R23" s="491"/>
-      <c r="S23" s="491"/>
-      <c r="T23" s="491"/>
-      <c r="U23" s="491"/>
-      <c r="V23" s="491"/>
-      <c r="W23" s="491"/>
-      <c r="X23" s="491"/>
-      <c r="Y23" s="491"/>
-      <c r="Z23" s="491"/>
+      <c r="C23" s="488"/>
+      <c r="D23" s="488"/>
+      <c r="E23" s="488"/>
+      <c r="F23" s="488"/>
+      <c r="G23" s="488"/>
+      <c r="H23" s="488"/>
+      <c r="I23" s="488"/>
+      <c r="J23" s="488"/>
+      <c r="K23" s="488"/>
+      <c r="L23" s="488"/>
+      <c r="M23" s="488"/>
+      <c r="N23" s="488"/>
+      <c r="O23" s="488"/>
+      <c r="P23" s="488"/>
+      <c r="Q23" s="488"/>
+      <c r="R23" s="488"/>
+      <c r="S23" s="488"/>
+      <c r="T23" s="488"/>
+      <c r="U23" s="488"/>
+      <c r="V23" s="488"/>
+      <c r="W23" s="488"/>
+      <c r="X23" s="488"/>
+      <c r="Y23" s="488"/>
+      <c r="Z23" s="488"/>
     </row>
     <row r="24" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="25" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -19639,66 +19606,66 @@
         <f>B12</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C27" s="490" t="str">
+      <c r="C27" s="489" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D27" s="490"/>
-      <c r="E27" s="490"/>
-      <c r="F27" s="490"/>
-      <c r="G27" s="490"/>
-      <c r="H27" s="490"/>
-      <c r="I27" s="490"/>
-      <c r="J27" s="490"/>
-      <c r="K27" s="490"/>
-      <c r="L27" s="490"/>
-      <c r="M27" s="490"/>
-      <c r="N27" s="490"/>
-      <c r="O27" s="490"/>
-      <c r="P27" s="490"/>
-      <c r="Q27" s="490"/>
-      <c r="R27" s="490"/>
-      <c r="S27" s="490"/>
-      <c r="T27" s="490"/>
-      <c r="U27" s="490"/>
-      <c r="V27" s="490"/>
-      <c r="W27" s="490"/>
-      <c r="X27" s="490"/>
-      <c r="Y27" s="490"/>
-      <c r="Z27" s="490"/>
+      <c r="D27" s="489"/>
+      <c r="E27" s="489"/>
+      <c r="F27" s="489"/>
+      <c r="G27" s="489"/>
+      <c r="H27" s="489"/>
+      <c r="I27" s="489"/>
+      <c r="J27" s="489"/>
+      <c r="K27" s="489"/>
+      <c r="L27" s="489"/>
+      <c r="M27" s="489"/>
+      <c r="N27" s="489"/>
+      <c r="O27" s="489"/>
+      <c r="P27" s="489"/>
+      <c r="Q27" s="489"/>
+      <c r="R27" s="489"/>
+      <c r="S27" s="489"/>
+      <c r="T27" s="489"/>
+      <c r="U27" s="489"/>
+      <c r="V27" s="489"/>
+      <c r="W27" s="489"/>
+      <c r="X27" s="489"/>
+      <c r="Y27" s="489"/>
+      <c r="Z27" s="489"/>
     </row>
     <row r="28" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B28" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C28" s="488" t="str">
+      <c r="C28" s="490" t="str">
         <f>_xlfn.CONCAT(C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D28" s="488"/>
-      <c r="E28" s="488"/>
-      <c r="F28" s="488"/>
-      <c r="G28" s="488"/>
-      <c r="H28" s="488"/>
-      <c r="I28" s="488"/>
-      <c r="J28" s="488"/>
-      <c r="K28" s="488"/>
-      <c r="L28" s="488"/>
-      <c r="M28" s="488"/>
-      <c r="N28" s="488"/>
-      <c r="O28" s="488"/>
-      <c r="P28" s="488"/>
-      <c r="Q28" s="488"/>
-      <c r="R28" s="488"/>
-      <c r="S28" s="488"/>
-      <c r="T28" s="488"/>
-      <c r="U28" s="488"/>
-      <c r="V28" s="488"/>
-      <c r="W28" s="488"/>
-      <c r="X28" s="488"/>
-      <c r="Y28" s="488"/>
-      <c r="Z28" s="488"/>
+      <c r="D28" s="490"/>
+      <c r="E28" s="490"/>
+      <c r="F28" s="490"/>
+      <c r="G28" s="490"/>
+      <c r="H28" s="490"/>
+      <c r="I28" s="490"/>
+      <c r="J28" s="490"/>
+      <c r="K28" s="490"/>
+      <c r="L28" s="490"/>
+      <c r="M28" s="490"/>
+      <c r="N28" s="490"/>
+      <c r="O28" s="490"/>
+      <c r="P28" s="490"/>
+      <c r="Q28" s="490"/>
+      <c r="R28" s="490"/>
+      <c r="S28" s="490"/>
+      <c r="T28" s="490"/>
+      <c r="U28" s="490"/>
+      <c r="V28" s="490"/>
+      <c r="W28" s="490"/>
+      <c r="X28" s="490"/>
+      <c r="Y28" s="490"/>
+      <c r="Z28" s="490"/>
     </row>
     <row r="29" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="30" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -19707,34 +19674,34 @@
       </c>
     </row>
     <row r="31" spans="2:26" s="76" customFormat="1" ht="23.25">
-      <c r="B31" s="491" t="str">
+      <c r="B31" s="488" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C27 &amp; "|" &amp; C28 &amp; "|"</f>
         <v>- xlit|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C31" s="491"/>
-      <c r="D31" s="491"/>
-      <c r="E31" s="491"/>
-      <c r="F31" s="491"/>
-      <c r="G31" s="491"/>
-      <c r="H31" s="491"/>
-      <c r="I31" s="491"/>
-      <c r="J31" s="491"/>
-      <c r="K31" s="491"/>
-      <c r="L31" s="491"/>
-      <c r="M31" s="491"/>
-      <c r="N31" s="491"/>
-      <c r="O31" s="491"/>
-      <c r="P31" s="491"/>
-      <c r="Q31" s="491"/>
-      <c r="R31" s="491"/>
-      <c r="S31" s="491"/>
-      <c r="T31" s="491"/>
-      <c r="U31" s="491"/>
-      <c r="V31" s="491"/>
-      <c r="W31" s="491"/>
-      <c r="X31" s="491"/>
-      <c r="Y31" s="491"/>
-      <c r="Z31" s="491"/>
+      <c r="C31" s="488"/>
+      <c r="D31" s="488"/>
+      <c r="E31" s="488"/>
+      <c r="F31" s="488"/>
+      <c r="G31" s="488"/>
+      <c r="H31" s="488"/>
+      <c r="I31" s="488"/>
+      <c r="J31" s="488"/>
+      <c r="K31" s="488"/>
+      <c r="L31" s="488"/>
+      <c r="M31" s="488"/>
+      <c r="N31" s="488"/>
+      <c r="O31" s="488"/>
+      <c r="P31" s="488"/>
+      <c r="Q31" s="488"/>
+      <c r="R31" s="488"/>
+      <c r="S31" s="488"/>
+      <c r="T31" s="488"/>
+      <c r="U31" s="488"/>
+      <c r="V31" s="488"/>
+      <c r="W31" s="488"/>
+      <c r="X31" s="488"/>
+      <c r="Y31" s="488"/>
+      <c r="Z31" s="488"/>
     </row>
     <row r="32" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="33" spans="1:47" s="78" customFormat="1">
@@ -20025,8 +19992,8 @@
       <c r="AN38" s="77"/>
       <c r="AO38" s="77"/>
       <c r="AP38" s="77"/>
-      <c r="AQ38" s="489"/>
-      <c r="AR38" s="489"/>
+      <c r="AQ38" s="491"/>
+      <c r="AR38" s="491"/>
       <c r="AS38" s="77"/>
       <c r="AT38" s="77"/>
       <c r="AU38" s="77"/>
@@ -20034,17 +20001,17 @@
     <row r="39" spans="1:47" s="76" customFormat="1" ht="23.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B23:Z23"/>
-    <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="AQ38:AR38"/>
     <mergeCell ref="C20:Z20"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="C12:Z12"/>
     <mergeCell ref="B15:Z15"/>
     <mergeCell ref="C19:Z19"/>
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="AQ38:AR38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20080,161 +20047,161 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="492" t="s">
+      <c r="B2" s="513" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="492"/>
-      <c r="D2" s="492"/>
-      <c r="E2" s="492" t="s">
+      <c r="C2" s="513"/>
+      <c r="D2" s="513"/>
+      <c r="E2" s="513" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="492"/>
-      <c r="G2" s="492" t="s">
+      <c r="F2" s="513"/>
+      <c r="G2" s="513" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="492"/>
-      <c r="I2" s="492" t="s">
+      <c r="H2" s="513"/>
+      <c r="I2" s="513" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="492"/>
-      <c r="K2" s="492" t="s">
+      <c r="J2" s="513"/>
+      <c r="K2" s="513" t="s">
         <v>207</v>
       </c>
-      <c r="L2" s="492"/>
-      <c r="M2" s="492"/>
-      <c r="N2" s="492"/>
-      <c r="O2" s="492" t="s">
+      <c r="L2" s="513"/>
+      <c r="M2" s="513"/>
+      <c r="N2" s="513"/>
+      <c r="O2" s="513" t="s">
         <v>208</v>
       </c>
-      <c r="P2" s="492"/>
+      <c r="P2" s="513"/>
     </row>
     <row r="3" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="492" t="s">
+      <c r="B3" s="513" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="492"/>
-      <c r="D3" s="492"/>
-      <c r="E3" s="492" t="s">
+      <c r="C3" s="513"/>
+      <c r="D3" s="513"/>
+      <c r="E3" s="513" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="492"/>
-      <c r="G3" s="492" t="s">
+      <c r="F3" s="513"/>
+      <c r="G3" s="513" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="492"/>
-      <c r="I3" s="492" t="s">
+      <c r="H3" s="513"/>
+      <c r="I3" s="513" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="492"/>
-      <c r="K3" s="492" t="s">
+      <c r="J3" s="513"/>
+      <c r="K3" s="513" t="s">
         <v>212</v>
       </c>
-      <c r="L3" s="492"/>
-      <c r="M3" s="492"/>
-      <c r="N3" s="492"/>
-      <c r="O3" s="492" t="s">
+      <c r="L3" s="513"/>
+      <c r="M3" s="513"/>
+      <c r="N3" s="513"/>
+      <c r="O3" s="513" t="s">
         <v>208</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="513"/>
     </row>
     <row r="4" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="492" t="s">
+      <c r="B4" s="513" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="492"/>
-      <c r="D4" s="492"/>
-      <c r="E4" s="492" t="s">
+      <c r="C4" s="513"/>
+      <c r="D4" s="513"/>
+      <c r="E4" s="513" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="492"/>
-      <c r="G4" s="492" t="s">
+      <c r="F4" s="513"/>
+      <c r="G4" s="513" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="492"/>
-      <c r="I4" s="492" t="s">
+      <c r="H4" s="513"/>
+      <c r="I4" s="513" t="s">
         <v>211</v>
       </c>
-      <c r="J4" s="492"/>
-      <c r="K4" s="492" t="s">
+      <c r="J4" s="513"/>
+      <c r="K4" s="513" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="492"/>
-      <c r="M4" s="492"/>
-      <c r="N4" s="492"/>
-      <c r="O4" s="492" t="s">
+      <c r="L4" s="513"/>
+      <c r="M4" s="513"/>
+      <c r="N4" s="513"/>
+      <c r="O4" s="513" t="s">
         <v>208</v>
       </c>
-      <c r="P4" s="492"/>
+      <c r="P4" s="513"/>
     </row>
     <row r="5" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="492" t="s">
+      <c r="B5" s="513" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="492"/>
-      <c r="D5" s="492"/>
-      <c r="E5" s="492" t="s">
+      <c r="C5" s="513"/>
+      <c r="D5" s="513"/>
+      <c r="E5" s="513" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="492"/>
-      <c r="G5" s="492" t="s">
+      <c r="F5" s="513"/>
+      <c r="G5" s="513" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="492"/>
-      <c r="I5" s="492" t="s">
+      <c r="H5" s="513"/>
+      <c r="I5" s="513" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="492"/>
-      <c r="K5" s="492" t="s">
+      <c r="J5" s="513"/>
+      <c r="K5" s="513" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="492"/>
-      <c r="M5" s="492"/>
-      <c r="N5" s="492"/>
-      <c r="O5" s="492" t="s">
+      <c r="L5" s="513"/>
+      <c r="M5" s="513"/>
+      <c r="N5" s="513"/>
+      <c r="O5" s="513" t="s">
         <v>220</v>
       </c>
-      <c r="P5" s="492"/>
+      <c r="P5" s="513"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
-      <c r="B7" s="501" t="s">
+      <c r="B7" s="506" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="502"/>
-      <c r="D7" s="503"/>
-      <c r="E7" s="504" t="s">
+      <c r="C7" s="507"/>
+      <c r="D7" s="508"/>
+      <c r="E7" s="509" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="505"/>
-      <c r="G7" s="493" t="s">
+      <c r="F7" s="510"/>
+      <c r="G7" s="501" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="494"/>
-      <c r="I7" s="506" t="s">
+      <c r="H7" s="502"/>
+      <c r="I7" s="511" t="s">
         <v>223</v>
       </c>
-      <c r="J7" s="507"/>
-      <c r="K7" s="493" t="s">
+      <c r="J7" s="512"/>
+      <c r="K7" s="501" t="s">
         <v>224</v>
       </c>
-      <c r="L7" s="494"/>
-      <c r="M7" s="493" t="s">
+      <c r="L7" s="502"/>
+      <c r="M7" s="501" t="s">
         <v>225</v>
       </c>
-      <c r="N7" s="494"/>
-      <c r="O7" s="493" t="s">
+      <c r="N7" s="502"/>
+      <c r="O7" s="501" t="s">
         <v>226</v>
       </c>
-      <c r="P7" s="494"/>
+      <c r="P7" s="502"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
-      <c r="B8" s="495" t="s">
+      <c r="B8" s="492" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="496" t="s">
+      <c r="C8" s="503" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="497" t="s">
+      <c r="D8" s="504" t="s">
         <v>229</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -20267,9 +20234,9 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
-      <c r="B9" s="495"/>
-      <c r="C9" s="496"/>
-      <c r="D9" s="497"/>
+      <c r="B9" s="492"/>
+      <c r="C9" s="503"/>
+      <c r="D9" s="504"/>
       <c r="E9" s="24" t="s">
         <v>232</v>
       </c>
@@ -20300,9 +20267,9 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
-      <c r="B10" s="495"/>
-      <c r="C10" s="496"/>
-      <c r="D10" s="498" t="s">
+      <c r="B10" s="492"/>
+      <c r="C10" s="503"/>
+      <c r="D10" s="500" t="s">
         <v>240</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -20331,9 +20298,9 @@
       <c r="P10" s="20"/>
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
-      <c r="B11" s="495"/>
-      <c r="C11" s="496"/>
-      <c r="D11" s="498"/>
+      <c r="B11" s="492"/>
+      <c r="C11" s="503"/>
+      <c r="D11" s="500"/>
       <c r="E11" s="24" t="s">
         <v>241</v>
       </c>
@@ -20360,11 +20327,11 @@
       <c r="P11" s="25"/>
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
-      <c r="B12" s="495"/>
-      <c r="C12" s="499" t="s">
+      <c r="B12" s="492"/>
+      <c r="C12" s="493" t="s">
         <v>247</v>
       </c>
-      <c r="D12" s="500" t="s">
+      <c r="D12" s="505" t="s">
         <v>248</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -20389,9 +20356,9 @@
       <c r="P12" s="20"/>
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
-      <c r="B13" s="495"/>
-      <c r="C13" s="499"/>
-      <c r="D13" s="500"/>
+      <c r="B13" s="492"/>
+      <c r="C13" s="493"/>
+      <c r="D13" s="505"/>
       <c r="E13" s="24" t="s">
         <v>192</v>
       </c>
@@ -20414,13 +20381,13 @@
       <c r="P13" s="25"/>
     </row>
     <row r="14" spans="2:16" ht="39" customHeight="1">
-      <c r="B14" s="495" t="s">
+      <c r="B14" s="492" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="508" t="s">
+      <c r="C14" s="498" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="509" t="s">
+      <c r="D14" s="494" t="s">
         <v>229</v>
       </c>
       <c r="E14" s="19"/>
@@ -20445,9 +20412,9 @@
       <c r="P14" s="20"/>
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
-      <c r="B15" s="495"/>
-      <c r="C15" s="508"/>
-      <c r="D15" s="509"/>
+      <c r="B15" s="492"/>
+      <c r="C15" s="498"/>
+      <c r="D15" s="494"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
@@ -20470,9 +20437,9 @@
       <c r="P15" s="25"/>
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
-      <c r="B16" s="495"/>
-      <c r="C16" s="508"/>
-      <c r="D16" s="498" t="s">
+      <c r="B16" s="492"/>
+      <c r="C16" s="498"/>
+      <c r="D16" s="500" t="s">
         <v>240</v>
       </c>
       <c r="E16" s="19"/>
@@ -20497,9 +20464,9 @@
       <c r="P16" s="20"/>
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
-      <c r="B17" s="495"/>
-      <c r="C17" s="508"/>
-      <c r="D17" s="498"/>
+      <c r="B17" s="492"/>
+      <c r="C17" s="498"/>
+      <c r="D17" s="500"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -20522,11 +20489,11 @@
       <c r="P17" s="25"/>
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
-      <c r="B18" s="495"/>
-      <c r="C18" s="499" t="s">
+      <c r="B18" s="492"/>
+      <c r="C18" s="493" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="509" t="s">
+      <c r="D18" s="494" t="s">
         <v>248</v>
       </c>
       <c r="E18" s="19"/>
@@ -20551,9 +20518,9 @@
       <c r="P18" s="20"/>
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
-      <c r="B19" s="495"/>
-      <c r="C19" s="499"/>
-      <c r="D19" s="509"/>
+      <c r="B19" s="492"/>
+      <c r="C19" s="493"/>
+      <c r="D19" s="494"/>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -20576,13 +20543,13 @@
       <c r="P19" s="25"/>
     </row>
     <row r="20" spans="2:17" ht="39" customHeight="1">
-      <c r="B20" s="495" t="s">
+      <c r="B20" s="492" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="508" t="s">
+      <c r="C20" s="498" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="509" t="s">
+      <c r="D20" s="494" t="s">
         <v>248</v>
       </c>
       <c r="E20" s="19"/>
@@ -20607,9 +20574,9 @@
       <c r="P20" s="20"/>
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
-      <c r="B21" s="495"/>
-      <c r="C21" s="508"/>
-      <c r="D21" s="509"/>
+      <c r="B21" s="492"/>
+      <c r="C21" s="498"/>
+      <c r="D21" s="494"/>
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
@@ -20632,9 +20599,9 @@
       <c r="P21" s="25"/>
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
-      <c r="B22" s="495"/>
-      <c r="C22" s="508"/>
-      <c r="D22" s="510" t="s">
+      <c r="B22" s="492"/>
+      <c r="C22" s="498"/>
+      <c r="D22" s="499" t="s">
         <v>275</v>
       </c>
       <c r="E22" s="19"/>
@@ -20655,9 +20622,9 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
-      <c r="B23" s="495"/>
-      <c r="C23" s="508"/>
-      <c r="D23" s="510"/>
+      <c r="B23" s="492"/>
+      <c r="C23" s="498"/>
+      <c r="D23" s="499"/>
       <c r="E23" s="24"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -20676,13 +20643,13 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="39" customHeight="1">
-      <c r="B24" s="495" t="s">
+      <c r="B24" s="492" t="s">
         <v>278</v>
       </c>
-      <c r="C24" s="499" t="s">
+      <c r="C24" s="493" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="509" t="s">
+      <c r="D24" s="494" t="s">
         <v>248</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -20711,9 +20678,9 @@
       <c r="P24" s="20"/>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
-      <c r="B25" s="495"/>
-      <c r="C25" s="499"/>
-      <c r="D25" s="509"/>
+      <c r="B25" s="492"/>
+      <c r="C25" s="493"/>
+      <c r="D25" s="494"/>
       <c r="E25" s="24" t="s">
         <v>191</v>
       </c>
@@ -20740,13 +20707,13 @@
       <c r="P25" s="25"/>
     </row>
     <row r="26" spans="2:17" ht="39" customHeight="1">
-      <c r="B26" s="495" t="s">
+      <c r="B26" s="492" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="499" t="s">
+      <c r="C26" s="493" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="509" t="s">
+      <c r="D26" s="494" t="s">
         <v>248</v>
       </c>
       <c r="E26" s="19"/>
@@ -20767,9 +20734,9 @@
       <c r="P26" s="20"/>
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
-      <c r="B27" s="495"/>
-      <c r="C27" s="499"/>
-      <c r="D27" s="509"/>
+      <c r="B27" s="492"/>
+      <c r="C27" s="493"/>
+      <c r="D27" s="494"/>
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26" t="s">
@@ -20791,23 +20758,23 @@
       <c r="B29" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C29" s="511" t="s">
+      <c r="C29" s="495" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="511"/>
-      <c r="E29" s="511"/>
-      <c r="F29" s="511"/>
-      <c r="G29" s="511"/>
-      <c r="H29" s="511"/>
-      <c r="I29" s="511"/>
-      <c r="J29" s="511"/>
-      <c r="K29" s="511"/>
-      <c r="L29" s="511"/>
-      <c r="M29" s="511"/>
-      <c r="N29" s="511"/>
-      <c r="O29" s="511"/>
-      <c r="P29" s="511"/>
-      <c r="Q29" s="511"/>
+      <c r="D29" s="495"/>
+      <c r="E29" s="495"/>
+      <c r="F29" s="495"/>
+      <c r="G29" s="495"/>
+      <c r="H29" s="495"/>
+      <c r="I29" s="495"/>
+      <c r="J29" s="495"/>
+      <c r="K29" s="495"/>
+      <c r="L29" s="495"/>
+      <c r="M29" s="495"/>
+      <c r="N29" s="495"/>
+      <c r="O29" s="495"/>
+      <c r="P29" s="495"/>
+      <c r="Q29" s="495"/>
     </row>
     <row r="30" spans="2:17" s="31" customFormat="1" ht="25.5">
       <c r="B30" s="29"/>
@@ -20851,10 +20818,10 @@
       <c r="B32" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="512" t="s">
+      <c r="C32" s="496" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="513"/>
+      <c r="D32" s="497"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="32" t="s">
@@ -20869,37 +20836,20 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -20914,20 +20864,37 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -20959,9 +20926,9 @@
   </sheetPr>
   <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO4" sqref="AO4:AQ4"/>
+      <selection pane="bottomLeft" activeCell="BA8" sqref="BA8:BE55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8984375" defaultRowHeight="21"/>
@@ -21878,36 +21845,36 @@
       <c r="F8" s="323" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="463" t="s">
+      <c r="G8" s="468" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="464"/>
-      <c r="I8" s="465"/>
-      <c r="J8" s="466" t="s">
+      <c r="H8" s="469"/>
+      <c r="I8" s="470"/>
+      <c r="J8" s="478" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="467"/>
-      <c r="L8" s="468"/>
-      <c r="M8" s="466" t="s">
+      <c r="K8" s="479"/>
+      <c r="L8" s="480"/>
+      <c r="M8" s="478" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="467"/>
-      <c r="O8" s="468"/>
-      <c r="P8" s="469" t="s">
+      <c r="N8" s="479"/>
+      <c r="O8" s="480"/>
+      <c r="P8" s="481" t="s">
         <v>689</v>
       </c>
-      <c r="Q8" s="470"/>
-      <c r="R8" s="471"/>
-      <c r="S8" s="466" t="s">
+      <c r="Q8" s="482"/>
+      <c r="R8" s="483"/>
+      <c r="S8" s="478" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="467"/>
-      <c r="U8" s="468"/>
-      <c r="V8" s="466" t="s">
+      <c r="T8" s="479"/>
+      <c r="U8" s="480"/>
+      <c r="V8" s="478" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="467"/>
-      <c r="X8" s="468"/>
+      <c r="W8" s="479"/>
+      <c r="X8" s="480"/>
       <c r="Y8" s="325" t="s">
         <v>107</v>
       </c>
@@ -21926,21 +21893,21 @@
       <c r="AD8" s="326" t="s">
         <v>907</v>
       </c>
-      <c r="AE8" s="481" t="s">
+      <c r="AE8" s="471" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="482"/>
-      <c r="AG8" s="483"/>
-      <c r="AH8" s="472" t="s">
+      <c r="AF8" s="472"/>
+      <c r="AG8" s="473"/>
+      <c r="AH8" s="465" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="473"/>
-      <c r="AJ8" s="474"/>
-      <c r="AK8" s="472" t="s">
+      <c r="AI8" s="466"/>
+      <c r="AJ8" s="467"/>
+      <c r="AK8" s="465" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="473"/>
-      <c r="AM8" s="474"/>
+      <c r="AL8" s="466"/>
+      <c r="AM8" s="467"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -21997,38 +21964,38 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="475" t="s">
+      <c r="J9" s="474" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="476"/>
+      <c r="K9" s="475"/>
       <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="475" t="s">
+      <c r="M9" s="474" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="476"/>
+      <c r="N9" s="475"/>
       <c r="O9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="477" t="s">
+      <c r="P9" s="476" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="478"/>
+      <c r="Q9" s="477"/>
       <c r="R9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="475" t="s">
+      <c r="S9" s="474" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="476"/>
+      <c r="T9" s="475"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="477" t="s">
+      <c r="V9" s="476" t="s">
         <v>909</v>
       </c>
-      <c r="W9" s="478"/>
+      <c r="W9" s="477"/>
       <c r="X9" s="6" t="s">
         <v>729</v>
       </c>
@@ -22062,8 +22029,8 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="53"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="479"/>
-      <c r="AL9" s="480"/>
+      <c r="AK9" s="463"/>
+      <c r="AL9" s="464"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -22114,16 +22081,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="463" t="s">
+      <c r="E10" s="468" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="464"/>
-      <c r="G10" s="465"/>
-      <c r="H10" s="463" t="s">
+      <c r="F10" s="469"/>
+      <c r="G10" s="470"/>
+      <c r="H10" s="468" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="464"/>
-      <c r="J10" s="465"/>
+      <c r="I10" s="469"/>
+      <c r="J10" s="470"/>
       <c r="K10" s="324" t="s">
         <v>44</v>
       </c>
@@ -22133,16 +22100,16 @@
       <c r="M10" s="323" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="463" t="s">
+      <c r="N10" s="468" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="464"/>
-      <c r="P10" s="465"/>
-      <c r="Q10" s="463" t="s">
+      <c r="O10" s="469"/>
+      <c r="P10" s="470"/>
+      <c r="Q10" s="468" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="464"/>
-      <c r="S10" s="465"/>
+      <c r="R10" s="469"/>
+      <c r="S10" s="470"/>
       <c r="T10" s="324" t="s">
         <v>106</v>
       </c>
@@ -22170,31 +22137,31 @@
       <c r="AB10" s="326" t="s">
         <v>905</v>
       </c>
-      <c r="AC10" s="481" t="s">
+      <c r="AC10" s="471" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="482"/>
-      <c r="AE10" s="483"/>
-      <c r="AF10" s="481" t="s">
+      <c r="AD10" s="472"/>
+      <c r="AE10" s="473"/>
+      <c r="AF10" s="471" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="482"/>
-      <c r="AH10" s="483"/>
-      <c r="AI10" s="481" t="s">
+      <c r="AG10" s="472"/>
+      <c r="AH10" s="473"/>
+      <c r="AI10" s="471" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="482"/>
-      <c r="AK10" s="483"/>
-      <c r="AL10" s="481" t="s">
+      <c r="AJ10" s="472"/>
+      <c r="AK10" s="473"/>
+      <c r="AL10" s="471" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="482"/>
-      <c r="AN10" s="483"/>
-      <c r="AO10" s="472" t="s">
+      <c r="AM10" s="472"/>
+      <c r="AN10" s="473"/>
+      <c r="AO10" s="465" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="473"/>
-      <c r="AQ10" s="474"/>
+      <c r="AP10" s="466"/>
+      <c r="AQ10" s="467"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="57"/>
@@ -22311,14 +22278,14 @@
       <c r="AH11" s="128" t="s">
         <v>329</v>
       </c>
-      <c r="AI11" s="479"/>
-      <c r="AJ11" s="480"/>
+      <c r="AI11" s="463"/>
+      <c r="AJ11" s="464"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="479"/>
-      <c r="AM11" s="480"/>
+      <c r="AL11" s="463"/>
+      <c r="AM11" s="464"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="479"/>
-      <c r="AP11" s="480"/>
+      <c r="AO11" s="463"/>
+      <c r="AP11" s="464"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="4"/>
@@ -22361,36 +22328,36 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="463" t="s">
+      <c r="F12" s="468" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="464"/>
-      <c r="H12" s="465"/>
-      <c r="I12" s="463" t="s">
+      <c r="G12" s="469"/>
+      <c r="H12" s="470"/>
+      <c r="I12" s="468" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="464"/>
-      <c r="K12" s="465"/>
-      <c r="L12" s="463" t="s">
+      <c r="J12" s="469"/>
+      <c r="K12" s="470"/>
+      <c r="L12" s="468" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="464"/>
-      <c r="N12" s="465"/>
-      <c r="O12" s="463" t="s">
+      <c r="M12" s="469"/>
+      <c r="N12" s="470"/>
+      <c r="O12" s="468" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="464"/>
-      <c r="Q12" s="465"/>
-      <c r="R12" s="463" t="s">
+      <c r="P12" s="469"/>
+      <c r="Q12" s="470"/>
+      <c r="R12" s="468" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="464"/>
-      <c r="T12" s="465"/>
-      <c r="U12" s="463" t="s">
+      <c r="S12" s="469"/>
+      <c r="T12" s="470"/>
+      <c r="U12" s="468" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="464"/>
-      <c r="W12" s="465"/>
+      <c r="V12" s="469"/>
+      <c r="W12" s="470"/>
       <c r="X12" s="325" t="s">
         <v>117</v>
       </c>
@@ -22400,11 +22367,11 @@
       <c r="Z12" s="326" t="s">
         <v>605</v>
       </c>
-      <c r="AA12" s="481" t="s">
+      <c r="AA12" s="471" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="482"/>
-      <c r="AC12" s="483"/>
+      <c r="AB12" s="472"/>
+      <c r="AC12" s="473"/>
       <c r="AD12" s="325" t="s">
         <v>112</v>
       </c>
@@ -22414,16 +22381,16 @@
       <c r="AF12" s="326" t="s">
         <v>908</v>
       </c>
-      <c r="AG12" s="481" t="s">
+      <c r="AG12" s="471" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="482"/>
-      <c r="AI12" s="483"/>
-      <c r="AJ12" s="472" t="s">
+      <c r="AH12" s="472"/>
+      <c r="AI12" s="473"/>
+      <c r="AJ12" s="465" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="473"/>
-      <c r="AL12" s="474"/>
+      <c r="AK12" s="466"/>
+      <c r="AL12" s="467"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -22549,8 +22516,8 @@
       <c r="AI13" s="128" t="s">
         <v>609</v>
       </c>
-      <c r="AJ13" s="479"/>
-      <c r="AK13" s="480"/>
+      <c r="AJ13" s="463"/>
+      <c r="AK13" s="464"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -22602,41 +22569,41 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="463" t="s">
+      <c r="G14" s="468" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="464"/>
-      <c r="I14" s="465"/>
-      <c r="J14" s="463" t="s">
+      <c r="H14" s="469"/>
+      <c r="I14" s="470"/>
+      <c r="J14" s="468" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="464"/>
-      <c r="L14" s="465"/>
-      <c r="M14" s="463" t="s">
+      <c r="K14" s="469"/>
+      <c r="L14" s="470"/>
+      <c r="M14" s="468" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="464"/>
-      <c r="O14" s="465"/>
-      <c r="P14" s="463" t="s">
+      <c r="N14" s="469"/>
+      <c r="O14" s="470"/>
+      <c r="P14" s="468" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="464"/>
-      <c r="R14" s="465"/>
-      <c r="S14" s="463" t="s">
+      <c r="Q14" s="469"/>
+      <c r="R14" s="470"/>
+      <c r="S14" s="468" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="464"/>
-      <c r="U14" s="465"/>
-      <c r="V14" s="463" t="s">
+      <c r="T14" s="469"/>
+      <c r="U14" s="470"/>
+      <c r="V14" s="468" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="464"/>
-      <c r="X14" s="465"/>
-      <c r="Y14" s="481" t="s">
+      <c r="W14" s="469"/>
+      <c r="X14" s="470"/>
+      <c r="Y14" s="471" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="482"/>
-      <c r="AA14" s="483"/>
+      <c r="Z14" s="472"/>
+      <c r="AA14" s="473"/>
       <c r="AB14" s="325" t="s">
         <v>110</v>
       </c>
@@ -22646,16 +22613,16 @@
       <c r="AD14" s="326" t="s">
         <v>906</v>
       </c>
-      <c r="AE14" s="481" t="s">
+      <c r="AE14" s="471" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="482"/>
-      <c r="AG14" s="483"/>
-      <c r="AH14" s="472" t="s">
+      <c r="AF14" s="472"/>
+      <c r="AG14" s="473"/>
+      <c r="AH14" s="465" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="473"/>
-      <c r="AJ14" s="474"/>
+      <c r="AI14" s="466"/>
+      <c r="AJ14" s="467"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -26372,6 +26339,42 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="AO10:AQ10"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="AJ12:AL12"/>
     <mergeCell ref="AJ13:AK13"/>
     <mergeCell ref="AH14:AJ14"/>
     <mergeCell ref="G14:I14"/>
@@ -26382,42 +26385,6 @@
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="Y14:AA14"/>
     <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AG12:AI12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30999,36 +30966,36 @@
         <v>755</v>
       </c>
       <c r="F8" s="323"/>
-      <c r="G8" s="463" t="s">
+      <c r="G8" s="468" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="464"/>
-      <c r="I8" s="465"/>
-      <c r="J8" s="466" t="s">
+      <c r="H8" s="469"/>
+      <c r="I8" s="470"/>
+      <c r="J8" s="478" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="467"/>
-      <c r="L8" s="468"/>
-      <c r="M8" s="466" t="s">
+      <c r="K8" s="479"/>
+      <c r="L8" s="480"/>
+      <c r="M8" s="478" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="467"/>
-      <c r="O8" s="468"/>
+      <c r="N8" s="479"/>
+      <c r="O8" s="480"/>
       <c r="P8" s="324"/>
       <c r="Q8" s="346" t="s">
         <v>809</v>
       </c>
       <c r="R8" s="323"/>
-      <c r="S8" s="466" t="s">
+      <c r="S8" s="478" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="467"/>
-      <c r="U8" s="468"/>
-      <c r="V8" s="466" t="s">
+      <c r="T8" s="479"/>
+      <c r="U8" s="480"/>
+      <c r="V8" s="478" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="467"/>
-      <c r="X8" s="468"/>
+      <c r="W8" s="479"/>
+      <c r="X8" s="480"/>
       <c r="Y8" s="325"/>
       <c r="Z8" s="321" t="s">
         <v>757</v>
@@ -31039,21 +31006,21 @@
         <v>756</v>
       </c>
       <c r="AD8" s="326"/>
-      <c r="AE8" s="481" t="s">
+      <c r="AE8" s="471" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="482"/>
-      <c r="AG8" s="483"/>
-      <c r="AH8" s="472" t="s">
+      <c r="AF8" s="472"/>
+      <c r="AG8" s="473"/>
+      <c r="AH8" s="465" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="473"/>
-      <c r="AJ8" s="474"/>
-      <c r="AK8" s="472" t="s">
+      <c r="AI8" s="466"/>
+      <c r="AJ8" s="467"/>
+      <c r="AK8" s="465" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="473"/>
-      <c r="AM8" s="474"/>
+      <c r="AL8" s="466"/>
+      <c r="AM8" s="467"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -31167,11 +31134,11 @@
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="477" t="str">
+      <c r="V9" s="476" t="str">
         <f ca="1">AS4</f>
         <v>˙</v>
       </c>
-      <c r="W9" s="476"/>
+      <c r="W9" s="475"/>
       <c r="X9" s="353" t="s">
         <v>891</v>
       </c>
@@ -31220,8 +31187,8 @@
         <f ca="1">AN6</f>
         <v>er</v>
       </c>
-      <c r="AK9" s="479"/>
-      <c r="AL9" s="480"/>
+      <c r="AK9" s="463"/>
+      <c r="AL9" s="464"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -31288,31 +31255,31 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="463" t="s">
+      <c r="E10" s="468" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="464"/>
-      <c r="G10" s="465"/>
-      <c r="H10" s="463" t="s">
+      <c r="F10" s="469"/>
+      <c r="G10" s="470"/>
+      <c r="H10" s="468" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="464"/>
-      <c r="J10" s="465"/>
+      <c r="I10" s="469"/>
+      <c r="J10" s="470"/>
       <c r="K10" s="324"/>
       <c r="L10" s="320" t="s">
         <v>746</v>
       </c>
       <c r="M10" s="323"/>
-      <c r="N10" s="463" t="s">
+      <c r="N10" s="468" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="464"/>
-      <c r="P10" s="465"/>
-      <c r="Q10" s="463" t="s">
+      <c r="O10" s="469"/>
+      <c r="P10" s="470"/>
+      <c r="Q10" s="468" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="464"/>
-      <c r="S10" s="465"/>
+      <c r="R10" s="469"/>
+      <c r="S10" s="470"/>
       <c r="T10" s="324"/>
       <c r="U10" s="320" t="s">
         <v>306</v>
@@ -31328,31 +31295,31 @@
         <v>615</v>
       </c>
       <c r="AB10" s="326"/>
-      <c r="AC10" s="481" t="s">
+      <c r="AC10" s="471" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="482"/>
-      <c r="AE10" s="483"/>
-      <c r="AF10" s="481" t="s">
+      <c r="AD10" s="472"/>
+      <c r="AE10" s="473"/>
+      <c r="AF10" s="471" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="482"/>
-      <c r="AH10" s="483"/>
-      <c r="AI10" s="481" t="s">
+      <c r="AG10" s="472"/>
+      <c r="AH10" s="473"/>
+      <c r="AI10" s="471" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="482"/>
-      <c r="AK10" s="483"/>
-      <c r="AL10" s="481" t="s">
+      <c r="AJ10" s="472"/>
+      <c r="AK10" s="473"/>
+      <c r="AL10" s="471" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="482"/>
-      <c r="AN10" s="483"/>
-      <c r="AO10" s="472" t="s">
+      <c r="AM10" s="472"/>
+      <c r="AN10" s="473"/>
+      <c r="AO10" s="465" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="473"/>
-      <c r="AQ10" s="474"/>
+      <c r="AP10" s="466"/>
+      <c r="AQ10" s="467"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="173" cm="1">
         <f t="array" ref="AV10" xml:space="preserve"> ROW() - ROW($8:$8)</f>
@@ -31530,14 +31497,14 @@
         <f ca="1">AK6</f>
         <v>enn</v>
       </c>
-      <c r="AI11" s="479"/>
-      <c r="AJ11" s="480"/>
+      <c r="AI11" s="463"/>
+      <c r="AJ11" s="464"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="479"/>
-      <c r="AM11" s="480"/>
+      <c r="AL11" s="463"/>
+      <c r="AM11" s="464"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="479"/>
-      <c r="AP11" s="480"/>
+      <c r="AO11" s="463"/>
+      <c r="AP11" s="464"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="173" cm="1">
@@ -31598,61 +31565,61 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="463" t="s">
+      <c r="F12" s="468" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="464"/>
-      <c r="H12" s="465"/>
-      <c r="I12" s="463" t="s">
+      <c r="G12" s="469"/>
+      <c r="H12" s="470"/>
+      <c r="I12" s="468" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="464"/>
-      <c r="K12" s="465"/>
-      <c r="L12" s="463" t="s">
+      <c r="J12" s="469"/>
+      <c r="K12" s="470"/>
+      <c r="L12" s="468" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="464"/>
-      <c r="N12" s="465"/>
-      <c r="O12" s="463" t="s">
+      <c r="M12" s="469"/>
+      <c r="N12" s="470"/>
+      <c r="O12" s="468" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="464"/>
-      <c r="Q12" s="465"/>
-      <c r="R12" s="463" t="s">
+      <c r="P12" s="469"/>
+      <c r="Q12" s="470"/>
+      <c r="R12" s="468" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="464"/>
-      <c r="T12" s="465"/>
-      <c r="U12" s="463" t="s">
+      <c r="S12" s="469"/>
+      <c r="T12" s="470"/>
+      <c r="U12" s="468" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="464"/>
-      <c r="W12" s="465"/>
+      <c r="V12" s="469"/>
+      <c r="W12" s="470"/>
       <c r="X12" s="325"/>
       <c r="Y12" s="321" t="s">
         <v>742</v>
       </c>
       <c r="Z12" s="326"/>
-      <c r="AA12" s="481" t="s">
+      <c r="AA12" s="471" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="482"/>
-      <c r="AC12" s="483"/>
+      <c r="AB12" s="472"/>
+      <c r="AC12" s="473"/>
       <c r="AD12" s="325"/>
       <c r="AE12" s="321" t="s">
         <v>724</v>
       </c>
       <c r="AF12" s="326"/>
-      <c r="AG12" s="481" t="s">
+      <c r="AG12" s="471" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="482"/>
-      <c r="AI12" s="483"/>
-      <c r="AJ12" s="472" t="s">
+      <c r="AH12" s="472"/>
+      <c r="AI12" s="473"/>
+      <c r="AJ12" s="465" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="473"/>
-      <c r="AL12" s="474"/>
+      <c r="AK12" s="466"/>
+      <c r="AL12" s="467"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -31839,8 +31806,8 @@
         <f ca="1">AL6</f>
         <v>ang</v>
       </c>
-      <c r="AJ13" s="479"/>
-      <c r="AK13" s="480"/>
+      <c r="AJ13" s="463"/>
+      <c r="AK13" s="464"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -31910,56 +31877,56 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="463" t="s">
+      <c r="G14" s="468" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="464"/>
-      <c r="I14" s="465"/>
-      <c r="J14" s="463" t="s">
+      <c r="H14" s="469"/>
+      <c r="I14" s="470"/>
+      <c r="J14" s="468" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="464"/>
-      <c r="L14" s="465"/>
-      <c r="M14" s="463" t="s">
+      <c r="K14" s="469"/>
+      <c r="L14" s="470"/>
+      <c r="M14" s="468" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="464"/>
-      <c r="O14" s="465"/>
-      <c r="P14" s="463" t="s">
+      <c r="N14" s="469"/>
+      <c r="O14" s="470"/>
+      <c r="P14" s="468" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="464"/>
-      <c r="R14" s="465"/>
-      <c r="S14" s="463" t="s">
+      <c r="Q14" s="469"/>
+      <c r="R14" s="470"/>
+      <c r="S14" s="468" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="464"/>
-      <c r="U14" s="465"/>
-      <c r="V14" s="463" t="s">
+      <c r="T14" s="469"/>
+      <c r="U14" s="470"/>
+      <c r="V14" s="468" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="464"/>
-      <c r="X14" s="465"/>
-      <c r="Y14" s="481" t="s">
+      <c r="W14" s="469"/>
+      <c r="X14" s="470"/>
+      <c r="Y14" s="471" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="482"/>
-      <c r="AA14" s="483"/>
+      <c r="Z14" s="472"/>
+      <c r="AA14" s="473"/>
       <c r="AB14" s="325"/>
       <c r="AC14" s="321" t="s">
         <v>758</v>
       </c>
       <c r="AD14" s="326"/>
-      <c r="AE14" s="481" t="s">
+      <c r="AE14" s="471" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="482"/>
-      <c r="AG14" s="483"/>
-      <c r="AH14" s="472" t="s">
+      <c r="AF14" s="472"/>
+      <c r="AG14" s="473"/>
+      <c r="AH14" s="465" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="473"/>
-      <c r="AJ14" s="474"/>
+      <c r="AI14" s="466"/>
+      <c r="AJ14" s="467"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -35951,24 +35918,16 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
     <mergeCell ref="AO10:AQ10"/>
     <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AL11:AM11"/>
@@ -35985,16 +35944,24 @@
     <mergeCell ref="AF10:AH10"/>
     <mergeCell ref="AI10:AK10"/>
     <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/鍵盤設計規格_河洛注音.xlsx
+++ b/docs/鍵盤設計規格_河洛注音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C712F6-67EF-4043-A0C4-91A287A91CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92400978-0B1E-42DC-BAE3-6AB850C6BFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="9" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
   </bookViews>
   <sheets>
     <sheet name="鍵盤圖" sheetId="6" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="RIME對映編碼 (注音符號V2)" sheetId="12" state="hidden" r:id="rId8"/>
     <sheet name="RIME對映編碼 (台語方音V3)" sheetId="13" state="hidden" r:id="rId9"/>
     <sheet name="注音符號字典編碼" sheetId="17" r:id="rId10"/>
-    <sheet name="RIME對映編碼 (原設計)" sheetId="9" state="hidden" r:id="rId11"/>
-    <sheet name="工作表2" sheetId="8" r:id="rId12"/>
-    <sheet name="RIME指令 (與漢字拼音相容版)" sheetId="5" r:id="rId13"/>
-    <sheet name="聲母發音表" sheetId="4" r:id="rId14"/>
+    <sheet name="工作表1" sheetId="18" r:id="rId11"/>
+    <sheet name="RIME對映編碼 (原設計)" sheetId="9" state="hidden" r:id="rId12"/>
+    <sheet name="工作表2" sheetId="8" r:id="rId13"/>
+    <sheet name="RIME指令 (與漢字拼音相容版)" sheetId="5" r:id="rId14"/>
+    <sheet name="聲母發音表" sheetId="4" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">注音符號字典編碼!$I$4:$L$59</definedName>
@@ -38,7 +39,7 @@
     <definedName name="方音符號" localSheetId="8">'RIME對映編碼 (台語方音V3)'!$T$3:$T$44</definedName>
     <definedName name="方音符號" localSheetId="6">'RIME對映編碼 (注音符號)'!$T$3:$T$44</definedName>
     <definedName name="方音符號" localSheetId="7">'RIME對映編碼 (注音符號V2)'!$T$3:$T$44</definedName>
-    <definedName name="方音符號" localSheetId="10">'RIME對映編碼 (原設計)'!$X$3:$X$47</definedName>
+    <definedName name="方音符號" localSheetId="11">'RIME對映編碼 (原設計)'!$X$3:$X$47</definedName>
     <definedName name="方音符號" localSheetId="4">'RIME對映編碼 (萌台語)'!$T$3:$T$57</definedName>
     <definedName name="字典編碼">RIME對映編碼!$BE$9:$BE$55</definedName>
     <definedName name="注音符號">RIME對映編碼!$BC$9:$BC$55</definedName>
@@ -47,7 +48,7 @@
     <definedName name="拼音字母" localSheetId="8">'RIME對映編碼 (台語方音V3)'!#REF!</definedName>
     <definedName name="拼音字母" localSheetId="6">'RIME對映編碼 (注音符號)'!#REF!</definedName>
     <definedName name="拼音字母" localSheetId="7">'RIME對映編碼 (注音符號V2)'!#REF!</definedName>
-    <definedName name="拼音字母" localSheetId="10">'RIME對映編碼 (原設計)'!$Y$3:$Y$47</definedName>
+    <definedName name="拼音字母" localSheetId="11">'RIME對映編碼 (原設計)'!$Y$3:$Y$47</definedName>
     <definedName name="拼音字母" localSheetId="4">'RIME對映編碼 (萌台語)'!#REF!</definedName>
     <definedName name="拼音字母">RIME對映編碼!$BD$9:$BD$55</definedName>
     <definedName name="按鍵編碼" localSheetId="2">'RIME解析(BoPoMoFo)'!$U$3:$U$57</definedName>
@@ -55,21 +56,21 @@
     <definedName name="按鍵編碼" localSheetId="8">'RIME對映編碼 (台語方音V3)'!$S$3:$S$44</definedName>
     <definedName name="按鍵編碼" localSheetId="6">'RIME對映編碼 (注音符號)'!$S$3:$S$44</definedName>
     <definedName name="按鍵編碼" localSheetId="7">'RIME對映編碼 (注音符號V2)'!$S$3:$S$44</definedName>
-    <definedName name="按鍵編碼" localSheetId="10">'RIME對映編碼 (原設計)'!$Z$3:$Z$47</definedName>
+    <definedName name="按鍵編碼" localSheetId="11">'RIME對映編碼 (原設計)'!$Z$3:$Z$47</definedName>
     <definedName name="按鍵編碼" localSheetId="4">'RIME對映編碼 (萌台語)'!$S$3:$S$57</definedName>
     <definedName name="國際音標" localSheetId="2">'RIME解析(BoPoMoFo)'!#REF!</definedName>
     <definedName name="國際音標" localSheetId="5">'RIME對映編碼 (台語方音)'!#REF!</definedName>
     <definedName name="國際音標" localSheetId="8">'RIME對映編碼 (台語方音V3)'!#REF!</definedName>
     <definedName name="國際音標" localSheetId="6">'RIME對映編碼 (注音符號)'!#REF!</definedName>
     <definedName name="國際音標" localSheetId="7">'RIME對映編碼 (注音符號V2)'!#REF!</definedName>
-    <definedName name="國際音標" localSheetId="10">'RIME對映編碼 (原設計)'!$AA$3:$AA$47</definedName>
+    <definedName name="國際音標" localSheetId="11">'RIME對映編碼 (原設計)'!$AA$3:$AA$47</definedName>
     <definedName name="國際音標" localSheetId="4">'RIME對映編碼 (萌台語)'!#REF!</definedName>
     <definedName name="鍵盤位置" localSheetId="2">'RIME解析(BoPoMoFo)'!$T$3:$T$57</definedName>
     <definedName name="鍵盤位置" localSheetId="5">'RIME對映編碼 (台語方音)'!$R$3:$R$44</definedName>
     <definedName name="鍵盤位置" localSheetId="8">'RIME對映編碼 (台語方音V3)'!$R$3:$R$44</definedName>
     <definedName name="鍵盤位置" localSheetId="6">'RIME對映編碼 (注音符號)'!$R$3:$R$44</definedName>
     <definedName name="鍵盤位置" localSheetId="7">'RIME對映編碼 (注音符號V2)'!$R$3:$R$44</definedName>
-    <definedName name="鍵盤位置" localSheetId="10">'RIME對映編碼 (原設計)'!$W$3:$W$47</definedName>
+    <definedName name="鍵盤位置" localSheetId="11">'RIME對映編碼 (原設計)'!$W$3:$W$47</definedName>
     <definedName name="鍵盤位置" localSheetId="4">'RIME對映編碼 (萌台語)'!$R$3:$R$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -4431,7 +4432,7 @@
     <numFmt numFmtId="178" formatCode="General;;"/>
     <numFmt numFmtId="179" formatCode="General;;\(&quot;空&quot;&quot;白&quot;&quot;字&quot;&quot;元&quot;\)"/>
   </numFmts>
-  <fonts count="206">
+  <fonts count="207">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -5754,6 +5755,13 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="27">
     <fill>
@@ -6243,7 +6251,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="121" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="514">
+  <cellXfs count="517">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7407,13 +7415,70 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7434,28 +7499,22 @@
     <xf numFmtId="0" fontId="91" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7467,79 +7526,13 @@
     <xf numFmtId="0" fontId="97" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="95" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7549,27 +7542,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7590,6 +7562,42 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7602,43 +7610,19 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7647,10 +7631,19 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7677,8 +7670,32 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10378,61 +10395,61 @@
   <sheetData>
     <row r="1" spans="2:44" ht="15" thickBot="1"/>
     <row r="2" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="429">
+      <c r="C2" s="448">
         <v>1</v>
       </c>
-      <c r="D2" s="430"/>
-      <c r="E2" s="431"/>
-      <c r="F2" s="429">
+      <c r="D2" s="449"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="448">
         <v>2</v>
       </c>
-      <c r="G2" s="430"/>
-      <c r="H2" s="431"/>
-      <c r="I2" s="453">
+      <c r="G2" s="449"/>
+      <c r="H2" s="450"/>
+      <c r="I2" s="438">
         <v>3</v>
       </c>
-      <c r="J2" s="454"/>
-      <c r="K2" s="455"/>
-      <c r="L2" s="453">
+      <c r="J2" s="439"/>
+      <c r="K2" s="440"/>
+      <c r="L2" s="438">
         <v>4</v>
       </c>
-      <c r="M2" s="454"/>
-      <c r="N2" s="455"/>
-      <c r="O2" s="453">
+      <c r="M2" s="439"/>
+      <c r="N2" s="440"/>
+      <c r="O2" s="438">
         <v>5</v>
       </c>
-      <c r="P2" s="454"/>
-      <c r="Q2" s="455"/>
-      <c r="R2" s="453">
+      <c r="P2" s="439"/>
+      <c r="Q2" s="440"/>
+      <c r="R2" s="438">
         <v>6</v>
       </c>
-      <c r="S2" s="454"/>
-      <c r="T2" s="455"/>
-      <c r="U2" s="453">
+      <c r="S2" s="439"/>
+      <c r="T2" s="440"/>
+      <c r="U2" s="438">
         <v>7</v>
       </c>
-      <c r="V2" s="454"/>
-      <c r="W2" s="455"/>
-      <c r="X2" s="432">
+      <c r="V2" s="439"/>
+      <c r="W2" s="440"/>
+      <c r="X2" s="429">
         <v>8</v>
       </c>
-      <c r="Y2" s="433"/>
-      <c r="Z2" s="434"/>
-      <c r="AA2" s="432">
+      <c r="Y2" s="424"/>
+      <c r="Z2" s="425"/>
+      <c r="AA2" s="429">
         <v>9</v>
       </c>
-      <c r="AB2" s="433"/>
-      <c r="AC2" s="434"/>
-      <c r="AD2" s="432">
+      <c r="AB2" s="424"/>
+      <c r="AC2" s="425"/>
+      <c r="AD2" s="429">
         <v>0</v>
       </c>
-      <c r="AE2" s="433"/>
-      <c r="AF2" s="434"/>
-      <c r="AG2" s="457" t="s">
+      <c r="AE2" s="424"/>
+      <c r="AF2" s="425"/>
+      <c r="AG2" s="423" t="s">
         <v>451</v>
       </c>
-      <c r="AH2" s="433"/>
-      <c r="AI2" s="434"/>
+      <c r="AH2" s="424"/>
+      <c r="AI2" s="425"/>
       <c r="AJ2" s="142"/>
       <c r="AK2" s="142"/>
       <c r="AL2" s="142"/>
@@ -10441,56 +10458,56 @@
       </c>
     </row>
     <row r="3" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="C3" s="426" t="str">
+      <c r="C3" s="445" t="str">
         <f>D14</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="427"/>
-      <c r="E3" s="428"/>
-      <c r="F3" s="426" t="str">
+      <c r="D3" s="446"/>
+      <c r="E3" s="447"/>
+      <c r="F3" s="445" t="str">
         <f>H14</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="427"/>
-      <c r="H3" s="428"/>
-      <c r="I3" s="450" t="s">
+      <c r="G3" s="446"/>
+      <c r="H3" s="447"/>
+      <c r="I3" s="442" t="s">
         <v>449</v>
       </c>
-      <c r="J3" s="451"/>
-      <c r="K3" s="452"/>
-      <c r="L3" s="450" t="s">
+      <c r="J3" s="443"/>
+      <c r="K3" s="444"/>
+      <c r="L3" s="442" t="s">
         <v>448</v>
       </c>
-      <c r="M3" s="451"/>
-      <c r="N3" s="452"/>
-      <c r="O3" s="450"/>
-      <c r="P3" s="451"/>
-      <c r="Q3" s="452"/>
-      <c r="R3" s="447" t="s">
+      <c r="M3" s="443"/>
+      <c r="N3" s="444"/>
+      <c r="O3" s="442"/>
+      <c r="P3" s="443"/>
+      <c r="Q3" s="444"/>
+      <c r="R3" s="451" t="s">
         <v>447</v>
       </c>
-      <c r="S3" s="448"/>
-      <c r="T3" s="449"/>
-      <c r="U3" s="450" t="s">
+      <c r="S3" s="452"/>
+      <c r="T3" s="453"/>
+      <c r="U3" s="442" t="s">
         <v>446</v>
       </c>
-      <c r="V3" s="451"/>
-      <c r="W3" s="452"/>
-      <c r="X3" s="443" t="str">
+      <c r="V3" s="443"/>
+      <c r="W3" s="444"/>
+      <c r="X3" s="430" t="str">
         <f>D20</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="444"/>
-      <c r="Z3" s="445"/>
-      <c r="AA3" s="443"/>
-      <c r="AB3" s="444"/>
-      <c r="AC3" s="445"/>
-      <c r="AD3" s="443"/>
-      <c r="AE3" s="444"/>
-      <c r="AF3" s="445"/>
-      <c r="AG3" s="458"/>
-      <c r="AH3" s="459"/>
-      <c r="AI3" s="460"/>
+      <c r="Y3" s="431"/>
+      <c r="Z3" s="432"/>
+      <c r="AA3" s="430"/>
+      <c r="AB3" s="431"/>
+      <c r="AC3" s="432"/>
+      <c r="AD3" s="430"/>
+      <c r="AE3" s="431"/>
+      <c r="AF3" s="432"/>
+      <c r="AG3" s="426"/>
+      <c r="AH3" s="427"/>
+      <c r="AI3" s="428"/>
       <c r="AQ3" s="156" t="s">
         <v>445</v>
       </c>
@@ -10499,109 +10516,109 @@
       </c>
     </row>
     <row r="4" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="429" t="s">
+      <c r="D4" s="448" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="430"/>
-      <c r="F4" s="431"/>
-      <c r="G4" s="429" t="s">
+      <c r="E4" s="449"/>
+      <c r="F4" s="450"/>
+      <c r="G4" s="448" t="s">
         <v>379</v>
       </c>
-      <c r="H4" s="430"/>
-      <c r="I4" s="431"/>
-      <c r="J4" s="429" t="s">
+      <c r="H4" s="449"/>
+      <c r="I4" s="450"/>
+      <c r="J4" s="448" t="s">
         <v>443</v>
       </c>
-      <c r="K4" s="430"/>
-      <c r="L4" s="431"/>
-      <c r="M4" s="429" t="s">
+      <c r="K4" s="449"/>
+      <c r="L4" s="450"/>
+      <c r="M4" s="448" t="s">
         <v>442</v>
       </c>
-      <c r="N4" s="430"/>
-      <c r="O4" s="431"/>
-      <c r="P4" s="429" t="s">
+      <c r="N4" s="449"/>
+      <c r="O4" s="450"/>
+      <c r="P4" s="448" t="s">
         <v>441</v>
       </c>
-      <c r="Q4" s="430"/>
-      <c r="R4" s="431"/>
-      <c r="S4" s="429" t="s">
+      <c r="Q4" s="449"/>
+      <c r="R4" s="450"/>
+      <c r="S4" s="448" t="s">
         <v>440</v>
       </c>
-      <c r="T4" s="430"/>
-      <c r="U4" s="431"/>
-      <c r="V4" s="432" t="s">
+      <c r="T4" s="449"/>
+      <c r="U4" s="450"/>
+      <c r="V4" s="429" t="s">
         <v>439</v>
       </c>
-      <c r="W4" s="433"/>
-      <c r="X4" s="434"/>
-      <c r="Y4" s="432" t="s">
+      <c r="W4" s="424"/>
+      <c r="X4" s="425"/>
+      <c r="Y4" s="429" t="s">
         <v>438</v>
       </c>
-      <c r="Z4" s="433"/>
-      <c r="AA4" s="434"/>
-      <c r="AB4" s="432" t="s">
+      <c r="Z4" s="424"/>
+      <c r="AA4" s="425"/>
+      <c r="AB4" s="429" t="s">
         <v>435</v>
       </c>
-      <c r="AC4" s="433"/>
-      <c r="AD4" s="434"/>
-      <c r="AE4" s="432" t="s">
+      <c r="AC4" s="424"/>
+      <c r="AD4" s="425"/>
+      <c r="AE4" s="429" t="s">
         <v>437</v>
       </c>
-      <c r="AF4" s="433"/>
-      <c r="AG4" s="434"/>
+      <c r="AF4" s="424"/>
+      <c r="AG4" s="425"/>
       <c r="AJ4" s="142"/>
       <c r="AK4" s="142"/>
       <c r="AL4" s="142"/>
     </row>
     <row r="5" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="D5" s="426" t="str">
+      <c r="D5" s="445" t="str">
         <f>E14</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="427"/>
-      <c r="F5" s="428"/>
-      <c r="G5" s="426" t="str">
+      <c r="E5" s="446"/>
+      <c r="F5" s="447"/>
+      <c r="G5" s="445" t="str">
         <f>I14</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="427"/>
-      <c r="I5" s="428"/>
-      <c r="J5" s="426" t="str">
+      <c r="H5" s="446"/>
+      <c r="I5" s="447"/>
+      <c r="J5" s="445" t="str">
         <f>L14</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="427"/>
-      <c r="L5" s="428"/>
-      <c r="M5" s="426"/>
-      <c r="N5" s="427"/>
-      <c r="O5" s="428"/>
-      <c r="P5" s="423" t="str">
+      <c r="K5" s="446"/>
+      <c r="L5" s="447"/>
+      <c r="M5" s="445"/>
+      <c r="N5" s="446"/>
+      <c r="O5" s="447"/>
+      <c r="P5" s="454" t="str">
         <f>F14</f>
         <v>ㆠ</v>
       </c>
-      <c r="Q5" s="424"/>
-      <c r="R5" s="425"/>
-      <c r="S5" s="426" t="str">
+      <c r="Q5" s="455"/>
+      <c r="R5" s="456"/>
+      <c r="S5" s="445" t="str">
         <f>Q14</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="427"/>
-      <c r="U5" s="428"/>
-      <c r="V5" s="443" t="str">
+      <c r="T5" s="446"/>
+      <c r="U5" s="447"/>
+      <c r="V5" s="430" t="str">
         <f>F20</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="444"/>
-      <c r="X5" s="445"/>
-      <c r="Y5" s="443" t="str">
+      <c r="W5" s="431"/>
+      <c r="X5" s="432"/>
+      <c r="Y5" s="430" t="str">
         <f>L20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="444"/>
-      <c r="AA5" s="445"/>
-      <c r="AB5" s="443"/>
-      <c r="AC5" s="444"/>
-      <c r="AD5" s="445"/>
+      <c r="Z5" s="431"/>
+      <c r="AA5" s="432"/>
+      <c r="AB5" s="430"/>
+      <c r="AC5" s="431"/>
+      <c r="AD5" s="432"/>
       <c r="AE5" s="435" t="str">
         <f>P20</f>
         <v>ㄣ</v>
@@ -10617,109 +10634,109 @@
     </row>
     <row r="6" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="157"/>
-      <c r="E6" s="429" t="s">
+      <c r="E6" s="448" t="s">
         <v>434</v>
       </c>
-      <c r="F6" s="430"/>
-      <c r="G6" s="431"/>
-      <c r="H6" s="429" t="s">
+      <c r="F6" s="449"/>
+      <c r="G6" s="450"/>
+      <c r="H6" s="448" t="s">
         <v>433</v>
       </c>
-      <c r="I6" s="430"/>
-      <c r="J6" s="431"/>
-      <c r="K6" s="429" t="s">
+      <c r="I6" s="449"/>
+      <c r="J6" s="450"/>
+      <c r="K6" s="448" t="s">
         <v>432</v>
       </c>
-      <c r="L6" s="430"/>
-      <c r="M6" s="431"/>
-      <c r="N6" s="429" t="s">
+      <c r="L6" s="449"/>
+      <c r="M6" s="450"/>
+      <c r="N6" s="448" t="s">
         <v>431</v>
       </c>
-      <c r="O6" s="430"/>
-      <c r="P6" s="431"/>
-      <c r="Q6" s="429" t="s">
+      <c r="O6" s="449"/>
+      <c r="P6" s="450"/>
+      <c r="Q6" s="448" t="s">
         <v>430</v>
       </c>
-      <c r="R6" s="430"/>
-      <c r="S6" s="431"/>
-      <c r="T6" s="429" t="s">
+      <c r="R6" s="449"/>
+      <c r="S6" s="450"/>
+      <c r="T6" s="448" t="s">
         <v>429</v>
       </c>
-      <c r="U6" s="430"/>
-      <c r="V6" s="431"/>
-      <c r="W6" s="432" t="s">
+      <c r="U6" s="449"/>
+      <c r="V6" s="450"/>
+      <c r="W6" s="429" t="s">
         <v>428</v>
       </c>
-      <c r="X6" s="433"/>
-      <c r="Y6" s="434"/>
-      <c r="Z6" s="432" t="s">
+      <c r="X6" s="424"/>
+      <c r="Y6" s="425"/>
+      <c r="Z6" s="429" t="s">
         <v>427</v>
       </c>
-      <c r="AA6" s="433"/>
-      <c r="AB6" s="434"/>
-      <c r="AC6" s="432" t="s">
+      <c r="AA6" s="424"/>
+      <c r="AB6" s="425"/>
+      <c r="AC6" s="429" t="s">
         <v>426</v>
       </c>
-      <c r="AD6" s="433"/>
-      <c r="AE6" s="434"/>
-      <c r="AF6" s="432" t="s">
+      <c r="AD6" s="424"/>
+      <c r="AE6" s="425"/>
+      <c r="AF6" s="429" t="s">
         <v>425</v>
       </c>
-      <c r="AG6" s="433"/>
-      <c r="AH6" s="434"/>
+      <c r="AG6" s="424"/>
+      <c r="AH6" s="425"/>
     </row>
     <row r="7" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="440" t="str">
+      <c r="E7" s="457" t="str">
         <f>G14</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="441"/>
-      <c r="G7" s="442"/>
-      <c r="H7" s="426" t="str">
+      <c r="F7" s="458"/>
+      <c r="G7" s="459"/>
+      <c r="H7" s="445" t="str">
         <f>J14</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="427"/>
-      <c r="J7" s="428"/>
-      <c r="K7" s="426" t="str">
+      <c r="I7" s="446"/>
+      <c r="J7" s="447"/>
+      <c r="K7" s="445" t="str">
         <f>M14</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="427"/>
-      <c r="M7" s="428"/>
-      <c r="N7" s="426"/>
-      <c r="O7" s="427"/>
-      <c r="P7" s="428"/>
-      <c r="Q7" s="446" t="str">
+      <c r="L7" s="446"/>
+      <c r="M7" s="447"/>
+      <c r="N7" s="445"/>
+      <c r="O7" s="446"/>
+      <c r="P7" s="447"/>
+      <c r="Q7" s="460" t="str">
         <f>N14</f>
         <v>ㆣ</v>
       </c>
-      <c r="R7" s="424"/>
-      <c r="S7" s="425"/>
-      <c r="T7" s="426" t="str">
+      <c r="R7" s="455"/>
+      <c r="S7" s="456"/>
+      <c r="T7" s="445" t="str">
         <f>R14</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="427"/>
-      <c r="V7" s="428"/>
-      <c r="W7" s="443" t="str">
+      <c r="U7" s="446"/>
+      <c r="V7" s="447"/>
+      <c r="W7" s="430" t="str">
         <f>H20</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="444"/>
-      <c r="Y7" s="445"/>
-      <c r="Z7" s="443" t="str">
+      <c r="X7" s="431"/>
+      <c r="Y7" s="432"/>
+      <c r="Z7" s="430" t="str">
         <f>N20</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="444"/>
-      <c r="AB7" s="445"/>
-      <c r="AC7" s="443"/>
-      <c r="AD7" s="444"/>
-      <c r="AE7" s="445"/>
-      <c r="AF7" s="462"/>
-      <c r="AG7" s="444"/>
-      <c r="AH7" s="445"/>
+      <c r="AA7" s="431"/>
+      <c r="AB7" s="432"/>
+      <c r="AC7" s="430"/>
+      <c r="AD7" s="431"/>
+      <c r="AE7" s="432"/>
+      <c r="AF7" s="434"/>
+      <c r="AG7" s="431"/>
+      <c r="AH7" s="432"/>
       <c r="AQ7" s="156" t="s">
         <v>424</v>
       </c>
@@ -10728,112 +10745,112 @@
       </c>
     </row>
     <row r="8" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="429" t="s">
+      <c r="F8" s="448" t="s">
         <v>422</v>
       </c>
-      <c r="G8" s="430"/>
-      <c r="H8" s="431"/>
-      <c r="I8" s="429" t="s">
+      <c r="G8" s="449"/>
+      <c r="H8" s="450"/>
+      <c r="I8" s="448" t="s">
         <v>421</v>
       </c>
-      <c r="J8" s="430"/>
-      <c r="K8" s="431"/>
-      <c r="L8" s="429" t="s">
+      <c r="J8" s="449"/>
+      <c r="K8" s="450"/>
+      <c r="L8" s="448" t="s">
         <v>420</v>
       </c>
-      <c r="M8" s="430"/>
-      <c r="N8" s="431"/>
-      <c r="O8" s="429" t="s">
+      <c r="M8" s="449"/>
+      <c r="N8" s="450"/>
+      <c r="O8" s="448" t="s">
         <v>419</v>
       </c>
-      <c r="P8" s="430"/>
-      <c r="Q8" s="431"/>
-      <c r="R8" s="429" t="s">
+      <c r="P8" s="449"/>
+      <c r="Q8" s="450"/>
+      <c r="R8" s="448" t="s">
         <v>418</v>
       </c>
-      <c r="S8" s="430"/>
-      <c r="T8" s="431"/>
-      <c r="U8" s="429" t="s">
+      <c r="S8" s="449"/>
+      <c r="T8" s="450"/>
+      <c r="U8" s="448" t="s">
         <v>377</v>
       </c>
-      <c r="V8" s="430"/>
-      <c r="W8" s="431"/>
-      <c r="X8" s="432" t="s">
+      <c r="V8" s="449"/>
+      <c r="W8" s="450"/>
+      <c r="X8" s="429" t="s">
         <v>417</v>
       </c>
-      <c r="Y8" s="433"/>
-      <c r="Z8" s="434"/>
-      <c r="AA8" s="432" t="s">
+      <c r="Y8" s="424"/>
+      <c r="Z8" s="425"/>
+      <c r="AA8" s="429" t="s">
         <v>416</v>
       </c>
-      <c r="AB8" s="433"/>
-      <c r="AC8" s="434"/>
-      <c r="AD8" s="432" t="s">
+      <c r="AB8" s="424"/>
+      <c r="AC8" s="425"/>
+      <c r="AD8" s="429" t="s">
         <v>415</v>
       </c>
-      <c r="AE8" s="433"/>
-      <c r="AF8" s="434"/>
-      <c r="AG8" s="461" t="s">
+      <c r="AE8" s="424"/>
+      <c r="AF8" s="425"/>
+      <c r="AG8" s="433" t="s">
         <v>414</v>
       </c>
-      <c r="AH8" s="433"/>
-      <c r="AI8" s="434"/>
+      <c r="AH8" s="424"/>
+      <c r="AI8" s="425"/>
     </row>
     <row r="9" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="F9" s="426"/>
-      <c r="G9" s="438"/>
-      <c r="H9" s="439"/>
-      <c r="I9" s="426" t="str">
+      <c r="F9" s="445"/>
+      <c r="G9" s="461"/>
+      <c r="H9" s="462"/>
+      <c r="I9" s="445" t="str">
         <f>K14</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="427"/>
-      <c r="K9" s="428"/>
-      <c r="L9" s="426" t="str">
+      <c r="J9" s="446"/>
+      <c r="K9" s="447"/>
+      <c r="L9" s="445" t="str">
         <f>P14</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="427"/>
-      <c r="N9" s="428"/>
-      <c r="O9" s="440" t="str">
+      <c r="M9" s="446"/>
+      <c r="N9" s="447"/>
+      <c r="O9" s="457" t="str">
         <f>O14</f>
         <v>ㄫ</v>
       </c>
-      <c r="P9" s="441"/>
-      <c r="Q9" s="442"/>
-      <c r="R9" s="423" t="str">
+      <c r="P9" s="458"/>
+      <c r="Q9" s="459"/>
+      <c r="R9" s="454" t="str">
         <f>S14</f>
         <v>ㆡ</v>
       </c>
-      <c r="S9" s="424"/>
-      <c r="T9" s="425"/>
-      <c r="U9" s="426" t="str">
+      <c r="S9" s="455"/>
+      <c r="T9" s="456"/>
+      <c r="U9" s="445" t="str">
         <f>T14</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="427"/>
-      <c r="W9" s="428"/>
+      <c r="V9" s="446"/>
+      <c r="W9" s="447"/>
       <c r="X9" s="435" t="str">
         <f>O20</f>
         <v>ㆬ</v>
       </c>
       <c r="Y9" s="436"/>
       <c r="Z9" s="437"/>
-      <c r="AA9" s="443" t="str">
+      <c r="AA9" s="430" t="str">
         <f>J20</f>
         <v>ㄝ</v>
       </c>
-      <c r="AB9" s="444"/>
-      <c r="AC9" s="445"/>
-      <c r="AD9" s="456" t="str">
+      <c r="AB9" s="431"/>
+      <c r="AC9" s="432"/>
+      <c r="AD9" s="441" t="str">
         <f>Q20</f>
         <v>ㄥ</v>
       </c>
       <c r="AE9" s="436"/>
       <c r="AF9" s="437"/>
-      <c r="AG9" s="443"/>
-      <c r="AH9" s="444"/>
-      <c r="AI9" s="445"/>
+      <c r="AG9" s="430"/>
+      <c r="AH9" s="431"/>
+      <c r="AI9" s="432"/>
     </row>
     <row r="12" spans="2:44">
       <c r="Z12" s="155"/>
@@ -11284,20 +11301,58 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="AD9:AF9"/>
     <mergeCell ref="U2:W2"/>
@@ -11314,58 +11369,20 @@
     <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="S5:U5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AC6:AE6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11378,7 +11395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FD1CD5-4651-439A-98A6-5245A83D236D}">
   <dimension ref="B1:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
@@ -14885,6 +14902,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842FC8D3-BD49-4755-A366-F34F5BF47C9D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E60580-1911-43C1-BAEF-682A6D6EBCFF}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -17249,7 +17279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111EA7F4-FBCF-47D0-A702-D6A889B6B19D}">
   <dimension ref="A2:R17"/>
   <sheetViews>
@@ -18013,7 +18043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A44C6B-5C2B-244E-B1C3-BDDB4706BDFC}">
   <dimension ref="A1:AU39"/>
   <sheetViews>
@@ -18070,8 +18100,8 @@
       <c r="AN1" s="77"/>
       <c r="AO1" s="77"/>
       <c r="AP1" s="77"/>
-      <c r="AQ1" s="491"/>
-      <c r="AR1" s="491"/>
+      <c r="AQ1" s="489"/>
+      <c r="AR1" s="489"/>
       <c r="AS1" s="77"/>
       <c r="AT1" s="77"/>
       <c r="AU1" s="77"/>
@@ -19388,66 +19418,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C11" s="489" t="str">
+      <c r="C11" s="490" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D11" s="489"/>
-      <c r="E11" s="489"/>
-      <c r="F11" s="489"/>
-      <c r="G11" s="489"/>
-      <c r="H11" s="489"/>
-      <c r="I11" s="489"/>
-      <c r="J11" s="489"/>
-      <c r="K11" s="489"/>
-      <c r="L11" s="489"/>
-      <c r="M11" s="489"/>
-      <c r="N11" s="489"/>
-      <c r="O11" s="489"/>
-      <c r="P11" s="489"/>
-      <c r="Q11" s="489"/>
-      <c r="R11" s="489"/>
-      <c r="S11" s="489"/>
-      <c r="T11" s="489"/>
-      <c r="U11" s="489"/>
-      <c r="V11" s="489"/>
-      <c r="W11" s="489"/>
-      <c r="X11" s="489"/>
-      <c r="Y11" s="489"/>
-      <c r="Z11" s="489"/>
+      <c r="D11" s="490"/>
+      <c r="E11" s="490"/>
+      <c r="F11" s="490"/>
+      <c r="G11" s="490"/>
+      <c r="H11" s="490"/>
+      <c r="I11" s="490"/>
+      <c r="J11" s="490"/>
+      <c r="K11" s="490"/>
+      <c r="L11" s="490"/>
+      <c r="M11" s="490"/>
+      <c r="N11" s="490"/>
+      <c r="O11" s="490"/>
+      <c r="P11" s="490"/>
+      <c r="Q11" s="490"/>
+      <c r="R11" s="490"/>
+      <c r="S11" s="490"/>
+      <c r="T11" s="490"/>
+      <c r="U11" s="490"/>
+      <c r="V11" s="490"/>
+      <c r="W11" s="490"/>
+      <c r="X11" s="490"/>
+      <c r="Y11" s="490"/>
+      <c r="Z11" s="490"/>
     </row>
     <row r="12" spans="1:47" s="76" customFormat="1" ht="23.25">
       <c r="B12" s="85" t="str">
         <f>B8</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C12" s="490" t="str">
+      <c r="C12" s="488" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D12" s="490"/>
-      <c r="E12" s="490"/>
-      <c r="F12" s="490"/>
-      <c r="G12" s="490"/>
-      <c r="H12" s="490"/>
-      <c r="I12" s="490"/>
-      <c r="J12" s="490"/>
-      <c r="K12" s="490"/>
-      <c r="L12" s="490"/>
-      <c r="M12" s="490"/>
-      <c r="N12" s="490"/>
-      <c r="O12" s="490"/>
-      <c r="P12" s="490"/>
-      <c r="Q12" s="490"/>
-      <c r="R12" s="490"/>
-      <c r="S12" s="490"/>
-      <c r="T12" s="490"/>
-      <c r="U12" s="490"/>
-      <c r="V12" s="490"/>
-      <c r="W12" s="490"/>
-      <c r="X12" s="490"/>
-      <c r="Y12" s="490"/>
-      <c r="Z12" s="490"/>
+      <c r="D12" s="488"/>
+      <c r="E12" s="488"/>
+      <c r="F12" s="488"/>
+      <c r="G12" s="488"/>
+      <c r="H12" s="488"/>
+      <c r="I12" s="488"/>
+      <c r="J12" s="488"/>
+      <c r="K12" s="488"/>
+      <c r="L12" s="488"/>
+      <c r="M12" s="488"/>
+      <c r="N12" s="488"/>
+      <c r="O12" s="488"/>
+      <c r="P12" s="488"/>
+      <c r="Q12" s="488"/>
+      <c r="R12" s="488"/>
+      <c r="S12" s="488"/>
+      <c r="T12" s="488"/>
+      <c r="U12" s="488"/>
+      <c r="V12" s="488"/>
+      <c r="W12" s="488"/>
+      <c r="X12" s="488"/>
+      <c r="Y12" s="488"/>
+      <c r="Z12" s="488"/>
     </row>
     <row r="13" spans="1:47" s="76" customFormat="1" ht="23.25"/>
     <row r="14" spans="1:47" s="76" customFormat="1" ht="38.25">
@@ -19456,34 +19486,34 @@
       </c>
     </row>
     <row r="15" spans="1:47" s="76" customFormat="1" ht="23.25">
-      <c r="B15" s="488" t="str">
+      <c r="B15" s="491" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C11 &amp; "|" &amp; C12 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|</v>
       </c>
-      <c r="C15" s="488"/>
-      <c r="D15" s="488"/>
-      <c r="E15" s="488"/>
-      <c r="F15" s="488"/>
-      <c r="G15" s="488"/>
-      <c r="H15" s="488"/>
-      <c r="I15" s="488"/>
-      <c r="J15" s="488"/>
-      <c r="K15" s="488"/>
-      <c r="L15" s="488"/>
-      <c r="M15" s="488"/>
-      <c r="N15" s="488"/>
-      <c r="O15" s="488"/>
-      <c r="P15" s="488"/>
-      <c r="Q15" s="488"/>
-      <c r="R15" s="488"/>
-      <c r="S15" s="488"/>
-      <c r="T15" s="488"/>
-      <c r="U15" s="488"/>
-      <c r="V15" s="488"/>
-      <c r="W15" s="488"/>
-      <c r="X15" s="488"/>
-      <c r="Y15" s="488"/>
-      <c r="Z15" s="488"/>
+      <c r="C15" s="491"/>
+      <c r="D15" s="491"/>
+      <c r="E15" s="491"/>
+      <c r="F15" s="491"/>
+      <c r="G15" s="491"/>
+      <c r="H15" s="491"/>
+      <c r="I15" s="491"/>
+      <c r="J15" s="491"/>
+      <c r="K15" s="491"/>
+      <c r="L15" s="491"/>
+      <c r="M15" s="491"/>
+      <c r="N15" s="491"/>
+      <c r="O15" s="491"/>
+      <c r="P15" s="491"/>
+      <c r="Q15" s="491"/>
+      <c r="R15" s="491"/>
+      <c r="S15" s="491"/>
+      <c r="T15" s="491"/>
+      <c r="U15" s="491"/>
+      <c r="V15" s="491"/>
+      <c r="W15" s="491"/>
+      <c r="X15" s="491"/>
+      <c r="Y15" s="491"/>
+      <c r="Z15" s="491"/>
     </row>
     <row r="16" spans="1:47" s="76" customFormat="1" ht="23.25"/>
     <row r="17" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -19497,66 +19527,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C19" s="489" t="str">
+      <c r="C19" s="490" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D19" s="489"/>
-      <c r="E19" s="489"/>
-      <c r="F19" s="489"/>
-      <c r="G19" s="489"/>
-      <c r="H19" s="489"/>
-      <c r="I19" s="489"/>
-      <c r="J19" s="489"/>
-      <c r="K19" s="489"/>
-      <c r="L19" s="489"/>
-      <c r="M19" s="489"/>
-      <c r="N19" s="489"/>
-      <c r="O19" s="489"/>
-      <c r="P19" s="489"/>
-      <c r="Q19" s="489"/>
-      <c r="R19" s="489"/>
-      <c r="S19" s="489"/>
-      <c r="T19" s="489"/>
-      <c r="U19" s="489"/>
-      <c r="V19" s="489"/>
-      <c r="W19" s="489"/>
-      <c r="X19" s="489"/>
-      <c r="Y19" s="489"/>
-      <c r="Z19" s="489"/>
+      <c r="D19" s="490"/>
+      <c r="E19" s="490"/>
+      <c r="F19" s="490"/>
+      <c r="G19" s="490"/>
+      <c r="H19" s="490"/>
+      <c r="I19" s="490"/>
+      <c r="J19" s="490"/>
+      <c r="K19" s="490"/>
+      <c r="L19" s="490"/>
+      <c r="M19" s="490"/>
+      <c r="N19" s="490"/>
+      <c r="O19" s="490"/>
+      <c r="P19" s="490"/>
+      <c r="Q19" s="490"/>
+      <c r="R19" s="490"/>
+      <c r="S19" s="490"/>
+      <c r="T19" s="490"/>
+      <c r="U19" s="490"/>
+      <c r="V19" s="490"/>
+      <c r="W19" s="490"/>
+      <c r="X19" s="490"/>
+      <c r="Y19" s="490"/>
+      <c r="Z19" s="490"/>
     </row>
     <row r="20" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B20" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C20" s="490" t="str">
+      <c r="C20" s="488" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D20" s="490"/>
-      <c r="E20" s="490"/>
-      <c r="F20" s="490"/>
-      <c r="G20" s="490"/>
-      <c r="H20" s="490"/>
-      <c r="I20" s="490"/>
-      <c r="J20" s="490"/>
-      <c r="K20" s="490"/>
-      <c r="L20" s="490"/>
-      <c r="M20" s="490"/>
-      <c r="N20" s="490"/>
-      <c r="O20" s="490"/>
-      <c r="P20" s="490"/>
-      <c r="Q20" s="490"/>
-      <c r="R20" s="490"/>
-      <c r="S20" s="490"/>
-      <c r="T20" s="490"/>
-      <c r="U20" s="490"/>
-      <c r="V20" s="490"/>
-      <c r="W20" s="490"/>
-      <c r="X20" s="490"/>
-      <c r="Y20" s="490"/>
-      <c r="Z20" s="490"/>
+      <c r="D20" s="488"/>
+      <c r="E20" s="488"/>
+      <c r="F20" s="488"/>
+      <c r="G20" s="488"/>
+      <c r="H20" s="488"/>
+      <c r="I20" s="488"/>
+      <c r="J20" s="488"/>
+      <c r="K20" s="488"/>
+      <c r="L20" s="488"/>
+      <c r="M20" s="488"/>
+      <c r="N20" s="488"/>
+      <c r="O20" s="488"/>
+      <c r="P20" s="488"/>
+      <c r="Q20" s="488"/>
+      <c r="R20" s="488"/>
+      <c r="S20" s="488"/>
+      <c r="T20" s="488"/>
+      <c r="U20" s="488"/>
+      <c r="V20" s="488"/>
+      <c r="W20" s="488"/>
+      <c r="X20" s="488"/>
+      <c r="Y20" s="488"/>
+      <c r="Z20" s="488"/>
     </row>
     <row r="21" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="22" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -19565,34 +19595,34 @@
       </c>
     </row>
     <row r="23" spans="2:26" s="76" customFormat="1" ht="23.25">
-      <c r="B23" s="488" t="str">
+      <c r="B23" s="491" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C19 &amp; "|" &amp; C20 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C23" s="488"/>
-      <c r="D23" s="488"/>
-      <c r="E23" s="488"/>
-      <c r="F23" s="488"/>
-      <c r="G23" s="488"/>
-      <c r="H23" s="488"/>
-      <c r="I23" s="488"/>
-      <c r="J23" s="488"/>
-      <c r="K23" s="488"/>
-      <c r="L23" s="488"/>
-      <c r="M23" s="488"/>
-      <c r="N23" s="488"/>
-      <c r="O23" s="488"/>
-      <c r="P23" s="488"/>
-      <c r="Q23" s="488"/>
-      <c r="R23" s="488"/>
-      <c r="S23" s="488"/>
-      <c r="T23" s="488"/>
-      <c r="U23" s="488"/>
-      <c r="V23" s="488"/>
-      <c r="W23" s="488"/>
-      <c r="X23" s="488"/>
-      <c r="Y23" s="488"/>
-      <c r="Z23" s="488"/>
+      <c r="C23" s="491"/>
+      <c r="D23" s="491"/>
+      <c r="E23" s="491"/>
+      <c r="F23" s="491"/>
+      <c r="G23" s="491"/>
+      <c r="H23" s="491"/>
+      <c r="I23" s="491"/>
+      <c r="J23" s="491"/>
+      <c r="K23" s="491"/>
+      <c r="L23" s="491"/>
+      <c r="M23" s="491"/>
+      <c r="N23" s="491"/>
+      <c r="O23" s="491"/>
+      <c r="P23" s="491"/>
+      <c r="Q23" s="491"/>
+      <c r="R23" s="491"/>
+      <c r="S23" s="491"/>
+      <c r="T23" s="491"/>
+      <c r="U23" s="491"/>
+      <c r="V23" s="491"/>
+      <c r="W23" s="491"/>
+      <c r="X23" s="491"/>
+      <c r="Y23" s="491"/>
+      <c r="Z23" s="491"/>
     </row>
     <row r="24" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="25" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -19606,66 +19636,66 @@
         <f>B12</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C27" s="489" t="str">
+      <c r="C27" s="490" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D27" s="489"/>
-      <c r="E27" s="489"/>
-      <c r="F27" s="489"/>
-      <c r="G27" s="489"/>
-      <c r="H27" s="489"/>
-      <c r="I27" s="489"/>
-      <c r="J27" s="489"/>
-      <c r="K27" s="489"/>
-      <c r="L27" s="489"/>
-      <c r="M27" s="489"/>
-      <c r="N27" s="489"/>
-      <c r="O27" s="489"/>
-      <c r="P27" s="489"/>
-      <c r="Q27" s="489"/>
-      <c r="R27" s="489"/>
-      <c r="S27" s="489"/>
-      <c r="T27" s="489"/>
-      <c r="U27" s="489"/>
-      <c r="V27" s="489"/>
-      <c r="W27" s="489"/>
-      <c r="X27" s="489"/>
-      <c r="Y27" s="489"/>
-      <c r="Z27" s="489"/>
+      <c r="D27" s="490"/>
+      <c r="E27" s="490"/>
+      <c r="F27" s="490"/>
+      <c r="G27" s="490"/>
+      <c r="H27" s="490"/>
+      <c r="I27" s="490"/>
+      <c r="J27" s="490"/>
+      <c r="K27" s="490"/>
+      <c r="L27" s="490"/>
+      <c r="M27" s="490"/>
+      <c r="N27" s="490"/>
+      <c r="O27" s="490"/>
+      <c r="P27" s="490"/>
+      <c r="Q27" s="490"/>
+      <c r="R27" s="490"/>
+      <c r="S27" s="490"/>
+      <c r="T27" s="490"/>
+      <c r="U27" s="490"/>
+      <c r="V27" s="490"/>
+      <c r="W27" s="490"/>
+      <c r="X27" s="490"/>
+      <c r="Y27" s="490"/>
+      <c r="Z27" s="490"/>
     </row>
     <row r="28" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B28" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C28" s="490" t="str">
+      <c r="C28" s="488" t="str">
         <f>_xlfn.CONCAT(C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D28" s="490"/>
-      <c r="E28" s="490"/>
-      <c r="F28" s="490"/>
-      <c r="G28" s="490"/>
-      <c r="H28" s="490"/>
-      <c r="I28" s="490"/>
-      <c r="J28" s="490"/>
-      <c r="K28" s="490"/>
-      <c r="L28" s="490"/>
-      <c r="M28" s="490"/>
-      <c r="N28" s="490"/>
-      <c r="O28" s="490"/>
-      <c r="P28" s="490"/>
-      <c r="Q28" s="490"/>
-      <c r="R28" s="490"/>
-      <c r="S28" s="490"/>
-      <c r="T28" s="490"/>
-      <c r="U28" s="490"/>
-      <c r="V28" s="490"/>
-      <c r="W28" s="490"/>
-      <c r="X28" s="490"/>
-      <c r="Y28" s="490"/>
-      <c r="Z28" s="490"/>
+      <c r="D28" s="488"/>
+      <c r="E28" s="488"/>
+      <c r="F28" s="488"/>
+      <c r="G28" s="488"/>
+      <c r="H28" s="488"/>
+      <c r="I28" s="488"/>
+      <c r="J28" s="488"/>
+      <c r="K28" s="488"/>
+      <c r="L28" s="488"/>
+      <c r="M28" s="488"/>
+      <c r="N28" s="488"/>
+      <c r="O28" s="488"/>
+      <c r="P28" s="488"/>
+      <c r="Q28" s="488"/>
+      <c r="R28" s="488"/>
+      <c r="S28" s="488"/>
+      <c r="T28" s="488"/>
+      <c r="U28" s="488"/>
+      <c r="V28" s="488"/>
+      <c r="W28" s="488"/>
+      <c r="X28" s="488"/>
+      <c r="Y28" s="488"/>
+      <c r="Z28" s="488"/>
     </row>
     <row r="29" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="30" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -19674,34 +19704,34 @@
       </c>
     </row>
     <row r="31" spans="2:26" s="76" customFormat="1" ht="23.25">
-      <c r="B31" s="488" t="str">
+      <c r="B31" s="491" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C27 &amp; "|" &amp; C28 &amp; "|"</f>
         <v>- xlit|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C31" s="488"/>
-      <c r="D31" s="488"/>
-      <c r="E31" s="488"/>
-      <c r="F31" s="488"/>
-      <c r="G31" s="488"/>
-      <c r="H31" s="488"/>
-      <c r="I31" s="488"/>
-      <c r="J31" s="488"/>
-      <c r="K31" s="488"/>
-      <c r="L31" s="488"/>
-      <c r="M31" s="488"/>
-      <c r="N31" s="488"/>
-      <c r="O31" s="488"/>
-      <c r="P31" s="488"/>
-      <c r="Q31" s="488"/>
-      <c r="R31" s="488"/>
-      <c r="S31" s="488"/>
-      <c r="T31" s="488"/>
-      <c r="U31" s="488"/>
-      <c r="V31" s="488"/>
-      <c r="W31" s="488"/>
-      <c r="X31" s="488"/>
-      <c r="Y31" s="488"/>
-      <c r="Z31" s="488"/>
+      <c r="C31" s="491"/>
+      <c r="D31" s="491"/>
+      <c r="E31" s="491"/>
+      <c r="F31" s="491"/>
+      <c r="G31" s="491"/>
+      <c r="H31" s="491"/>
+      <c r="I31" s="491"/>
+      <c r="J31" s="491"/>
+      <c r="K31" s="491"/>
+      <c r="L31" s="491"/>
+      <c r="M31" s="491"/>
+      <c r="N31" s="491"/>
+      <c r="O31" s="491"/>
+      <c r="P31" s="491"/>
+      <c r="Q31" s="491"/>
+      <c r="R31" s="491"/>
+      <c r="S31" s="491"/>
+      <c r="T31" s="491"/>
+      <c r="U31" s="491"/>
+      <c r="V31" s="491"/>
+      <c r="W31" s="491"/>
+      <c r="X31" s="491"/>
+      <c r="Y31" s="491"/>
+      <c r="Z31" s="491"/>
     </row>
     <row r="32" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="33" spans="1:47" s="78" customFormat="1">
@@ -19992,8 +20022,8 @@
       <c r="AN38" s="77"/>
       <c r="AO38" s="77"/>
       <c r="AP38" s="77"/>
-      <c r="AQ38" s="491"/>
-      <c r="AR38" s="491"/>
+      <c r="AQ38" s="489"/>
+      <c r="AR38" s="489"/>
       <c r="AS38" s="77"/>
       <c r="AT38" s="77"/>
       <c r="AU38" s="77"/>
@@ -20001,24 +20031,24 @@
     <row r="39" spans="1:47" s="76" customFormat="1" ht="23.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="AQ38:AR38"/>
     <mergeCell ref="C20:Z20"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="C12:Z12"/>
     <mergeCell ref="B15:Z15"/>
     <mergeCell ref="C19:Z19"/>
-    <mergeCell ref="B23:Z23"/>
-    <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="AQ38:AR38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD212CC-0B4A-E448-85BE-AB9506DEBF96}">
   <dimension ref="B1:Q33"/>
   <sheetViews>
@@ -20047,161 +20077,161 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="513" t="s">
+      <c r="B2" s="492" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="513"/>
-      <c r="D2" s="513"/>
-      <c r="E2" s="513" t="s">
+      <c r="C2" s="492"/>
+      <c r="D2" s="492"/>
+      <c r="E2" s="492" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="513"/>
-      <c r="G2" s="513" t="s">
+      <c r="F2" s="492"/>
+      <c r="G2" s="492" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="513"/>
-      <c r="I2" s="513" t="s">
+      <c r="H2" s="492"/>
+      <c r="I2" s="492" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="513"/>
-      <c r="K2" s="513" t="s">
+      <c r="J2" s="492"/>
+      <c r="K2" s="492" t="s">
         <v>207</v>
       </c>
-      <c r="L2" s="513"/>
-      <c r="M2" s="513"/>
-      <c r="N2" s="513"/>
-      <c r="O2" s="513" t="s">
+      <c r="L2" s="492"/>
+      <c r="M2" s="492"/>
+      <c r="N2" s="492"/>
+      <c r="O2" s="492" t="s">
         <v>208</v>
       </c>
-      <c r="P2" s="513"/>
+      <c r="P2" s="492"/>
     </row>
     <row r="3" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="513" t="s">
+      <c r="B3" s="492" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="513"/>
-      <c r="D3" s="513"/>
-      <c r="E3" s="513" t="s">
+      <c r="C3" s="492"/>
+      <c r="D3" s="492"/>
+      <c r="E3" s="492" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="513"/>
-      <c r="G3" s="513" t="s">
+      <c r="F3" s="492"/>
+      <c r="G3" s="492" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="513"/>
-      <c r="I3" s="513" t="s">
+      <c r="H3" s="492"/>
+      <c r="I3" s="492" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="513"/>
-      <c r="K3" s="513" t="s">
+      <c r="J3" s="492"/>
+      <c r="K3" s="492" t="s">
         <v>212</v>
       </c>
-      <c r="L3" s="513"/>
-      <c r="M3" s="513"/>
-      <c r="N3" s="513"/>
-      <c r="O3" s="513" t="s">
+      <c r="L3" s="492"/>
+      <c r="M3" s="492"/>
+      <c r="N3" s="492"/>
+      <c r="O3" s="492" t="s">
         <v>208</v>
       </c>
-      <c r="P3" s="513"/>
+      <c r="P3" s="492"/>
     </row>
     <row r="4" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="513" t="s">
+      <c r="B4" s="492" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="513"/>
-      <c r="D4" s="513"/>
-      <c r="E4" s="513" t="s">
+      <c r="C4" s="492"/>
+      <c r="D4" s="492"/>
+      <c r="E4" s="492" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="513"/>
-      <c r="G4" s="513" t="s">
+      <c r="F4" s="492"/>
+      <c r="G4" s="492" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="513"/>
-      <c r="I4" s="513" t="s">
+      <c r="H4" s="492"/>
+      <c r="I4" s="492" t="s">
         <v>211</v>
       </c>
-      <c r="J4" s="513"/>
-      <c r="K4" s="513" t="s">
+      <c r="J4" s="492"/>
+      <c r="K4" s="492" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="513"/>
-      <c r="M4" s="513"/>
-      <c r="N4" s="513"/>
-      <c r="O4" s="513" t="s">
+      <c r="L4" s="492"/>
+      <c r="M4" s="492"/>
+      <c r="N4" s="492"/>
+      <c r="O4" s="492" t="s">
         <v>208</v>
       </c>
-      <c r="P4" s="513"/>
+      <c r="P4" s="492"/>
     </row>
     <row r="5" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="513" t="s">
+      <c r="B5" s="492" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="513"/>
-      <c r="D5" s="513"/>
-      <c r="E5" s="513" t="s">
+      <c r="C5" s="492"/>
+      <c r="D5" s="492"/>
+      <c r="E5" s="492" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513" t="s">
+      <c r="F5" s="492"/>
+      <c r="G5" s="492" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="513"/>
-      <c r="I5" s="513" t="s">
+      <c r="H5" s="492"/>
+      <c r="I5" s="492" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="513"/>
-      <c r="K5" s="513" t="s">
+      <c r="J5" s="492"/>
+      <c r="K5" s="492" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="513"/>
-      <c r="M5" s="513"/>
-      <c r="N5" s="513"/>
-      <c r="O5" s="513" t="s">
+      <c r="L5" s="492"/>
+      <c r="M5" s="492"/>
+      <c r="N5" s="492"/>
+      <c r="O5" s="492" t="s">
         <v>220</v>
       </c>
-      <c r="P5" s="513"/>
+      <c r="P5" s="492"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
-      <c r="B7" s="506" t="s">
+      <c r="B7" s="501" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="507"/>
-      <c r="D7" s="508"/>
-      <c r="E7" s="509" t="s">
+      <c r="C7" s="502"/>
+      <c r="D7" s="503"/>
+      <c r="E7" s="504" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="510"/>
-      <c r="G7" s="501" t="s">
+      <c r="F7" s="505"/>
+      <c r="G7" s="493" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="502"/>
-      <c r="I7" s="511" t="s">
+      <c r="H7" s="494"/>
+      <c r="I7" s="506" t="s">
         <v>223</v>
       </c>
-      <c r="J7" s="512"/>
-      <c r="K7" s="501" t="s">
+      <c r="J7" s="507"/>
+      <c r="K7" s="493" t="s">
         <v>224</v>
       </c>
-      <c r="L7" s="502"/>
-      <c r="M7" s="501" t="s">
+      <c r="L7" s="494"/>
+      <c r="M7" s="493" t="s">
         <v>225</v>
       </c>
-      <c r="N7" s="502"/>
-      <c r="O7" s="501" t="s">
+      <c r="N7" s="494"/>
+      <c r="O7" s="493" t="s">
         <v>226</v>
       </c>
-      <c r="P7" s="502"/>
+      <c r="P7" s="494"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
-      <c r="B8" s="492" t="s">
+      <c r="B8" s="495" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="503" t="s">
+      <c r="C8" s="496" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="504" t="s">
+      <c r="D8" s="497" t="s">
         <v>229</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -20234,9 +20264,9 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
-      <c r="B9" s="492"/>
-      <c r="C9" s="503"/>
-      <c r="D9" s="504"/>
+      <c r="B9" s="495"/>
+      <c r="C9" s="496"/>
+      <c r="D9" s="497"/>
       <c r="E9" s="24" t="s">
         <v>232</v>
       </c>
@@ -20267,9 +20297,9 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
-      <c r="B10" s="492"/>
-      <c r="C10" s="503"/>
-      <c r="D10" s="500" t="s">
+      <c r="B10" s="495"/>
+      <c r="C10" s="496"/>
+      <c r="D10" s="498" t="s">
         <v>240</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -20298,9 +20328,9 @@
       <c r="P10" s="20"/>
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
-      <c r="B11" s="492"/>
-      <c r="C11" s="503"/>
-      <c r="D11" s="500"/>
+      <c r="B11" s="495"/>
+      <c r="C11" s="496"/>
+      <c r="D11" s="498"/>
       <c r="E11" s="24" t="s">
         <v>241</v>
       </c>
@@ -20327,11 +20357,11 @@
       <c r="P11" s="25"/>
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
-      <c r="B12" s="492"/>
-      <c r="C12" s="493" t="s">
+      <c r="B12" s="495"/>
+      <c r="C12" s="499" t="s">
         <v>247</v>
       </c>
-      <c r="D12" s="505" t="s">
+      <c r="D12" s="500" t="s">
         <v>248</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -20356,9 +20386,9 @@
       <c r="P12" s="20"/>
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
-      <c r="B13" s="492"/>
-      <c r="C13" s="493"/>
-      <c r="D13" s="505"/>
+      <c r="B13" s="495"/>
+      <c r="C13" s="499"/>
+      <c r="D13" s="500"/>
       <c r="E13" s="24" t="s">
         <v>192</v>
       </c>
@@ -20381,13 +20411,13 @@
       <c r="P13" s="25"/>
     </row>
     <row r="14" spans="2:16" ht="39" customHeight="1">
-      <c r="B14" s="492" t="s">
+      <c r="B14" s="495" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="498" t="s">
+      <c r="C14" s="508" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="494" t="s">
+      <c r="D14" s="509" t="s">
         <v>229</v>
       </c>
       <c r="E14" s="19"/>
@@ -20412,9 +20442,9 @@
       <c r="P14" s="20"/>
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
-      <c r="B15" s="492"/>
-      <c r="C15" s="498"/>
-      <c r="D15" s="494"/>
+      <c r="B15" s="495"/>
+      <c r="C15" s="508"/>
+      <c r="D15" s="509"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
@@ -20437,9 +20467,9 @@
       <c r="P15" s="25"/>
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
-      <c r="B16" s="492"/>
-      <c r="C16" s="498"/>
-      <c r="D16" s="500" t="s">
+      <c r="B16" s="495"/>
+      <c r="C16" s="508"/>
+      <c r="D16" s="498" t="s">
         <v>240</v>
       </c>
       <c r="E16" s="19"/>
@@ -20464,9 +20494,9 @@
       <c r="P16" s="20"/>
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
-      <c r="B17" s="492"/>
-      <c r="C17" s="498"/>
-      <c r="D17" s="500"/>
+      <c r="B17" s="495"/>
+      <c r="C17" s="508"/>
+      <c r="D17" s="498"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -20489,11 +20519,11 @@
       <c r="P17" s="25"/>
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
-      <c r="B18" s="492"/>
-      <c r="C18" s="493" t="s">
+      <c r="B18" s="495"/>
+      <c r="C18" s="499" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="494" t="s">
+      <c r="D18" s="509" t="s">
         <v>248</v>
       </c>
       <c r="E18" s="19"/>
@@ -20518,9 +20548,9 @@
       <c r="P18" s="20"/>
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
-      <c r="B19" s="492"/>
-      <c r="C19" s="493"/>
-      <c r="D19" s="494"/>
+      <c r="B19" s="495"/>
+      <c r="C19" s="499"/>
+      <c r="D19" s="509"/>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -20543,13 +20573,13 @@
       <c r="P19" s="25"/>
     </row>
     <row r="20" spans="2:17" ht="39" customHeight="1">
-      <c r="B20" s="492" t="s">
+      <c r="B20" s="495" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="498" t="s">
+      <c r="C20" s="508" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="494" t="s">
+      <c r="D20" s="509" t="s">
         <v>248</v>
       </c>
       <c r="E20" s="19"/>
@@ -20574,9 +20604,9 @@
       <c r="P20" s="20"/>
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
-      <c r="B21" s="492"/>
-      <c r="C21" s="498"/>
-      <c r="D21" s="494"/>
+      <c r="B21" s="495"/>
+      <c r="C21" s="508"/>
+      <c r="D21" s="509"/>
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
@@ -20599,9 +20629,9 @@
       <c r="P21" s="25"/>
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
-      <c r="B22" s="492"/>
-      <c r="C22" s="498"/>
-      <c r="D22" s="499" t="s">
+      <c r="B22" s="495"/>
+      <c r="C22" s="508"/>
+      <c r="D22" s="510" t="s">
         <v>275</v>
       </c>
       <c r="E22" s="19"/>
@@ -20622,9 +20652,9 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
-      <c r="B23" s="492"/>
-      <c r="C23" s="498"/>
-      <c r="D23" s="499"/>
+      <c r="B23" s="495"/>
+      <c r="C23" s="508"/>
+      <c r="D23" s="510"/>
       <c r="E23" s="24"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -20643,13 +20673,13 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="39" customHeight="1">
-      <c r="B24" s="492" t="s">
+      <c r="B24" s="495" t="s">
         <v>278</v>
       </c>
-      <c r="C24" s="493" t="s">
+      <c r="C24" s="499" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="494" t="s">
+      <c r="D24" s="509" t="s">
         <v>248</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -20678,9 +20708,9 @@
       <c r="P24" s="20"/>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
-      <c r="B25" s="492"/>
-      <c r="C25" s="493"/>
-      <c r="D25" s="494"/>
+      <c r="B25" s="495"/>
+      <c r="C25" s="499"/>
+      <c r="D25" s="509"/>
       <c r="E25" s="24" t="s">
         <v>191</v>
       </c>
@@ -20707,13 +20737,13 @@
       <c r="P25" s="25"/>
     </row>
     <row r="26" spans="2:17" ht="39" customHeight="1">
-      <c r="B26" s="492" t="s">
+      <c r="B26" s="495" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="493" t="s">
+      <c r="C26" s="499" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="494" t="s">
+      <c r="D26" s="509" t="s">
         <v>248</v>
       </c>
       <c r="E26" s="19"/>
@@ -20734,9 +20764,9 @@
       <c r="P26" s="20"/>
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
-      <c r="B27" s="492"/>
-      <c r="C27" s="493"/>
-      <c r="D27" s="494"/>
+      <c r="B27" s="495"/>
+      <c r="C27" s="499"/>
+      <c r="D27" s="509"/>
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26" t="s">
@@ -20758,23 +20788,23 @@
       <c r="B29" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C29" s="495" t="s">
+      <c r="C29" s="511" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="495"/>
-      <c r="E29" s="495"/>
-      <c r="F29" s="495"/>
-      <c r="G29" s="495"/>
-      <c r="H29" s="495"/>
-      <c r="I29" s="495"/>
-      <c r="J29" s="495"/>
-      <c r="K29" s="495"/>
-      <c r="L29" s="495"/>
-      <c r="M29" s="495"/>
-      <c r="N29" s="495"/>
-      <c r="O29" s="495"/>
-      <c r="P29" s="495"/>
-      <c r="Q29" s="495"/>
+      <c r="D29" s="511"/>
+      <c r="E29" s="511"/>
+      <c r="F29" s="511"/>
+      <c r="G29" s="511"/>
+      <c r="H29" s="511"/>
+      <c r="I29" s="511"/>
+      <c r="J29" s="511"/>
+      <c r="K29" s="511"/>
+      <c r="L29" s="511"/>
+      <c r="M29" s="511"/>
+      <c r="N29" s="511"/>
+      <c r="O29" s="511"/>
+      <c r="P29" s="511"/>
+      <c r="Q29" s="511"/>
     </row>
     <row r="30" spans="2:17" s="31" customFormat="1" ht="25.5">
       <c r="B30" s="29"/>
@@ -20818,10 +20848,10 @@
       <c r="B32" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="496" t="s">
+      <c r="C32" s="512" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="497"/>
+      <c r="D32" s="513"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="32" t="s">
@@ -20836,6 +20866,51 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -20850,51 +20925,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -20926,9 +20956,9 @@
   </sheetPr>
   <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BA8" sqref="BA8:BE55"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BF31" sqref="BF31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8984375" defaultRowHeight="21"/>
@@ -20937,7 +20967,7 @@
     <col min="2" max="2" width="11.19921875" customWidth="1"/>
     <col min="3" max="3" width="6.69921875" customWidth="1"/>
     <col min="4" max="51" width="5.09765625" customWidth="1"/>
-    <col min="52" max="52" width="28.3984375" customWidth="1"/>
+    <col min="52" max="52" width="28.3984375" style="344" customWidth="1"/>
     <col min="53" max="53" width="6.296875" customWidth="1"/>
     <col min="54" max="57" width="11.59765625" customWidth="1"/>
     <col min="60" max="60" width="10.09765625" customWidth="1"/>
@@ -21192,6 +21222,7 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
+      <c r="AZ2" s="345"/>
       <c r="BB2"/>
       <c r="BE2"/>
       <c r="BF2"/>
@@ -21815,6 +21846,7 @@
       <c r="AX6" s="137">
         <v>0</v>
       </c>
+      <c r="AZ6" s="345"/>
       <c r="BB6"/>
       <c r="BE6"/>
       <c r="BF6"/>
@@ -21823,6 +21855,7 @@
     </row>
     <row r="7" spans="1:63" s="3" customFormat="1" ht="36" customHeight="1" thickBot="1">
       <c r="A7"/>
+      <c r="AZ7" s="345"/>
       <c r="BA7" s="57"/>
       <c r="BB7"/>
       <c r="BC7"/>
@@ -21845,36 +21878,36 @@
       <c r="F8" s="323" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="468" t="s">
+      <c r="G8" s="463" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="469"/>
-      <c r="I8" s="470"/>
-      <c r="J8" s="478" t="s">
+      <c r="H8" s="464"/>
+      <c r="I8" s="465"/>
+      <c r="J8" s="466" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="479"/>
-      <c r="L8" s="480"/>
-      <c r="M8" s="478" t="s">
+      <c r="K8" s="467"/>
+      <c r="L8" s="468"/>
+      <c r="M8" s="466" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="479"/>
-      <c r="O8" s="480"/>
-      <c r="P8" s="481" t="s">
+      <c r="N8" s="467"/>
+      <c r="O8" s="468"/>
+      <c r="P8" s="469" t="s">
         <v>689</v>
       </c>
-      <c r="Q8" s="482"/>
-      <c r="R8" s="483"/>
-      <c r="S8" s="478" t="s">
+      <c r="Q8" s="470"/>
+      <c r="R8" s="471"/>
+      <c r="S8" s="466" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="479"/>
-      <c r="U8" s="480"/>
-      <c r="V8" s="478" t="s">
+      <c r="T8" s="467"/>
+      <c r="U8" s="468"/>
+      <c r="V8" s="466" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="479"/>
-      <c r="X8" s="480"/>
+      <c r="W8" s="467"/>
+      <c r="X8" s="468"/>
       <c r="Y8" s="325" t="s">
         <v>107</v>
       </c>
@@ -21893,21 +21926,21 @@
       <c r="AD8" s="326" t="s">
         <v>907</v>
       </c>
-      <c r="AE8" s="471" t="s">
+      <c r="AE8" s="481" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="472"/>
-      <c r="AG8" s="473"/>
-      <c r="AH8" s="465" t="s">
+      <c r="AF8" s="482"/>
+      <c r="AG8" s="483"/>
+      <c r="AH8" s="472" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="466"/>
-      <c r="AJ8" s="467"/>
-      <c r="AK8" s="465" t="s">
+      <c r="AI8" s="473"/>
+      <c r="AJ8" s="474"/>
+      <c r="AK8" s="472" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="466"/>
-      <c r="AM8" s="467"/>
+      <c r="AL8" s="473"/>
+      <c r="AM8" s="474"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -21919,7 +21952,7 @@
       <c r="AV8" s="2"/>
       <c r="AW8" s="57"/>
       <c r="AX8" s="57"/>
-      <c r="AZ8" s="2"/>
+      <c r="AZ8" s="514"/>
       <c r="BA8" s="337" t="s">
         <v>103</v>
       </c>
@@ -21964,38 +21997,38 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="474" t="s">
+      <c r="J9" s="475" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="475"/>
+      <c r="K9" s="476"/>
       <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="474" t="s">
+      <c r="M9" s="475" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="475"/>
+      <c r="N9" s="476"/>
       <c r="O9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="476" t="s">
+      <c r="P9" s="477" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="477"/>
+      <c r="Q9" s="478"/>
       <c r="R9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="474" t="s">
+      <c r="S9" s="475" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="475"/>
+      <c r="T9" s="476"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="476" t="s">
+      <c r="V9" s="477" t="s">
         <v>909</v>
       </c>
-      <c r="W9" s="477"/>
+      <c r="W9" s="478"/>
       <c r="X9" s="6" t="s">
         <v>729</v>
       </c>
@@ -22029,8 +22062,8 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="53"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="463"/>
-      <c r="AL9" s="464"/>
+      <c r="AK9" s="479"/>
+      <c r="AL9" s="480"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -22043,7 +22076,10 @@
       <c r="AV9" s="4"/>
       <c r="AW9" s="57"/>
       <c r="AX9" s="57"/>
-      <c r="AZ9" s="4"/>
+      <c r="AZ9" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"1": ㄅ</v>
+      </c>
       <c r="BA9" s="173">
         <f xml:space="preserve"> ROW() -8</f>
         <v>1</v>
@@ -22081,16 +22117,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="468" t="s">
+      <c r="E10" s="463" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="469"/>
-      <c r="G10" s="470"/>
-      <c r="H10" s="468" t="s">
+      <c r="F10" s="464"/>
+      <c r="G10" s="465"/>
+      <c r="H10" s="463" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="469"/>
-      <c r="J10" s="470"/>
+      <c r="I10" s="464"/>
+      <c r="J10" s="465"/>
       <c r="K10" s="324" t="s">
         <v>44</v>
       </c>
@@ -22100,16 +22136,16 @@
       <c r="M10" s="323" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="468" t="s">
+      <c r="N10" s="463" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="469"/>
-      <c r="P10" s="470"/>
-      <c r="Q10" s="468" t="s">
+      <c r="O10" s="464"/>
+      <c r="P10" s="465"/>
+      <c r="Q10" s="463" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="469"/>
-      <c r="S10" s="470"/>
+      <c r="R10" s="464"/>
+      <c r="S10" s="465"/>
       <c r="T10" s="324" t="s">
         <v>106</v>
       </c>
@@ -22137,37 +22173,40 @@
       <c r="AB10" s="326" t="s">
         <v>905</v>
       </c>
-      <c r="AC10" s="471" t="s">
+      <c r="AC10" s="481" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="472"/>
-      <c r="AE10" s="473"/>
-      <c r="AF10" s="471" t="s">
+      <c r="AD10" s="482"/>
+      <c r="AE10" s="483"/>
+      <c r="AF10" s="481" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="472"/>
-      <c r="AH10" s="473"/>
-      <c r="AI10" s="471" t="s">
+      <c r="AG10" s="482"/>
+      <c r="AH10" s="483"/>
+      <c r="AI10" s="481" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="472"/>
-      <c r="AK10" s="473"/>
-      <c r="AL10" s="471" t="s">
+      <c r="AJ10" s="482"/>
+      <c r="AK10" s="483"/>
+      <c r="AL10" s="481" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="472"/>
-      <c r="AN10" s="473"/>
-      <c r="AO10" s="465" t="s">
+      <c r="AM10" s="482"/>
+      <c r="AN10" s="483"/>
+      <c r="AO10" s="472" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="466"/>
-      <c r="AQ10" s="467"/>
+      <c r="AP10" s="473"/>
+      <c r="AQ10" s="474"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="57"/>
       <c r="AX10" s="57"/>
       <c r="AY10"/>
-      <c r="AZ10" s="2"/>
+      <c r="AZ10" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"!": ㆠ</v>
+      </c>
       <c r="BA10" s="173">
         <f t="shared" ref="BA10:BA58" si="2" xml:space="preserve"> ROW() -8</f>
         <v>2</v>
@@ -22278,21 +22317,24 @@
       <c r="AH11" s="128" t="s">
         <v>329</v>
       </c>
-      <c r="AI11" s="463"/>
-      <c r="AJ11" s="464"/>
+      <c r="AI11" s="479"/>
+      <c r="AJ11" s="480"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="463"/>
-      <c r="AM11" s="464"/>
+      <c r="AL11" s="479"/>
+      <c r="AM11" s="480"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="463"/>
-      <c r="AP11" s="464"/>
+      <c r="AO11" s="479"/>
+      <c r="AP11" s="480"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="57"/>
       <c r="AX11" s="57"/>
       <c r="AY11"/>
-      <c r="AZ11" s="4"/>
+      <c r="AZ11" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"q": ㄆ</v>
+      </c>
       <c r="BA11" s="173">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -22328,36 +22370,36 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="468" t="s">
+      <c r="F12" s="463" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="469"/>
-      <c r="H12" s="470"/>
-      <c r="I12" s="468" t="s">
+      <c r="G12" s="464"/>
+      <c r="H12" s="465"/>
+      <c r="I12" s="463" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="469"/>
-      <c r="K12" s="470"/>
-      <c r="L12" s="468" t="s">
+      <c r="J12" s="464"/>
+      <c r="K12" s="465"/>
+      <c r="L12" s="463" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="469"/>
-      <c r="N12" s="470"/>
-      <c r="O12" s="468" t="s">
+      <c r="M12" s="464"/>
+      <c r="N12" s="465"/>
+      <c r="O12" s="463" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="469"/>
-      <c r="Q12" s="470"/>
-      <c r="R12" s="468" t="s">
+      <c r="P12" s="464"/>
+      <c r="Q12" s="465"/>
+      <c r="R12" s="463" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="469"/>
-      <c r="T12" s="470"/>
-      <c r="U12" s="468" t="s">
+      <c r="S12" s="464"/>
+      <c r="T12" s="465"/>
+      <c r="U12" s="463" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="469"/>
-      <c r="W12" s="470"/>
+      <c r="V12" s="464"/>
+      <c r="W12" s="465"/>
       <c r="X12" s="325" t="s">
         <v>117</v>
       </c>
@@ -22367,11 +22409,11 @@
       <c r="Z12" s="326" t="s">
         <v>605</v>
       </c>
-      <c r="AA12" s="471" t="s">
+      <c r="AA12" s="481" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="472"/>
-      <c r="AC12" s="473"/>
+      <c r="AB12" s="482"/>
+      <c r="AC12" s="483"/>
       <c r="AD12" s="325" t="s">
         <v>112</v>
       </c>
@@ -22381,16 +22423,16 @@
       <c r="AF12" s="326" t="s">
         <v>908</v>
       </c>
-      <c r="AG12" s="471" t="s">
+      <c r="AG12" s="481" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="472"/>
-      <c r="AI12" s="473"/>
-      <c r="AJ12" s="465" t="s">
+      <c r="AH12" s="482"/>
+      <c r="AI12" s="483"/>
+      <c r="AJ12" s="472" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="466"/>
-      <c r="AL12" s="467"/>
+      <c r="AK12" s="473"/>
+      <c r="AL12" s="474"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -22404,7 +22446,10 @@
       <c r="AW12" s="57"/>
       <c r="AX12" s="57"/>
       <c r="AY12"/>
-      <c r="AZ12" s="2"/>
+      <c r="AZ12" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"a": ㄇ</v>
+      </c>
       <c r="BA12" s="173">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -22516,8 +22561,8 @@
       <c r="AI13" s="128" t="s">
         <v>609</v>
       </c>
-      <c r="AJ13" s="463"/>
-      <c r="AK13" s="464"/>
+      <c r="AJ13" s="479"/>
+      <c r="AK13" s="480"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -22532,7 +22577,10 @@
       <c r="AW13" s="57"/>
       <c r="AX13" s="57"/>
       <c r="AY13"/>
-      <c r="AZ13" s="4"/>
+      <c r="AZ13" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"2": ㄉ</v>
+      </c>
       <c r="BA13" s="173">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -22569,41 +22617,41 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="468" t="s">
+      <c r="G14" s="463" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="469"/>
-      <c r="I14" s="470"/>
-      <c r="J14" s="468" t="s">
+      <c r="H14" s="464"/>
+      <c r="I14" s="465"/>
+      <c r="J14" s="463" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="469"/>
-      <c r="L14" s="470"/>
-      <c r="M14" s="468" t="s">
+      <c r="K14" s="464"/>
+      <c r="L14" s="465"/>
+      <c r="M14" s="463" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="469"/>
-      <c r="O14" s="470"/>
-      <c r="P14" s="468" t="s">
+      <c r="N14" s="464"/>
+      <c r="O14" s="465"/>
+      <c r="P14" s="463" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="469"/>
-      <c r="R14" s="470"/>
-      <c r="S14" s="468" t="s">
+      <c r="Q14" s="464"/>
+      <c r="R14" s="465"/>
+      <c r="S14" s="463" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="469"/>
-      <c r="U14" s="470"/>
-      <c r="V14" s="468" t="s">
+      <c r="T14" s="464"/>
+      <c r="U14" s="465"/>
+      <c r="V14" s="463" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="469"/>
-      <c r="X14" s="470"/>
-      <c r="Y14" s="471" t="s">
+      <c r="W14" s="464"/>
+      <c r="X14" s="465"/>
+      <c r="Y14" s="481" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="472"/>
-      <c r="AA14" s="473"/>
+      <c r="Z14" s="482"/>
+      <c r="AA14" s="483"/>
       <c r="AB14" s="325" t="s">
         <v>110</v>
       </c>
@@ -22613,16 +22661,16 @@
       <c r="AD14" s="326" t="s">
         <v>906</v>
       </c>
-      <c r="AE14" s="471" t="s">
+      <c r="AE14" s="481" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="472"/>
-      <c r="AG14" s="473"/>
-      <c r="AH14" s="465" t="s">
+      <c r="AF14" s="482"/>
+      <c r="AG14" s="483"/>
+      <c r="AH14" s="472" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="466"/>
-      <c r="AJ14" s="467"/>
+      <c r="AI14" s="473"/>
+      <c r="AJ14" s="474"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -22638,7 +22686,10 @@
       <c r="AW14" s="57"/>
       <c r="AX14" s="57"/>
       <c r="AY14"/>
-      <c r="AZ14" s="2"/>
+      <c r="AZ14" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"w": ㄊ</v>
+      </c>
       <c r="BA14" s="173">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -22753,7 +22804,10 @@
       <c r="AV15" s="4"/>
       <c r="AW15" s="57"/>
       <c r="AX15" s="57"/>
-      <c r="AZ15" s="4"/>
+      <c r="AZ15" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"s": ㄋ</v>
+      </c>
       <c r="BA15" s="173">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -22835,6 +22889,10 @@
       <c r="AW16" s="57"/>
       <c r="AX16" s="57"/>
       <c r="AY16"/>
+      <c r="AZ16" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"x": ㄌ</v>
+      </c>
       <c r="BA16" s="173">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -22871,7 +22929,10 @@
       <c r="AW17" s="57"/>
       <c r="AX17" s="57"/>
       <c r="AY17"/>
-      <c r="AZ17" s="60"/>
+      <c r="AZ17" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"e": ㄍ</v>
+      </c>
       <c r="BA17" s="173">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -22954,7 +23015,10 @@
       <c r="AW18" s="57"/>
       <c r="AX18" s="57"/>
       <c r="AY18"/>
-      <c r="AZ18" s="60"/>
+      <c r="AZ18" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"E": ㆣ</v>
+      </c>
       <c r="BA18" s="173">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -23049,7 +23113,10 @@
       <c r="AW19" s="57"/>
       <c r="AX19" s="57"/>
       <c r="AY19"/>
-      <c r="AZ19" s="60"/>
+      <c r="AZ19" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"d": ㄎ</v>
+      </c>
       <c r="BA19" s="173">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -23142,7 +23209,10 @@
       <c r="AW20" s="57"/>
       <c r="AX20" s="57"/>
       <c r="AY20"/>
-      <c r="AZ20" s="60"/>
+      <c r="AZ20" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"c": ㄏ</v>
+      </c>
       <c r="BA20" s="173">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -23226,7 +23296,10 @@
       <c r="AW21" s="57"/>
       <c r="AX21" s="57"/>
       <c r="AY21"/>
-      <c r="AZ21" s="60"/>
+      <c r="AZ21" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"v": ㄫ</v>
+      </c>
       <c r="BA21" s="173">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -23307,7 +23380,10 @@
       <c r="AW22" s="57"/>
       <c r="AX22" s="57"/>
       <c r="AY22"/>
-      <c r="AZ22" s="60"/>
+      <c r="AZ22" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"y": ㄗ</v>
+      </c>
       <c r="BA22" s="173">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -23390,7 +23466,10 @@
       <c r="AW23" s="57"/>
       <c r="AX23" s="57"/>
       <c r="AY23"/>
-      <c r="AZ23" s="60"/>
+      <c r="AZ23" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"Y": ㆡ</v>
+      </c>
       <c r="BA23" s="173">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -23475,7 +23554,10 @@
       <c r="AW24" s="57"/>
       <c r="AX24" s="57"/>
       <c r="AY24"/>
-      <c r="AZ24" s="60"/>
+      <c r="AZ24" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"h": ㄘ</v>
+      </c>
       <c r="BA24" s="173">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -23565,7 +23647,10 @@
       <c r="AV25" s="60"/>
       <c r="AW25" s="57"/>
       <c r="AX25" s="57"/>
-      <c r="AZ25" s="60"/>
+      <c r="AZ25" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"n": ㄙ</v>
+      </c>
       <c r="BA25" s="173">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -23654,7 +23739,10 @@
       <c r="AV26" s="60"/>
       <c r="AW26" s="57"/>
       <c r="AX26" s="57"/>
-      <c r="AZ26" s="60"/>
+      <c r="AZ26" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"u": ㄧ</v>
+      </c>
       <c r="BA26" s="173">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -23737,7 +23825,10 @@
       <c r="AV27" s="60"/>
       <c r="AW27" s="57"/>
       <c r="AX27" s="57"/>
-      <c r="AZ27" s="60"/>
+      <c r="AZ27" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"j": ㄨ</v>
+      </c>
       <c r="BA27" s="173">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -23817,7 +23908,10 @@
       <c r="AV28" s="60"/>
       <c r="AW28" s="57"/>
       <c r="AX28" s="57"/>
-      <c r="AZ28" s="60"/>
+      <c r="AZ28" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"m": ㆬ</v>
+      </c>
       <c r="BA28" s="173">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -23899,7 +23993,10 @@
       <c r="AV29" s="60"/>
       <c r="AW29" s="57"/>
       <c r="AX29" s="57"/>
-      <c r="AZ29" s="60"/>
+      <c r="AZ29" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"8": ㄚ</v>
+      </c>
       <c r="BA29" s="173">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -23984,7 +24081,10 @@
       <c r="AW30" s="60"/>
       <c r="AX30" s="60"/>
       <c r="AY30" s="60"/>
-      <c r="AZ30" s="60"/>
+      <c r="AZ30" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"i": ㆦ</v>
+      </c>
       <c r="BA30" s="173">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -24074,7 +24174,10 @@
       <c r="AW31" s="60"/>
       <c r="AX31" s="60"/>
       <c r="AY31" s="60"/>
-      <c r="AZ31" s="60"/>
+      <c r="AZ31" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"k": ㄜ</v>
+      </c>
       <c r="BA31" s="173">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -24165,7 +24268,10 @@
       <c r="AW32" s="60"/>
       <c r="AX32" s="60"/>
       <c r="AY32" s="60"/>
-      <c r="AZ32" s="60"/>
+      <c r="AZ32" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>",": ㄝ</v>
+      </c>
       <c r="BA32" s="173">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -24249,7 +24355,10 @@
       <c r="AW33" s="60"/>
       <c r="AX33" s="60"/>
       <c r="AY33" s="60"/>
-      <c r="AZ33" s="60"/>
+      <c r="AZ33" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"p": ㄣ</v>
+      </c>
       <c r="BA33" s="173">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -24330,7 +24439,10 @@
       <c r="AW34" s="60"/>
       <c r="AX34" s="60"/>
       <c r="AY34" s="60"/>
-      <c r="AZ34" s="62"/>
+      <c r="AZ34" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"/": ㄥ</v>
+      </c>
       <c r="BA34" s="173">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -24411,7 +24523,10 @@
       <c r="AW35" s="62"/>
       <c r="AX35" s="62"/>
       <c r="AY35" s="62"/>
-      <c r="AZ35" s="62"/>
+      <c r="AZ35" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"9": ㄞ</v>
+      </c>
       <c r="BA35" s="173">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -24492,7 +24607,10 @@
       <c r="AW36" s="62"/>
       <c r="AX36" s="62"/>
       <c r="AY36" s="62"/>
-      <c r="AZ36" s="62"/>
+      <c r="AZ36" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"l": ㄠ</v>
+      </c>
       <c r="BA36" s="173">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -24573,7 +24691,10 @@
       <c r="AW37" s="62"/>
       <c r="AX37" s="62"/>
       <c r="AY37" s="62"/>
-      <c r="AZ37" s="62"/>
+      <c r="AZ37" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"0": ㄢ</v>
+      </c>
       <c r="BA37" s="173">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -24654,7 +24775,10 @@
       <c r="AW38" s="62"/>
       <c r="AX38" s="62"/>
       <c r="AY38" s="62"/>
-      <c r="AZ38" s="62"/>
+      <c r="AZ38" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>";": ㄤ</v>
+      </c>
       <c r="BA38" s="173">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -24735,7 +24859,10 @@
       <c r="AW39" s="62"/>
       <c r="AX39" s="62"/>
       <c r="AY39" s="62"/>
-      <c r="AZ39" s="62"/>
+      <c r="AZ39" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"U": ㆪ</v>
+      </c>
       <c r="BA39" s="173">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -24784,7 +24911,10 @@
       <c r="AW40" s="62"/>
       <c r="AX40" s="62"/>
       <c r="AY40" s="62"/>
-      <c r="AZ40" s="62"/>
+      <c r="AZ40" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"J": ㆫ</v>
+      </c>
       <c r="BA40" s="173">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -24866,7 +24996,10 @@
       <c r="AW41" s="62"/>
       <c r="AX41" s="62"/>
       <c r="AY41" s="62"/>
-      <c r="AZ41" s="62"/>
+      <c r="AZ41" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"*": ㆩ</v>
+      </c>
       <c r="BA41" s="173">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -24947,7 +25080,10 @@
       <c r="AW42" s="62"/>
       <c r="AX42" s="62"/>
       <c r="AY42" s="62"/>
-      <c r="AZ42" s="62"/>
+      <c r="AZ42" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"I": ㆧ</v>
+      </c>
       <c r="BA42" s="173">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -25028,7 +25164,10 @@
       <c r="AW43" s="62"/>
       <c r="AX43" s="62"/>
       <c r="AY43" s="62"/>
-      <c r="AZ43" s="62"/>
+      <c r="AZ43" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"&lt;": ㆥ</v>
+      </c>
       <c r="BA43" s="173">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -25109,7 +25248,10 @@
       <c r="AW44" s="62"/>
       <c r="AX44" s="62"/>
       <c r="AY44" s="62"/>
-      <c r="AZ44" s="62"/>
+      <c r="AZ44" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"(": ㆮ</v>
+      </c>
       <c r="BA44" s="173">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -25190,7 +25332,10 @@
       <c r="AW45" s="62"/>
       <c r="AX45" s="62"/>
       <c r="AY45" s="62"/>
-      <c r="AZ45" s="62"/>
+      <c r="AZ45" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"L": ㆯ</v>
+      </c>
       <c r="BA45" s="173">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -25271,7 +25416,10 @@
       <c r="AW46" s="62"/>
       <c r="AX46" s="62"/>
       <c r="AY46" s="62"/>
-      <c r="AZ46" s="62"/>
+      <c r="AZ46" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"r": ㆲ</v>
+      </c>
       <c r="BA46" s="173">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -25352,7 +25500,10 @@
       <c r="AW47" s="62"/>
       <c r="AX47" s="62"/>
       <c r="AY47" s="62"/>
-      <c r="AZ47" s="62"/>
+      <c r="AZ47" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"f": ㆱ</v>
+      </c>
       <c r="BA47" s="173">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -25433,7 +25584,10 @@
       <c r="AW48" s="62"/>
       <c r="AX48" s="62"/>
       <c r="AY48" s="62"/>
-      <c r="AZ48" s="62"/>
+      <c r="AZ48" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"v": ㆰ</v>
+      </c>
       <c r="BA48" s="173">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -25514,7 +25668,10 @@
       <c r="AW49" s="62"/>
       <c r="AX49" s="62"/>
       <c r="AY49" s="62"/>
-      <c r="AZ49" s="62"/>
+      <c r="AZ49" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"z": 声</v>
+      </c>
       <c r="BA49" s="173">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -25595,7 +25752,10 @@
       <c r="AW50" s="62"/>
       <c r="AX50" s="62"/>
       <c r="AY50" s="62"/>
-      <c r="AZ50" s="62"/>
+      <c r="AZ50" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>" ": ˉ</v>
+      </c>
       <c r="BA50" s="173">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -25676,7 +25836,10 @@
       <c r="AW51" s="62"/>
       <c r="AX51" s="62"/>
       <c r="AY51" s="62"/>
-      <c r="AZ51" s="62"/>
+      <c r="AZ51" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"4": ˋ</v>
+      </c>
       <c r="BA51" s="173">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -25757,7 +25920,10 @@
       <c r="AW52" s="62"/>
       <c r="AX52" s="62"/>
       <c r="AY52" s="62"/>
-      <c r="AZ52" s="62"/>
+      <c r="AZ52" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"3": ˪</v>
+      </c>
       <c r="BA52" s="173">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -25838,7 +26004,10 @@
       <c r="AW53" s="62"/>
       <c r="AX53" s="62"/>
       <c r="AY53" s="62"/>
-      <c r="AZ53" s="62"/>
+      <c r="AZ53" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"6": ˊ</v>
+      </c>
       <c r="BA53" s="173">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -25919,7 +26088,10 @@
       <c r="AW54" s="62"/>
       <c r="AX54" s="62"/>
       <c r="AY54" s="62"/>
-      <c r="AZ54" s="62"/>
+      <c r="AZ54" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"5": ˫</v>
+      </c>
       <c r="BA54" s="173">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -26000,7 +26172,10 @@
       <c r="AW55" s="62"/>
       <c r="AX55" s="62"/>
       <c r="AY55" s="62"/>
-      <c r="AZ55" s="62"/>
+      <c r="AZ55" s="516" t="str">
+        <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
+        <v>"7": ．</v>
+      </c>
       <c r="BA55" s="173">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -26081,7 +26256,7 @@
       <c r="AW56" s="62"/>
       <c r="AX56" s="62"/>
       <c r="AY56" s="62"/>
-      <c r="AZ56" s="62"/>
+      <c r="AZ56" s="515"/>
       <c r="BA56" s="173">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -26154,7 +26329,7 @@
       <c r="AW57" s="62"/>
       <c r="AX57" s="62"/>
       <c r="AY57" s="62"/>
-      <c r="AZ57" s="62"/>
+      <c r="AZ57" s="515"/>
       <c r="BA57" s="173">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -26227,7 +26402,7 @@
       <c r="AW58" s="62"/>
       <c r="AX58" s="62"/>
       <c r="AY58" s="62"/>
-      <c r="AZ58" s="62"/>
+      <c r="AZ58" s="515"/>
       <c r="BA58" s="173">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -26339,11 +26514,37 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="AO10:AQ10"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
     <mergeCell ref="AK8:AM8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="M9:N9"/>
@@ -26354,37 +26555,11 @@
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="AE8:AG8"/>
     <mergeCell ref="V9:W9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AG12:AI12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30966,36 +31141,36 @@
         <v>755</v>
       </c>
       <c r="F8" s="323"/>
-      <c r="G8" s="468" t="s">
+      <c r="G8" s="463" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="469"/>
-      <c r="I8" s="470"/>
-      <c r="J8" s="478" t="s">
+      <c r="H8" s="464"/>
+      <c r="I8" s="465"/>
+      <c r="J8" s="466" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="479"/>
-      <c r="L8" s="480"/>
-      <c r="M8" s="478" t="s">
+      <c r="K8" s="467"/>
+      <c r="L8" s="468"/>
+      <c r="M8" s="466" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="479"/>
-      <c r="O8" s="480"/>
+      <c r="N8" s="467"/>
+      <c r="O8" s="468"/>
       <c r="P8" s="324"/>
       <c r="Q8" s="346" t="s">
         <v>809</v>
       </c>
       <c r="R8" s="323"/>
-      <c r="S8" s="478" t="s">
+      <c r="S8" s="466" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="479"/>
-      <c r="U8" s="480"/>
-      <c r="V8" s="478" t="s">
+      <c r="T8" s="467"/>
+      <c r="U8" s="468"/>
+      <c r="V8" s="466" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="479"/>
-      <c r="X8" s="480"/>
+      <c r="W8" s="467"/>
+      <c r="X8" s="468"/>
       <c r="Y8" s="325"/>
       <c r="Z8" s="321" t="s">
         <v>757</v>
@@ -31006,21 +31181,21 @@
         <v>756</v>
       </c>
       <c r="AD8" s="326"/>
-      <c r="AE8" s="471" t="s">
+      <c r="AE8" s="481" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="472"/>
-      <c r="AG8" s="473"/>
-      <c r="AH8" s="465" t="s">
+      <c r="AF8" s="482"/>
+      <c r="AG8" s="483"/>
+      <c r="AH8" s="472" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="466"/>
-      <c r="AJ8" s="467"/>
-      <c r="AK8" s="465" t="s">
+      <c r="AI8" s="473"/>
+      <c r="AJ8" s="474"/>
+      <c r="AK8" s="472" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="466"/>
-      <c r="AM8" s="467"/>
+      <c r="AL8" s="473"/>
+      <c r="AM8" s="474"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -31134,11 +31309,11 @@
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="476" t="str">
+      <c r="V9" s="477" t="str">
         <f ca="1">AS4</f>
         <v>˙</v>
       </c>
-      <c r="W9" s="475"/>
+      <c r="W9" s="476"/>
       <c r="X9" s="353" t="s">
         <v>891</v>
       </c>
@@ -31187,8 +31362,8 @@
         <f ca="1">AN6</f>
         <v>er</v>
       </c>
-      <c r="AK9" s="463"/>
-      <c r="AL9" s="464"/>
+      <c r="AK9" s="479"/>
+      <c r="AL9" s="480"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -31255,31 +31430,31 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="468" t="s">
+      <c r="E10" s="463" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="469"/>
-      <c r="G10" s="470"/>
-      <c r="H10" s="468" t="s">
+      <c r="F10" s="464"/>
+      <c r="G10" s="465"/>
+      <c r="H10" s="463" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="469"/>
-      <c r="J10" s="470"/>
+      <c r="I10" s="464"/>
+      <c r="J10" s="465"/>
       <c r="K10" s="324"/>
       <c r="L10" s="320" t="s">
         <v>746</v>
       </c>
       <c r="M10" s="323"/>
-      <c r="N10" s="468" t="s">
+      <c r="N10" s="463" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="469"/>
-      <c r="P10" s="470"/>
-      <c r="Q10" s="468" t="s">
+      <c r="O10" s="464"/>
+      <c r="P10" s="465"/>
+      <c r="Q10" s="463" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="469"/>
-      <c r="S10" s="470"/>
+      <c r="R10" s="464"/>
+      <c r="S10" s="465"/>
       <c r="T10" s="324"/>
       <c r="U10" s="320" t="s">
         <v>306</v>
@@ -31295,31 +31470,31 @@
         <v>615</v>
       </c>
       <c r="AB10" s="326"/>
-      <c r="AC10" s="471" t="s">
+      <c r="AC10" s="481" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="472"/>
-      <c r="AE10" s="473"/>
-      <c r="AF10" s="471" t="s">
+      <c r="AD10" s="482"/>
+      <c r="AE10" s="483"/>
+      <c r="AF10" s="481" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="472"/>
-      <c r="AH10" s="473"/>
-      <c r="AI10" s="471" t="s">
+      <c r="AG10" s="482"/>
+      <c r="AH10" s="483"/>
+      <c r="AI10" s="481" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="472"/>
-      <c r="AK10" s="473"/>
-      <c r="AL10" s="471" t="s">
+      <c r="AJ10" s="482"/>
+      <c r="AK10" s="483"/>
+      <c r="AL10" s="481" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="472"/>
-      <c r="AN10" s="473"/>
-      <c r="AO10" s="465" t="s">
+      <c r="AM10" s="482"/>
+      <c r="AN10" s="483"/>
+      <c r="AO10" s="472" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="466"/>
-      <c r="AQ10" s="467"/>
+      <c r="AP10" s="473"/>
+      <c r="AQ10" s="474"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="173" cm="1">
         <f t="array" ref="AV10" xml:space="preserve"> ROW() - ROW($8:$8)</f>
@@ -31497,14 +31672,14 @@
         <f ca="1">AK6</f>
         <v>enn</v>
       </c>
-      <c r="AI11" s="463"/>
-      <c r="AJ11" s="464"/>
+      <c r="AI11" s="479"/>
+      <c r="AJ11" s="480"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="463"/>
-      <c r="AM11" s="464"/>
+      <c r="AL11" s="479"/>
+      <c r="AM11" s="480"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="463"/>
-      <c r="AP11" s="464"/>
+      <c r="AO11" s="479"/>
+      <c r="AP11" s="480"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="173" cm="1">
@@ -31565,61 +31740,61 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="468" t="s">
+      <c r="F12" s="463" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="469"/>
-      <c r="H12" s="470"/>
-      <c r="I12" s="468" t="s">
+      <c r="G12" s="464"/>
+      <c r="H12" s="465"/>
+      <c r="I12" s="463" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="469"/>
-      <c r="K12" s="470"/>
-      <c r="L12" s="468" t="s">
+      <c r="J12" s="464"/>
+      <c r="K12" s="465"/>
+      <c r="L12" s="463" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="469"/>
-      <c r="N12" s="470"/>
-      <c r="O12" s="468" t="s">
+      <c r="M12" s="464"/>
+      <c r="N12" s="465"/>
+      <c r="O12" s="463" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="469"/>
-      <c r="Q12" s="470"/>
-      <c r="R12" s="468" t="s">
+      <c r="P12" s="464"/>
+      <c r="Q12" s="465"/>
+      <c r="R12" s="463" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="469"/>
-      <c r="T12" s="470"/>
-      <c r="U12" s="468" t="s">
+      <c r="S12" s="464"/>
+      <c r="T12" s="465"/>
+      <c r="U12" s="463" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="469"/>
-      <c r="W12" s="470"/>
+      <c r="V12" s="464"/>
+      <c r="W12" s="465"/>
       <c r="X12" s="325"/>
       <c r="Y12" s="321" t="s">
         <v>742</v>
       </c>
       <c r="Z12" s="326"/>
-      <c r="AA12" s="471" t="s">
+      <c r="AA12" s="481" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="472"/>
-      <c r="AC12" s="473"/>
+      <c r="AB12" s="482"/>
+      <c r="AC12" s="483"/>
       <c r="AD12" s="325"/>
       <c r="AE12" s="321" t="s">
         <v>724</v>
       </c>
       <c r="AF12" s="326"/>
-      <c r="AG12" s="471" t="s">
+      <c r="AG12" s="481" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="472"/>
-      <c r="AI12" s="473"/>
-      <c r="AJ12" s="465" t="s">
+      <c r="AH12" s="482"/>
+      <c r="AI12" s="483"/>
+      <c r="AJ12" s="472" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="466"/>
-      <c r="AL12" s="467"/>
+      <c r="AK12" s="473"/>
+      <c r="AL12" s="474"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -31806,8 +31981,8 @@
         <f ca="1">AL6</f>
         <v>ang</v>
       </c>
-      <c r="AJ13" s="463"/>
-      <c r="AK13" s="464"/>
+      <c r="AJ13" s="479"/>
+      <c r="AK13" s="480"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -31877,56 +32052,56 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="468" t="s">
+      <c r="G14" s="463" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="469"/>
-      <c r="I14" s="470"/>
-      <c r="J14" s="468" t="s">
+      <c r="H14" s="464"/>
+      <c r="I14" s="465"/>
+      <c r="J14" s="463" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="469"/>
-      <c r="L14" s="470"/>
-      <c r="M14" s="468" t="s">
+      <c r="K14" s="464"/>
+      <c r="L14" s="465"/>
+      <c r="M14" s="463" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="469"/>
-      <c r="O14" s="470"/>
-      <c r="P14" s="468" t="s">
+      <c r="N14" s="464"/>
+      <c r="O14" s="465"/>
+      <c r="P14" s="463" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="469"/>
-      <c r="R14" s="470"/>
-      <c r="S14" s="468" t="s">
+      <c r="Q14" s="464"/>
+      <c r="R14" s="465"/>
+      <c r="S14" s="463" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="469"/>
-      <c r="U14" s="470"/>
-      <c r="V14" s="468" t="s">
+      <c r="T14" s="464"/>
+      <c r="U14" s="465"/>
+      <c r="V14" s="463" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="469"/>
-      <c r="X14" s="470"/>
-      <c r="Y14" s="471" t="s">
+      <c r="W14" s="464"/>
+      <c r="X14" s="465"/>
+      <c r="Y14" s="481" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="472"/>
-      <c r="AA14" s="473"/>
+      <c r="Z14" s="482"/>
+      <c r="AA14" s="483"/>
       <c r="AB14" s="325"/>
       <c r="AC14" s="321" t="s">
         <v>758</v>
       </c>
       <c r="AD14" s="326"/>
-      <c r="AE14" s="471" t="s">
+      <c r="AE14" s="481" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="472"/>
-      <c r="AG14" s="473"/>
-      <c r="AH14" s="465" t="s">
+      <c r="AF14" s="482"/>
+      <c r="AG14" s="483"/>
+      <c r="AH14" s="472" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="466"/>
-      <c r="AJ14" s="467"/>
+      <c r="AI14" s="473"/>
+      <c r="AJ14" s="474"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -35918,16 +36093,24 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
     <mergeCell ref="AO10:AQ10"/>
     <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AL11:AM11"/>
@@ -35944,24 +36127,16 @@
     <mergeCell ref="AF10:AH10"/>
     <mergeCell ref="AI10:AK10"/>
     <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/鍵盤設計規格_河洛注音.xlsx
+++ b/docs/鍵盤設計規格_河洛注音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92400978-0B1E-42DC-BAE3-6AB850C6BFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B715E6F-346D-4A61-89AF-A2A324B37F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
+    <workbookView minimized="1" xWindow="-24795" yWindow="2460" windowWidth="28980" windowHeight="15840" firstSheet="10" activeTab="10" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
   </bookViews>
   <sheets>
     <sheet name="鍵盤圖" sheetId="6" r:id="rId1"/>
@@ -2541,6 +2541,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄉㄊㄌㄍㄎ</t>
     </r>
@@ -2557,6 +2558,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄗㄘ</t>
     </r>
@@ -2573,6 +2575,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄙㄏㄧㄨㄚ</t>
     </r>
@@ -2589,6 +2592,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄜ</t>
     </r>
@@ -2605,6 +2609,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄞㄠ</t>
     </r>
@@ -2621,6 +2626,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄣ</t>
     </r>
@@ -3411,6 +3417,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>n</t>
     </r>
@@ -3440,6 +3447,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3461,6 +3469,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3482,6 +3491,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3526,6 +3536,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3650,6 +3661,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3716,6 +3728,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3737,6 +3750,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3758,6 +3772,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3779,6 +3794,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3800,6 +3816,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3829,6 +3846,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3850,6 +3868,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3871,6 +3890,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -4464,12 +4484,14 @@
     <font>
       <sz val="20"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -4526,6 +4548,7 @@
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -4765,6 +4788,7 @@
       <sz val="18"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -4969,6 +4993,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5022,6 +5047,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5033,6 +5059,7 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5045,6 +5072,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5057,6 +5085,7 @@
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5138,6 +5167,7 @@
       <sz val="12"/>
       <color theme="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5213,6 +5243,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5368,6 +5399,7 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5453,6 +5485,7 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -7415,70 +7448,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7499,22 +7484,28 @@
     <xf numFmtId="0" fontId="91" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7526,13 +7517,79 @@
     <xf numFmtId="0" fontId="97" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="95" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7542,6 +7599,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7562,42 +7640,6 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7610,19 +7652,43 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7631,19 +7697,10 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7670,32 +7727,8 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10395,61 +10428,61 @@
   <sheetData>
     <row r="1" spans="2:44" ht="15" thickBot="1"/>
     <row r="2" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="448">
+      <c r="C2" s="432">
         <v>1</v>
       </c>
-      <c r="D2" s="449"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="448">
+      <c r="D2" s="433"/>
+      <c r="E2" s="434"/>
+      <c r="F2" s="432">
         <v>2</v>
       </c>
-      <c r="G2" s="449"/>
-      <c r="H2" s="450"/>
-      <c r="I2" s="438">
+      <c r="G2" s="433"/>
+      <c r="H2" s="434"/>
+      <c r="I2" s="456">
         <v>3</v>
       </c>
-      <c r="J2" s="439"/>
-      <c r="K2" s="440"/>
-      <c r="L2" s="438">
+      <c r="J2" s="457"/>
+      <c r="K2" s="458"/>
+      <c r="L2" s="456">
         <v>4</v>
       </c>
-      <c r="M2" s="439"/>
-      <c r="N2" s="440"/>
-      <c r="O2" s="438">
+      <c r="M2" s="457"/>
+      <c r="N2" s="458"/>
+      <c r="O2" s="456">
         <v>5</v>
       </c>
-      <c r="P2" s="439"/>
-      <c r="Q2" s="440"/>
-      <c r="R2" s="438">
+      <c r="P2" s="457"/>
+      <c r="Q2" s="458"/>
+      <c r="R2" s="456">
         <v>6</v>
       </c>
-      <c r="S2" s="439"/>
-      <c r="T2" s="440"/>
-      <c r="U2" s="438">
+      <c r="S2" s="457"/>
+      <c r="T2" s="458"/>
+      <c r="U2" s="456">
         <v>7</v>
       </c>
-      <c r="V2" s="439"/>
-      <c r="W2" s="440"/>
-      <c r="X2" s="429">
+      <c r="V2" s="457"/>
+      <c r="W2" s="458"/>
+      <c r="X2" s="435">
         <v>8</v>
       </c>
-      <c r="Y2" s="424"/>
-      <c r="Z2" s="425"/>
-      <c r="AA2" s="429">
+      <c r="Y2" s="436"/>
+      <c r="Z2" s="437"/>
+      <c r="AA2" s="435">
         <v>9</v>
       </c>
-      <c r="AB2" s="424"/>
-      <c r="AC2" s="425"/>
-      <c r="AD2" s="429">
+      <c r="AB2" s="436"/>
+      <c r="AC2" s="437"/>
+      <c r="AD2" s="435">
         <v>0</v>
       </c>
-      <c r="AE2" s="424"/>
-      <c r="AF2" s="425"/>
-      <c r="AG2" s="423" t="s">
+      <c r="AE2" s="436"/>
+      <c r="AF2" s="437"/>
+      <c r="AG2" s="460" t="s">
         <v>451</v>
       </c>
-      <c r="AH2" s="424"/>
-      <c r="AI2" s="425"/>
+      <c r="AH2" s="436"/>
+      <c r="AI2" s="437"/>
       <c r="AJ2" s="142"/>
       <c r="AK2" s="142"/>
       <c r="AL2" s="142"/>
@@ -10458,56 +10491,56 @@
       </c>
     </row>
     <row r="3" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="C3" s="445" t="str">
+      <c r="C3" s="429" t="str">
         <f>D14</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="446"/>
-      <c r="E3" s="447"/>
-      <c r="F3" s="445" t="str">
+      <c r="D3" s="430"/>
+      <c r="E3" s="431"/>
+      <c r="F3" s="429" t="str">
         <f>H14</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="446"/>
-      <c r="H3" s="447"/>
-      <c r="I3" s="442" t="s">
+      <c r="G3" s="430"/>
+      <c r="H3" s="431"/>
+      <c r="I3" s="453" t="s">
         <v>449</v>
       </c>
-      <c r="J3" s="443"/>
-      <c r="K3" s="444"/>
-      <c r="L3" s="442" t="s">
+      <c r="J3" s="454"/>
+      <c r="K3" s="455"/>
+      <c r="L3" s="453" t="s">
         <v>448</v>
       </c>
-      <c r="M3" s="443"/>
-      <c r="N3" s="444"/>
-      <c r="O3" s="442"/>
-      <c r="P3" s="443"/>
-      <c r="Q3" s="444"/>
-      <c r="R3" s="451" t="s">
+      <c r="M3" s="454"/>
+      <c r="N3" s="455"/>
+      <c r="O3" s="453"/>
+      <c r="P3" s="454"/>
+      <c r="Q3" s="455"/>
+      <c r="R3" s="450" t="s">
         <v>447</v>
       </c>
-      <c r="S3" s="452"/>
-      <c r="T3" s="453"/>
-      <c r="U3" s="442" t="s">
+      <c r="S3" s="451"/>
+      <c r="T3" s="452"/>
+      <c r="U3" s="453" t="s">
         <v>446</v>
       </c>
-      <c r="V3" s="443"/>
-      <c r="W3" s="444"/>
-      <c r="X3" s="430" t="str">
+      <c r="V3" s="454"/>
+      <c r="W3" s="455"/>
+      <c r="X3" s="446" t="str">
         <f>D20</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="431"/>
-      <c r="Z3" s="432"/>
-      <c r="AA3" s="430"/>
-      <c r="AB3" s="431"/>
-      <c r="AC3" s="432"/>
-      <c r="AD3" s="430"/>
-      <c r="AE3" s="431"/>
-      <c r="AF3" s="432"/>
-      <c r="AG3" s="426"/>
-      <c r="AH3" s="427"/>
-      <c r="AI3" s="428"/>
+      <c r="Y3" s="447"/>
+      <c r="Z3" s="448"/>
+      <c r="AA3" s="446"/>
+      <c r="AB3" s="447"/>
+      <c r="AC3" s="448"/>
+      <c r="AD3" s="446"/>
+      <c r="AE3" s="447"/>
+      <c r="AF3" s="448"/>
+      <c r="AG3" s="461"/>
+      <c r="AH3" s="462"/>
+      <c r="AI3" s="463"/>
       <c r="AQ3" s="156" t="s">
         <v>445</v>
       </c>
@@ -10516,115 +10549,115 @@
       </c>
     </row>
     <row r="4" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="448" t="s">
+      <c r="D4" s="432" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="449"/>
-      <c r="F4" s="450"/>
-      <c r="G4" s="448" t="s">
+      <c r="E4" s="433"/>
+      <c r="F4" s="434"/>
+      <c r="G4" s="432" t="s">
         <v>379</v>
       </c>
-      <c r="H4" s="449"/>
-      <c r="I4" s="450"/>
-      <c r="J4" s="448" t="s">
+      <c r="H4" s="433"/>
+      <c r="I4" s="434"/>
+      <c r="J4" s="432" t="s">
         <v>443</v>
       </c>
-      <c r="K4" s="449"/>
-      <c r="L4" s="450"/>
-      <c r="M4" s="448" t="s">
+      <c r="K4" s="433"/>
+      <c r="L4" s="434"/>
+      <c r="M4" s="432" t="s">
         <v>442</v>
       </c>
-      <c r="N4" s="449"/>
-      <c r="O4" s="450"/>
-      <c r="P4" s="448" t="s">
+      <c r="N4" s="433"/>
+      <c r="O4" s="434"/>
+      <c r="P4" s="432" t="s">
         <v>441</v>
       </c>
-      <c r="Q4" s="449"/>
-      <c r="R4" s="450"/>
-      <c r="S4" s="448" t="s">
+      <c r="Q4" s="433"/>
+      <c r="R4" s="434"/>
+      <c r="S4" s="432" t="s">
         <v>440</v>
       </c>
-      <c r="T4" s="449"/>
-      <c r="U4" s="450"/>
-      <c r="V4" s="429" t="s">
+      <c r="T4" s="433"/>
+      <c r="U4" s="434"/>
+      <c r="V4" s="435" t="s">
         <v>439</v>
       </c>
-      <c r="W4" s="424"/>
-      <c r="X4" s="425"/>
-      <c r="Y4" s="429" t="s">
+      <c r="W4" s="436"/>
+      <c r="X4" s="437"/>
+      <c r="Y4" s="435" t="s">
         <v>438</v>
       </c>
-      <c r="Z4" s="424"/>
-      <c r="AA4" s="425"/>
-      <c r="AB4" s="429" t="s">
+      <c r="Z4" s="436"/>
+      <c r="AA4" s="437"/>
+      <c r="AB4" s="435" t="s">
         <v>435</v>
       </c>
-      <c r="AC4" s="424"/>
-      <c r="AD4" s="425"/>
-      <c r="AE4" s="429" t="s">
+      <c r="AC4" s="436"/>
+      <c r="AD4" s="437"/>
+      <c r="AE4" s="435" t="s">
         <v>437</v>
       </c>
-      <c r="AF4" s="424"/>
-      <c r="AG4" s="425"/>
+      <c r="AF4" s="436"/>
+      <c r="AG4" s="437"/>
       <c r="AJ4" s="142"/>
       <c r="AK4" s="142"/>
       <c r="AL4" s="142"/>
     </row>
     <row r="5" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="D5" s="445" t="str">
+      <c r="D5" s="429" t="str">
         <f>E14</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="446"/>
-      <c r="F5" s="447"/>
-      <c r="G5" s="445" t="str">
+      <c r="E5" s="430"/>
+      <c r="F5" s="431"/>
+      <c r="G5" s="429" t="str">
         <f>I14</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="446"/>
-      <c r="I5" s="447"/>
-      <c r="J5" s="445" t="str">
+      <c r="H5" s="430"/>
+      <c r="I5" s="431"/>
+      <c r="J5" s="429" t="str">
         <f>L14</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="446"/>
-      <c r="L5" s="447"/>
-      <c r="M5" s="445"/>
-      <c r="N5" s="446"/>
-      <c r="O5" s="447"/>
-      <c r="P5" s="454" t="str">
+      <c r="K5" s="430"/>
+      <c r="L5" s="431"/>
+      <c r="M5" s="429"/>
+      <c r="N5" s="430"/>
+      <c r="O5" s="431"/>
+      <c r="P5" s="426" t="str">
         <f>F14</f>
         <v>ㆠ</v>
       </c>
-      <c r="Q5" s="455"/>
-      <c r="R5" s="456"/>
-      <c r="S5" s="445" t="str">
+      <c r="Q5" s="427"/>
+      <c r="R5" s="428"/>
+      <c r="S5" s="429" t="str">
         <f>Q14</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="446"/>
-      <c r="U5" s="447"/>
-      <c r="V5" s="430" t="str">
+      <c r="T5" s="430"/>
+      <c r="U5" s="431"/>
+      <c r="V5" s="446" t="str">
         <f>F20</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="431"/>
-      <c r="X5" s="432"/>
-      <c r="Y5" s="430" t="str">
+      <c r="W5" s="447"/>
+      <c r="X5" s="448"/>
+      <c r="Y5" s="446" t="str">
         <f>L20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="431"/>
-      <c r="AA5" s="432"/>
-      <c r="AB5" s="430"/>
-      <c r="AC5" s="431"/>
-      <c r="AD5" s="432"/>
-      <c r="AE5" s="435" t="str">
+      <c r="Z5" s="447"/>
+      <c r="AA5" s="448"/>
+      <c r="AB5" s="446"/>
+      <c r="AC5" s="447"/>
+      <c r="AD5" s="448"/>
+      <c r="AE5" s="438" t="str">
         <f>P20</f>
         <v>ㄣ</v>
       </c>
-      <c r="AF5" s="436"/>
-      <c r="AG5" s="437"/>
+      <c r="AF5" s="439"/>
+      <c r="AG5" s="440"/>
       <c r="AQ5" s="156" t="s">
         <v>436</v>
       </c>
@@ -10634,109 +10667,109 @@
     </row>
     <row r="6" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="157"/>
-      <c r="E6" s="448" t="s">
+      <c r="E6" s="432" t="s">
         <v>434</v>
       </c>
-      <c r="F6" s="449"/>
-      <c r="G6" s="450"/>
-      <c r="H6" s="448" t="s">
+      <c r="F6" s="433"/>
+      <c r="G6" s="434"/>
+      <c r="H6" s="432" t="s">
         <v>433</v>
       </c>
-      <c r="I6" s="449"/>
-      <c r="J6" s="450"/>
-      <c r="K6" s="448" t="s">
+      <c r="I6" s="433"/>
+      <c r="J6" s="434"/>
+      <c r="K6" s="432" t="s">
         <v>432</v>
       </c>
-      <c r="L6" s="449"/>
-      <c r="M6" s="450"/>
-      <c r="N6" s="448" t="s">
+      <c r="L6" s="433"/>
+      <c r="M6" s="434"/>
+      <c r="N6" s="432" t="s">
         <v>431</v>
       </c>
-      <c r="O6" s="449"/>
-      <c r="P6" s="450"/>
-      <c r="Q6" s="448" t="s">
+      <c r="O6" s="433"/>
+      <c r="P6" s="434"/>
+      <c r="Q6" s="432" t="s">
         <v>430</v>
       </c>
-      <c r="R6" s="449"/>
-      <c r="S6" s="450"/>
-      <c r="T6" s="448" t="s">
+      <c r="R6" s="433"/>
+      <c r="S6" s="434"/>
+      <c r="T6" s="432" t="s">
         <v>429</v>
       </c>
-      <c r="U6" s="449"/>
-      <c r="V6" s="450"/>
-      <c r="W6" s="429" t="s">
+      <c r="U6" s="433"/>
+      <c r="V6" s="434"/>
+      <c r="W6" s="435" t="s">
         <v>428</v>
       </c>
-      <c r="X6" s="424"/>
-      <c r="Y6" s="425"/>
-      <c r="Z6" s="429" t="s">
+      <c r="X6" s="436"/>
+      <c r="Y6" s="437"/>
+      <c r="Z6" s="435" t="s">
         <v>427</v>
       </c>
-      <c r="AA6" s="424"/>
-      <c r="AB6" s="425"/>
-      <c r="AC6" s="429" t="s">
+      <c r="AA6" s="436"/>
+      <c r="AB6" s="437"/>
+      <c r="AC6" s="435" t="s">
         <v>426</v>
       </c>
-      <c r="AD6" s="424"/>
-      <c r="AE6" s="425"/>
-      <c r="AF6" s="429" t="s">
+      <c r="AD6" s="436"/>
+      <c r="AE6" s="437"/>
+      <c r="AF6" s="435" t="s">
         <v>425</v>
       </c>
-      <c r="AG6" s="424"/>
-      <c r="AH6" s="425"/>
+      <c r="AG6" s="436"/>
+      <c r="AH6" s="437"/>
     </row>
     <row r="7" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="457" t="str">
+      <c r="E7" s="443" t="str">
         <f>G14</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="458"/>
-      <c r="G7" s="459"/>
-      <c r="H7" s="445" t="str">
+      <c r="F7" s="444"/>
+      <c r="G7" s="445"/>
+      <c r="H7" s="429" t="str">
         <f>J14</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="446"/>
-      <c r="J7" s="447"/>
-      <c r="K7" s="445" t="str">
+      <c r="I7" s="430"/>
+      <c r="J7" s="431"/>
+      <c r="K7" s="429" t="str">
         <f>M14</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="446"/>
-      <c r="M7" s="447"/>
-      <c r="N7" s="445"/>
-      <c r="O7" s="446"/>
-      <c r="P7" s="447"/>
-      <c r="Q7" s="460" t="str">
+      <c r="L7" s="430"/>
+      <c r="M7" s="431"/>
+      <c r="N7" s="429"/>
+      <c r="O7" s="430"/>
+      <c r="P7" s="431"/>
+      <c r="Q7" s="449" t="str">
         <f>N14</f>
         <v>ㆣ</v>
       </c>
-      <c r="R7" s="455"/>
-      <c r="S7" s="456"/>
-      <c r="T7" s="445" t="str">
+      <c r="R7" s="427"/>
+      <c r="S7" s="428"/>
+      <c r="T7" s="429" t="str">
         <f>R14</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="446"/>
-      <c r="V7" s="447"/>
-      <c r="W7" s="430" t="str">
+      <c r="U7" s="430"/>
+      <c r="V7" s="431"/>
+      <c r="W7" s="446" t="str">
         <f>H20</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="431"/>
-      <c r="Y7" s="432"/>
-      <c r="Z7" s="430" t="str">
+      <c r="X7" s="447"/>
+      <c r="Y7" s="448"/>
+      <c r="Z7" s="446" t="str">
         <f>N20</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="431"/>
-      <c r="AB7" s="432"/>
-      <c r="AC7" s="430"/>
-      <c r="AD7" s="431"/>
-      <c r="AE7" s="432"/>
-      <c r="AF7" s="434"/>
-      <c r="AG7" s="431"/>
-      <c r="AH7" s="432"/>
+      <c r="AA7" s="447"/>
+      <c r="AB7" s="448"/>
+      <c r="AC7" s="446"/>
+      <c r="AD7" s="447"/>
+      <c r="AE7" s="448"/>
+      <c r="AF7" s="465"/>
+      <c r="AG7" s="447"/>
+      <c r="AH7" s="448"/>
       <c r="AQ7" s="156" t="s">
         <v>424</v>
       </c>
@@ -10745,112 +10778,112 @@
       </c>
     </row>
     <row r="8" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="448" t="s">
+      <c r="F8" s="432" t="s">
         <v>422</v>
       </c>
-      <c r="G8" s="449"/>
-      <c r="H8" s="450"/>
-      <c r="I8" s="448" t="s">
+      <c r="G8" s="433"/>
+      <c r="H8" s="434"/>
+      <c r="I8" s="432" t="s">
         <v>421</v>
       </c>
-      <c r="J8" s="449"/>
-      <c r="K8" s="450"/>
-      <c r="L8" s="448" t="s">
+      <c r="J8" s="433"/>
+      <c r="K8" s="434"/>
+      <c r="L8" s="432" t="s">
         <v>420</v>
       </c>
-      <c r="M8" s="449"/>
-      <c r="N8" s="450"/>
-      <c r="O8" s="448" t="s">
+      <c r="M8" s="433"/>
+      <c r="N8" s="434"/>
+      <c r="O8" s="432" t="s">
         <v>419</v>
       </c>
-      <c r="P8" s="449"/>
-      <c r="Q8" s="450"/>
-      <c r="R8" s="448" t="s">
+      <c r="P8" s="433"/>
+      <c r="Q8" s="434"/>
+      <c r="R8" s="432" t="s">
         <v>418</v>
       </c>
-      <c r="S8" s="449"/>
-      <c r="T8" s="450"/>
-      <c r="U8" s="448" t="s">
+      <c r="S8" s="433"/>
+      <c r="T8" s="434"/>
+      <c r="U8" s="432" t="s">
         <v>377</v>
       </c>
-      <c r="V8" s="449"/>
-      <c r="W8" s="450"/>
-      <c r="X8" s="429" t="s">
+      <c r="V8" s="433"/>
+      <c r="W8" s="434"/>
+      <c r="X8" s="435" t="s">
         <v>417</v>
       </c>
-      <c r="Y8" s="424"/>
-      <c r="Z8" s="425"/>
-      <c r="AA8" s="429" t="s">
+      <c r="Y8" s="436"/>
+      <c r="Z8" s="437"/>
+      <c r="AA8" s="435" t="s">
         <v>416</v>
       </c>
-      <c r="AB8" s="424"/>
-      <c r="AC8" s="425"/>
-      <c r="AD8" s="429" t="s">
+      <c r="AB8" s="436"/>
+      <c r="AC8" s="437"/>
+      <c r="AD8" s="435" t="s">
         <v>415</v>
       </c>
-      <c r="AE8" s="424"/>
-      <c r="AF8" s="425"/>
-      <c r="AG8" s="433" t="s">
+      <c r="AE8" s="436"/>
+      <c r="AF8" s="437"/>
+      <c r="AG8" s="464" t="s">
         <v>414</v>
       </c>
-      <c r="AH8" s="424"/>
-      <c r="AI8" s="425"/>
+      <c r="AH8" s="436"/>
+      <c r="AI8" s="437"/>
     </row>
     <row r="9" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="F9" s="445"/>
-      <c r="G9" s="461"/>
-      <c r="H9" s="462"/>
-      <c r="I9" s="445" t="str">
+      <c r="F9" s="429"/>
+      <c r="G9" s="441"/>
+      <c r="H9" s="442"/>
+      <c r="I9" s="429" t="str">
         <f>K14</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="446"/>
-      <c r="K9" s="447"/>
-      <c r="L9" s="445" t="str">
+      <c r="J9" s="430"/>
+      <c r="K9" s="431"/>
+      <c r="L9" s="429" t="str">
         <f>P14</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="446"/>
-      <c r="N9" s="447"/>
-      <c r="O9" s="457" t="str">
+      <c r="M9" s="430"/>
+      <c r="N9" s="431"/>
+      <c r="O9" s="443" t="str">
         <f>O14</f>
         <v>ㄫ</v>
       </c>
-      <c r="P9" s="458"/>
-      <c r="Q9" s="459"/>
-      <c r="R9" s="454" t="str">
+      <c r="P9" s="444"/>
+      <c r="Q9" s="445"/>
+      <c r="R9" s="426" t="str">
         <f>S14</f>
         <v>ㆡ</v>
       </c>
-      <c r="S9" s="455"/>
-      <c r="T9" s="456"/>
-      <c r="U9" s="445" t="str">
+      <c r="S9" s="427"/>
+      <c r="T9" s="428"/>
+      <c r="U9" s="429" t="str">
         <f>T14</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="446"/>
-      <c r="W9" s="447"/>
-      <c r="X9" s="435" t="str">
+      <c r="V9" s="430"/>
+      <c r="W9" s="431"/>
+      <c r="X9" s="438" t="str">
         <f>O20</f>
         <v>ㆬ</v>
       </c>
-      <c r="Y9" s="436"/>
-      <c r="Z9" s="437"/>
-      <c r="AA9" s="430" t="str">
+      <c r="Y9" s="439"/>
+      <c r="Z9" s="440"/>
+      <c r="AA9" s="446" t="str">
         <f>J20</f>
         <v>ㄝ</v>
       </c>
-      <c r="AB9" s="431"/>
-      <c r="AC9" s="432"/>
-      <c r="AD9" s="441" t="str">
+      <c r="AB9" s="447"/>
+      <c r="AC9" s="448"/>
+      <c r="AD9" s="459" t="str">
         <f>Q20</f>
         <v>ㄥ</v>
       </c>
-      <c r="AE9" s="436"/>
-      <c r="AF9" s="437"/>
-      <c r="AG9" s="430"/>
-      <c r="AH9" s="431"/>
-      <c r="AI9" s="432"/>
+      <c r="AE9" s="439"/>
+      <c r="AF9" s="440"/>
+      <c r="AG9" s="446"/>
+      <c r="AH9" s="447"/>
+      <c r="AI9" s="448"/>
     </row>
     <row r="12" spans="2:44">
       <c r="Z12" s="155"/>
@@ -11301,20 +11334,58 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
     <mergeCell ref="T7:V7"/>
     <mergeCell ref="W7:Y7"/>
     <mergeCell ref="T6:V6"/>
@@ -11331,58 +11402,20 @@
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14905,7 +14938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842FC8D3-BD49-4755-A366-F34F5BF47C9D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
   <sheetData/>
@@ -18100,8 +18133,8 @@
       <c r="AN1" s="77"/>
       <c r="AO1" s="77"/>
       <c r="AP1" s="77"/>
-      <c r="AQ1" s="489"/>
-      <c r="AR1" s="489"/>
+      <c r="AQ1" s="494"/>
+      <c r="AR1" s="494"/>
       <c r="AS1" s="77"/>
       <c r="AT1" s="77"/>
       <c r="AU1" s="77"/>
@@ -19418,66 +19451,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C11" s="490" t="str">
+      <c r="C11" s="492" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D11" s="490"/>
-      <c r="E11" s="490"/>
-      <c r="F11" s="490"/>
-      <c r="G11" s="490"/>
-      <c r="H11" s="490"/>
-      <c r="I11" s="490"/>
-      <c r="J11" s="490"/>
-      <c r="K11" s="490"/>
-      <c r="L11" s="490"/>
-      <c r="M11" s="490"/>
-      <c r="N11" s="490"/>
-      <c r="O11" s="490"/>
-      <c r="P11" s="490"/>
-      <c r="Q11" s="490"/>
-      <c r="R11" s="490"/>
-      <c r="S11" s="490"/>
-      <c r="T11" s="490"/>
-      <c r="U11" s="490"/>
-      <c r="V11" s="490"/>
-      <c r="W11" s="490"/>
-      <c r="X11" s="490"/>
-      <c r="Y11" s="490"/>
-      <c r="Z11" s="490"/>
+      <c r="D11" s="492"/>
+      <c r="E11" s="492"/>
+      <c r="F11" s="492"/>
+      <c r="G11" s="492"/>
+      <c r="H11" s="492"/>
+      <c r="I11" s="492"/>
+      <c r="J11" s="492"/>
+      <c r="K11" s="492"/>
+      <c r="L11" s="492"/>
+      <c r="M11" s="492"/>
+      <c r="N11" s="492"/>
+      <c r="O11" s="492"/>
+      <c r="P11" s="492"/>
+      <c r="Q11" s="492"/>
+      <c r="R11" s="492"/>
+      <c r="S11" s="492"/>
+      <c r="T11" s="492"/>
+      <c r="U11" s="492"/>
+      <c r="V11" s="492"/>
+      <c r="W11" s="492"/>
+      <c r="X11" s="492"/>
+      <c r="Y11" s="492"/>
+      <c r="Z11" s="492"/>
     </row>
     <row r="12" spans="1:47" s="76" customFormat="1" ht="23.25">
       <c r="B12" s="85" t="str">
         <f>B8</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C12" s="488" t="str">
+      <c r="C12" s="493" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D12" s="488"/>
-      <c r="E12" s="488"/>
-      <c r="F12" s="488"/>
-      <c r="G12" s="488"/>
-      <c r="H12" s="488"/>
-      <c r="I12" s="488"/>
-      <c r="J12" s="488"/>
-      <c r="K12" s="488"/>
-      <c r="L12" s="488"/>
-      <c r="M12" s="488"/>
-      <c r="N12" s="488"/>
-      <c r="O12" s="488"/>
-      <c r="P12" s="488"/>
-      <c r="Q12" s="488"/>
-      <c r="R12" s="488"/>
-      <c r="S12" s="488"/>
-      <c r="T12" s="488"/>
-      <c r="U12" s="488"/>
-      <c r="V12" s="488"/>
-      <c r="W12" s="488"/>
-      <c r="X12" s="488"/>
-      <c r="Y12" s="488"/>
-      <c r="Z12" s="488"/>
+      <c r="D12" s="493"/>
+      <c r="E12" s="493"/>
+      <c r="F12" s="493"/>
+      <c r="G12" s="493"/>
+      <c r="H12" s="493"/>
+      <c r="I12" s="493"/>
+      <c r="J12" s="493"/>
+      <c r="K12" s="493"/>
+      <c r="L12" s="493"/>
+      <c r="M12" s="493"/>
+      <c r="N12" s="493"/>
+      <c r="O12" s="493"/>
+      <c r="P12" s="493"/>
+      <c r="Q12" s="493"/>
+      <c r="R12" s="493"/>
+      <c r="S12" s="493"/>
+      <c r="T12" s="493"/>
+      <c r="U12" s="493"/>
+      <c r="V12" s="493"/>
+      <c r="W12" s="493"/>
+      <c r="X12" s="493"/>
+      <c r="Y12" s="493"/>
+      <c r="Z12" s="493"/>
     </row>
     <row r="13" spans="1:47" s="76" customFormat="1" ht="23.25"/>
     <row r="14" spans="1:47" s="76" customFormat="1" ht="38.25">
@@ -19527,66 +19560,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C19" s="490" t="str">
+      <c r="C19" s="492" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D19" s="490"/>
-      <c r="E19" s="490"/>
-      <c r="F19" s="490"/>
-      <c r="G19" s="490"/>
-      <c r="H19" s="490"/>
-      <c r="I19" s="490"/>
-      <c r="J19" s="490"/>
-      <c r="K19" s="490"/>
-      <c r="L19" s="490"/>
-      <c r="M19" s="490"/>
-      <c r="N19" s="490"/>
-      <c r="O19" s="490"/>
-      <c r="P19" s="490"/>
-      <c r="Q19" s="490"/>
-      <c r="R19" s="490"/>
-      <c r="S19" s="490"/>
-      <c r="T19" s="490"/>
-      <c r="U19" s="490"/>
-      <c r="V19" s="490"/>
-      <c r="W19" s="490"/>
-      <c r="X19" s="490"/>
-      <c r="Y19" s="490"/>
-      <c r="Z19" s="490"/>
+      <c r="D19" s="492"/>
+      <c r="E19" s="492"/>
+      <c r="F19" s="492"/>
+      <c r="G19" s="492"/>
+      <c r="H19" s="492"/>
+      <c r="I19" s="492"/>
+      <c r="J19" s="492"/>
+      <c r="K19" s="492"/>
+      <c r="L19" s="492"/>
+      <c r="M19" s="492"/>
+      <c r="N19" s="492"/>
+      <c r="O19" s="492"/>
+      <c r="P19" s="492"/>
+      <c r="Q19" s="492"/>
+      <c r="R19" s="492"/>
+      <c r="S19" s="492"/>
+      <c r="T19" s="492"/>
+      <c r="U19" s="492"/>
+      <c r="V19" s="492"/>
+      <c r="W19" s="492"/>
+      <c r="X19" s="492"/>
+      <c r="Y19" s="492"/>
+      <c r="Z19" s="492"/>
     </row>
     <row r="20" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B20" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C20" s="488" t="str">
+      <c r="C20" s="493" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D20" s="488"/>
-      <c r="E20" s="488"/>
-      <c r="F20" s="488"/>
-      <c r="G20" s="488"/>
-      <c r="H20" s="488"/>
-      <c r="I20" s="488"/>
-      <c r="J20" s="488"/>
-      <c r="K20" s="488"/>
-      <c r="L20" s="488"/>
-      <c r="M20" s="488"/>
-      <c r="N20" s="488"/>
-      <c r="O20" s="488"/>
-      <c r="P20" s="488"/>
-      <c r="Q20" s="488"/>
-      <c r="R20" s="488"/>
-      <c r="S20" s="488"/>
-      <c r="T20" s="488"/>
-      <c r="U20" s="488"/>
-      <c r="V20" s="488"/>
-      <c r="W20" s="488"/>
-      <c r="X20" s="488"/>
-      <c r="Y20" s="488"/>
-      <c r="Z20" s="488"/>
+      <c r="D20" s="493"/>
+      <c r="E20" s="493"/>
+      <c r="F20" s="493"/>
+      <c r="G20" s="493"/>
+      <c r="H20" s="493"/>
+      <c r="I20" s="493"/>
+      <c r="J20" s="493"/>
+      <c r="K20" s="493"/>
+      <c r="L20" s="493"/>
+      <c r="M20" s="493"/>
+      <c r="N20" s="493"/>
+      <c r="O20" s="493"/>
+      <c r="P20" s="493"/>
+      <c r="Q20" s="493"/>
+      <c r="R20" s="493"/>
+      <c r="S20" s="493"/>
+      <c r="T20" s="493"/>
+      <c r="U20" s="493"/>
+      <c r="V20" s="493"/>
+      <c r="W20" s="493"/>
+      <c r="X20" s="493"/>
+      <c r="Y20" s="493"/>
+      <c r="Z20" s="493"/>
     </row>
     <row r="21" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="22" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -19636,66 +19669,66 @@
         <f>B12</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C27" s="490" t="str">
+      <c r="C27" s="492" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D27" s="490"/>
-      <c r="E27" s="490"/>
-      <c r="F27" s="490"/>
-      <c r="G27" s="490"/>
-      <c r="H27" s="490"/>
-      <c r="I27" s="490"/>
-      <c r="J27" s="490"/>
-      <c r="K27" s="490"/>
-      <c r="L27" s="490"/>
-      <c r="M27" s="490"/>
-      <c r="N27" s="490"/>
-      <c r="O27" s="490"/>
-      <c r="P27" s="490"/>
-      <c r="Q27" s="490"/>
-      <c r="R27" s="490"/>
-      <c r="S27" s="490"/>
-      <c r="T27" s="490"/>
-      <c r="U27" s="490"/>
-      <c r="V27" s="490"/>
-      <c r="W27" s="490"/>
-      <c r="X27" s="490"/>
-      <c r="Y27" s="490"/>
-      <c r="Z27" s="490"/>
+      <c r="D27" s="492"/>
+      <c r="E27" s="492"/>
+      <c r="F27" s="492"/>
+      <c r="G27" s="492"/>
+      <c r="H27" s="492"/>
+      <c r="I27" s="492"/>
+      <c r="J27" s="492"/>
+      <c r="K27" s="492"/>
+      <c r="L27" s="492"/>
+      <c r="M27" s="492"/>
+      <c r="N27" s="492"/>
+      <c r="O27" s="492"/>
+      <c r="P27" s="492"/>
+      <c r="Q27" s="492"/>
+      <c r="R27" s="492"/>
+      <c r="S27" s="492"/>
+      <c r="T27" s="492"/>
+      <c r="U27" s="492"/>
+      <c r="V27" s="492"/>
+      <c r="W27" s="492"/>
+      <c r="X27" s="492"/>
+      <c r="Y27" s="492"/>
+      <c r="Z27" s="492"/>
     </row>
     <row r="28" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B28" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C28" s="488" t="str">
+      <c r="C28" s="493" t="str">
         <f>_xlfn.CONCAT(C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D28" s="488"/>
-      <c r="E28" s="488"/>
-      <c r="F28" s="488"/>
-      <c r="G28" s="488"/>
-      <c r="H28" s="488"/>
-      <c r="I28" s="488"/>
-      <c r="J28" s="488"/>
-      <c r="K28" s="488"/>
-      <c r="L28" s="488"/>
-      <c r="M28" s="488"/>
-      <c r="N28" s="488"/>
-      <c r="O28" s="488"/>
-      <c r="P28" s="488"/>
-      <c r="Q28" s="488"/>
-      <c r="R28" s="488"/>
-      <c r="S28" s="488"/>
-      <c r="T28" s="488"/>
-      <c r="U28" s="488"/>
-      <c r="V28" s="488"/>
-      <c r="W28" s="488"/>
-      <c r="X28" s="488"/>
-      <c r="Y28" s="488"/>
-      <c r="Z28" s="488"/>
+      <c r="D28" s="493"/>
+      <c r="E28" s="493"/>
+      <c r="F28" s="493"/>
+      <c r="G28" s="493"/>
+      <c r="H28" s="493"/>
+      <c r="I28" s="493"/>
+      <c r="J28" s="493"/>
+      <c r="K28" s="493"/>
+      <c r="L28" s="493"/>
+      <c r="M28" s="493"/>
+      <c r="N28" s="493"/>
+      <c r="O28" s="493"/>
+      <c r="P28" s="493"/>
+      <c r="Q28" s="493"/>
+      <c r="R28" s="493"/>
+      <c r="S28" s="493"/>
+      <c r="T28" s="493"/>
+      <c r="U28" s="493"/>
+      <c r="V28" s="493"/>
+      <c r="W28" s="493"/>
+      <c r="X28" s="493"/>
+      <c r="Y28" s="493"/>
+      <c r="Z28" s="493"/>
     </row>
     <row r="29" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="30" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -20022,8 +20055,8 @@
       <c r="AN38" s="77"/>
       <c r="AO38" s="77"/>
       <c r="AP38" s="77"/>
-      <c r="AQ38" s="489"/>
-      <c r="AR38" s="489"/>
+      <c r="AQ38" s="494"/>
+      <c r="AR38" s="494"/>
       <c r="AS38" s="77"/>
       <c r="AT38" s="77"/>
       <c r="AU38" s="77"/>
@@ -20031,17 +20064,17 @@
     <row r="39" spans="1:47" s="76" customFormat="1" ht="23.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B23:Z23"/>
-    <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="AQ38:AR38"/>
     <mergeCell ref="C20:Z20"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="C12:Z12"/>
     <mergeCell ref="B15:Z15"/>
     <mergeCell ref="C19:Z19"/>
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="AQ38:AR38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20077,161 +20110,161 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="492" t="s">
+      <c r="B2" s="516" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="492"/>
-      <c r="D2" s="492"/>
-      <c r="E2" s="492" t="s">
+      <c r="C2" s="516"/>
+      <c r="D2" s="516"/>
+      <c r="E2" s="516" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="492"/>
-      <c r="G2" s="492" t="s">
+      <c r="F2" s="516"/>
+      <c r="G2" s="516" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="492"/>
-      <c r="I2" s="492" t="s">
+      <c r="H2" s="516"/>
+      <c r="I2" s="516" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="492"/>
-      <c r="K2" s="492" t="s">
+      <c r="J2" s="516"/>
+      <c r="K2" s="516" t="s">
         <v>207</v>
       </c>
-      <c r="L2" s="492"/>
-      <c r="M2" s="492"/>
-      <c r="N2" s="492"/>
-      <c r="O2" s="492" t="s">
+      <c r="L2" s="516"/>
+      <c r="M2" s="516"/>
+      <c r="N2" s="516"/>
+      <c r="O2" s="516" t="s">
         <v>208</v>
       </c>
-      <c r="P2" s="492"/>
+      <c r="P2" s="516"/>
     </row>
     <row r="3" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="492" t="s">
+      <c r="B3" s="516" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="492"/>
-      <c r="D3" s="492"/>
-      <c r="E3" s="492" t="s">
+      <c r="C3" s="516"/>
+      <c r="D3" s="516"/>
+      <c r="E3" s="516" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="492"/>
-      <c r="G3" s="492" t="s">
+      <c r="F3" s="516"/>
+      <c r="G3" s="516" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="492"/>
-      <c r="I3" s="492" t="s">
+      <c r="H3" s="516"/>
+      <c r="I3" s="516" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="492"/>
-      <c r="K3" s="492" t="s">
+      <c r="J3" s="516"/>
+      <c r="K3" s="516" t="s">
         <v>212</v>
       </c>
-      <c r="L3" s="492"/>
-      <c r="M3" s="492"/>
-      <c r="N3" s="492"/>
-      <c r="O3" s="492" t="s">
+      <c r="L3" s="516"/>
+      <c r="M3" s="516"/>
+      <c r="N3" s="516"/>
+      <c r="O3" s="516" t="s">
         <v>208</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="516"/>
     </row>
     <row r="4" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="492" t="s">
+      <c r="B4" s="516" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="492"/>
-      <c r="D4" s="492"/>
-      <c r="E4" s="492" t="s">
+      <c r="C4" s="516"/>
+      <c r="D4" s="516"/>
+      <c r="E4" s="516" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="492"/>
-      <c r="G4" s="492" t="s">
+      <c r="F4" s="516"/>
+      <c r="G4" s="516" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="492"/>
-      <c r="I4" s="492" t="s">
+      <c r="H4" s="516"/>
+      <c r="I4" s="516" t="s">
         <v>211</v>
       </c>
-      <c r="J4" s="492"/>
-      <c r="K4" s="492" t="s">
+      <c r="J4" s="516"/>
+      <c r="K4" s="516" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="492"/>
-      <c r="M4" s="492"/>
-      <c r="N4" s="492"/>
-      <c r="O4" s="492" t="s">
+      <c r="L4" s="516"/>
+      <c r="M4" s="516"/>
+      <c r="N4" s="516"/>
+      <c r="O4" s="516" t="s">
         <v>208</v>
       </c>
-      <c r="P4" s="492"/>
+      <c r="P4" s="516"/>
     </row>
     <row r="5" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="492" t="s">
+      <c r="B5" s="516" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="492"/>
-      <c r="D5" s="492"/>
-      <c r="E5" s="492" t="s">
+      <c r="C5" s="516"/>
+      <c r="D5" s="516"/>
+      <c r="E5" s="516" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="492"/>
-      <c r="G5" s="492" t="s">
+      <c r="F5" s="516"/>
+      <c r="G5" s="516" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="492"/>
-      <c r="I5" s="492" t="s">
+      <c r="H5" s="516"/>
+      <c r="I5" s="516" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="492"/>
-      <c r="K5" s="492" t="s">
+      <c r="J5" s="516"/>
+      <c r="K5" s="516" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="492"/>
-      <c r="M5" s="492"/>
-      <c r="N5" s="492"/>
-      <c r="O5" s="492" t="s">
+      <c r="L5" s="516"/>
+      <c r="M5" s="516"/>
+      <c r="N5" s="516"/>
+      <c r="O5" s="516" t="s">
         <v>220</v>
       </c>
-      <c r="P5" s="492"/>
+      <c r="P5" s="516"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
-      <c r="B7" s="501" t="s">
+      <c r="B7" s="509" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="502"/>
-      <c r="D7" s="503"/>
-      <c r="E7" s="504" t="s">
+      <c r="C7" s="510"/>
+      <c r="D7" s="511"/>
+      <c r="E7" s="512" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="505"/>
-      <c r="G7" s="493" t="s">
+      <c r="F7" s="513"/>
+      <c r="G7" s="504" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="494"/>
-      <c r="I7" s="506" t="s">
+      <c r="H7" s="505"/>
+      <c r="I7" s="514" t="s">
         <v>223</v>
       </c>
-      <c r="J7" s="507"/>
-      <c r="K7" s="493" t="s">
+      <c r="J7" s="515"/>
+      <c r="K7" s="504" t="s">
         <v>224</v>
       </c>
-      <c r="L7" s="494"/>
-      <c r="M7" s="493" t="s">
+      <c r="L7" s="505"/>
+      <c r="M7" s="504" t="s">
         <v>225</v>
       </c>
-      <c r="N7" s="494"/>
-      <c r="O7" s="493" t="s">
+      <c r="N7" s="505"/>
+      <c r="O7" s="504" t="s">
         <v>226</v>
       </c>
-      <c r="P7" s="494"/>
+      <c r="P7" s="505"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
       <c r="B8" s="495" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="496" t="s">
+      <c r="C8" s="506" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="497" t="s">
+      <c r="D8" s="507" t="s">
         <v>229</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -20265,8 +20298,8 @@
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
       <c r="B9" s="495"/>
-      <c r="C9" s="496"/>
-      <c r="D9" s="497"/>
+      <c r="C9" s="506"/>
+      <c r="D9" s="507"/>
       <c r="E9" s="24" t="s">
         <v>232</v>
       </c>
@@ -20298,8 +20331,8 @@
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
       <c r="B10" s="495"/>
-      <c r="C10" s="496"/>
-      <c r="D10" s="498" t="s">
+      <c r="C10" s="506"/>
+      <c r="D10" s="503" t="s">
         <v>240</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -20329,8 +20362,8 @@
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
       <c r="B11" s="495"/>
-      <c r="C11" s="496"/>
-      <c r="D11" s="498"/>
+      <c r="C11" s="506"/>
+      <c r="D11" s="503"/>
       <c r="E11" s="24" t="s">
         <v>241</v>
       </c>
@@ -20358,10 +20391,10 @@
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
       <c r="B12" s="495"/>
-      <c r="C12" s="499" t="s">
+      <c r="C12" s="496" t="s">
         <v>247</v>
       </c>
-      <c r="D12" s="500" t="s">
+      <c r="D12" s="508" t="s">
         <v>248</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -20387,8 +20420,8 @@
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
       <c r="B13" s="495"/>
-      <c r="C13" s="499"/>
-      <c r="D13" s="500"/>
+      <c r="C13" s="496"/>
+      <c r="D13" s="508"/>
       <c r="E13" s="24" t="s">
         <v>192</v>
       </c>
@@ -20414,10 +20447,10 @@
       <c r="B14" s="495" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="508" t="s">
+      <c r="C14" s="501" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="509" t="s">
+      <c r="D14" s="497" t="s">
         <v>229</v>
       </c>
       <c r="E14" s="19"/>
@@ -20443,8 +20476,8 @@
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
       <c r="B15" s="495"/>
-      <c r="C15" s="508"/>
-      <c r="D15" s="509"/>
+      <c r="C15" s="501"/>
+      <c r="D15" s="497"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
@@ -20468,8 +20501,8 @@
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
       <c r="B16" s="495"/>
-      <c r="C16" s="508"/>
-      <c r="D16" s="498" t="s">
+      <c r="C16" s="501"/>
+      <c r="D16" s="503" t="s">
         <v>240</v>
       </c>
       <c r="E16" s="19"/>
@@ -20495,8 +20528,8 @@
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
       <c r="B17" s="495"/>
-      <c r="C17" s="508"/>
-      <c r="D17" s="498"/>
+      <c r="C17" s="501"/>
+      <c r="D17" s="503"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -20520,10 +20553,10 @@
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
       <c r="B18" s="495"/>
-      <c r="C18" s="499" t="s">
+      <c r="C18" s="496" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="509" t="s">
+      <c r="D18" s="497" t="s">
         <v>248</v>
       </c>
       <c r="E18" s="19"/>
@@ -20549,8 +20582,8 @@
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
       <c r="B19" s="495"/>
-      <c r="C19" s="499"/>
-      <c r="D19" s="509"/>
+      <c r="C19" s="496"/>
+      <c r="D19" s="497"/>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -20576,10 +20609,10 @@
       <c r="B20" s="495" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="508" t="s">
+      <c r="C20" s="501" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="509" t="s">
+      <c r="D20" s="497" t="s">
         <v>248</v>
       </c>
       <c r="E20" s="19"/>
@@ -20605,8 +20638,8 @@
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
       <c r="B21" s="495"/>
-      <c r="C21" s="508"/>
-      <c r="D21" s="509"/>
+      <c r="C21" s="501"/>
+      <c r="D21" s="497"/>
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
@@ -20630,8 +20663,8 @@
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
       <c r="B22" s="495"/>
-      <c r="C22" s="508"/>
-      <c r="D22" s="510" t="s">
+      <c r="C22" s="501"/>
+      <c r="D22" s="502" t="s">
         <v>275</v>
       </c>
       <c r="E22" s="19"/>
@@ -20653,8 +20686,8 @@
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
       <c r="B23" s="495"/>
-      <c r="C23" s="508"/>
-      <c r="D23" s="510"/>
+      <c r="C23" s="501"/>
+      <c r="D23" s="502"/>
       <c r="E23" s="24"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -20676,10 +20709,10 @@
       <c r="B24" s="495" t="s">
         <v>278</v>
       </c>
-      <c r="C24" s="499" t="s">
+      <c r="C24" s="496" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="509" t="s">
+      <c r="D24" s="497" t="s">
         <v>248</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -20709,8 +20742,8 @@
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
       <c r="B25" s="495"/>
-      <c r="C25" s="499"/>
-      <c r="D25" s="509"/>
+      <c r="C25" s="496"/>
+      <c r="D25" s="497"/>
       <c r="E25" s="24" t="s">
         <v>191</v>
       </c>
@@ -20740,10 +20773,10 @@
       <c r="B26" s="495" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="499" t="s">
+      <c r="C26" s="496" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="509" t="s">
+      <c r="D26" s="497" t="s">
         <v>248</v>
       </c>
       <c r="E26" s="19"/>
@@ -20765,8 +20798,8 @@
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
       <c r="B27" s="495"/>
-      <c r="C27" s="499"/>
-      <c r="D27" s="509"/>
+      <c r="C27" s="496"/>
+      <c r="D27" s="497"/>
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26" t="s">
@@ -20788,23 +20821,23 @@
       <c r="B29" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C29" s="511" t="s">
+      <c r="C29" s="498" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="511"/>
-      <c r="E29" s="511"/>
-      <c r="F29" s="511"/>
-      <c r="G29" s="511"/>
-      <c r="H29" s="511"/>
-      <c r="I29" s="511"/>
-      <c r="J29" s="511"/>
-      <c r="K29" s="511"/>
-      <c r="L29" s="511"/>
-      <c r="M29" s="511"/>
-      <c r="N29" s="511"/>
-      <c r="O29" s="511"/>
-      <c r="P29" s="511"/>
-      <c r="Q29" s="511"/>
+      <c r="D29" s="498"/>
+      <c r="E29" s="498"/>
+      <c r="F29" s="498"/>
+      <c r="G29" s="498"/>
+      <c r="H29" s="498"/>
+      <c r="I29" s="498"/>
+      <c r="J29" s="498"/>
+      <c r="K29" s="498"/>
+      <c r="L29" s="498"/>
+      <c r="M29" s="498"/>
+      <c r="N29" s="498"/>
+      <c r="O29" s="498"/>
+      <c r="P29" s="498"/>
+      <c r="Q29" s="498"/>
     </row>
     <row r="30" spans="2:17" s="31" customFormat="1" ht="25.5">
       <c r="B30" s="29"/>
@@ -20848,10 +20881,10 @@
       <c r="B32" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="512" t="s">
+      <c r="C32" s="499" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="513"/>
+      <c r="D32" s="500"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="32" t="s">
@@ -20866,37 +20899,20 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -20911,20 +20927,37 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -20956,8 +20989,8 @@
   </sheetPr>
   <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BF31" sqref="BF31"/>
     </sheetView>
   </sheetViews>
@@ -21878,36 +21911,36 @@
       <c r="F8" s="323" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="463" t="s">
+      <c r="G8" s="471" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="464"/>
-      <c r="I8" s="465"/>
-      <c r="J8" s="466" t="s">
+      <c r="H8" s="472"/>
+      <c r="I8" s="473"/>
+      <c r="J8" s="481" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="467"/>
-      <c r="L8" s="468"/>
-      <c r="M8" s="466" t="s">
+      <c r="K8" s="482"/>
+      <c r="L8" s="483"/>
+      <c r="M8" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="467"/>
-      <c r="O8" s="468"/>
-      <c r="P8" s="469" t="s">
+      <c r="N8" s="482"/>
+      <c r="O8" s="483"/>
+      <c r="P8" s="484" t="s">
         <v>689</v>
       </c>
-      <c r="Q8" s="470"/>
-      <c r="R8" s="471"/>
-      <c r="S8" s="466" t="s">
+      <c r="Q8" s="485"/>
+      <c r="R8" s="486"/>
+      <c r="S8" s="481" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="467"/>
-      <c r="U8" s="468"/>
-      <c r="V8" s="466" t="s">
+      <c r="T8" s="482"/>
+      <c r="U8" s="483"/>
+      <c r="V8" s="481" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="467"/>
-      <c r="X8" s="468"/>
+      <c r="W8" s="482"/>
+      <c r="X8" s="483"/>
       <c r="Y8" s="325" t="s">
         <v>107</v>
       </c>
@@ -21926,21 +21959,21 @@
       <c r="AD8" s="326" t="s">
         <v>907</v>
       </c>
-      <c r="AE8" s="481" t="s">
+      <c r="AE8" s="474" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="482"/>
-      <c r="AG8" s="483"/>
-      <c r="AH8" s="472" t="s">
+      <c r="AF8" s="475"/>
+      <c r="AG8" s="476"/>
+      <c r="AH8" s="468" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="473"/>
-      <c r="AJ8" s="474"/>
-      <c r="AK8" s="472" t="s">
+      <c r="AI8" s="469"/>
+      <c r="AJ8" s="470"/>
+      <c r="AK8" s="468" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="473"/>
-      <c r="AM8" s="474"/>
+      <c r="AL8" s="469"/>
+      <c r="AM8" s="470"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -21952,7 +21985,7 @@
       <c r="AV8" s="2"/>
       <c r="AW8" s="57"/>
       <c r="AX8" s="57"/>
-      <c r="AZ8" s="514"/>
+      <c r="AZ8" s="423"/>
       <c r="BA8" s="337" t="s">
         <v>103</v>
       </c>
@@ -21997,38 +22030,38 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="475" t="s">
+      <c r="J9" s="477" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="476"/>
+      <c r="K9" s="478"/>
       <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="475" t="s">
+      <c r="M9" s="477" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="476"/>
+      <c r="N9" s="478"/>
       <c r="O9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="477" t="s">
+      <c r="P9" s="479" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="478"/>
+      <c r="Q9" s="480"/>
       <c r="R9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="475" t="s">
+      <c r="S9" s="477" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="476"/>
+      <c r="T9" s="478"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="477" t="s">
+      <c r="V9" s="479" t="s">
         <v>909</v>
       </c>
-      <c r="W9" s="478"/>
+      <c r="W9" s="480"/>
       <c r="X9" s="6" t="s">
         <v>729</v>
       </c>
@@ -22062,8 +22095,8 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="53"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="479"/>
-      <c r="AL9" s="480"/>
+      <c r="AK9" s="466"/>
+      <c r="AL9" s="467"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -22076,7 +22109,7 @@
       <c r="AV9" s="4"/>
       <c r="AW9" s="57"/>
       <c r="AX9" s="57"/>
-      <c r="AZ9" s="516" t="str">
+      <c r="AZ9" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"1": ㄅ</v>
       </c>
@@ -22117,16 +22150,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="463" t="s">
+      <c r="E10" s="471" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="464"/>
-      <c r="G10" s="465"/>
-      <c r="H10" s="463" t="s">
+      <c r="F10" s="472"/>
+      <c r="G10" s="473"/>
+      <c r="H10" s="471" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="464"/>
-      <c r="J10" s="465"/>
+      <c r="I10" s="472"/>
+      <c r="J10" s="473"/>
       <c r="K10" s="324" t="s">
         <v>44</v>
       </c>
@@ -22136,16 +22169,16 @@
       <c r="M10" s="323" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="463" t="s">
+      <c r="N10" s="471" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="464"/>
-      <c r="P10" s="465"/>
-      <c r="Q10" s="463" t="s">
+      <c r="O10" s="472"/>
+      <c r="P10" s="473"/>
+      <c r="Q10" s="471" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="464"/>
-      <c r="S10" s="465"/>
+      <c r="R10" s="472"/>
+      <c r="S10" s="473"/>
       <c r="T10" s="324" t="s">
         <v>106</v>
       </c>
@@ -22173,37 +22206,37 @@
       <c r="AB10" s="326" t="s">
         <v>905</v>
       </c>
-      <c r="AC10" s="481" t="s">
+      <c r="AC10" s="474" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="482"/>
-      <c r="AE10" s="483"/>
-      <c r="AF10" s="481" t="s">
+      <c r="AD10" s="475"/>
+      <c r="AE10" s="476"/>
+      <c r="AF10" s="474" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="482"/>
-      <c r="AH10" s="483"/>
-      <c r="AI10" s="481" t="s">
+      <c r="AG10" s="475"/>
+      <c r="AH10" s="476"/>
+      <c r="AI10" s="474" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="482"/>
-      <c r="AK10" s="483"/>
-      <c r="AL10" s="481" t="s">
+      <c r="AJ10" s="475"/>
+      <c r="AK10" s="476"/>
+      <c r="AL10" s="474" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="482"/>
-      <c r="AN10" s="483"/>
-      <c r="AO10" s="472" t="s">
+      <c r="AM10" s="475"/>
+      <c r="AN10" s="476"/>
+      <c r="AO10" s="468" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="473"/>
-      <c r="AQ10" s="474"/>
+      <c r="AP10" s="469"/>
+      <c r="AQ10" s="470"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="57"/>
       <c r="AX10" s="57"/>
       <c r="AY10"/>
-      <c r="AZ10" s="516" t="str">
+      <c r="AZ10" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"!": ㆠ</v>
       </c>
@@ -22317,21 +22350,21 @@
       <c r="AH11" s="128" t="s">
         <v>329</v>
       </c>
-      <c r="AI11" s="479"/>
-      <c r="AJ11" s="480"/>
+      <c r="AI11" s="466"/>
+      <c r="AJ11" s="467"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="479"/>
-      <c r="AM11" s="480"/>
+      <c r="AL11" s="466"/>
+      <c r="AM11" s="467"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="479"/>
-      <c r="AP11" s="480"/>
+      <c r="AO11" s="466"/>
+      <c r="AP11" s="467"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="57"/>
       <c r="AX11" s="57"/>
       <c r="AY11"/>
-      <c r="AZ11" s="516" t="str">
+      <c r="AZ11" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"q": ㄆ</v>
       </c>
@@ -22370,36 +22403,36 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="463" t="s">
+      <c r="F12" s="471" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="464"/>
-      <c r="H12" s="465"/>
-      <c r="I12" s="463" t="s">
+      <c r="G12" s="472"/>
+      <c r="H12" s="473"/>
+      <c r="I12" s="471" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="464"/>
-      <c r="K12" s="465"/>
-      <c r="L12" s="463" t="s">
+      <c r="J12" s="472"/>
+      <c r="K12" s="473"/>
+      <c r="L12" s="471" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="464"/>
-      <c r="N12" s="465"/>
-      <c r="O12" s="463" t="s">
+      <c r="M12" s="472"/>
+      <c r="N12" s="473"/>
+      <c r="O12" s="471" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="464"/>
-      <c r="Q12" s="465"/>
-      <c r="R12" s="463" t="s">
+      <c r="P12" s="472"/>
+      <c r="Q12" s="473"/>
+      <c r="R12" s="471" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="464"/>
-      <c r="T12" s="465"/>
-      <c r="U12" s="463" t="s">
+      <c r="S12" s="472"/>
+      <c r="T12" s="473"/>
+      <c r="U12" s="471" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="464"/>
-      <c r="W12" s="465"/>
+      <c r="V12" s="472"/>
+      <c r="W12" s="473"/>
       <c r="X12" s="325" t="s">
         <v>117</v>
       </c>
@@ -22409,11 +22442,11 @@
       <c r="Z12" s="326" t="s">
         <v>605</v>
       </c>
-      <c r="AA12" s="481" t="s">
+      <c r="AA12" s="474" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="482"/>
-      <c r="AC12" s="483"/>
+      <c r="AB12" s="475"/>
+      <c r="AC12" s="476"/>
       <c r="AD12" s="325" t="s">
         <v>112</v>
       </c>
@@ -22423,16 +22456,16 @@
       <c r="AF12" s="326" t="s">
         <v>908</v>
       </c>
-      <c r="AG12" s="481" t="s">
+      <c r="AG12" s="474" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="482"/>
-      <c r="AI12" s="483"/>
-      <c r="AJ12" s="472" t="s">
+      <c r="AH12" s="475"/>
+      <c r="AI12" s="476"/>
+      <c r="AJ12" s="468" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="473"/>
-      <c r="AL12" s="474"/>
+      <c r="AK12" s="469"/>
+      <c r="AL12" s="470"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -22446,7 +22479,7 @@
       <c r="AW12" s="57"/>
       <c r="AX12" s="57"/>
       <c r="AY12"/>
-      <c r="AZ12" s="516" t="str">
+      <c r="AZ12" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"a": ㄇ</v>
       </c>
@@ -22561,8 +22594,8 @@
       <c r="AI13" s="128" t="s">
         <v>609</v>
       </c>
-      <c r="AJ13" s="479"/>
-      <c r="AK13" s="480"/>
+      <c r="AJ13" s="466"/>
+      <c r="AK13" s="467"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -22577,7 +22610,7 @@
       <c r="AW13" s="57"/>
       <c r="AX13" s="57"/>
       <c r="AY13"/>
-      <c r="AZ13" s="516" t="str">
+      <c r="AZ13" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"2": ㄉ</v>
       </c>
@@ -22617,41 +22650,41 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="463" t="s">
+      <c r="G14" s="471" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="464"/>
-      <c r="I14" s="465"/>
-      <c r="J14" s="463" t="s">
+      <c r="H14" s="472"/>
+      <c r="I14" s="473"/>
+      <c r="J14" s="471" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="464"/>
-      <c r="L14" s="465"/>
-      <c r="M14" s="463" t="s">
+      <c r="K14" s="472"/>
+      <c r="L14" s="473"/>
+      <c r="M14" s="471" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="464"/>
-      <c r="O14" s="465"/>
-      <c r="P14" s="463" t="s">
+      <c r="N14" s="472"/>
+      <c r="O14" s="473"/>
+      <c r="P14" s="471" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="464"/>
-      <c r="R14" s="465"/>
-      <c r="S14" s="463" t="s">
+      <c r="Q14" s="472"/>
+      <c r="R14" s="473"/>
+      <c r="S14" s="471" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="464"/>
-      <c r="U14" s="465"/>
-      <c r="V14" s="463" t="s">
+      <c r="T14" s="472"/>
+      <c r="U14" s="473"/>
+      <c r="V14" s="471" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="464"/>
-      <c r="X14" s="465"/>
-      <c r="Y14" s="481" t="s">
+      <c r="W14" s="472"/>
+      <c r="X14" s="473"/>
+      <c r="Y14" s="474" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="482"/>
-      <c r="AA14" s="483"/>
+      <c r="Z14" s="475"/>
+      <c r="AA14" s="476"/>
       <c r="AB14" s="325" t="s">
         <v>110</v>
       </c>
@@ -22661,16 +22694,16 @@
       <c r="AD14" s="326" t="s">
         <v>906</v>
       </c>
-      <c r="AE14" s="481" t="s">
+      <c r="AE14" s="474" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="482"/>
-      <c r="AG14" s="483"/>
-      <c r="AH14" s="472" t="s">
+      <c r="AF14" s="475"/>
+      <c r="AG14" s="476"/>
+      <c r="AH14" s="468" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="473"/>
-      <c r="AJ14" s="474"/>
+      <c r="AI14" s="469"/>
+      <c r="AJ14" s="470"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -22686,7 +22719,7 @@
       <c r="AW14" s="57"/>
       <c r="AX14" s="57"/>
       <c r="AY14"/>
-      <c r="AZ14" s="516" t="str">
+      <c r="AZ14" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"w": ㄊ</v>
       </c>
@@ -22804,7 +22837,7 @@
       <c r="AV15" s="4"/>
       <c r="AW15" s="57"/>
       <c r="AX15" s="57"/>
-      <c r="AZ15" s="516" t="str">
+      <c r="AZ15" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"s": ㄋ</v>
       </c>
@@ -22889,7 +22922,7 @@
       <c r="AW16" s="57"/>
       <c r="AX16" s="57"/>
       <c r="AY16"/>
-      <c r="AZ16" s="516" t="str">
+      <c r="AZ16" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"x": ㄌ</v>
       </c>
@@ -22929,7 +22962,7 @@
       <c r="AW17" s="57"/>
       <c r="AX17" s="57"/>
       <c r="AY17"/>
-      <c r="AZ17" s="516" t="str">
+      <c r="AZ17" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"e": ㄍ</v>
       </c>
@@ -23015,7 +23048,7 @@
       <c r="AW18" s="57"/>
       <c r="AX18" s="57"/>
       <c r="AY18"/>
-      <c r="AZ18" s="516" t="str">
+      <c r="AZ18" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"E": ㆣ</v>
       </c>
@@ -23113,7 +23146,7 @@
       <c r="AW19" s="57"/>
       <c r="AX19" s="57"/>
       <c r="AY19"/>
-      <c r="AZ19" s="516" t="str">
+      <c r="AZ19" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"d": ㄎ</v>
       </c>
@@ -23209,7 +23242,7 @@
       <c r="AW20" s="57"/>
       <c r="AX20" s="57"/>
       <c r="AY20"/>
-      <c r="AZ20" s="516" t="str">
+      <c r="AZ20" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"c": ㄏ</v>
       </c>
@@ -23296,7 +23329,7 @@
       <c r="AW21" s="57"/>
       <c r="AX21" s="57"/>
       <c r="AY21"/>
-      <c r="AZ21" s="516" t="str">
+      <c r="AZ21" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"v": ㄫ</v>
       </c>
@@ -23380,7 +23413,7 @@
       <c r="AW22" s="57"/>
       <c r="AX22" s="57"/>
       <c r="AY22"/>
-      <c r="AZ22" s="516" t="str">
+      <c r="AZ22" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"y": ㄗ</v>
       </c>
@@ -23466,7 +23499,7 @@
       <c r="AW23" s="57"/>
       <c r="AX23" s="57"/>
       <c r="AY23"/>
-      <c r="AZ23" s="516" t="str">
+      <c r="AZ23" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"Y": ㆡ</v>
       </c>
@@ -23554,7 +23587,7 @@
       <c r="AW24" s="57"/>
       <c r="AX24" s="57"/>
       <c r="AY24"/>
-      <c r="AZ24" s="516" t="str">
+      <c r="AZ24" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"h": ㄘ</v>
       </c>
@@ -23647,7 +23680,7 @@
       <c r="AV25" s="60"/>
       <c r="AW25" s="57"/>
       <c r="AX25" s="57"/>
-      <c r="AZ25" s="516" t="str">
+      <c r="AZ25" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"n": ㄙ</v>
       </c>
@@ -23739,7 +23772,7 @@
       <c r="AV26" s="60"/>
       <c r="AW26" s="57"/>
       <c r="AX26" s="57"/>
-      <c r="AZ26" s="516" t="str">
+      <c r="AZ26" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"u": ㄧ</v>
       </c>
@@ -23825,7 +23858,7 @@
       <c r="AV27" s="60"/>
       <c r="AW27" s="57"/>
       <c r="AX27" s="57"/>
-      <c r="AZ27" s="516" t="str">
+      <c r="AZ27" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"j": ㄨ</v>
       </c>
@@ -23908,7 +23941,7 @@
       <c r="AV28" s="60"/>
       <c r="AW28" s="57"/>
       <c r="AX28" s="57"/>
-      <c r="AZ28" s="516" t="str">
+      <c r="AZ28" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"m": ㆬ</v>
       </c>
@@ -23993,7 +24026,7 @@
       <c r="AV29" s="60"/>
       <c r="AW29" s="57"/>
       <c r="AX29" s="57"/>
-      <c r="AZ29" s="516" t="str">
+      <c r="AZ29" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"8": ㄚ</v>
       </c>
@@ -24081,7 +24114,7 @@
       <c r="AW30" s="60"/>
       <c r="AX30" s="60"/>
       <c r="AY30" s="60"/>
-      <c r="AZ30" s="516" t="str">
+      <c r="AZ30" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"i": ㆦ</v>
       </c>
@@ -24174,7 +24207,7 @@
       <c r="AW31" s="60"/>
       <c r="AX31" s="60"/>
       <c r="AY31" s="60"/>
-      <c r="AZ31" s="516" t="str">
+      <c r="AZ31" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"k": ㄜ</v>
       </c>
@@ -24268,7 +24301,7 @@
       <c r="AW32" s="60"/>
       <c r="AX32" s="60"/>
       <c r="AY32" s="60"/>
-      <c r="AZ32" s="516" t="str">
+      <c r="AZ32" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>",": ㄝ</v>
       </c>
@@ -24355,7 +24388,7 @@
       <c r="AW33" s="60"/>
       <c r="AX33" s="60"/>
       <c r="AY33" s="60"/>
-      <c r="AZ33" s="516" t="str">
+      <c r="AZ33" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"p": ㄣ</v>
       </c>
@@ -24439,7 +24472,7 @@
       <c r="AW34" s="60"/>
       <c r="AX34" s="60"/>
       <c r="AY34" s="60"/>
-      <c r="AZ34" s="516" t="str">
+      <c r="AZ34" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"/": ㄥ</v>
       </c>
@@ -24523,7 +24556,7 @@
       <c r="AW35" s="62"/>
       <c r="AX35" s="62"/>
       <c r="AY35" s="62"/>
-      <c r="AZ35" s="516" t="str">
+      <c r="AZ35" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"9": ㄞ</v>
       </c>
@@ -24607,7 +24640,7 @@
       <c r="AW36" s="62"/>
       <c r="AX36" s="62"/>
       <c r="AY36" s="62"/>
-      <c r="AZ36" s="516" t="str">
+      <c r="AZ36" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"l": ㄠ</v>
       </c>
@@ -24691,7 +24724,7 @@
       <c r="AW37" s="62"/>
       <c r="AX37" s="62"/>
       <c r="AY37" s="62"/>
-      <c r="AZ37" s="516" t="str">
+      <c r="AZ37" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"0": ㄢ</v>
       </c>
@@ -24775,7 +24808,7 @@
       <c r="AW38" s="62"/>
       <c r="AX38" s="62"/>
       <c r="AY38" s="62"/>
-      <c r="AZ38" s="516" t="str">
+      <c r="AZ38" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>";": ㄤ</v>
       </c>
@@ -24859,7 +24892,7 @@
       <c r="AW39" s="62"/>
       <c r="AX39" s="62"/>
       <c r="AY39" s="62"/>
-      <c r="AZ39" s="516" t="str">
+      <c r="AZ39" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"U": ㆪ</v>
       </c>
@@ -24911,7 +24944,7 @@
       <c r="AW40" s="62"/>
       <c r="AX40" s="62"/>
       <c r="AY40" s="62"/>
-      <c r="AZ40" s="516" t="str">
+      <c r="AZ40" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"J": ㆫ</v>
       </c>
@@ -24996,7 +25029,7 @@
       <c r="AW41" s="62"/>
       <c r="AX41" s="62"/>
       <c r="AY41" s="62"/>
-      <c r="AZ41" s="516" t="str">
+      <c r="AZ41" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"*": ㆩ</v>
       </c>
@@ -25080,7 +25113,7 @@
       <c r="AW42" s="62"/>
       <c r="AX42" s="62"/>
       <c r="AY42" s="62"/>
-      <c r="AZ42" s="516" t="str">
+      <c r="AZ42" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"I": ㆧ</v>
       </c>
@@ -25164,7 +25197,7 @@
       <c r="AW43" s="62"/>
       <c r="AX43" s="62"/>
       <c r="AY43" s="62"/>
-      <c r="AZ43" s="516" t="str">
+      <c r="AZ43" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"&lt;": ㆥ</v>
       </c>
@@ -25248,7 +25281,7 @@
       <c r="AW44" s="62"/>
       <c r="AX44" s="62"/>
       <c r="AY44" s="62"/>
-      <c r="AZ44" s="516" t="str">
+      <c r="AZ44" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"(": ㆮ</v>
       </c>
@@ -25332,7 +25365,7 @@
       <c r="AW45" s="62"/>
       <c r="AX45" s="62"/>
       <c r="AY45" s="62"/>
-      <c r="AZ45" s="516" t="str">
+      <c r="AZ45" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"L": ㆯ</v>
       </c>
@@ -25416,7 +25449,7 @@
       <c r="AW46" s="62"/>
       <c r="AX46" s="62"/>
       <c r="AY46" s="62"/>
-      <c r="AZ46" s="516" t="str">
+      <c r="AZ46" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"r": ㆲ</v>
       </c>
@@ -25500,7 +25533,7 @@
       <c r="AW47" s="62"/>
       <c r="AX47" s="62"/>
       <c r="AY47" s="62"/>
-      <c r="AZ47" s="516" t="str">
+      <c r="AZ47" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"f": ㆱ</v>
       </c>
@@ -25584,7 +25617,7 @@
       <c r="AW48" s="62"/>
       <c r="AX48" s="62"/>
       <c r="AY48" s="62"/>
-      <c r="AZ48" s="516" t="str">
+      <c r="AZ48" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"v": ㆰ</v>
       </c>
@@ -25668,7 +25701,7 @@
       <c r="AW49" s="62"/>
       <c r="AX49" s="62"/>
       <c r="AY49" s="62"/>
-      <c r="AZ49" s="516" t="str">
+      <c r="AZ49" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"z": 声</v>
       </c>
@@ -25752,7 +25785,7 @@
       <c r="AW50" s="62"/>
       <c r="AX50" s="62"/>
       <c r="AY50" s="62"/>
-      <c r="AZ50" s="516" t="str">
+      <c r="AZ50" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>" ": ˉ</v>
       </c>
@@ -25836,7 +25869,7 @@
       <c r="AW51" s="62"/>
       <c r="AX51" s="62"/>
       <c r="AY51" s="62"/>
-      <c r="AZ51" s="516" t="str">
+      <c r="AZ51" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"4": ˋ</v>
       </c>
@@ -25920,7 +25953,7 @@
       <c r="AW52" s="62"/>
       <c r="AX52" s="62"/>
       <c r="AY52" s="62"/>
-      <c r="AZ52" s="516" t="str">
+      <c r="AZ52" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"3": ˪</v>
       </c>
@@ -26004,7 +26037,7 @@
       <c r="AW53" s="62"/>
       <c r="AX53" s="62"/>
       <c r="AY53" s="62"/>
-      <c r="AZ53" s="516" t="str">
+      <c r="AZ53" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"6": ˊ</v>
       </c>
@@ -26088,7 +26121,7 @@
       <c r="AW54" s="62"/>
       <c r="AX54" s="62"/>
       <c r="AY54" s="62"/>
-      <c r="AZ54" s="516" t="str">
+      <c r="AZ54" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"5": ˫</v>
       </c>
@@ -26172,7 +26205,7 @@
       <c r="AW55" s="62"/>
       <c r="AX55" s="62"/>
       <c r="AY55" s="62"/>
-      <c r="AZ55" s="516" t="str">
+      <c r="AZ55" s="425" t="str">
         <f xml:space="preserve"> """" &amp; 表格7[[#This Row],[按鍵字元]] &amp; """: " &amp; 表格7[[#This Row],[注音符號]]</f>
         <v>"7": ．</v>
       </c>
@@ -26256,7 +26289,7 @@
       <c r="AW56" s="62"/>
       <c r="AX56" s="62"/>
       <c r="AY56" s="62"/>
-      <c r="AZ56" s="515"/>
+      <c r="AZ56" s="424"/>
       <c r="BA56" s="173">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -26329,7 +26362,7 @@
       <c r="AW57" s="62"/>
       <c r="AX57" s="62"/>
       <c r="AY57" s="62"/>
-      <c r="AZ57" s="515"/>
+      <c r="AZ57" s="424"/>
       <c r="BA57" s="173">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -26402,7 +26435,7 @@
       <c r="AW58" s="62"/>
       <c r="AX58" s="62"/>
       <c r="AY58" s="62"/>
-      <c r="AZ58" s="515"/>
+      <c r="AZ58" s="424"/>
       <c r="BA58" s="173">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -26514,6 +26547,42 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="AO10:AQ10"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="AJ12:AL12"/>
     <mergeCell ref="AJ13:AK13"/>
     <mergeCell ref="AH14:AJ14"/>
     <mergeCell ref="G14:I14"/>
@@ -26524,42 +26593,6 @@
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="Y14:AA14"/>
     <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AG12:AI12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31141,36 +31174,36 @@
         <v>755</v>
       </c>
       <c r="F8" s="323"/>
-      <c r="G8" s="463" t="s">
+      <c r="G8" s="471" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="464"/>
-      <c r="I8" s="465"/>
-      <c r="J8" s="466" t="s">
+      <c r="H8" s="472"/>
+      <c r="I8" s="473"/>
+      <c r="J8" s="481" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="467"/>
-      <c r="L8" s="468"/>
-      <c r="M8" s="466" t="s">
+      <c r="K8" s="482"/>
+      <c r="L8" s="483"/>
+      <c r="M8" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="467"/>
-      <c r="O8" s="468"/>
+      <c r="N8" s="482"/>
+      <c r="O8" s="483"/>
       <c r="P8" s="324"/>
       <c r="Q8" s="346" t="s">
         <v>809</v>
       </c>
       <c r="R8" s="323"/>
-      <c r="S8" s="466" t="s">
+      <c r="S8" s="481" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="467"/>
-      <c r="U8" s="468"/>
-      <c r="V8" s="466" t="s">
+      <c r="T8" s="482"/>
+      <c r="U8" s="483"/>
+      <c r="V8" s="481" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="467"/>
-      <c r="X8" s="468"/>
+      <c r="W8" s="482"/>
+      <c r="X8" s="483"/>
       <c r="Y8" s="325"/>
       <c r="Z8" s="321" t="s">
         <v>757</v>
@@ -31181,21 +31214,21 @@
         <v>756</v>
       </c>
       <c r="AD8" s="326"/>
-      <c r="AE8" s="481" t="s">
+      <c r="AE8" s="474" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="482"/>
-      <c r="AG8" s="483"/>
-      <c r="AH8" s="472" t="s">
+      <c r="AF8" s="475"/>
+      <c r="AG8" s="476"/>
+      <c r="AH8" s="468" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="473"/>
-      <c r="AJ8" s="474"/>
-      <c r="AK8" s="472" t="s">
+      <c r="AI8" s="469"/>
+      <c r="AJ8" s="470"/>
+      <c r="AK8" s="468" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="473"/>
-      <c r="AM8" s="474"/>
+      <c r="AL8" s="469"/>
+      <c r="AM8" s="470"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -31273,19 +31306,19 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="484" t="str">
+      <c r="J9" s="487" t="str">
         <f ca="1">AQ4</f>
         <v>ˇ</v>
       </c>
-      <c r="K9" s="485"/>
+      <c r="K9" s="488"/>
       <c r="L9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="486" t="str">
+      <c r="M9" s="489" t="str">
         <f ca="1">AR4</f>
         <v>ˋ</v>
       </c>
-      <c r="N9" s="487"/>
+      <c r="N9" s="490"/>
       <c r="O9" s="353" t="s">
         <v>890</v>
       </c>
@@ -31301,19 +31334,19 @@
         <f ca="1">R6</f>
         <v>zh</v>
       </c>
-      <c r="S9" s="486" t="str">
+      <c r="S9" s="489" t="str">
         <f ca="1">AP4</f>
         <v>ˊ</v>
       </c>
-      <c r="T9" s="487"/>
+      <c r="T9" s="490"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="477" t="str">
+      <c r="V9" s="479" t="str">
         <f ca="1">AS4</f>
         <v>˙</v>
       </c>
-      <c r="W9" s="476"/>
+      <c r="W9" s="478"/>
       <c r="X9" s="353" t="s">
         <v>891</v>
       </c>
@@ -31362,8 +31395,8 @@
         <f ca="1">AN6</f>
         <v>er</v>
       </c>
-      <c r="AK9" s="479"/>
-      <c r="AL9" s="480"/>
+      <c r="AK9" s="466"/>
+      <c r="AL9" s="467"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -31430,31 +31463,31 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="463" t="s">
+      <c r="E10" s="471" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="464"/>
-      <c r="G10" s="465"/>
-      <c r="H10" s="463" t="s">
+      <c r="F10" s="472"/>
+      <c r="G10" s="473"/>
+      <c r="H10" s="471" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="464"/>
-      <c r="J10" s="465"/>
+      <c r="I10" s="472"/>
+      <c r="J10" s="473"/>
       <c r="K10" s="324"/>
       <c r="L10" s="320" t="s">
         <v>746</v>
       </c>
       <c r="M10" s="323"/>
-      <c r="N10" s="463" t="s">
+      <c r="N10" s="471" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="464"/>
-      <c r="P10" s="465"/>
-      <c r="Q10" s="463" t="s">
+      <c r="O10" s="472"/>
+      <c r="P10" s="473"/>
+      <c r="Q10" s="471" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="464"/>
-      <c r="S10" s="465"/>
+      <c r="R10" s="472"/>
+      <c r="S10" s="473"/>
       <c r="T10" s="324"/>
       <c r="U10" s="320" t="s">
         <v>306</v>
@@ -31470,31 +31503,31 @@
         <v>615</v>
       </c>
       <c r="AB10" s="326"/>
-      <c r="AC10" s="481" t="s">
+      <c r="AC10" s="474" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="482"/>
-      <c r="AE10" s="483"/>
-      <c r="AF10" s="481" t="s">
+      <c r="AD10" s="475"/>
+      <c r="AE10" s="476"/>
+      <c r="AF10" s="474" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="482"/>
-      <c r="AH10" s="483"/>
-      <c r="AI10" s="481" t="s">
+      <c r="AG10" s="475"/>
+      <c r="AH10" s="476"/>
+      <c r="AI10" s="474" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="482"/>
-      <c r="AK10" s="483"/>
-      <c r="AL10" s="481" t="s">
+      <c r="AJ10" s="475"/>
+      <c r="AK10" s="476"/>
+      <c r="AL10" s="474" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="482"/>
-      <c r="AN10" s="483"/>
-      <c r="AO10" s="472" t="s">
+      <c r="AM10" s="475"/>
+      <c r="AN10" s="476"/>
+      <c r="AO10" s="468" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="473"/>
-      <c r="AQ10" s="474"/>
+      <c r="AP10" s="469"/>
+      <c r="AQ10" s="470"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="173" cm="1">
         <f t="array" ref="AV10" xml:space="preserve"> ROW() - ROW($8:$8)</f>
@@ -31672,14 +31705,14 @@
         <f ca="1">AK6</f>
         <v>enn</v>
       </c>
-      <c r="AI11" s="479"/>
-      <c r="AJ11" s="480"/>
+      <c r="AI11" s="466"/>
+      <c r="AJ11" s="467"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="479"/>
-      <c r="AM11" s="480"/>
+      <c r="AL11" s="466"/>
+      <c r="AM11" s="467"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="479"/>
-      <c r="AP11" s="480"/>
+      <c r="AO11" s="466"/>
+      <c r="AP11" s="467"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="173" cm="1">
@@ -31740,61 +31773,61 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="463" t="s">
+      <c r="F12" s="471" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="464"/>
-      <c r="H12" s="465"/>
-      <c r="I12" s="463" t="s">
+      <c r="G12" s="472"/>
+      <c r="H12" s="473"/>
+      <c r="I12" s="471" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="464"/>
-      <c r="K12" s="465"/>
-      <c r="L12" s="463" t="s">
+      <c r="J12" s="472"/>
+      <c r="K12" s="473"/>
+      <c r="L12" s="471" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="464"/>
-      <c r="N12" s="465"/>
-      <c r="O12" s="463" t="s">
+      <c r="M12" s="472"/>
+      <c r="N12" s="473"/>
+      <c r="O12" s="471" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="464"/>
-      <c r="Q12" s="465"/>
-      <c r="R12" s="463" t="s">
+      <c r="P12" s="472"/>
+      <c r="Q12" s="473"/>
+      <c r="R12" s="471" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="464"/>
-      <c r="T12" s="465"/>
-      <c r="U12" s="463" t="s">
+      <c r="S12" s="472"/>
+      <c r="T12" s="473"/>
+      <c r="U12" s="471" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="464"/>
-      <c r="W12" s="465"/>
+      <c r="V12" s="472"/>
+      <c r="W12" s="473"/>
       <c r="X12" s="325"/>
       <c r="Y12" s="321" t="s">
         <v>742</v>
       </c>
       <c r="Z12" s="326"/>
-      <c r="AA12" s="481" t="s">
+      <c r="AA12" s="474" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="482"/>
-      <c r="AC12" s="483"/>
+      <c r="AB12" s="475"/>
+      <c r="AC12" s="476"/>
       <c r="AD12" s="325"/>
       <c r="AE12" s="321" t="s">
         <v>724</v>
       </c>
       <c r="AF12" s="326"/>
-      <c r="AG12" s="481" t="s">
+      <c r="AG12" s="474" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="482"/>
-      <c r="AI12" s="483"/>
-      <c r="AJ12" s="472" t="s">
+      <c r="AH12" s="475"/>
+      <c r="AI12" s="476"/>
+      <c r="AJ12" s="468" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="473"/>
-      <c r="AL12" s="474"/>
+      <c r="AK12" s="469"/>
+      <c r="AL12" s="470"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -31981,8 +32014,8 @@
         <f ca="1">AL6</f>
         <v>ang</v>
       </c>
-      <c r="AJ13" s="479"/>
-      <c r="AK13" s="480"/>
+      <c r="AJ13" s="466"/>
+      <c r="AK13" s="467"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -32052,56 +32085,56 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="463" t="s">
+      <c r="G14" s="471" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="464"/>
-      <c r="I14" s="465"/>
-      <c r="J14" s="463" t="s">
+      <c r="H14" s="472"/>
+      <c r="I14" s="473"/>
+      <c r="J14" s="471" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="464"/>
-      <c r="L14" s="465"/>
-      <c r="M14" s="463" t="s">
+      <c r="K14" s="472"/>
+      <c r="L14" s="473"/>
+      <c r="M14" s="471" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="464"/>
-      <c r="O14" s="465"/>
-      <c r="P14" s="463" t="s">
+      <c r="N14" s="472"/>
+      <c r="O14" s="473"/>
+      <c r="P14" s="471" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="464"/>
-      <c r="R14" s="465"/>
-      <c r="S14" s="463" t="s">
+      <c r="Q14" s="472"/>
+      <c r="R14" s="473"/>
+      <c r="S14" s="471" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="464"/>
-      <c r="U14" s="465"/>
-      <c r="V14" s="463" t="s">
+      <c r="T14" s="472"/>
+      <c r="U14" s="473"/>
+      <c r="V14" s="471" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="464"/>
-      <c r="X14" s="465"/>
-      <c r="Y14" s="481" t="s">
+      <c r="W14" s="472"/>
+      <c r="X14" s="473"/>
+      <c r="Y14" s="474" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="482"/>
-      <c r="AA14" s="483"/>
+      <c r="Z14" s="475"/>
+      <c r="AA14" s="476"/>
       <c r="AB14" s="325"/>
       <c r="AC14" s="321" t="s">
         <v>758</v>
       </c>
       <c r="AD14" s="326"/>
-      <c r="AE14" s="481" t="s">
+      <c r="AE14" s="474" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="482"/>
-      <c r="AG14" s="483"/>
-      <c r="AH14" s="472" t="s">
+      <c r="AF14" s="475"/>
+      <c r="AG14" s="476"/>
+      <c r="AH14" s="468" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="473"/>
-      <c r="AJ14" s="474"/>
+      <c r="AI14" s="469"/>
+      <c r="AJ14" s="470"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -36093,24 +36126,16 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
     <mergeCell ref="AO10:AQ10"/>
     <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AL11:AM11"/>
@@ -36127,16 +36152,24 @@
     <mergeCell ref="AF10:AH10"/>
     <mergeCell ref="AI10:AK10"/>
     <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
